--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC5FF59-128F-47B2-A2B9-7C023E73AE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9E7E92-EEC7-4A87-BF96-2DC5F4ED3588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="23">
   <si>
     <t>Calathea</t>
   </si>
@@ -80,6 +91,21 @@
   <si>
     <t>date</t>
   </si>
+  <si>
+    <t>hat angefangen blätter zu gelben und blätter haben angefangen sich zu krümmen</t>
+  </si>
+  <si>
+    <t>es hat sich links ein neuer ast angefangen zu bilden</t>
+  </si>
+  <si>
+    <t>compo 1pw</t>
+  </si>
+  <si>
+    <t>0,5 compo 1pw</t>
+  </si>
+  <si>
+    <t>days without fertilizer</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +146,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,18 +180,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -428,78 +481,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS108"/>
+  <dimension ref="A1:AT163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="10" width="42" customWidth="1"/>
-    <col min="11" max="11" width="27" customWidth="1"/>
-    <col min="12" max="12" width="42" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.28515625" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" customWidth="1"/>
-    <col min="17" max="18" width="37.5703125" customWidth="1"/>
-    <col min="19" max="19" width="38.85546875" customWidth="1"/>
-    <col min="20" max="20" width="37" customWidth="1"/>
-    <col min="21" max="21" width="31.5703125" customWidth="1"/>
-    <col min="22" max="22" width="27.85546875" customWidth="1"/>
-    <col min="23" max="23" width="26.42578125" customWidth="1"/>
-    <col min="24" max="24" width="29" customWidth="1"/>
-    <col min="25" max="27" width="37.28515625" customWidth="1"/>
-    <col min="28" max="28" width="36.42578125" customWidth="1"/>
-    <col min="29" max="29" width="28.5703125" customWidth="1"/>
-    <col min="30" max="31" width="30.140625" customWidth="1"/>
-    <col min="32" max="32" width="30.28515625" customWidth="1"/>
-    <col min="33" max="33" width="31" customWidth="1"/>
-    <col min="34" max="34" width="39.140625" customWidth="1"/>
-    <col min="35" max="35" width="41.7109375" customWidth="1"/>
-    <col min="36" max="36" width="39.5703125" customWidth="1"/>
-    <col min="37" max="37" width="29.42578125" customWidth="1"/>
-    <col min="38" max="38" width="30.28515625" customWidth="1"/>
-    <col min="39" max="39" width="25.85546875" customWidth="1"/>
-    <col min="40" max="40" width="30" customWidth="1"/>
-    <col min="41" max="41" width="37.7109375" customWidth="1"/>
-    <col min="42" max="42" width="36" customWidth="1"/>
-    <col min="43" max="43" width="37.7109375" customWidth="1"/>
-    <col min="44" max="44" width="37.28515625" customWidth="1"/>
-    <col min="45" max="45" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="74.28515625" customWidth="1"/>
+    <col min="10" max="11" width="42" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="42" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" customWidth="1"/>
+    <col min="18" max="19" width="37.5703125" customWidth="1"/>
+    <col min="20" max="20" width="38.85546875" customWidth="1"/>
+    <col min="21" max="21" width="37" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" customWidth="1"/>
+    <col min="24" max="24" width="26.42578125" customWidth="1"/>
+    <col min="25" max="25" width="29" customWidth="1"/>
+    <col min="26" max="28" width="37.28515625" customWidth="1"/>
+    <col min="29" max="29" width="36.42578125" customWidth="1"/>
+    <col min="30" max="30" width="28.5703125" customWidth="1"/>
+    <col min="31" max="32" width="30.140625" customWidth="1"/>
+    <col min="33" max="33" width="30.28515625" customWidth="1"/>
+    <col min="34" max="34" width="31" customWidth="1"/>
+    <col min="35" max="35" width="39.140625" customWidth="1"/>
+    <col min="36" max="36" width="41.7109375" customWidth="1"/>
+    <col min="37" max="37" width="39.5703125" customWidth="1"/>
+    <col min="38" max="38" width="29.42578125" customWidth="1"/>
+    <col min="39" max="39" width="30.28515625" customWidth="1"/>
+    <col min="40" max="40" width="25.85546875" customWidth="1"/>
+    <col min="41" max="41" width="30" customWidth="1"/>
+    <col min="42" max="42" width="37.7109375" customWidth="1"/>
+    <col min="43" max="43" width="36" customWidth="1"/>
+    <col min="44" max="44" width="37.7109375" customWidth="1"/>
+    <col min="45" max="45" width="37.28515625" customWidth="1"/>
+    <col min="46" max="46" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:46" s="6" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45774</v>
       </c>
@@ -516,21 +578,22 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="Q2"/>
-      <c r="S2"/>
+      <c r="M2"/>
+      <c r="R2"/>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="Y2"/>
-      <c r="AC2"/>
-      <c r="AH2"/>
+      <c r="V2"/>
+      <c r="Z2"/>
+      <c r="AD2"/>
       <c r="AI2"/>
       <c r="AJ2"/>
       <c r="AK2"/>
-      <c r="AO2"/>
-      <c r="AR2"/>
+      <c r="AL2"/>
+      <c r="AP2"/>
       <c r="AS2"/>
-    </row>
-    <row r="3" spans="1:45" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AT2"/>
+    </row>
+    <row r="3" spans="1:46" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45774</v>
       </c>
@@ -547,16 +610,19 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="AA3" s="3"/>
-    </row>
-    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45774</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
@@ -566,17 +632,22 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="M4"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>45774</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -585,17 +656,22 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="M5"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>45774</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -604,17 +680,22 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="M6"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>45774</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -623,9 +704,10 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="AA7" s="3"/>
-    </row>
-    <row r="8" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M7"/>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45774</v>
       </c>
@@ -642,17 +724,22 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="M8"/>
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>45774</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -661,24 +748,26 @@
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="M9"/>
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:46" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45775</v>
       </c>
@@ -686,51 +775,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>45775</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45775</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45775</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45775</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45775</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45775</v>
       </c>
@@ -738,80 +841,105 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45775</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>45776</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
         <v>150</v>
       </c>
       <c r="E20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45776</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45776</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45776</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45776</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45776</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45776</v>
       </c>
@@ -819,637 +947,1612 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45776</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>45777</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>45777</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>45777</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6">
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
         <v>200</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="G31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>45777</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>45777</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33"/>
-      <c r="F33" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>45777</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>45777</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>45777</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45778</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45778</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45778</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45778</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45778</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45778</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>45778</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6">
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
         <v>100</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45778</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45779</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45779</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45779</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45779</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45779</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45779</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45779</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45779</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45780</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45780</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45780</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45780</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45780</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45780</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45780</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45780</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45781</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>45781</v>
       </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="B66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>350</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>45781</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>400</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45781</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="C68" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>45781</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45781</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45781</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45781</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45782</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45782</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45782</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45782</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45782</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>45782</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45782</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="C80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>45782</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45783</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="7">
+        <f>C74+1</f>
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45783</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f>C75+1</f>
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45783</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" ref="C85:C88" si="0">C76+1</f>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45783</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="13">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45783</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45783</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45783</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="13">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45783</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="13">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45784</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="7">
+        <f>C83+1</f>
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45784</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" ref="C93:C99" si="1">C84+1</f>
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45784</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45784</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45784</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45784</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45784</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45784</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45785</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="13">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>200</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45785</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" ref="C102:C108" si="2">C93+1</f>
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45785</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="13">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>500</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45785</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45785</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="13">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>200</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45785</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45785</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45785</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
-    </row>
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <f>C101+1</f>
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <f>F101+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ref="C111:C117" si="3">C102+1</f>
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ref="F111:F117" si="4">F102+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <f>C110+1</f>
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <f>F110+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ref="C120:C126" si="5">C111+1</f>
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:F126" si="6">F111+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <f>C119+1</f>
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <f>F119+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ref="C129:C135" si="7">C120+1</f>
+        <v>7</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ref="F129:F135" si="8">F120+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>200</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>200</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>45789</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -450,11 +450,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB233"/>
+  <dimension ref="A1:AB226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2893,781 +2893,686 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" customFormat="1" s="9">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>14.05.2025</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="163"/>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>14.05.2025</t>
+          <t>15.05.2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>15.05.2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="171"/>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>15.05.2025</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="172"/>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>15.05.2025</t>
+          <t>16.05.2025</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>16.05.2025</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="180"/>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>16.05.2025</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="181"/>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>16.05.2025</t>
+          <t>17.05.2025</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>17.05.2025</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="189"/>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>17.05.2025</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="190"/>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>17.05.2025</t>
+          <t>18.05.2025</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>18.05.2025</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="198"/>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>18.05.2025</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="199"/>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>18.05.2025</t>
+          <t>19.05.2025</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>19.05.2025</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="207"/>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>19.05.2025</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="208"/>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>19.05.2025</t>
+          <t>20.05.2025</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20.05.2025</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="216"/>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>20.05.2025</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
+    <row r="217"/>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Calathea Medalion</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Epiprenum Aureum</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Epiprenum Aureum</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coffea Arabica</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20.05.2025</t>
+          <t>21.05.2025</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>21.05.2025</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
     </row>
-    <row r="225"/>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Epiprenum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>21.05.2025</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
+    <row r="226"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,12 +38,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -120,8 +114,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,51 +464,51 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="14.42578125" customWidth="1" style="15" min="1" max="1"/>
-    <col width="40.140625" customWidth="1" style="15" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" style="15" min="3" max="3"/>
-    <col width="7.85546875" customWidth="1" style="15" min="4" max="4"/>
-    <col width="15.140625" customWidth="1" style="15" min="5" max="6"/>
-    <col width="8.5703125" customWidth="1" style="15" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="15" min="8" max="8"/>
-    <col width="74.28515625" customWidth="1" style="15" min="9" max="9"/>
-    <col width="42" customWidth="1" style="15" min="10" max="11"/>
-    <col width="27" customWidth="1" style="15" min="12" max="12"/>
-    <col width="42" customWidth="1" style="15" min="13" max="13"/>
-    <col width="15.7109375" customWidth="1" style="15" min="14" max="14"/>
-    <col width="26.7109375" customWidth="1" style="15" min="15" max="15"/>
-    <col width="22.28515625" customWidth="1" style="15" min="16" max="16"/>
-    <col width="27.5703125" customWidth="1" style="15" min="17" max="17"/>
-    <col width="37.5703125" customWidth="1" style="15" min="18" max="19"/>
-    <col width="38.85546875" customWidth="1" style="15" min="20" max="20"/>
-    <col width="37" customWidth="1" style="15" min="21" max="21"/>
-    <col width="31.5703125" customWidth="1" style="15" min="22" max="22"/>
-    <col width="27.85546875" customWidth="1" style="15" min="23" max="23"/>
-    <col width="26.42578125" customWidth="1" style="15" min="24" max="24"/>
-    <col width="29" customWidth="1" style="15" min="25" max="25"/>
-    <col width="37.28515625" customWidth="1" style="15" min="26" max="28"/>
-    <col width="36.42578125" customWidth="1" style="15" min="29" max="29"/>
-    <col width="28.5703125" customWidth="1" style="15" min="30" max="30"/>
-    <col width="30.140625" customWidth="1" style="15" min="31" max="32"/>
-    <col width="30.28515625" customWidth="1" style="15" min="33" max="33"/>
-    <col width="31" customWidth="1" style="15" min="34" max="34"/>
-    <col width="39.140625" customWidth="1" style="15" min="35" max="35"/>
-    <col width="41.7109375" customWidth="1" style="15" min="36" max="36"/>
-    <col width="39.5703125" customWidth="1" style="15" min="37" max="37"/>
-    <col width="29.42578125" customWidth="1" style="15" min="38" max="38"/>
-    <col width="30.28515625" customWidth="1" style="15" min="39" max="39"/>
-    <col width="25.85546875" customWidth="1" style="15" min="40" max="40"/>
-    <col width="30" customWidth="1" style="15" min="41" max="41"/>
-    <col width="37.7109375" customWidth="1" style="15" min="42" max="42"/>
-    <col width="36" customWidth="1" style="15" min="43" max="43"/>
-    <col width="37.7109375" customWidth="1" style="15" min="44" max="44"/>
-    <col width="37.28515625" customWidth="1" style="15" min="45" max="45"/>
-    <col width="38.5703125" customWidth="1" style="15" min="46" max="46"/>
+    <col width="14.42578125" customWidth="1" min="1" max="1"/>
+    <col width="40.140625" customWidth="1" min="2" max="2"/>
+    <col width="16.28515625" customWidth="1" min="3" max="3"/>
+    <col width="7.85546875" customWidth="1" min="4" max="4"/>
+    <col width="15.140625" customWidth="1" min="5" max="6"/>
+    <col width="8.5703125" customWidth="1" min="7" max="7"/>
+    <col width="11.42578125" customWidth="1" min="8" max="8"/>
+    <col width="74.28515625" customWidth="1" min="9" max="9"/>
+    <col width="42" customWidth="1" min="10" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="42" customWidth="1" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" min="14" max="14"/>
+    <col width="26.7109375" customWidth="1" min="15" max="15"/>
+    <col width="22.28515625" customWidth="1" min="16" max="16"/>
+    <col width="27.5703125" customWidth="1" min="17" max="17"/>
+    <col width="37.5703125" customWidth="1" min="18" max="19"/>
+    <col width="38.85546875" customWidth="1" min="20" max="20"/>
+    <col width="37" customWidth="1" min="21" max="21"/>
+    <col width="31.5703125" customWidth="1" min="22" max="22"/>
+    <col width="27.85546875" customWidth="1" min="23" max="23"/>
+    <col width="26.42578125" customWidth="1" min="24" max="24"/>
+    <col width="29" customWidth="1" min="25" max="25"/>
+    <col width="37.28515625" customWidth="1" min="26" max="28"/>
+    <col width="36.42578125" customWidth="1" min="29" max="29"/>
+    <col width="28.5703125" customWidth="1" min="30" max="30"/>
+    <col width="30.140625" customWidth="1" min="31" max="32"/>
+    <col width="30.28515625" customWidth="1" min="33" max="33"/>
+    <col width="31" customWidth="1" min="34" max="34"/>
+    <col width="39.140625" customWidth="1" min="35" max="35"/>
+    <col width="41.7109375" customWidth="1" min="36" max="36"/>
+    <col width="39.5703125" customWidth="1" min="37" max="37"/>
+    <col width="29.42578125" customWidth="1" min="38" max="38"/>
+    <col width="30.28515625" customWidth="1" min="39" max="39"/>
+    <col width="25.85546875" customWidth="1" min="40" max="40"/>
+    <col width="30" customWidth="1" min="41" max="41"/>
+    <col width="37.7109375" customWidth="1" min="42" max="42"/>
+    <col width="36" customWidth="1" min="43" max="43"/>
+    <col width="37.7109375" customWidth="1" min="44" max="44"/>
+    <col width="37.28515625" customWidth="1" min="45" max="45"/>
+    <col width="38.5703125" customWidth="1" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customFormat="1" customHeight="1" s="6">
@@ -574,7 +567,7 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="J2" s="16" t="inlineStr">
+      <c r="J2" s="15" t="inlineStr">
         <is>
           <t>Calathea veitchiana</t>
         </is>
@@ -2996,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" s="15">
+    <row r="169">
       <c r="A169" t="inlineStr">
         <is>
           <t>15.05.2025</t>
@@ -3029,7 +3022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" s="15">
+    <row r="171">
       <c r="A171" t="inlineStr">
         <is>
           <t>15.05.2025</t>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
@@ -463,8 +463,8 @@
   <dimension ref="A1:AB292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B186" sqref="B186"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1756,6 +1756,9 @@
       <c r="C86" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="D86" t="n">
+        <v>250</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>compo 1pw</t>
@@ -1811,6 +1814,9 @@
       <c r="C89" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="D89" t="n">
+        <v>200</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>compo 1pw</t>
@@ -1831,6 +1837,9 @@
       </c>
       <c r="C90" s="13" t="n">
         <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>200</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2829,6 +2838,9 @@
       <c r="C157" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="D157" t="n">
+        <v>500</v>
+      </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
@@ -2861,6 +2873,9 @@
       <c r="C159" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="D159" t="n">
+        <v>150</v>
+      </c>
       <c r="F159" t="n">
         <v>0</v>
       </c>
@@ -3130,6 +3145,9 @@
       <c r="C178" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="D178" t="n">
+        <v>150</v>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>compo 1pw</t>
@@ -3165,6 +3183,9 @@
       <c r="C180" s="13" t="n">
         <v>0</v>
       </c>
+      <c r="D180" t="n">
+        <v>200</v>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>compo 1pw</t>
@@ -3196,6 +3217,9 @@
       </c>
       <c r="C182" s="13" t="n">
         <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>500</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -463,8 +463,8 @@
   <dimension ref="A1:AB292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -838,16 +838,8 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Calathea</t>
-        </is>
-      </c>
       <c r="F21" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -92,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -117,6 +117,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -463,52 +465,52 @@
   <dimension ref="A1:AB292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="14.42578125" customWidth="1" min="1" max="1"/>
-    <col width="40.140625" customWidth="1" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" min="3" max="3"/>
-    <col width="7.85546875" customWidth="1" min="4" max="4"/>
-    <col width="15.140625" customWidth="1" min="5" max="6"/>
-    <col width="8.5703125" customWidth="1" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" min="8" max="8"/>
-    <col width="74.28515625" customWidth="1" min="9" max="9"/>
-    <col width="42" customWidth="1" min="10" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
-    <col width="42" customWidth="1" min="13" max="13"/>
-    <col width="15.7109375" customWidth="1" min="14" max="14"/>
-    <col width="26.7109375" customWidth="1" min="15" max="15"/>
-    <col width="22.28515625" customWidth="1" min="16" max="16"/>
-    <col width="27.5703125" customWidth="1" min="17" max="17"/>
-    <col width="37.5703125" customWidth="1" min="18" max="19"/>
-    <col width="38.85546875" customWidth="1" min="20" max="20"/>
-    <col width="37" customWidth="1" min="21" max="21"/>
-    <col width="31.5703125" customWidth="1" min="22" max="22"/>
-    <col width="27.85546875" customWidth="1" min="23" max="23"/>
-    <col width="26.42578125" customWidth="1" min="24" max="24"/>
-    <col width="29" customWidth="1" min="25" max="25"/>
-    <col width="37.28515625" customWidth="1" min="26" max="28"/>
-    <col width="36.42578125" customWidth="1" min="29" max="29"/>
-    <col width="28.5703125" customWidth="1" min="30" max="30"/>
-    <col width="30.140625" customWidth="1" min="31" max="32"/>
-    <col width="30.28515625" customWidth="1" min="33" max="33"/>
-    <col width="31" customWidth="1" min="34" max="34"/>
-    <col width="39.140625" customWidth="1" min="35" max="35"/>
-    <col width="41.7109375" customWidth="1" min="36" max="36"/>
-    <col width="39.5703125" customWidth="1" min="37" max="37"/>
-    <col width="29.42578125" customWidth="1" min="38" max="38"/>
-    <col width="30.28515625" customWidth="1" min="39" max="39"/>
-    <col width="25.85546875" customWidth="1" min="40" max="40"/>
-    <col width="30" customWidth="1" min="41" max="41"/>
-    <col width="37.7109375" customWidth="1" min="42" max="42"/>
-    <col width="36" customWidth="1" min="43" max="43"/>
-    <col width="37.7109375" customWidth="1" min="44" max="44"/>
-    <col width="37.28515625" customWidth="1" min="45" max="45"/>
-    <col width="38.5703125" customWidth="1" min="46" max="46"/>
+    <col width="14.42578125" customWidth="1" style="17" min="1" max="1"/>
+    <col width="40.140625" customWidth="1" style="17" min="2" max="2"/>
+    <col width="16.28515625" customWidth="1" style="17" min="3" max="3"/>
+    <col width="7.85546875" customWidth="1" style="17" min="4" max="4"/>
+    <col width="15.140625" customWidth="1" style="17" min="5" max="6"/>
+    <col width="8.5703125" customWidth="1" style="17" min="7" max="7"/>
+    <col width="11.42578125" customWidth="1" style="17" min="8" max="8"/>
+    <col width="74.28515625" customWidth="1" style="17" min="9" max="9"/>
+    <col width="42" customWidth="1" style="17" min="10" max="11"/>
+    <col width="27" customWidth="1" style="17" min="12" max="12"/>
+    <col width="42" customWidth="1" style="17" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" style="17" min="14" max="14"/>
+    <col width="26.7109375" customWidth="1" style="17" min="15" max="15"/>
+    <col width="22.28515625" customWidth="1" style="17" min="16" max="16"/>
+    <col width="27.5703125" customWidth="1" style="17" min="17" max="17"/>
+    <col width="37.5703125" customWidth="1" style="17" min="18" max="19"/>
+    <col width="38.85546875" customWidth="1" style="17" min="20" max="20"/>
+    <col width="37" customWidth="1" style="17" min="21" max="21"/>
+    <col width="31.5703125" customWidth="1" style="17" min="22" max="22"/>
+    <col width="27.85546875" customWidth="1" style="17" min="23" max="23"/>
+    <col width="26.42578125" customWidth="1" style="17" min="24" max="24"/>
+    <col width="29" customWidth="1" style="17" min="25" max="25"/>
+    <col width="37.28515625" customWidth="1" style="17" min="26" max="28"/>
+    <col width="36.42578125" customWidth="1" style="17" min="29" max="29"/>
+    <col width="28.5703125" customWidth="1" style="17" min="30" max="30"/>
+    <col width="30.140625" customWidth="1" style="17" min="31" max="32"/>
+    <col width="30.28515625" customWidth="1" style="17" min="33" max="33"/>
+    <col width="31" customWidth="1" style="17" min="34" max="34"/>
+    <col width="39.140625" customWidth="1" style="17" min="35" max="35"/>
+    <col width="41.7109375" customWidth="1" style="17" min="36" max="36"/>
+    <col width="39.5703125" customWidth="1" style="17" min="37" max="37"/>
+    <col width="29.42578125" customWidth="1" style="17" min="38" max="38"/>
+    <col width="30.28515625" customWidth="1" style="17" min="39" max="39"/>
+    <col width="25.85546875" customWidth="1" style="17" min="40" max="40"/>
+    <col width="30" customWidth="1" style="17" min="41" max="41"/>
+    <col width="37.7109375" customWidth="1" style="17" min="42" max="42"/>
+    <col width="36" customWidth="1" style="17" min="43" max="43"/>
+    <col width="37.7109375" customWidth="1" style="17" min="44" max="44"/>
+    <col width="37.28515625" customWidth="1" style="17" min="45" max="45"/>
+    <col width="38.5703125" customWidth="1" style="17" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customFormat="1" customHeight="1" s="6">
@@ -559,7 +561,7 @@
       </c>
     </row>
     <row r="2" ht="61.5" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="16" t="n">
         <v>45774</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -579,7 +581,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="16" t="n">
         <v>45774</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -590,7 +592,7 @@
       <c r="AB3" s="3" t="n"/>
     </row>
     <row r="4" customFormat="1" s="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="16" t="n">
         <v>45774</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -655,7 +657,7 @@
       <c r="AB7" s="3" t="n"/>
     </row>
     <row r="8" customFormat="1" s="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="16" t="n">
         <v>45774</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -699,7 +701,7 @@
       <c r="AB10" s="11" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -725,7 +727,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -738,7 +740,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -751,7 +753,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -764,7 +766,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -777,7 +779,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,7 +789,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="16" t="n">
         <v>45775</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -827,7 +829,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -843,7 +845,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -856,7 +858,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -869,7 +871,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -882,7 +884,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -895,7 +897,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -905,7 +907,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="16" t="n">
         <v>45776</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -921,7 +923,7 @@
       <c r="A28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -937,7 +939,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -974,7 +976,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -987,7 +989,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1005,7 +1007,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1018,7 +1020,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1028,7 +1030,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="16" t="n">
         <v>45777</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1044,7 +1046,7 @@
       <c r="A37" s="8" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1060,7 +1062,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1076,7 +1078,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1089,7 +1091,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1102,7 +1104,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1115,7 +1117,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1149,7 +1151,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="16" t="n">
         <v>45778</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1165,7 +1167,7 @@
       <c r="A46" s="8" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1186,7 +1188,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1207,7 +1209,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1220,7 +1222,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1233,7 +1235,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1246,7 +1248,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1264,7 +1266,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1277,7 +1279,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="16" t="n">
         <v>45779</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1291,7 +1293,7 @@
     </row>
     <row r="55" customFormat="1" s="9"/>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1307,7 +1309,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1323,7 +1325,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1336,7 +1338,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1349,7 +1351,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1362,7 +1364,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1375,7 +1377,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1388,7 +1390,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="16" t="n">
         <v>45780</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -1404,7 +1406,7 @@
       <c r="A64" s="8" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="16" t="n">
         <v>45781</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -1473,7 +1475,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="16" t="n">
         <v>45781</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -1510,7 +1512,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="16" t="n">
         <v>45781</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -1523,7 +1525,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="16" t="n">
         <v>45781</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -1536,7 +1538,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="16" t="n">
         <v>45781</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -1552,7 +1554,7 @@
       <c r="A73" s="8" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="16" t="n">
         <v>45782</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -1568,7 +1570,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="16" t="n">
         <v>45782</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -1584,7 +1586,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="16" t="n">
         <v>45782</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -1605,7 +1607,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="16" t="n">
         <v>45782</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -1618,7 +1620,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="16" t="n">
         <v>45782</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -1652,7 +1654,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="16" t="n">
         <v>45782</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -1665,26 +1667,21 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="16" t="n">
         <v>45782</v>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>ja</t>
-        </is>
+      <c r="C81" s="7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="82" customFormat="1" s="9"/>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="16" t="n">
         <v>45783</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -1700,7 +1697,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="16" t="n">
         <v>45783</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -1716,7 +1713,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="16" t="n">
         <v>45783</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -1761,7 +1758,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="16" t="n">
         <v>45783</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -1779,7 +1776,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="16" t="n">
         <v>45783</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -1844,7 +1841,7 @@
     </row>
     <row r="91" customFormat="1" s="9"/>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -1860,7 +1857,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -1876,7 +1873,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -1892,7 +1889,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -1908,7 +1905,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -1924,7 +1921,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -1937,7 +1934,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -1953,7 +1950,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="16" t="n">
         <v>45784</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -1994,7 +1991,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="16" t="n">
         <v>45785</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2034,7 +2031,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="16" t="n">
         <v>45785</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2074,7 +2071,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="16" t="n">
         <v>45785</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2087,7 +2084,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="16" t="n">
         <v>45785</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2103,7 +2100,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="16" t="n">
         <v>45785</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2120,7 +2117,7 @@
     </row>
     <row r="109" customFormat="1" s="9"/>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2136,7 +2133,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2152,7 +2149,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2168,7 +2165,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -2184,7 +2181,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -2200,7 +2197,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -2216,7 +2213,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -2232,7 +2229,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="16" t="n">
         <v>45786</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -2249,7 +2246,7 @@
     </row>
     <row r="118" customFormat="1" s="9"/>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -2265,7 +2262,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -2281,7 +2278,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -2297,7 +2294,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -2313,7 +2310,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -2329,7 +2326,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -2345,7 +2342,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -2361,7 +2358,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="16" t="n">
         <v>45787</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -2378,7 +2375,7 @@
     </row>
     <row r="127" customFormat="1" s="9"/>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="16" t="n">
         <v>45788</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -2394,7 +2391,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="16" t="n">
         <v>45788</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -2410,7 +2407,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="16" t="n">
         <v>45788</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -2426,7 +2423,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="16" t="n">
         <v>45788</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -2442,7 +2439,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="16" t="n">
         <v>45788</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -2458,7 +2455,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="16" t="n">
         <v>45788</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -2513,7 +2510,7 @@
     </row>
     <row r="136" customFormat="1" s="9"/>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="16" t="n">
         <v>45789</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -2553,7 +2550,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="16" t="n">
         <v>45789</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -2593,7 +2590,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="16" t="n">
         <v>45789</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -2609,7 +2606,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="16" t="n">
         <v>45789</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -2625,7 +2622,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="16" t="n">
         <v>45789</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -2641,7 +2638,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="16" t="n">
         <v>45789</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -2658,7 +2655,7 @@
     </row>
     <row r="145" customFormat="1" s="9"/>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -2674,7 +2671,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -2690,7 +2687,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -2706,7 +2703,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -2722,7 +2719,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -2738,7 +2735,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -2754,7 +2751,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -2770,7 +2767,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="16" t="n">
         <v>45790</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -2787,7 +2784,7 @@
     </row>
     <row r="154" customFormat="1" s="9"/>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="16" t="n">
         <v>45791</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -2803,7 +2800,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="16" t="n">
         <v>45791</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -2838,7 +2835,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="16" t="n">
         <v>45791</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -2873,7 +2870,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="16" t="n">
         <v>45791</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -2889,7 +2886,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="16" t="n">
         <v>45791</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -2905,7 +2902,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="16" t="n">
         <v>45791</v>
       </c>
       <c r="B162" t="inlineStr">

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB292"/>
+  <dimension ref="A1:AB307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
@@ -4448,6 +4448,175 @@
       </c>
     </row>
     <row r="292"/>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>24.05.2025</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="307"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -48,7 +48,7 @@
       <sz val="24"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -76,6 +76,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.3499862666707358"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,8 +123,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -465,52 +471,52 @@
   <dimension ref="A1:AB307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="14.42578125" customWidth="1" style="17" min="1" max="1"/>
-    <col width="40.140625" customWidth="1" style="17" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" style="17" min="3" max="3"/>
-    <col width="7.85546875" customWidth="1" style="17" min="4" max="4"/>
-    <col width="15.140625" customWidth="1" style="17" min="5" max="6"/>
-    <col width="8.5703125" customWidth="1" style="17" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="17" min="8" max="8"/>
-    <col width="74.28515625" customWidth="1" style="17" min="9" max="9"/>
-    <col width="42" customWidth="1" style="17" min="10" max="11"/>
-    <col width="27" customWidth="1" style="17" min="12" max="12"/>
-    <col width="42" customWidth="1" style="17" min="13" max="13"/>
-    <col width="15.7109375" customWidth="1" style="17" min="14" max="14"/>
-    <col width="26.7109375" customWidth="1" style="17" min="15" max="15"/>
-    <col width="22.28515625" customWidth="1" style="17" min="16" max="16"/>
-    <col width="27.5703125" customWidth="1" style="17" min="17" max="17"/>
-    <col width="37.5703125" customWidth="1" style="17" min="18" max="19"/>
-    <col width="38.85546875" customWidth="1" style="17" min="20" max="20"/>
-    <col width="37" customWidth="1" style="17" min="21" max="21"/>
-    <col width="31.5703125" customWidth="1" style="17" min="22" max="22"/>
-    <col width="27.85546875" customWidth="1" style="17" min="23" max="23"/>
-    <col width="26.42578125" customWidth="1" style="17" min="24" max="24"/>
-    <col width="29" customWidth="1" style="17" min="25" max="25"/>
-    <col width="37.28515625" customWidth="1" style="17" min="26" max="28"/>
-    <col width="36.42578125" customWidth="1" style="17" min="29" max="29"/>
-    <col width="28.5703125" customWidth="1" style="17" min="30" max="30"/>
-    <col width="30.140625" customWidth="1" style="17" min="31" max="32"/>
-    <col width="30.28515625" customWidth="1" style="17" min="33" max="33"/>
-    <col width="31" customWidth="1" style="17" min="34" max="34"/>
-    <col width="39.140625" customWidth="1" style="17" min="35" max="35"/>
-    <col width="41.7109375" customWidth="1" style="17" min="36" max="36"/>
-    <col width="39.5703125" customWidth="1" style="17" min="37" max="37"/>
-    <col width="29.42578125" customWidth="1" style="17" min="38" max="38"/>
-    <col width="30.28515625" customWidth="1" style="17" min="39" max="39"/>
-    <col width="25.85546875" customWidth="1" style="17" min="40" max="40"/>
-    <col width="30" customWidth="1" style="17" min="41" max="41"/>
-    <col width="37.7109375" customWidth="1" style="17" min="42" max="42"/>
-    <col width="36" customWidth="1" style="17" min="43" max="43"/>
-    <col width="37.7109375" customWidth="1" style="17" min="44" max="44"/>
-    <col width="37.28515625" customWidth="1" style="17" min="45" max="45"/>
-    <col width="38.5703125" customWidth="1" style="17" min="46" max="46"/>
+    <col width="14.42578125" customWidth="1" style="16" min="1" max="1"/>
+    <col width="40.140625" customWidth="1" style="16" min="2" max="2"/>
+    <col width="16.28515625" customWidth="1" style="16" min="3" max="3"/>
+    <col width="7.85546875" customWidth="1" style="16" min="4" max="4"/>
+    <col width="15.140625" customWidth="1" style="16" min="5" max="6"/>
+    <col width="8.5703125" customWidth="1" style="16" min="7" max="7"/>
+    <col width="11.42578125" customWidth="1" style="16" min="8" max="8"/>
+    <col width="74.28515625" customWidth="1" style="16" min="9" max="9"/>
+    <col width="42" customWidth="1" style="16" min="10" max="11"/>
+    <col width="27" customWidth="1" style="16" min="12" max="12"/>
+    <col width="42" customWidth="1" style="16" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" style="16" min="14" max="14"/>
+    <col width="26.7109375" customWidth="1" style="16" min="15" max="15"/>
+    <col width="22.28515625" customWidth="1" style="16" min="16" max="16"/>
+    <col width="27.5703125" customWidth="1" style="16" min="17" max="17"/>
+    <col width="37.5703125" customWidth="1" style="16" min="18" max="19"/>
+    <col width="38.85546875" customWidth="1" style="16" min="20" max="20"/>
+    <col width="37" customWidth="1" style="16" min="21" max="21"/>
+    <col width="31.5703125" customWidth="1" style="16" min="22" max="22"/>
+    <col width="27.85546875" customWidth="1" style="16" min="23" max="23"/>
+    <col width="26.42578125" customWidth="1" style="16" min="24" max="24"/>
+    <col width="29" customWidth="1" style="16" min="25" max="25"/>
+    <col width="37.28515625" customWidth="1" style="16" min="26" max="28"/>
+    <col width="36.42578125" customWidth="1" style="16" min="29" max="29"/>
+    <col width="28.5703125" customWidth="1" style="16" min="30" max="30"/>
+    <col width="30.140625" customWidth="1" style="16" min="31" max="32"/>
+    <col width="30.28515625" customWidth="1" style="16" min="33" max="33"/>
+    <col width="31" customWidth="1" style="16" min="34" max="34"/>
+    <col width="39.140625" customWidth="1" style="16" min="35" max="35"/>
+    <col width="41.7109375" customWidth="1" style="16" min="36" max="36"/>
+    <col width="39.5703125" customWidth="1" style="16" min="37" max="37"/>
+    <col width="29.42578125" customWidth="1" style="16" min="38" max="38"/>
+    <col width="30.28515625" customWidth="1" style="16" min="39" max="39"/>
+    <col width="25.85546875" customWidth="1" style="16" min="40" max="40"/>
+    <col width="30" customWidth="1" style="16" min="41" max="41"/>
+    <col width="37.7109375" customWidth="1" style="16" min="42" max="42"/>
+    <col width="36" customWidth="1" style="16" min="43" max="43"/>
+    <col width="37.7109375" customWidth="1" style="16" min="44" max="44"/>
+    <col width="37.28515625" customWidth="1" style="16" min="45" max="45"/>
+    <col width="38.5703125" customWidth="1" style="16" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customFormat="1" customHeight="1" s="6">
@@ -561,7 +567,7 @@
       </c>
     </row>
     <row r="2" ht="61.5" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -581,7 +587,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -592,7 +598,7 @@
       <c r="AB3" s="3" t="n"/>
     </row>
     <row r="4" customFormat="1" s="1">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -657,7 +663,7 @@
       <c r="AB7" s="3" t="n"/>
     </row>
     <row r="8" customFormat="1" s="1">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="2" t="n">
         <v>45774</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -701,7 +707,7 @@
       <c r="AB10" s="11" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -727,7 +733,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -740,7 +746,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n">
+      <c r="A14" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -753,7 +759,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="n">
+      <c r="A15" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -766,7 +772,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -779,7 +785,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -789,7 +795,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -829,7 +835,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -845,7 +851,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="n">
+      <c r="A22" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -858,7 +864,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -871,7 +877,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -884,7 +890,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -897,7 +903,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -907,7 +913,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -923,7 +929,7 @@
       <c r="A28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -939,7 +945,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="n">
+      <c r="A30" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -976,7 +982,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="n">
+      <c r="A32" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -989,7 +995,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="n">
+      <c r="A33" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1007,7 +1013,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="n">
+      <c r="A34" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1020,7 +1026,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="n">
+      <c r="A35" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1030,7 +1036,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="n">
+      <c r="A36" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1046,7 +1052,7 @@
       <c r="A37" s="8" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="n">
+      <c r="A38" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1062,7 +1068,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="n">
+      <c r="A39" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1078,7 +1084,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="16" t="n">
+      <c r="A40" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1091,7 +1097,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="16" t="n">
+      <c r="A41" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1104,7 +1110,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="16" t="n">
+      <c r="A42" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1117,7 +1123,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="16" t="n">
+      <c r="A43" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1151,7 +1157,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="n">
+      <c r="A45" s="2" t="n">
         <v>45778</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1167,7 +1173,7 @@
       <c r="A46" s="8" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="16" t="n">
+      <c r="A47" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1188,7 +1194,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="n">
+      <c r="A48" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1209,7 +1215,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="16" t="n">
+      <c r="A49" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1222,7 +1228,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="16" t="n">
+      <c r="A50" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1235,7 +1241,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="16" t="n">
+      <c r="A51" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1248,7 +1254,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="16" t="n">
+      <c r="A52" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1266,7 +1272,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="16" t="n">
+      <c r="A53" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1279,7 +1285,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="n">
+      <c r="A54" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1293,7 +1299,7 @@
     </row>
     <row r="55" customFormat="1" s="9"/>
     <row r="56">
-      <c r="A56" s="16" t="n">
+      <c r="A56" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1309,7 +1315,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="n">
+      <c r="A57" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1325,7 +1331,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="16" t="n">
+      <c r="A58" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1338,7 +1344,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="16" t="n">
+      <c r="A59" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1351,7 +1357,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="16" t="n">
+      <c r="A60" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1364,7 +1370,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="16" t="n">
+      <c r="A61" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1377,7 +1383,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="16" t="n">
+      <c r="A62" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1390,7 +1396,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="16" t="n">
+      <c r="A63" s="2" t="n">
         <v>45780</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -1406,7 +1412,7 @@
       <c r="A64" s="8" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="16" t="n">
+      <c r="A65" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -1475,7 +1481,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="16" t="n">
+      <c r="A68" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -1512,7 +1518,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="16" t="n">
+      <c r="A70" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -1525,7 +1531,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="16" t="n">
+      <c r="A71" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -1538,7 +1544,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="16" t="n">
+      <c r="A72" s="2" t="n">
         <v>45781</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -1554,7 +1560,7 @@
       <c r="A73" s="8" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="16" t="n">
+      <c r="A74" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -1570,7 +1576,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="16" t="n">
+      <c r="A75" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -1586,7 +1592,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="16" t="n">
+      <c r="A76" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -1607,7 +1613,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="16" t="n">
+      <c r="A77" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -1620,7 +1626,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="16" t="n">
+      <c r="A78" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -1654,7 +1660,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="16" t="n">
+      <c r="A80" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -1667,7 +1673,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="16" t="n">
+      <c r="A81" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -1681,7 +1687,7 @@
     </row>
     <row r="82" customFormat="1" s="9"/>
     <row r="83">
-      <c r="A83" s="16" t="n">
+      <c r="A83" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -1697,7 +1703,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="16" t="n">
+      <c r="A84" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -1713,7 +1719,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="16" t="n">
+      <c r="A85" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -1758,7 +1764,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="16" t="n">
+      <c r="A87" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -1776,7 +1782,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="16" t="n">
+      <c r="A88" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -1841,7 +1847,7 @@
     </row>
     <row r="91" customFormat="1" s="9"/>
     <row r="92">
-      <c r="A92" s="16" t="n">
+      <c r="A92" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -1857,7 +1863,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="16" t="n">
+      <c r="A93" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -1873,7 +1879,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="16" t="n">
+      <c r="A94" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -1889,7 +1895,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="16" t="n">
+      <c r="A95" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -1905,7 +1911,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="16" t="n">
+      <c r="A96" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -1921,7 +1927,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="16" t="n">
+      <c r="A97" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -1934,7 +1940,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="16" t="n">
+      <c r="A98" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -1950,7 +1956,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="16" t="n">
+      <c r="A99" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -1991,7 +1997,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="16" t="n">
+      <c r="A102" s="2" t="n">
         <v>45785</v>
       </c>
       <c r="B102" t="inlineStr">
@@ -2031,7 +2037,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="16" t="n">
+      <c r="A104" s="2" t="n">
         <v>45785</v>
       </c>
       <c r="B104" t="inlineStr">
@@ -2071,7 +2077,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="16" t="n">
+      <c r="A106" s="2" t="n">
         <v>45785</v>
       </c>
       <c r="B106" t="inlineStr">
@@ -2084,7 +2090,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="16" t="n">
+      <c r="A107" s="2" t="n">
         <v>45785</v>
       </c>
       <c r="B107" t="inlineStr">
@@ -2100,7 +2106,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="16" t="n">
+      <c r="A108" s="2" t="n">
         <v>45785</v>
       </c>
       <c r="B108" t="inlineStr">
@@ -2117,7 +2123,7 @@
     </row>
     <row r="109" customFormat="1" s="9"/>
     <row r="110">
-      <c r="A110" s="16" t="n">
+      <c r="A110" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B110" t="inlineStr">
@@ -2133,7 +2139,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="16" t="n">
+      <c r="A111" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B111" t="inlineStr">
@@ -2149,7 +2155,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="16" t="n">
+      <c r="A112" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B112" t="inlineStr">
@@ -2165,7 +2171,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="16" t="n">
+      <c r="A113" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B113" t="inlineStr">
@@ -2181,7 +2187,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="16" t="n">
+      <c r="A114" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B114" t="inlineStr">
@@ -2197,7 +2203,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="16" t="n">
+      <c r="A115" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B115" t="inlineStr">
@@ -2213,7 +2219,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="16" t="n">
+      <c r="A116" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B116" t="inlineStr">
@@ -2229,7 +2235,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="16" t="n">
+      <c r="A117" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="B117" t="inlineStr">
@@ -2246,7 +2252,7 @@
     </row>
     <row r="118" customFormat="1" s="9"/>
     <row r="119">
-      <c r="A119" s="16" t="n">
+      <c r="A119" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B119" t="inlineStr">
@@ -2262,7 +2268,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="16" t="n">
+      <c r="A120" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B120" t="inlineStr">
@@ -2278,7 +2284,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="16" t="n">
+      <c r="A121" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B121" t="inlineStr">
@@ -2294,7 +2300,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="16" t="n">
+      <c r="A122" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B122" t="inlineStr">
@@ -2310,7 +2316,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="16" t="n">
+      <c r="A123" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B123" t="inlineStr">
@@ -2326,7 +2332,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="16" t="n">
+      <c r="A124" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B124" t="inlineStr">
@@ -2342,7 +2348,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="16" t="n">
+      <c r="A125" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B125" t="inlineStr">
@@ -2358,7 +2364,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="16" t="n">
+      <c r="A126" s="2" t="n">
         <v>45787</v>
       </c>
       <c r="B126" t="inlineStr">
@@ -2375,7 +2381,7 @@
     </row>
     <row r="127" customFormat="1" s="9"/>
     <row r="128">
-      <c r="A128" s="16" t="n">
+      <c r="A128" s="2" t="n">
         <v>45788</v>
       </c>
       <c r="B128" t="inlineStr">
@@ -2391,7 +2397,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="16" t="n">
+      <c r="A129" s="2" t="n">
         <v>45788</v>
       </c>
       <c r="B129" t="inlineStr">
@@ -2407,7 +2413,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="16" t="n">
+      <c r="A130" s="2" t="n">
         <v>45788</v>
       </c>
       <c r="B130" t="inlineStr">
@@ -2423,7 +2429,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="16" t="n">
+      <c r="A131" s="2" t="n">
         <v>45788</v>
       </c>
       <c r="B131" t="inlineStr">
@@ -2439,7 +2445,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="16" t="n">
+      <c r="A132" s="2" t="n">
         <v>45788</v>
       </c>
       <c r="B132" t="inlineStr">
@@ -2455,7 +2461,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="16" t="n">
+      <c r="A133" s="2" t="n">
         <v>45788</v>
       </c>
       <c r="B133" t="inlineStr">
@@ -2510,7 +2516,7 @@
     </row>
     <row r="136" customFormat="1" s="9"/>
     <row r="137">
-      <c r="A137" s="16" t="n">
+      <c r="A137" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="B137" t="inlineStr">
@@ -2550,7 +2556,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="16" t="n">
+      <c r="A139" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="B139" t="inlineStr">
@@ -2590,7 +2596,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="16" t="n">
+      <c r="A141" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="B141" t="inlineStr">
@@ -2606,7 +2612,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="16" t="n">
+      <c r="A142" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="B142" t="inlineStr">
@@ -2622,7 +2628,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="16" t="n">
+      <c r="A143" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="B143" t="inlineStr">
@@ -2638,7 +2644,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="16" t="n">
+      <c r="A144" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="B144" t="inlineStr">
@@ -2655,7 +2661,7 @@
     </row>
     <row r="145" customFormat="1" s="9"/>
     <row r="146">
-      <c r="A146" s="16" t="n">
+      <c r="A146" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B146" t="inlineStr">
@@ -2671,7 +2677,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="16" t="n">
+      <c r="A147" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B147" t="inlineStr">
@@ -2687,7 +2693,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="16" t="n">
+      <c r="A148" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B148" t="inlineStr">
@@ -2703,7 +2709,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="16" t="n">
+      <c r="A149" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B149" t="inlineStr">
@@ -2719,7 +2725,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="16" t="n">
+      <c r="A150" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B150" t="inlineStr">
@@ -2735,7 +2741,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="16" t="n">
+      <c r="A151" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B151" t="inlineStr">
@@ -2751,7 +2757,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="16" t="n">
+      <c r="A152" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B152" t="inlineStr">
@@ -2767,7 +2773,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="16" t="n">
+      <c r="A153" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="B153" t="inlineStr">
@@ -2784,7 +2790,7 @@
     </row>
     <row r="154" customFormat="1" s="9"/>
     <row r="155">
-      <c r="A155" s="16" t="n">
+      <c r="A155" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="B155" t="inlineStr">
@@ -2800,7 +2806,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="16" t="n">
+      <c r="A156" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="B156" t="inlineStr">
@@ -2835,7 +2841,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="16" t="n">
+      <c r="A158" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="B158" t="inlineStr">
@@ -2870,7 +2876,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="16" t="n">
+      <c r="A160" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="B160" t="inlineStr">
@@ -2886,7 +2892,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="16" t="n">
+      <c r="A161" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="B161" t="inlineStr">
@@ -2902,7 +2908,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="16" t="n">
+      <c r="A162" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="B162" t="inlineStr">
@@ -2932,6 +2938,9 @@
       <c r="C164" s="7" t="n">
         <v>7</v>
       </c>
+      <c r="F164" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2947,6 +2956,9 @@
       <c r="C165" t="n">
         <v>3</v>
       </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2962,6 +2974,9 @@
       <c r="C166" t="n">
         <v>1</v>
       </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2977,6 +2992,9 @@
       <c r="C167" t="n">
         <v>3</v>
       </c>
+      <c r="F167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2992,6 +3010,9 @@
       <c r="C168" t="n">
         <v>1</v>
       </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3008,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -3025,6 +3046,9 @@
       <c r="C170" t="n">
         <v>4</v>
       </c>
+      <c r="F170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3041,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="1" s="9"/>
@@ -3059,6 +3083,9 @@
       <c r="C173" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="F173" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3074,6 +3101,9 @@
       <c r="C174" t="n">
         <v>4</v>
       </c>
+      <c r="F174" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3089,6 +3119,9 @@
       <c r="C175" t="n">
         <v>2</v>
       </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3104,6 +3137,9 @@
       <c r="C176" t="n">
         <v>4</v>
       </c>
+      <c r="F176" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3119,6 +3155,9 @@
       <c r="C177" t="n">
         <v>2</v>
       </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="13" t="inlineStr">
@@ -3142,6 +3181,9 @@
           <t>compo 1pw</t>
         </is>
       </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3157,6 +3199,9 @@
       <c r="C179" t="n">
         <v>5</v>
       </c>
+      <c r="F179" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="13" t="inlineStr">
@@ -3180,6 +3225,9 @@
           <t>compo 1pw</t>
         </is>
       </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3215,6 +3263,9 @@
           <t>compo 1pw</t>
         </is>
       </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3229,7 +3280,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="13" t="inlineStr">
+      <c r="A184" t="inlineStr">
         <is>
           <t>16.05.2025</t>
         </is>
@@ -3253,7 +3304,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="13" t="inlineStr">
+      <c r="A186" t="inlineStr">
         <is>
           <t>16.05.2025</t>
         </is>
@@ -3264,7 +3315,7 @@
         </is>
       </c>
     </row>
-    <row r="187"/>
+    <row r="187" customFormat="1" s="17"/>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
@@ -3276,6 +3327,12 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3288,6 +3345,12 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
+      <c r="C189" t="n">
+        <v>5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3300,6 +3363,12 @@
           <t>Epiprenum Aureum</t>
         </is>
       </c>
+      <c r="C190" t="n">
+        <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3312,6 +3381,12 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
+      <c r="C191" t="n">
+        <v>5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3324,6 +3399,12 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
+      <c r="C192" t="n">
+        <v>3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3336,6 +3417,12 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3348,6 +3435,12 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
+      <c r="C194" t="n">
+        <v>6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3360,17 +3453,37 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="A196" s="13" t="inlineStr">
         <is>
           <t>17.05.2025</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="13" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
+      </c>
+      <c r="C196" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>500</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3383,6 +3496,12 @@
         <is>
           <t>Calathea Ornata</t>
         </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -98,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -123,7 +123,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -472,51 +471,51 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I184" sqref="I184"/>
+      <selection pane="bottomLeft" activeCell="I198" sqref="I198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="14.42578125" customWidth="1" style="16" min="1" max="1"/>
-    <col width="40.140625" customWidth="1" style="16" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" style="16" min="3" max="3"/>
-    <col width="7.85546875" customWidth="1" style="16" min="4" max="4"/>
-    <col width="15.140625" customWidth="1" style="16" min="5" max="6"/>
-    <col width="8.5703125" customWidth="1" style="16" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" style="16" min="8" max="8"/>
-    <col width="74.28515625" customWidth="1" style="16" min="9" max="9"/>
-    <col width="42" customWidth="1" style="16" min="10" max="11"/>
-    <col width="27" customWidth="1" style="16" min="12" max="12"/>
-    <col width="42" customWidth="1" style="16" min="13" max="13"/>
-    <col width="15.7109375" customWidth="1" style="16" min="14" max="14"/>
-    <col width="26.7109375" customWidth="1" style="16" min="15" max="15"/>
-    <col width="22.28515625" customWidth="1" style="16" min="16" max="16"/>
-    <col width="27.5703125" customWidth="1" style="16" min="17" max="17"/>
-    <col width="37.5703125" customWidth="1" style="16" min="18" max="19"/>
-    <col width="38.85546875" customWidth="1" style="16" min="20" max="20"/>
-    <col width="37" customWidth="1" style="16" min="21" max="21"/>
-    <col width="31.5703125" customWidth="1" style="16" min="22" max="22"/>
-    <col width="27.85546875" customWidth="1" style="16" min="23" max="23"/>
-    <col width="26.42578125" customWidth="1" style="16" min="24" max="24"/>
-    <col width="29" customWidth="1" style="16" min="25" max="25"/>
-    <col width="37.28515625" customWidth="1" style="16" min="26" max="28"/>
-    <col width="36.42578125" customWidth="1" style="16" min="29" max="29"/>
-    <col width="28.5703125" customWidth="1" style="16" min="30" max="30"/>
-    <col width="30.140625" customWidth="1" style="16" min="31" max="32"/>
-    <col width="30.28515625" customWidth="1" style="16" min="33" max="33"/>
-    <col width="31" customWidth="1" style="16" min="34" max="34"/>
-    <col width="39.140625" customWidth="1" style="16" min="35" max="35"/>
-    <col width="41.7109375" customWidth="1" style="16" min="36" max="36"/>
-    <col width="39.5703125" customWidth="1" style="16" min="37" max="37"/>
-    <col width="29.42578125" customWidth="1" style="16" min="38" max="38"/>
-    <col width="30.28515625" customWidth="1" style="16" min="39" max="39"/>
-    <col width="25.85546875" customWidth="1" style="16" min="40" max="40"/>
-    <col width="30" customWidth="1" style="16" min="41" max="41"/>
-    <col width="37.7109375" customWidth="1" style="16" min="42" max="42"/>
-    <col width="36" customWidth="1" style="16" min="43" max="43"/>
-    <col width="37.7109375" customWidth="1" style="16" min="44" max="44"/>
-    <col width="37.28515625" customWidth="1" style="16" min="45" max="45"/>
-    <col width="38.5703125" customWidth="1" style="16" min="46" max="46"/>
+    <col width="14.42578125" customWidth="1" min="1" max="1"/>
+    <col width="40.140625" customWidth="1" min="2" max="2"/>
+    <col width="16.28515625" customWidth="1" min="3" max="3"/>
+    <col width="7.85546875" customWidth="1" min="4" max="4"/>
+    <col width="15.140625" customWidth="1" min="5" max="6"/>
+    <col width="8.5703125" customWidth="1" min="7" max="7"/>
+    <col width="11.42578125" customWidth="1" min="8" max="8"/>
+    <col width="74.28515625" customWidth="1" min="9" max="9"/>
+    <col width="42" customWidth="1" min="10" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="42" customWidth="1" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" min="14" max="14"/>
+    <col width="26.7109375" customWidth="1" min="15" max="15"/>
+    <col width="22.28515625" customWidth="1" min="16" max="16"/>
+    <col width="27.5703125" customWidth="1" min="17" max="17"/>
+    <col width="37.5703125" customWidth="1" min="18" max="19"/>
+    <col width="38.85546875" customWidth="1" min="20" max="20"/>
+    <col width="37" customWidth="1" min="21" max="21"/>
+    <col width="31.5703125" customWidth="1" min="22" max="22"/>
+    <col width="27.85546875" customWidth="1" min="23" max="23"/>
+    <col width="26.42578125" customWidth="1" min="24" max="24"/>
+    <col width="29" customWidth="1" min="25" max="25"/>
+    <col width="37.28515625" customWidth="1" min="26" max="28"/>
+    <col width="36.42578125" customWidth="1" min="29" max="29"/>
+    <col width="28.5703125" customWidth="1" min="30" max="30"/>
+    <col width="30.140625" customWidth="1" min="31" max="32"/>
+    <col width="30.28515625" customWidth="1" min="33" max="33"/>
+    <col width="31" customWidth="1" min="34" max="34"/>
+    <col width="39.140625" customWidth="1" min="35" max="35"/>
+    <col width="41.7109375" customWidth="1" min="36" max="36"/>
+    <col width="39.5703125" customWidth="1" min="37" max="37"/>
+    <col width="29.42578125" customWidth="1" min="38" max="38"/>
+    <col width="30.28515625" customWidth="1" min="39" max="39"/>
+    <col width="25.85546875" customWidth="1" min="40" max="40"/>
+    <col width="30" customWidth="1" min="41" max="41"/>
+    <col width="37.7109375" customWidth="1" min="42" max="42"/>
+    <col width="36" customWidth="1" min="43" max="43"/>
+    <col width="37.7109375" customWidth="1" min="44" max="44"/>
+    <col width="37.28515625" customWidth="1" min="45" max="45"/>
+    <col width="38.5703125" customWidth="1" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customFormat="1" customHeight="1" s="6">
@@ -3315,23 +3314,31 @@
         </is>
       </c>
     </row>
-    <row r="187" customFormat="1" s="17"/>
+    <row r="187" customFormat="1" s="16"/>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="13" t="inlineStr">
         <is>
           <t>17.05.2025</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="13" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>9</v>
+      <c r="C188" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>300</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
+        </is>
       </c>
       <c r="F188" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -471,7 +471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I198" sqref="I198"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3536,27 +3536,55 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="A200" s="13" t="inlineStr">
         <is>
           <t>17.05.2025</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="13" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
+      <c r="C200" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>100</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="A201" s="13" t="inlineStr">
         <is>
           <t>17.05.2025</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="13" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
+      </c>
+      <c r="C201" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>100</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202"/>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -467,11 +467,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB307"/>
+  <dimension ref="A1:AB322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3599,6 +3599,12 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3611,6 +3617,12 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
+      <c r="C204" t="n">
+        <v>6</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3623,6 +3635,12 @@
           <t>Epiprenum Aureum</t>
         </is>
       </c>
+      <c r="C205" t="n">
+        <v>4</v>
+      </c>
+      <c r="F205" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3635,6 +3653,12 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
+      <c r="C206" t="n">
+        <v>6</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3647,6 +3671,12 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
+      <c r="C207" t="n">
+        <v>4</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3659,6 +3689,17 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
+      <c r="C208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3671,6 +3712,12 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
+      <c r="C209" t="n">
+        <v>7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3683,6 +3730,17 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
+      <c r="C210" t="n">
+        <v>2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3695,6 +3753,12 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3707,6 +3771,12 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3743,6 +3813,12 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3754,6 +3830,12 @@
         <is>
           <t>Hoya Mathilde</t>
         </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217"/>
@@ -4771,6 +4853,175 @@
       </c>
     </row>
     <row r="307"/>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>25.05.2025</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="322"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +46,13 @@
       <i val="1"/>
       <color rgb="FF216D20"/>
       <sz val="24"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -98,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -124,6 +131,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -470,8 +478,8 @@
   <dimension ref="A1:AB322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1623,6 +1631,9 @@
       <c r="C77" s="7" t="n">
         <v>8</v>
       </c>
+      <c r="D77" s="17" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2309,6 +2320,9 @@
       </c>
       <c r="C122" t="n">
         <v>4</v>
+      </c>
+      <c r="D122" s="17" t="n">
+        <v>200</v>
       </c>
       <c r="F122" t="n">
         <v>4</v>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -478,8 +478,8 @@
   <dimension ref="A1:AB322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1631,9 +1631,7 @@
       <c r="C77" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="D77" s="17" t="n">
-        <v>200</v>
-      </c>
+      <c r="D77" s="17" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2321,9 +2319,7 @@
       <c r="C122" t="n">
         <v>4</v>
       </c>
-      <c r="D122" s="17" t="n">
-        <v>200</v>
-      </c>
+      <c r="D122" s="17" t="n"/>
       <c r="F122" t="n">
         <v>4</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -479,7 +479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
+      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3712,21 +3712,34 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="13" t="inlineStr">
         <is>
           <t>18.05.2025</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="13" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>7</v>
+      <c r="C209" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>200</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
+        </is>
       </c>
       <c r="F209" t="n">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
       </c>
     </row>
     <row r="210">

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -92,6 +92,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -105,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -132,6 +138,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -475,11 +482,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB322"/>
+  <dimension ref="A1:AB337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E198" sqref="E198"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3597,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202"/>
+    <row r="202" customFormat="1" s="18"/>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
@@ -3861,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217"/>
+    <row r="217" customFormat="1" s="18"/>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
@@ -3873,6 +3880,12 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3885,6 +3898,15 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>500</v>
+      </c>
+      <c r="F219" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3897,6 +3919,12 @@
           <t>Epiprenum Aureum</t>
         </is>
       </c>
+      <c r="C220" t="n">
+        <v>5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3909,6 +3937,15 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>200</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3921,6 +3958,12 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
+      <c r="C222" t="n">
+        <v>5</v>
+      </c>
+      <c r="F222" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3933,6 +3976,12 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
+      <c r="C223" t="n">
+        <v>3</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3945,6 +3994,12 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3957,6 +4012,12 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
+      <c r="C225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3969,6 +4030,12 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3981,6 +4048,12 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4017,6 +4090,12 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
+      <c r="C230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4029,8 +4108,14 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="232"/>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" customFormat="1" s="18"/>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
@@ -5045,6 +5130,175 @@
       </c>
     </row>
     <row r="322"/>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>26.05.2025</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="337"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5A903B-2866-4273-BAD9-F3FFBB780435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3FF37A-09AE-4221-81EE-38A409FF2DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>26.05.2025</t>
+  </si>
+  <si>
+    <t>27.05.2025</t>
   </si>
 </sst>
 </file>
@@ -558,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB336"/>
+  <dimension ref="A1:AB351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I224" sqref="I224"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3748,7 +3751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>37</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -3764,15 +3767,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>37</v>
       </c>
       <c r="B259" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>200</v>
+      </c>
+      <c r="E259" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -3780,7 +3789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>37</v>
       </c>
@@ -3788,7 +3797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>38</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>38</v>
       </c>
@@ -3804,7 +3813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>38</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>38</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>38</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>38</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>38</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>38</v>
       </c>
@@ -3852,7 +3861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>38</v>
       </c>
@@ -3860,7 +3869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>38</v>
       </c>
@@ -4345,6 +4354,118 @@
         <v>42</v>
       </c>
       <c r="B336" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>43</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>43</v>
+      </c>
+      <c r="B339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>43</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>43</v>
+      </c>
+      <c r="B341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>43</v>
+      </c>
+      <c r="B342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>43</v>
+      </c>
+      <c r="B343" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>43</v>
+      </c>
+      <c r="B344" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>43</v>
+      </c>
+      <c r="B345" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>43</v>
+      </c>
+      <c r="B346" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>43</v>
+      </c>
+      <c r="B347" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>43</v>
+      </c>
+      <c r="B348" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>43</v>
+      </c>
+      <c r="B349" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>43</v>
+      </c>
+      <c r="B350" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>43</v>
+      </c>
+      <c r="B351" t="s">
         <v>32</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -482,11 +482,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB397"/>
+  <dimension ref="A1:AC397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G237" sqref="G237"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -497,40 +497,41 @@
     <col width="7.85546875" customWidth="1" min="4" max="4"/>
     <col width="15.140625" customWidth="1" min="5" max="6"/>
     <col width="8.5703125" customWidth="1" min="7" max="7"/>
-    <col width="11.42578125" customWidth="1" min="8" max="8"/>
-    <col width="74.28515625" customWidth="1" min="9" max="9"/>
-    <col width="42" customWidth="1" min="10" max="11"/>
-    <col width="27" customWidth="1" min="12" max="12"/>
-    <col width="42" customWidth="1" min="13" max="13"/>
-    <col width="15.7109375" customWidth="1" min="14" max="14"/>
-    <col width="26.7109375" customWidth="1" min="15" max="15"/>
-    <col width="22.28515625" customWidth="1" min="16" max="16"/>
-    <col width="27.5703125" customWidth="1" min="17" max="17"/>
-    <col width="37.5703125" customWidth="1" min="18" max="19"/>
-    <col width="38.85546875" customWidth="1" min="20" max="20"/>
-    <col width="37" customWidth="1" min="21" max="21"/>
-    <col width="31.5703125" customWidth="1" min="22" max="22"/>
-    <col width="27.85546875" customWidth="1" min="23" max="23"/>
-    <col width="26.42578125" customWidth="1" min="24" max="24"/>
-    <col width="29" customWidth="1" min="25" max="25"/>
-    <col width="37.28515625" customWidth="1" min="26" max="28"/>
-    <col width="36.42578125" customWidth="1" min="29" max="29"/>
-    <col width="28.5703125" customWidth="1" min="30" max="30"/>
-    <col width="30.140625" customWidth="1" min="31" max="32"/>
-    <col width="30.28515625" customWidth="1" min="33" max="33"/>
-    <col width="31" customWidth="1" min="34" max="34"/>
-    <col width="39.140625" customWidth="1" min="35" max="35"/>
-    <col width="41.7109375" customWidth="1" min="36" max="36"/>
-    <col width="39.5703125" customWidth="1" min="37" max="37"/>
-    <col width="29.42578125" customWidth="1" min="38" max="38"/>
-    <col width="30.28515625" customWidth="1" min="39" max="39"/>
-    <col width="25.85546875" customWidth="1" min="40" max="40"/>
-    <col width="30" customWidth="1" min="41" max="41"/>
-    <col width="37.7109375" customWidth="1" min="42" max="42"/>
-    <col width="36" customWidth="1" min="43" max="43"/>
-    <col width="37.7109375" customWidth="1" min="44" max="44"/>
-    <col width="37.28515625" customWidth="1" min="45" max="45"/>
-    <col width="38.5703125" customWidth="1" min="46" max="46"/>
+    <col width="11.5703125" customWidth="1" min="8" max="8"/>
+    <col width="11.42578125" customWidth="1" min="9" max="9"/>
+    <col width="74.28515625" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="11" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="42" customWidth="1" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" min="15" max="15"/>
+    <col width="26.7109375" customWidth="1" min="16" max="16"/>
+    <col width="22.28515625" customWidth="1" min="17" max="17"/>
+    <col width="27.5703125" customWidth="1" min="18" max="18"/>
+    <col width="37.5703125" customWidth="1" min="19" max="20"/>
+    <col width="38.85546875" customWidth="1" min="21" max="21"/>
+    <col width="37" customWidth="1" min="22" max="22"/>
+    <col width="31.5703125" customWidth="1" min="23" max="23"/>
+    <col width="27.85546875" customWidth="1" min="24" max="24"/>
+    <col width="26.42578125" customWidth="1" min="25" max="25"/>
+    <col width="29" customWidth="1" min="26" max="26"/>
+    <col width="37.28515625" customWidth="1" min="27" max="29"/>
+    <col width="36.42578125" customWidth="1" min="30" max="30"/>
+    <col width="28.5703125" customWidth="1" min="31" max="31"/>
+    <col width="30.140625" customWidth="1" min="32" max="33"/>
+    <col width="30.28515625" customWidth="1" min="34" max="34"/>
+    <col width="31" customWidth="1" min="35" max="35"/>
+    <col width="39.140625" customWidth="1" min="36" max="36"/>
+    <col width="41.7109375" customWidth="1" min="37" max="37"/>
+    <col width="39.5703125" customWidth="1" min="38" max="38"/>
+    <col width="29.42578125" customWidth="1" min="39" max="39"/>
+    <col width="30.28515625" customWidth="1" min="40" max="40"/>
+    <col width="25.85546875" customWidth="1" min="41" max="41"/>
+    <col width="30" customWidth="1" min="42" max="42"/>
+    <col width="37.7109375" customWidth="1" min="43" max="43"/>
+    <col width="36" customWidth="1" min="44" max="44"/>
+    <col width="37.7109375" customWidth="1" min="45" max="45"/>
+    <col width="37.28515625" customWidth="1" min="46" max="46"/>
+    <col width="38.5703125" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customFormat="1" customHeight="1" s="6">
@@ -571,10 +572,15 @@
       </c>
       <c r="H1" s="6" t="inlineStr">
         <is>
+          <t>neemoil</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
           <t>size</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>condition</t>
         </is>
@@ -589,12 +595,12 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="J2" s="15" t="inlineStr">
+      <c r="K2" s="15" t="inlineStr">
         <is>
           <t>Calathea veitchiana</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>https://www.epicgardening.com/calathea-varieties/</t>
         </is>
@@ -609,7 +615,7 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="AB3" s="3" t="n"/>
+      <c r="AC3" s="3" t="n"/>
     </row>
     <row r="4" customFormat="1" s="1">
       <c r="A4" s="2" t="n">
@@ -623,7 +629,7 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="AB4" s="3" t="n"/>
+      <c r="AC4" s="3" t="n"/>
     </row>
     <row r="5" customFormat="1" s="1">
       <c r="A5" s="5" t="n">
@@ -640,7 +646,7 @@
       <c r="D5" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AB5" s="3" t="n"/>
+      <c r="AC5" s="3" t="n"/>
     </row>
     <row r="6" customFormat="1" s="1">
       <c r="A6" s="5" t="n">
@@ -657,7 +663,7 @@
       <c r="D6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AB6" s="3" t="n"/>
+      <c r="AC6" s="3" t="n"/>
     </row>
     <row r="7" customFormat="1" s="1">
       <c r="A7" s="5" t="n">
@@ -674,7 +680,7 @@
       <c r="D7" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AB7" s="3" t="n"/>
+      <c r="AC7" s="3" t="n"/>
     </row>
     <row r="8" customFormat="1" s="1">
       <c r="A8" s="2" t="n">
@@ -685,7 +691,7 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="AB8" s="3" t="n"/>
+      <c r="AC8" s="3" t="n"/>
     </row>
     <row r="9" customFormat="1" s="1">
       <c r="A9" s="5" t="n">
@@ -702,7 +708,7 @@
       <c r="D9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="AB9" s="3" t="n"/>
+      <c r="AC9" s="3" t="n"/>
     </row>
     <row r="10" customFormat="1" s="10">
       <c r="A10" s="8" t="n"/>
@@ -718,7 +724,8 @@
       <c r="K10" s="9" t="n"/>
       <c r="L10" s="9" t="n"/>
       <c r="M10" s="9" t="n"/>
-      <c r="AB10" s="11" t="n"/>
+      <c r="N10" s="9" t="n"/>
+      <c r="AC10" s="11" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -994,6 +1001,7 @@
           <t>ja</t>
         </is>
       </c>
+      <c r="H31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1025,6 +1033,7 @@
           <t>ja</t>
         </is>
       </c>
+      <c r="H33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1169,6 +1178,7 @@
           <t>ja</t>
         </is>
       </c>
+      <c r="H44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1206,6 +1216,7 @@
           <t>ja</t>
         </is>
       </c>
+      <c r="H47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1227,6 +1238,7 @@
           <t>ja</t>
         </is>
       </c>
+      <c r="H48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1284,6 +1296,7 @@
           <t>ja</t>
         </is>
       </c>
+      <c r="H52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1488,7 +1501,7 @@
       <c r="F67" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I67" s="7" t="inlineStr">
+      <c r="J67" s="7" t="inlineStr">
         <is>
           <t>hat angefangen blätter zu gelben und blätter haben angefangen sich zu krümmen</t>
         </is>
@@ -1620,7 +1633,7 @@
       <c r="F76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" s="7" t="inlineStr">
+      <c r="J76" s="7" t="inlineStr">
         <is>
           <t>hat angefangen blätter zu gelben und blätter haben angefangen sich zu krümmen</t>
         </is>
@@ -1748,7 +1761,7 @@
       <c r="F85" t="n">
         <v>2</v>
       </c>
-      <c r="I85" s="7" t="inlineStr">
+      <c r="J85" s="7" t="inlineStr">
         <is>
           <t>hat angefangen blätter zu gelben und blätter haben angefangen sich zu krümmen</t>
         </is>
@@ -1790,7 +1803,7 @@
       <c r="C87" t="n">
         <v>2</v>
       </c>
-      <c r="I87" s="4" t="inlineStr">
+      <c r="J87" s="4" t="inlineStr">
         <is>
           <t>es hat sich links ein neuer ast angefangen zu bilden</t>
         </is>
@@ -4738,6 +4751,11 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4762,6 +4780,11 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4772,6 +4795,11 @@
       <c r="B286" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>ja</t>
         </is>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC397"/>
+  <dimension ref="A1:AC412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
@@ -6047,6 +6047,175 @@
       </c>
     </row>
     <row r="397"/>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>31.05.2025</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="412"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -485,8 +485,8 @@
   <dimension ref="A1:AC412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H275" sqref="H275"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H278" sqref="H278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4901,14 +4901,23 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
+      <c r="A296" s="13" t="inlineStr">
         <is>
           <t>24.05.2025</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B296" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C296" s="13" t="n"/>
+      <c r="D296" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E296" s="13" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
         </is>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -482,11 +482,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC412"/>
+  <dimension ref="A1:AC502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H278" sqref="H278"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4932,6 +4932,11 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4954,6 +4959,14 @@
       <c r="B299" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>200</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>ja</t>
         </is>
       </c>
     </row>
@@ -6225,6 +6238,1104 @@
       </c>
     </row>
     <row r="412"/>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="427"/>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="442"/>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="457"/>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="472"/>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="487"/>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
+      <c r="H489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr"/>
+      <c r="D491" t="inlineStr"/>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
+      <c r="H492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
+      <c r="H493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
+      <c r="H495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr"/>
+      <c r="D496" t="inlineStr"/>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr"/>
+      <c r="D497" t="inlineStr"/>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
+      <c r="H498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
+      <c r="H499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
+      <c r="H500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
+      <c r="H501" t="inlineStr"/>
+    </row>
+    <row r="502"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -482,11 +482,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC502"/>
+  <dimension ref="A1:AC682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J294" sqref="J294"/>
+      <selection pane="bottomLeft" activeCell="H308" sqref="H308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5150,6 +5150,9 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
+      <c r="D315" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5172,6 +5175,11 @@
       <c r="B317" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>ja</t>
         </is>
       </c>
     </row>
@@ -7094,12 +7102,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -7112,12 +7114,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -7130,12 +7126,6 @@
           <t>Epiprenum Aureum</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr"/>
-      <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -7148,12 +7138,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C491" t="inlineStr"/>
-      <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -7166,12 +7150,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -7184,12 +7162,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -7202,12 +7174,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
-      <c r="H494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -7220,12 +7186,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -7238,12 +7198,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -7256,12 +7210,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr"/>
-      <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
-      <c r="H497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -7274,12 +7222,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
-      <c r="H498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7292,12 +7234,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr"/>
-      <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
-      <c r="H499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -7310,12 +7246,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr"/>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
-      <c r="H500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -7328,14 +7258,2120 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
-      <c r="H501" t="inlineStr"/>
     </row>
     <row r="502"/>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="517"/>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="532"/>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="547"/>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="562"/>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="577"/>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="592"/>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="607"/>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="622"/>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="637"/>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="652"/>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="667"/>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr"/>
+      <c r="E668" t="inlineStr"/>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
+      <c r="H670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
+      <c r="H671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr"/>
+      <c r="H672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
+      <c r="H673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr"/>
+      <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr"/>
+      <c r="E676" t="inlineStr"/>
+      <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr"/>
+      <c r="H678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr"/>
+      <c r="D680" t="inlineStr"/>
+      <c r="E680" t="inlineStr"/>
+      <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr"/>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr"/>
+      <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr"/>
+    </row>
+    <row r="682"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC682"/>
+  <dimension ref="A1:AC772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
@@ -9130,12 +9130,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
-      <c r="H668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -9148,12 +9142,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr"/>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr"/>
-      <c r="H669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -9166,12 +9154,6 @@
           <t>Epiprenum Aureum</t>
         </is>
       </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr"/>
-      <c r="H670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -9184,12 +9166,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-      <c r="H671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -9202,12 +9178,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr"/>
-      <c r="H672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -9220,12 +9190,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr"/>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr"/>
-      <c r="H673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -9238,12 +9202,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr"/>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -9256,12 +9214,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-      <c r="H675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -9274,12 +9226,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
-      <c r="H676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -9292,12 +9238,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr"/>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr"/>
-      <c r="H677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -9310,12 +9250,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr"/>
-      <c r="H678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -9328,12 +9262,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr"/>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr"/>
-      <c r="H679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -9346,12 +9274,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-      <c r="H680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -9364,14 +9286,1106 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr"/>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr"/>
-      <c r="H681" t="inlineStr"/>
     </row>
     <row r="682"/>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="697"/>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="712"/>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="727"/>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="742"/>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="757"/>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr"/>
+      <c r="E759" t="inlineStr"/>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Epiprenum Aureum</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr"/>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr"/>
+      <c r="D763" t="inlineStr"/>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr"/>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr"/>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr"/>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr"/>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>01.06.2025</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr"/>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+    </row>
+    <row r="772"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDB7162-ABA5-4F93-A34A-AD3409EEBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D7E04-D8C3-4FC1-8E7D-75153DFE97B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,8 +588,8 @@
   <dimension ref="A1:AC3471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E346" sqref="E346"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H346" sqref="H346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4443,7 +4443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>44</v>
       </c>
@@ -4453,8 +4453,11 @@
       <c r="D338">
         <v>300</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H338" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>44</v>
       </c>
@@ -4464,24 +4467,33 @@
       <c r="D339">
         <v>500</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H339" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>44</v>
       </c>
       <c r="B340" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H340" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>44</v>
       </c>
       <c r="B341" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H341" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>44</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>44</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>44</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>44</v>
       </c>
@@ -4513,7 +4525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>44</v>
       </c>
@@ -4521,7 +4533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>44</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>44</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>44</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>44</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>44</v>
       </c>
@@ -4561,51 +4573,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B353" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H353" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B354" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H354" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B355" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H355" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B356" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H356" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>45</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>45</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>45</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>45</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>45</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>45</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>45</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>45</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>45</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>45</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>46</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D7E04-D8C3-4FC1-8E7D-75153DFE97B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F87D4-4A08-4085-B97D-A3964638E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6383" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="53">
   <si>
     <t>date</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>03.06.2025</t>
+  </si>
+  <si>
+    <t>04.06.2025</t>
   </si>
 </sst>
 </file>
@@ -585,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3471"/>
+  <dimension ref="A1:AC3831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H346" sqref="H346"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H366" sqref="H366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,7 +4696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>46</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>46</v>
       </c>
@@ -4709,23 +4712,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="D371">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>46</v>
       </c>
@@ -4733,7 +4742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>46</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>46</v>
       </c>
@@ -4749,7 +4758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>46</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>46</v>
       </c>
@@ -4765,7 +4774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>46</v>
       </c>
@@ -4773,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>46</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>46</v>
       </c>
@@ -4789,7 +4798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>46</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>47</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>47</v>
       </c>
@@ -27866,6 +27875,2694 @@
         <v>51</v>
       </c>
       <c r="B3471" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3473" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3473" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3474" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3474" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3475" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3476" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3476" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3477" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3477" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3478" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3478" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3479" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3479" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3480" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3480" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3481" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3481" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3482" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3482" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3483" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3483" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3484" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3484" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3485" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3485" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3486" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3486" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3488" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3488" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3489" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3489" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3490" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3490" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3491" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3491" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3492" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3492" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3493" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3493" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3494" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3494" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3495" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3495" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3496" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3496" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3497" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3497" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3498" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3498" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3499" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3499" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3500" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3500" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3501" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3501" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3503" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3503" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3504" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3504" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3505" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3505" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3506" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3506" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3507" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3507" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3508" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3508" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3509" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3509" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3510" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3510" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3511" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3511" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3512" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3512" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3513" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3513" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3514" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3514" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3515" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3515" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3516" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3516" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3518" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3518" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3519" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3519" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3520" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3520" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3521" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3521" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3522" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3522" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3523" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3523" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3524" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3524" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3525" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3525" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3526" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3526" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3527" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3527" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3528" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3528" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3529" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3529" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3530" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3530" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3531" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3531" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3533" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3533" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3534" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3534" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3535" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3535" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3536" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3536" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3537" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3537" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3538" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3538" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3539" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3539" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3540" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3541" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3541" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3542" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3542" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3543" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3543" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3544" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3544" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3545" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3545" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3546" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3546" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3548" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3548" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3549" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3549" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3550" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3550" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3551" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3551" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3552" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3552" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3553" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3553" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3554" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3554" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3555" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3555" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3556" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3556" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3557" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3557" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3558" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3558" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3559" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3559" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3560" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3560" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3561" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3561" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3563" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3563" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3564" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3564" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3565" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3565" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3566" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3566" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3567" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3567" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3568" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3568" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3569" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3569" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3570" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3570" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3571" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3571" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3572" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3572" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3573" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3573" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3574" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3574" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3575" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3575" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3576" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3576" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3578" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3578" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3579" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3579" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3580" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3580" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3581" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3581" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3582" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3583" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3583" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3584" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3584" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3585" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3585" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3586" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3586" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3587" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3587" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3588" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3588" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3589" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3589" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3590" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3590" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3591" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3591" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3593" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3593" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3594" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3594" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3595" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3595" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3596" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3596" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3597" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3598" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3598" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3599" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3599" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3600" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3600" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3601" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3602" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3602" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3603" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3603" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3604" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3604" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3605" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3605" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3606" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3606" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3608" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3608" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3609" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3609" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3610" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3610" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3611" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3611" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3612" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3612" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3613" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3613" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3614" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3614" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3615" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3615" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3616" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3616" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3617" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3618" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3618" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3619" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3619" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3620" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3621" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3621" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3623" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3623" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3624" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3625" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3625" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3626" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3626" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3627" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3627" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3628" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3628" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3629" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3630" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3630" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3631" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3631" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3632" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3632" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3633" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3633" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3634" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3634" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3635" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3635" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3636" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3636" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3638" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3639" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3639" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3640" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3640" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3641" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3641" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3642" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3642" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3643" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3643" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3644" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3644" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3645" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3645" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3646" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3646" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3647" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3647" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3648" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3648" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3649" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3649" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3650" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3650" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3651" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3651" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3653" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3653" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3654" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3654" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3655" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3655" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3656" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3656" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3657" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3657" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3658" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3658" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3659" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3659" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3660" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3660" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3661" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3661" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3662" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3662" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3663" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3663" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3664" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3664" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3665" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3665" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3666" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3666" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3668" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3668" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3669" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3669" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3670" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3670" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3671" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3671" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3672" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3672" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3673" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3673" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3674" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3674" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3675" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3675" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3676" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3676" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3677" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3677" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3678" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3678" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3679" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3679" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3680" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3680" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3681" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3681" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3683" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3683" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3684" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3684" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3685" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3685" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3686" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3686" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3687" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3687" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3688" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3688" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3689" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3689" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3690" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3690" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3691" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3691" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3692" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3692" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3693" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3693" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3694" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3694" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3695" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3695" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3696" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3696" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3698" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3698" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3699" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3699" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3700" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3700" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3701" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3701" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3702" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3702" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3703" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3703" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3704" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3704" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3705" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3705" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3706" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3706" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3707" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3707" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3708" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3708" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3709" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3709" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3710" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3710" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3711" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3711" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3713" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3713" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3714" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3714" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3715" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3715" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3716" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3716" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3717" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3717" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3718" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3718" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3719" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3719" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3720" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3720" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3721" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3721" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3722" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3722" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3723" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3723" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3724" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3724" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3725" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3725" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3726" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3726" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3728" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3728" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3729" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3729" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3730" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3730" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3731" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3731" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3732" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3732" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3733" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3733" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3734" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3734" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3735" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3735" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3736" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3736" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3737" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3737" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3738" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3738" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3739" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3739" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3740" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3740" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3741" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3741" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3743" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3743" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3744" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3744" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3745" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3745" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3746" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3746" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3747" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3747" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3748" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3748" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3749" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3749" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3750" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3750" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3751" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3751" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3752" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3752" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3753" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3753" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3754" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3754" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3755" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3755" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3756" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3756" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3758" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3758" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3759" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3759" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3760" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3760" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3761" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3761" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3762" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3762" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3763" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3763" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3764" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3764" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3765" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3765" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3766" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3766" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3767" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3767" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3768" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3768" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3769" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3769" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3770" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3770" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3771" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3771" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3773" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3773" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3774" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3774" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3775" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3775" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3776" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3776" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3777" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3777" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3778" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3778" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3779" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3779" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3780" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3780" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3781" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3781" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3782" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3782" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3783" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3783" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3784" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3784" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3785" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3785" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3786" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3786" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3788" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3788" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3789" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3789" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3790" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3790" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3791" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3791" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3792" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3792" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3793" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3793" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3794" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3794" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3795" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3795" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3796" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3796" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3797" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3797" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3798" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3798" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3799" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3799" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3800" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3800" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3801" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3801" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3803" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3803" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3804" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3804" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3805" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3805" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3806" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3806" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3807" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3807" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3808" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3808" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3809" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3809" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3810" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3810" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3811" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3811" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3812" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3812" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3813" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3813" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3831" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F87D4-4A08-4085-B97D-A3964638E08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F7941-D613-465A-B6E3-D3317AE76BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7055" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8103" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>04.06.2025</t>
+  </si>
+  <si>
+    <t>05.06.2025</t>
+  </si>
+  <si>
+    <t>06.06.2025</t>
+  </si>
+  <si>
+    <t>07.06.2025</t>
   </si>
 </sst>
 </file>
@@ -588,11 +597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3831"/>
+  <dimension ref="A1:AC4386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H366" sqref="H366"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E393" sqref="E393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +4831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>47</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>47</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>47</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>47</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>47</v>
       </c>
@@ -4862,7 +4871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>47</v>
       </c>
@@ -4878,7 +4887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>47</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>47</v>
       </c>
@@ -4894,7 +4903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>47</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>47</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>47</v>
       </c>
@@ -4918,23 +4927,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>48</v>
       </c>
       <c r="B398" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H398" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>48</v>
       </c>
       <c r="B399" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H399" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>48</v>
       </c>
@@ -4942,71 +4957,95 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>48</v>
       </c>
       <c r="B401" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H401" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>48</v>
       </c>
       <c r="B402" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H402" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>48</v>
       </c>
       <c r="B403" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H403" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>48</v>
       </c>
       <c r="B404" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H404" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>48</v>
       </c>
       <c r="B405" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H405" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>48</v>
       </c>
       <c r="B406" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H406" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>48</v>
       </c>
       <c r="B407" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H407" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>48</v>
       </c>
       <c r="B408" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H408" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>48</v>
       </c>
@@ -5014,23 +5053,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>48</v>
       </c>
       <c r="B410" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H410" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>48</v>
       </c>
       <c r="B411" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H411" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>49</v>
       </c>
@@ -5038,7 +5083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>49</v>
       </c>
@@ -5046,7 +5091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>49</v>
       </c>
@@ -5054,7 +5099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>49</v>
       </c>
@@ -30563,6 +30608,4150 @@
         <v>52</v>
       </c>
       <c r="B3831" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3891" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3893" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3894" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3895" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3896" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3897" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3898" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3899" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3900" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3901" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3902" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3903" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3904" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3905" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3906" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3908" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3909" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3910" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3910" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3911" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3911" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3912" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3912" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3913" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3913" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3914" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3914" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3915" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3915" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3916" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3916" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3917" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3917" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3918" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3918" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3919" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3919" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3920" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3920" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3921" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3921" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3923" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3923" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3924" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3924" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3925" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3925" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3926" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3926" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3927" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3927" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3928" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3928" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3929" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3929" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3930" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3930" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3931" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3931" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3932" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3932" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3933" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3933" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3934" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3934" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3935" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3935" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3936" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3936" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3938" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3938" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3939" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3939" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3940" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3940" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3941" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3941" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3942" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3942" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3943" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3943" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3944" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3944" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3945" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3945" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3946" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3946" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3947" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3947" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3948" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3948" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3949" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3949" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3950" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3950" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3951" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3951" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3953" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3953" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3954" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3954" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3955" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3955" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3956" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3956" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3957" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3957" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3958" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3958" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3959" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3959" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3960" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3960" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3961" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3961" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3962" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3962" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3963" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3963" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3964" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3964" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3965" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3965" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3966" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3966" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3968" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3968" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3969" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3969" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3970" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3970" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3971" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3971" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3972" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3972" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3973" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3973" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3974" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3974" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3975" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3975" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3976" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3976" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3977" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3977" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3978" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3978" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3979" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3979" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3980" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3980" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3981" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3981" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3983" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3983" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3984" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3985" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3985" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3986" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3986" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3987" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3987" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3988" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3988" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3989" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3989" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3990" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3990" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3991" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3991" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3992" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3992" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3993" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3993" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3994" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3994" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3995" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3995" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3996" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3996" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3998" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3998" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3999" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3999" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4000" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4000" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4001" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4001" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4002" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4002" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4003" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4003" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4004" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4004" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4005" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4005" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4006" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4006" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4007" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4007" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4008" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4008" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4009" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4009" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4010" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4010" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4011" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4011" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4013" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4013" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4014" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4014" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4015" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4015" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4016" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4016" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4017" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4017" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4018" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4018" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4019" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4019" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4020" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4020" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4021" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4021" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4022" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4022" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4023" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4023" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4024" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4024" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4025" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4025" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4026" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4026" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4028" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4028" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4029" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4029" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4030" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4030" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4031" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4031" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4032" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4032" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4033" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4033" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4034" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4034" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4035" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4035" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4036" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4036" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4037" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4037" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4038" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4038" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4039" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4039" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4040" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4040" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4041" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4041" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4043" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4044" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4045" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4046" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4047" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4048" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4049" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4050" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4051" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4052" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4053" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4054" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4055" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4056" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4058" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4059" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4060" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4061" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4062" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4063" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4064" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4065" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4066" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4067" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4068" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4069" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4070" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4071" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4073" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4074" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4075" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4076" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4077" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4078" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4079" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4080" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4081" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4082" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4083" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4084" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4085" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4086" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4088" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4089" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4090" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4091" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4092" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4093" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4094" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4095" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4096" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4097" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4098" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4099" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4101" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4103" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4106" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4109" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4121" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4123" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4124" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4125" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4127" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4130" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4131" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4140" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4142" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4144" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4145" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4146" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4148" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4149" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4150" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4151" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4152" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4153" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4154" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4154" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4155" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4156" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4157" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4158" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4159" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4160" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4160" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4161" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4164" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4165" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4166" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4168" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4169" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4170" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4171" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4172" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4173" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4173" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4174" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4175" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4175" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4176" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4176" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4178" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4179" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4180" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4181" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4182" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4183" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4185" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4185" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4186" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4186" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4187" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4188" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4189" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4190" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4191" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4193" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4194" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4195" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4196" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4197" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4198" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4199" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4200" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4201" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4202" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4203" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4204" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4205" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4206" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4208" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4209" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4210" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4211" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4212" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4213" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4214" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4215" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4216" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4217" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4218" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4221" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4223" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4224" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4225" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4226" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4227" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4228" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4229" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4230" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4231" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4232" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4233" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4234" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4235" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4236" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4238" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4239" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4240" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4241" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4242" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4243" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4386" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485F7941-D613-465A-B6E3-D3317AE76BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C34F26B-BD7B-4FBF-92DE-3361F01ADB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E393" sqref="E393"/>
+      <selection pane="bottomLeft" activeCell="E407" sqref="E407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5107,7 +5107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>49</v>
       </c>
@@ -5115,15 +5115,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>49</v>
       </c>
       <c r="B418" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>49</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>49</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>49</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>49</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>49</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>49</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>49</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>49</v>
       </c>
@@ -5195,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>49</v>
       </c>
@@ -5203,7 +5206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>49</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>49</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>49</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45282F16-BCFA-47B5-B13D-D1583913FDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB99E565-8330-40FB-9A56-1C4B660BDA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10455" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11300" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -609,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC5676"/>
+  <dimension ref="A1:AC6126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F459" sqref="F459"/>
+      <selection pane="bottomLeft" activeCell="J459" sqref="J459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,7 +5366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>45811</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>45811</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>45811</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>45811</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>45811</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>45811</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>45811</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>45811</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>45812</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>45812</v>
       </c>
@@ -5445,7 +5446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>45812</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>45812</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>45812</v>
       </c>
@@ -5472,37 +5473,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="2">
+    <row r="463" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="19">
         <v>45812</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="2">
+      <c r="H463" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="19">
         <v>45812</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="2">
+      <c r="H464" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="19">
         <v>45812</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H465" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>45812</v>
       </c>
@@ -5510,7 +5520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>45812</v>
       </c>
@@ -5518,7 +5528,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>45812</v>
       </c>
@@ -5526,7 +5536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>45812</v>
       </c>
@@ -5534,29 +5544,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="2">
+    <row r="470" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="19">
         <v>45812</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="2">
+      <c r="H470" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="19">
         <v>45812</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H471" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>45813</v>
       </c>
@@ -5564,7 +5580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>45813</v>
       </c>
@@ -5572,7 +5588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>45813</v>
       </c>
@@ -5580,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>45813</v>
       </c>
@@ -5588,7 +5604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>45813</v>
       </c>
@@ -5596,7 +5612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>45813</v>
       </c>
@@ -5604,7 +5620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>45813</v>
       </c>
@@ -5612,7 +5628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>45813</v>
       </c>
@@ -44417,6 +44433,3366 @@
         <v>59</v>
       </c>
       <c r="B5676" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5678" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5678" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5679" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5679" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5680" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5680" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5681" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5681" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5682" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5682" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5683" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5683" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5684" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5684" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5685" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5685" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5686" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5686" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5687" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5687" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5688" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5688" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5689" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5689" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5690" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5690" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5691" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5691" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5693" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5693" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5694" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5694" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5695" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5695" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5696" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5696" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5697" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5697" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5698" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5698" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5699" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5699" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5700" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5700" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5701" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5701" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5702" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5702" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5703" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5703" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5704" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5704" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5705" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5705" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5706" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5706" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5708" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5708" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5709" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5709" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5710" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5710" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5711" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5711" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5712" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5712" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5713" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5713" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5714" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5714" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5715" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5715" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5716" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5716" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5717" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5717" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5718" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5718" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5719" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5719" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5720" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5720" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5721" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5721" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5723" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5723" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5724" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5724" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5725" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5725" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5726" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5726" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5727" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5727" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5728" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5728" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5729" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5729" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5730" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5730" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5731" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5731" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5732" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5732" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5733" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5733" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5734" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5734" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5735" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5735" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5736" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5736" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5738" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5738" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5739" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5739" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5740" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5740" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5741" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5741" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5742" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5742" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5743" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5743" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5744" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5744" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5745" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5745" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5746" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5746" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5747" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5747" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5748" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5748" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5749" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5749" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5750" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5750" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5751" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5751" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5753" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5753" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5754" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5754" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5755" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5755" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5756" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5756" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5757" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5757" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5758" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5758" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5759" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5759" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5760" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5760" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5761" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5761" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5762" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5762" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5763" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5763" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5764" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5764" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5765" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5765" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5766" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5766" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5768" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5768" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5769" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5769" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5770" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5770" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5771" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5771" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5772" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5772" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5773" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5773" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5774" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5774" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5775" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5775" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5776" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5776" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5777" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5777" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5778" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5778" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5779" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5779" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5780" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5780" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5781" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5781" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5783" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5783" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5784" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5784" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5785" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5785" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5786" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5786" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5787" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5787" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5788" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5788" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5789" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5789" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5790" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5790" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5791" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5791" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5792" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5792" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5793" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5793" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5794" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5794" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5795" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5795" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5796" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5796" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5798" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5798" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5799" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5799" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5800" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5800" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5801" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5801" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5802" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5802" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5803" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5803" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5804" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5804" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5805" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5805" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5806" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5806" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5807" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5807" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5808" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5808" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5809" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5809" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5810" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5810" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5811" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5811" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5813" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5813" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5814" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5814" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5815" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5815" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5816" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5816" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5817" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5817" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5818" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5818" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5819" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5819" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5820" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5820" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5821" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5821" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5822" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5822" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5823" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5823" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5824" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5824" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5825" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5825" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5826" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5826" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5828" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5828" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5829" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5829" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5830" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5830" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5831" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5831" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5832" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5832" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5833" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5833" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5834" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5834" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5835" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5835" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5836" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5836" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5837" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5837" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5838" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5838" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5839" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5839" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5840" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5840" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5841" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5841" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5843" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5843" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5844" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5844" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5845" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5845" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5846" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5846" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5847" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5847" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5848" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5848" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5849" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5849" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5850" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5850" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5851" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5851" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5852" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5852" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5853" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5853" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5854" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5854" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5855" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5855" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5856" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5856" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5858" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5858" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5859" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5859" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5860" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5860" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5861" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5861" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5862" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5862" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5863" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5863" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5864" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5864" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5865" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5865" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5866" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5866" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5867" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5867" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5868" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5868" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5869" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5869" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5870" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5870" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5871" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5871" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5873" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5873" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5874" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5874" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5875" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5875" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5876" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5876" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5877" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5877" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5878" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5878" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5879" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5879" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5880" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5880" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5881" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5881" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5882" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5882" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5883" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5883" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5884" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5884" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5885" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5885" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5886" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5886" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5888" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5888" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5889" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5889" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5890" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5890" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5891" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5891" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5892" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5892" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5893" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5893" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5894" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5894" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5895" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5895" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5896" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5896" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5897" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5897" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5898" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5898" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5899" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5899" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5900" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5900" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5901" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5901" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5903" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5903" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5904" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5904" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5905" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5905" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5906" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5906" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5907" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5907" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5908" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5908" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5909" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5909" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5910" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5910" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5911" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5911" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5912" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5912" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5913" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5913" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5914" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5914" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5915" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5915" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5916" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5916" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5918" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5918" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5919" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5919" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5920" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5920" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5921" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5921" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5922" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5922" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5923" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5923" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5924" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5924" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5925" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5925" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5926" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5926" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5927" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5927" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5928" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5928" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5929" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5929" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5930" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5930" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5931" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5931" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5933" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5933" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5934" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5934" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5935" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5935" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5936" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5936" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5937" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5937" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5938" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5938" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5939" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5939" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5940" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5940" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5941" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5941" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5942" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5942" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5943" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5943" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5944" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5944" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5945" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5945" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5946" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5946" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5948" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5948" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5949" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5949" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5950" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5950" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5951" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5951" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5952" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5952" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5953" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5953" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5954" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5954" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5955" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5955" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5956" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5956" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5957" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5957" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5958" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5958" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5959" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5959" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5960" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5960" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5961" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5961" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5963" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5963" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5964" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5964" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5965" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5965" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5966" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5966" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5967" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5967" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5968" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5968" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5969" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5969" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5970" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5970" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5971" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5971" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5972" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5972" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5973" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5973" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5974" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5974" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5975" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5975" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5976" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5976" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5978" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5978" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5979" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5979" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5980" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5980" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5981" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5981" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5982" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5982" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5983" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5983" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5984" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5984" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5985" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5985" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5986" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5986" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5987" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5987" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5988" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5988" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5989" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5989" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5990" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5990" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5991" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5991" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5993" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5993" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5994" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5994" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5995" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5995" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5996" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5996" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5997" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5997" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5998" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5998" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5999" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5999" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6000" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6000" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6001" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6001" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6002" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6002" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6003" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6003" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6004" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6004" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6005" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6005" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6006" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6006" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6008" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6008" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6009" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6009" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6010" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6010" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6011" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6011" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6012" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6012" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6013" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6013" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6014" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6014" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6015" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6015" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6016" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6016" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6017" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6017" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6018" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6018" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6019" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6019" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6020" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6020" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6021" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6021" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6023" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6023" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6024" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6024" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6025" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6025" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6026" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6026" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6027" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6027" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6028" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6028" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6029" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6029" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6030" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6030" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6031" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6031" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6032" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6032" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6033" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6033" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6034" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6034" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6035" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6035" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6036" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6036" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6038" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6038" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6039" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6039" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6040" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6040" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6041" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6041" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6042" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6042" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6043" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6043" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6044" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6044" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6045" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6045" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6046" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6046" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6047" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6047" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6048" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6048" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6049" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6049" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6050" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6050" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6051" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6051" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6053" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6053" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6054" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6054" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6055" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6055" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6056" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6056" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6057" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6057" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6058" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6058" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6059" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6059" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6060" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6060" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6061" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6061" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6062" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6062" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6063" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6063" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6064" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6064" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6065" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6065" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6066" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6066" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6068" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6068" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6069" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6069" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6070" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6070" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6071" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6071" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6072" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6072" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6073" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6073" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6074" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6074" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6075" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6075" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6076" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6076" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6077" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6077" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6078" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6078" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6079" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6079" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6080" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6080" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6081" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6081" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6083" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6083" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6084" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6084" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6085" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6085" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6086" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6086" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6087" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6087" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6088" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6088" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6089" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6089" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6090" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6090" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6091" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6091" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6092" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6092" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6093" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6093" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6094" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6094" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6095" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6095" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6096" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6096" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6098" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6098" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6099" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6099" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6101" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6102" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6104" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6105" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6108" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6109" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6113" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6117" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6121" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6124" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6126" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776EED5-DC46-4826-978F-7BF00D793DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0159BC1-4DFF-4BBF-8754-D3CBFCB0BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="58">
   <si>
     <t>date</t>
   </si>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>01.06.2025</t>
+  </si>
+  <si>
+    <t>08.06.2025</t>
+  </si>
+  <si>
+    <t>09.06.2025</t>
+  </si>
+  <si>
+    <t>10.06.2025</t>
+  </si>
+  <si>
+    <t>11.06.2025</t>
+  </si>
+  <si>
+    <t>12.06.2025</t>
+  </si>
+  <si>
+    <t>13.06.2025</t>
+  </si>
+  <si>
+    <t>14.06.2025</t>
+  </si>
+  <si>
+    <t>15.06.2025</t>
   </si>
 </sst>
 </file>
@@ -580,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC516"/>
+  <dimension ref="A1:AC636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F500" sqref="F500"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A542" sqref="A542:XFD542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5905,6 +5929,905 @@
         <v>33</v>
       </c>
     </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>50</v>
+      </c>
+      <c r="B518" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>50</v>
+      </c>
+      <c r="B519" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>50</v>
+      </c>
+      <c r="B520" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>50</v>
+      </c>
+      <c r="B521" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>50</v>
+      </c>
+      <c r="B522" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>50</v>
+      </c>
+      <c r="B523" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>50</v>
+      </c>
+      <c r="B524" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>50</v>
+      </c>
+      <c r="B525" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>50</v>
+      </c>
+      <c r="B526" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>50</v>
+      </c>
+      <c r="B527" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>50</v>
+      </c>
+      <c r="B528" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>50</v>
+      </c>
+      <c r="B529" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>50</v>
+      </c>
+      <c r="B530" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>50</v>
+      </c>
+      <c r="B531" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>51</v>
+      </c>
+      <c r="B533" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>51</v>
+      </c>
+      <c r="B534" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>51</v>
+      </c>
+      <c r="B535" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>51</v>
+      </c>
+      <c r="B536" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>51</v>
+      </c>
+      <c r="B537" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>51</v>
+      </c>
+      <c r="B538" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>51</v>
+      </c>
+      <c r="B539" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>51</v>
+      </c>
+      <c r="B540" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>51</v>
+      </c>
+      <c r="B541" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>51</v>
+      </c>
+      <c r="B542" t="s">
+        <v>29</v>
+      </c>
+      <c r="D542">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>51</v>
+      </c>
+      <c r="B543" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>51</v>
+      </c>
+      <c r="B544" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>51</v>
+      </c>
+      <c r="B545" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>51</v>
+      </c>
+      <c r="B546" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>52</v>
+      </c>
+      <c r="B548" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>52</v>
+      </c>
+      <c r="B549" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>52</v>
+      </c>
+      <c r="B550" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>52</v>
+      </c>
+      <c r="B551" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>52</v>
+      </c>
+      <c r="B552" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>52</v>
+      </c>
+      <c r="B553" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>52</v>
+      </c>
+      <c r="B554" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>52</v>
+      </c>
+      <c r="B555" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>52</v>
+      </c>
+      <c r="B556" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>52</v>
+      </c>
+      <c r="B557" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>52</v>
+      </c>
+      <c r="B558" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>52</v>
+      </c>
+      <c r="B559" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>52</v>
+      </c>
+      <c r="B560" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>52</v>
+      </c>
+      <c r="B561" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>53</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>53</v>
+      </c>
+      <c r="B564" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>53</v>
+      </c>
+      <c r="B565" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>53</v>
+      </c>
+      <c r="B566" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>53</v>
+      </c>
+      <c r="B567" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>53</v>
+      </c>
+      <c r="B568" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>53</v>
+      </c>
+      <c r="B569" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>53</v>
+      </c>
+      <c r="B570" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>53</v>
+      </c>
+      <c r="B571" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>53</v>
+      </c>
+      <c r="B572" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>53</v>
+      </c>
+      <c r="B573" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>53</v>
+      </c>
+      <c r="B574" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>53</v>
+      </c>
+      <c r="B575" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>53</v>
+      </c>
+      <c r="B576" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>54</v>
+      </c>
+      <c r="B578" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>54</v>
+      </c>
+      <c r="B579" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>54</v>
+      </c>
+      <c r="B580" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>54</v>
+      </c>
+      <c r="B581" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>54</v>
+      </c>
+      <c r="B582" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>54</v>
+      </c>
+      <c r="B583" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>54</v>
+      </c>
+      <c r="B584" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>54</v>
+      </c>
+      <c r="B585" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>54</v>
+      </c>
+      <c r="B586" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>54</v>
+      </c>
+      <c r="B587" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>54</v>
+      </c>
+      <c r="B588" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>54</v>
+      </c>
+      <c r="B589" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>54</v>
+      </c>
+      <c r="B590" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>54</v>
+      </c>
+      <c r="B591" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>55</v>
+      </c>
+      <c r="B593" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>55</v>
+      </c>
+      <c r="B594" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>55</v>
+      </c>
+      <c r="B595" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>55</v>
+      </c>
+      <c r="B596" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>55</v>
+      </c>
+      <c r="B597" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>55</v>
+      </c>
+      <c r="B598" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>55</v>
+      </c>
+      <c r="B599" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>55</v>
+      </c>
+      <c r="B600" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>55</v>
+      </c>
+      <c r="B601" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>55</v>
+      </c>
+      <c r="B602" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>55</v>
+      </c>
+      <c r="B603" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>55</v>
+      </c>
+      <c r="B604" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>55</v>
+      </c>
+      <c r="B605" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>55</v>
+      </c>
+      <c r="B606" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>56</v>
+      </c>
+      <c r="B608" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>56</v>
+      </c>
+      <c r="B609" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>56</v>
+      </c>
+      <c r="B610" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>56</v>
+      </c>
+      <c r="B611" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>56</v>
+      </c>
+      <c r="B612" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>56</v>
+      </c>
+      <c r="B613" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>56</v>
+      </c>
+      <c r="B614" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>56</v>
+      </c>
+      <c r="B615" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>56</v>
+      </c>
+      <c r="B616" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>56</v>
+      </c>
+      <c r="B617" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>56</v>
+      </c>
+      <c r="B618" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>56</v>
+      </c>
+      <c r="B619" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>56</v>
+      </c>
+      <c r="B620" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>56</v>
+      </c>
+      <c r="B621" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>57</v>
+      </c>
+      <c r="B623" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>57</v>
+      </c>
+      <c r="B624" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>57</v>
+      </c>
+      <c r="B625" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>57</v>
+      </c>
+      <c r="B626" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>57</v>
+      </c>
+      <c r="B627" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>57</v>
+      </c>
+      <c r="B628" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>57</v>
+      </c>
+      <c r="B629" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>57</v>
+      </c>
+      <c r="B630" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>57</v>
+      </c>
+      <c r="B631" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>57</v>
+      </c>
+      <c r="B632" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>57</v>
+      </c>
+      <c r="B633" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>57</v>
+      </c>
+      <c r="B634" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>57</v>
+      </c>
+      <c r="B635" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>57</v>
+      </c>
+      <c r="B636" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0159BC1-4DFF-4BBF-8754-D3CBFCB0BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A68B2B-CA30-4D07-80DB-7E9AEE1E2A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="58">
   <si>
     <t>date</t>
   </si>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -324,6 +324,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -607,8 +609,8 @@
   <dimension ref="A1:AC636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A542" sqref="A542:XFD542"/>
+      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J528" sqref="J528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +621,7 @@
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
     <col min="5" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="74.28515625" customWidth="1"/>
     <col min="11" max="12" width="42" customWidth="1"/>
@@ -678,7 +680,7 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -695,6 +697,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="21"/>
       <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
@@ -709,6 +712,7 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="21"/>
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -721,6 +725,7 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="H4" s="21"/>
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -736,6 +741,7 @@
       <c r="D5" s="4">
         <v>100</v>
       </c>
+      <c r="H5" s="21"/>
       <c r="AC5" s="3"/>
     </row>
     <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -751,6 +757,7 @@
       <c r="D6" s="4">
         <v>100</v>
       </c>
+      <c r="H6" s="21"/>
       <c r="AC6" s="3"/>
     </row>
     <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -766,6 +773,7 @@
       <c r="D7" s="4">
         <v>100</v>
       </c>
+      <c r="H7" s="21"/>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -775,6 +783,7 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="H8" s="21"/>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -790,6 +799,7 @@
       <c r="D9" s="4">
         <v>100</v>
       </c>
+      <c r="H9" s="21"/>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -800,7 +810,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -896,6 +906,7 @@
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -996,6 +1007,7 @@
     </row>
     <row r="28" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -1041,7 +1053,6 @@
       <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -1067,7 +1078,6 @@
       <c r="G33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1101,6 +1111,7 @@
     </row>
     <row r="37" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -1190,7 +1201,6 @@
       <c r="G44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -1205,6 +1215,7 @@
     </row>
     <row r="46" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -1222,7 +1233,6 @@
       <c r="G47" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -1240,7 +1250,6 @@
       <c r="G48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -1288,7 +1297,6 @@
       <c r="G52" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -1312,7 +1320,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="7"/>
+    </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45780</v>
@@ -1409,6 +1419,7 @@
     </row>
     <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -1533,6 +1544,7 @@
     </row>
     <row r="73" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
+      <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -1641,7 +1653,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H82" s="7"/>
+    </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45783</v>
@@ -1775,7 +1789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="7"/>
+    </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45784</v>
@@ -1846,7 +1862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45784</v>
       </c>
@@ -1857,7 +1873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45784</v>
       </c>
@@ -1871,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45784</v>
       </c>
@@ -1885,8 +1901,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>45785</v>
       </c>
@@ -1906,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45785</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>45785</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45785</v>
       </c>
@@ -1954,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>45785</v>
       </c>
@@ -1974,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45785</v>
       </c>
@@ -1985,7 +2003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45785</v>
       </c>
@@ -1999,7 +2017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45785</v>
       </c>
@@ -2013,8 +2031,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45786</v>
       </c>
@@ -2028,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45786</v>
       </c>
@@ -2042,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45786</v>
       </c>
@@ -2056,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45786</v>
       </c>
@@ -2070,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45786</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45786</v>
       </c>
@@ -2098,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45786</v>
       </c>
@@ -2112,7 +2132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45786</v>
       </c>
@@ -2126,8 +2146,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45787</v>
       </c>
@@ -2141,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45787</v>
       </c>
@@ -2155,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45787</v>
       </c>
@@ -2169,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45787</v>
       </c>
@@ -2184,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45787</v>
       </c>
@@ -2198,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45787</v>
       </c>
@@ -2212,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45787</v>
       </c>
@@ -2226,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45787</v>
       </c>
@@ -2240,8 +2262,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45788</v>
       </c>
@@ -2255,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45788</v>
       </c>
@@ -2269,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45788</v>
       </c>
@@ -2283,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45788</v>
       </c>
@@ -2297,7 +2321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45788</v>
       </c>
@@ -2311,7 +2335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45788</v>
       </c>
@@ -2325,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>45788</v>
       </c>
@@ -2342,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>45788</v>
       </c>
@@ -2359,8 +2383,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45789</v>
       </c>
@@ -2374,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>45789</v>
       </c>
@@ -2394,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>45789</v>
       </c>
@@ -2408,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>45789</v>
       </c>
@@ -2428,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45789</v>
       </c>
@@ -2442,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45789</v>
       </c>
@@ -2456,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45789</v>
       </c>
@@ -2470,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45789</v>
       </c>
@@ -2484,8 +2510,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45790</v>
       </c>
@@ -2499,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45790</v>
       </c>
@@ -2513,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45790</v>
       </c>
@@ -2527,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45790</v>
       </c>
@@ -2541,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45790</v>
       </c>
@@ -2555,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45790</v>
       </c>
@@ -2569,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45790</v>
       </c>
@@ -2583,7 +2611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45790</v>
       </c>
@@ -2597,8 +2625,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45791</v>
       </c>
@@ -2612,7 +2642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45791</v>
       </c>
@@ -2626,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>45791</v>
       </c>
@@ -2643,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45791</v>
       </c>
@@ -2657,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>45791</v>
       </c>
@@ -2674,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45791</v>
       </c>
@@ -2688,7 +2718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45791</v>
       </c>
@@ -2702,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45791</v>
       </c>
@@ -2716,8 +2746,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -2731,7 +2763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -2745,7 +2777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -2759,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -2773,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +2822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -2804,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -2818,7 +2850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -2832,8 +2864,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -2847,7 +2881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -2861,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -2875,7 +2909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -2903,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>27</v>
       </c>
@@ -2923,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -2937,7 +2971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>27</v>
       </c>
@@ -2957,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -2965,7 +2999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>27</v>
       </c>
@@ -2985,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -2993,7 +3027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -3001,7 +3035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -3009,7 +3043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -3017,8 +3051,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
         <v>34</v>
       </c>
@@ -3038,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>34</v>
       </c>
@@ -3052,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>34</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>34</v>
       </c>
@@ -3080,7 +3116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -3094,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>34</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>34</v>
       </c>
@@ -3122,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>34</v>
       </c>
@@ -3136,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>34</v>
       </c>
@@ -3156,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -3170,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -3178,7 +3214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +3222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>34</v>
       </c>
@@ -3206,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>34</v>
       </c>
@@ -3226,8 +3262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>35</v>
       </c>
@@ -3241,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>35</v>
       </c>
@@ -3255,7 +3293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>35</v>
       </c>
@@ -3269,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>35</v>
       </c>
@@ -3283,7 +3321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>35</v>
       </c>
@@ -3297,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>35</v>
       </c>
@@ -3314,7 +3352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>35</v>
       </c>
@@ -3337,7 +3375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>35</v>
       </c>
@@ -3354,7 +3392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -3368,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>35</v>
       </c>
@@ -3382,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>35</v>
       </c>
@@ -3390,7 +3428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>35</v>
       </c>
@@ -3398,7 +3436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>35</v>
       </c>
@@ -3412,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>35</v>
       </c>
@@ -3426,8 +3464,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>36</v>
       </c>
@@ -3441,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>36</v>
       </c>
@@ -3458,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>36</v>
       </c>
@@ -3472,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>36</v>
       </c>
@@ -3489,7 +3529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>36</v>
       </c>
@@ -3512,7 +3552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>36</v>
       </c>
@@ -3526,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>36</v>
       </c>
@@ -3540,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>36</v>
       </c>
@@ -3554,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>36</v>
       </c>
@@ -3568,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>36</v>
       </c>
@@ -3582,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>36</v>
       </c>
@@ -3590,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>36</v>
       </c>
@@ -3598,7 +3638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>36</v>
       </c>
@@ -3612,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>36</v>
       </c>
@@ -3626,8 +3666,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H232" s="7"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -3635,7 +3677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>37</v>
       </c>
@@ -3643,7 +3685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>37</v>
       </c>
@@ -3651,7 +3693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>37</v>
       </c>
@@ -3659,7 +3701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>37</v>
       </c>
@@ -3667,7 +3709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -3675,7 +3717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>37</v>
       </c>
@@ -3683,7 +3725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4072,7 @@
       <c r="B283" t="s">
         <v>17</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H283" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4049,7 +4091,7 @@
       <c r="B285" t="s">
         <v>19</v>
       </c>
-      <c r="H285" t="s">
+      <c r="H285" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4060,7 +4102,7 @@
       <c r="B286" t="s">
         <v>28</v>
       </c>
-      <c r="H286" t="s">
+      <c r="H286" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4150,7 +4192,7 @@
       <c r="B297" t="s">
         <v>16</v>
       </c>
-      <c r="H297" t="s">
+      <c r="H297" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4172,7 +4214,7 @@
       <c r="D299">
         <v>200</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H299" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4314,7 +4356,7 @@
       <c r="B317" t="s">
         <v>29</v>
       </c>
-      <c r="H317" t="s">
+      <c r="H317" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4941,7 +4983,7 @@
       <c r="B398" t="s">
         <v>10</v>
       </c>
-      <c r="H398" t="s">
+      <c r="H398" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4952,7 +4994,7 @@
       <c r="B399" t="s">
         <v>13</v>
       </c>
-      <c r="H399" t="s">
+      <c r="H399" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4971,7 +5013,7 @@
       <c r="B401" t="s">
         <v>15</v>
       </c>
-      <c r="H401" t="s">
+      <c r="H401" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4982,7 +5024,7 @@
       <c r="B402" t="s">
         <v>16</v>
       </c>
-      <c r="H402" t="s">
+      <c r="H402" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4993,7 +5035,7 @@
       <c r="B403" t="s">
         <v>17</v>
       </c>
-      <c r="H403" t="s">
+      <c r="H403" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5004,7 +5046,7 @@
       <c r="B404" t="s">
         <v>18</v>
       </c>
-      <c r="H404" t="s">
+      <c r="H404" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5015,7 +5057,7 @@
       <c r="B405" t="s">
         <v>19</v>
       </c>
-      <c r="H405" t="s">
+      <c r="H405" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5026,7 +5068,7 @@
       <c r="B406" t="s">
         <v>28</v>
       </c>
-      <c r="H406" t="s">
+      <c r="H406" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5037,7 +5079,7 @@
       <c r="B407" t="s">
         <v>29</v>
       </c>
-      <c r="H407" t="s">
+      <c r="H407" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5048,7 +5090,7 @@
       <c r="B408" t="s">
         <v>30</v>
       </c>
-      <c r="H408" t="s">
+      <c r="H408" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5067,7 +5109,7 @@
       <c r="B410" t="s">
         <v>32</v>
       </c>
-      <c r="H410" t="s">
+      <c r="H410" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5078,7 +5120,7 @@
       <c r="B411" t="s">
         <v>33</v>
       </c>
-      <c r="H411" t="s">
+      <c r="H411" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6017,7 +6059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>50</v>
       </c>
@@ -6025,7 +6067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>50</v>
       </c>
@@ -6033,7 +6075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>50</v>
       </c>
@@ -6041,47 +6083,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+    <row r="533" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+      <c r="H533" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="H534" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B535" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+      <c r="H535" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="H536" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H537" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>51</v>
       </c>
@@ -6089,15 +6146,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+    <row r="539" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H539" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>51</v>
       </c>
@@ -6105,7 +6165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>51</v>
       </c>
@@ -6113,7 +6173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>51</v>
       </c>
@@ -6124,7 +6184,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>51</v>
       </c>
@@ -6132,7 +6192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>51</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A68B2B-CA30-4D07-80DB-7E9AEE1E2A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B800F5-61B2-4820-A2C7-EC432EB684E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,8 +609,8 @@
   <dimension ref="A1:AC636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J528" sqref="J528"/>
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F552" sqref="F552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,7 +6200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>51</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>51</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>52</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>52</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>52</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>52</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>52</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>52</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>52</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>52</v>
       </c>
@@ -6280,15 +6280,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>52</v>
       </c>
       <c r="B556" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D556">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>52</v>
       </c>
@@ -6296,15 +6299,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>52</v>
       </c>
       <c r="B558" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D558">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>52</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>52</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC802"/>
+  <dimension ref="A1:AC847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
@@ -10231,12 +10231,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr"/>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr"/>
-      <c r="G758" t="inlineStr"/>
-      <c r="H758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -10249,12 +10243,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr"/>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr"/>
-      <c r="G759" t="inlineStr"/>
-      <c r="H759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -10267,12 +10255,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr"/>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr"/>
-      <c r="G760" t="inlineStr"/>
-      <c r="H760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -10285,12 +10267,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr"/>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr"/>
-      <c r="G761" t="inlineStr"/>
-      <c r="H761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -10303,12 +10279,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr"/>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr"/>
-      <c r="H762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -10321,12 +10291,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr"/>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr"/>
-      <c r="H763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -10339,12 +10303,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr"/>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr"/>
-      <c r="H764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -10357,12 +10315,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr"/>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr"/>
-      <c r="H765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -10375,12 +10327,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr"/>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr"/>
-      <c r="H766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -10393,12 +10339,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr"/>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr"/>
-      <c r="H767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -10411,12 +10351,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr"/>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr"/>
-      <c r="H768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -10429,12 +10363,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr"/>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr"/>
-      <c r="H769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -10447,12 +10375,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr"/>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr"/>
-      <c r="H770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -10465,12 +10387,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr"/>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr"/>
-      <c r="H771" t="inlineStr"/>
     </row>
     <row r="772"/>
     <row r="773">
@@ -10484,12 +10400,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr"/>
-      <c r="H773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -10502,12 +10412,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr"/>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr"/>
-      <c r="H774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -10520,12 +10424,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr"/>
-      <c r="H775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -10538,12 +10436,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr"/>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr"/>
-      <c r="G776" t="inlineStr"/>
-      <c r="H776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -10556,12 +10448,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr"/>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr"/>
-      <c r="G777" t="inlineStr"/>
-      <c r="H777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -10574,12 +10460,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr"/>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr"/>
-      <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -10592,12 +10472,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr"/>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr"/>
-      <c r="G779" t="inlineStr"/>
-      <c r="H779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -10610,12 +10484,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr"/>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr"/>
-      <c r="H780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -10628,12 +10496,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr"/>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr"/>
-      <c r="G781" t="inlineStr"/>
-      <c r="H781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -10646,12 +10508,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr"/>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr"/>
-      <c r="G782" t="inlineStr"/>
-      <c r="H782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -10664,12 +10520,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr"/>
-      <c r="E783" t="inlineStr"/>
-      <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -10682,12 +10532,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr"/>
-      <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -10700,12 +10544,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -10718,12 +10556,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr"/>
-      <c r="H786" t="inlineStr"/>
     </row>
     <row r="787"/>
     <row r="788">
@@ -10737,12 +10569,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr"/>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -10755,12 +10581,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr"/>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -10773,12 +10593,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr"/>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr"/>
-      <c r="H790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -10791,12 +10605,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr"/>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -10809,12 +10617,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr"/>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -10827,12 +10629,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr"/>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -10845,12 +10641,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr"/>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr"/>
-      <c r="H794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -10863,12 +10653,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-      <c r="H795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -10881,12 +10665,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr"/>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr"/>
-      <c r="G796" t="inlineStr"/>
-      <c r="H796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -10899,12 +10677,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr"/>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr"/>
-      <c r="H797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -10917,12 +10689,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr"/>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr"/>
-      <c r="H798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -10935,12 +10701,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-      <c r="H799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -10953,12 +10713,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr"/>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr"/>
-      <c r="G800" t="inlineStr"/>
-      <c r="H800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -10971,14 +10725,767 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr"/>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr"/>
     </row>
     <row r="802"/>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr"/>
+      <c r="E803" t="inlineStr"/>
+      <c r="F803" t="inlineStr"/>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr"/>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr"/>
+      <c r="H806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr"/>
+      <c r="E807" t="inlineStr"/>
+      <c r="F807" t="inlineStr"/>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr"/>
+      <c r="E808" t="inlineStr"/>
+      <c r="F808" t="inlineStr"/>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr"/>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr"/>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr"/>
+      <c r="E811" t="inlineStr"/>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr"/>
+      <c r="D812" t="inlineStr"/>
+      <c r="E812" t="inlineStr"/>
+      <c r="F812" t="inlineStr"/>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr"/>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr"/>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr"/>
+      <c r="E814" t="inlineStr"/>
+      <c r="F814" t="inlineStr"/>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="inlineStr"/>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr"/>
+      <c r="H815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr"/>
+      <c r="D816" t="inlineStr"/>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="inlineStr"/>
+      <c r="H816" t="inlineStr"/>
+    </row>
+    <row r="817"/>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr"/>
+      <c r="D818" t="inlineStr"/>
+      <c r="E818" t="inlineStr"/>
+      <c r="F818" t="inlineStr"/>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="inlineStr"/>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr"/>
+      <c r="H819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr"/>
+      <c r="D820" t="inlineStr"/>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="inlineStr"/>
+      <c r="H820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr"/>
+      <c r="D821" t="inlineStr"/>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr"/>
+      <c r="H821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr"/>
+      <c r="D822" t="inlineStr"/>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr"/>
+      <c r="H822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr"/>
+      <c r="D823" t="inlineStr"/>
+      <c r="E823" t="inlineStr"/>
+      <c r="F823" t="inlineStr"/>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr"/>
+      <c r="D824" t="inlineStr"/>
+      <c r="E824" t="inlineStr"/>
+      <c r="F824" t="inlineStr"/>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr"/>
+      <c r="D825" t="inlineStr"/>
+      <c r="E825" t="inlineStr"/>
+      <c r="F825" t="inlineStr"/>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr"/>
+      <c r="D826" t="inlineStr"/>
+      <c r="E826" t="inlineStr"/>
+      <c r="F826" t="inlineStr"/>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="inlineStr"/>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr"/>
+      <c r="H827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr"/>
+      <c r="D828" t="inlineStr"/>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr"/>
+      <c r="H828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr"/>
+      <c r="D829" t="inlineStr"/>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr"/>
+      <c r="H829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr"/>
+      <c r="D830" t="inlineStr"/>
+      <c r="E830" t="inlineStr"/>
+      <c r="F830" t="inlineStr"/>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="inlineStr"/>
+      <c r="E831" t="inlineStr"/>
+      <c r="F831" t="inlineStr"/>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+    </row>
+    <row r="832"/>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="inlineStr"/>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr"/>
+      <c r="H834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr"/>
+      <c r="D836" t="inlineStr"/>
+      <c r="E836" t="inlineStr"/>
+      <c r="F836" t="inlineStr"/>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr"/>
+      <c r="D837" t="inlineStr"/>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr"/>
+      <c r="D838" t="inlineStr"/>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr"/>
+      <c r="D839" t="inlineStr"/>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="inlineStr"/>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr"/>
+      <c r="D841" t="inlineStr"/>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr"/>
+      <c r="H841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr"/>
+      <c r="D842" t="inlineStr"/>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr"/>
+      <c r="D843" t="inlineStr"/>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr"/>
+      <c r="G843" t="inlineStr"/>
+      <c r="H843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr"/>
+      <c r="D844" t="inlineStr"/>
+      <c r="E844" t="inlineStr"/>
+      <c r="F844" t="inlineStr"/>
+      <c r="G844" t="inlineStr"/>
+      <c r="H844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr"/>
+      <c r="D845" t="inlineStr"/>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr"/>
+      <c r="H845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr"/>
+      <c r="D846" t="inlineStr"/>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr"/>
+      <c r="H846" t="inlineStr"/>
+    </row>
+    <row r="847"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -485,11 +485,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC847"/>
+  <dimension ref="A1:AC966"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F552" sqref="F552"/>
+      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E567" sqref="E567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8023,3469 +8023,2314 @@
       </c>
     </row>
     <row r="562"/>
-    <row r="563">
-      <c r="A563" t="inlineStr">
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr"/>
+      <c r="D847" t="inlineStr"/>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr"/>
+      <c r="H847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr"/>
+      <c r="D848" t="inlineStr"/>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr"/>
+      <c r="H848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr"/>
+      <c r="D849" t="inlineStr"/>
+      <c r="E849" t="inlineStr"/>
+      <c r="F849" t="inlineStr"/>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr"/>
+      <c r="D850" t="inlineStr"/>
+      <c r="E850" t="inlineStr"/>
+      <c r="F850" t="inlineStr"/>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr"/>
+      <c r="D851" t="inlineStr"/>
+      <c r="E851" t="inlineStr"/>
+      <c r="F851" t="inlineStr"/>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr"/>
+      <c r="D852" t="inlineStr"/>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr"/>
+      <c r="H853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr"/>
+      <c r="H854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
+      <c r="H855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
+      <c r="H856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr"/>
+      <c r="D857" t="inlineStr"/>
+      <c r="E857" t="inlineStr"/>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr"/>
+      <c r="D858" t="inlineStr"/>
+      <c r="E858" t="inlineStr"/>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="inlineStr"/>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr"/>
+      <c r="H859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr"/>
+      <c r="D860" t="inlineStr"/>
+      <c r="E860" t="inlineStr"/>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr"/>
+      <c r="H860" t="inlineStr"/>
+    </row>
+    <row r="861"/>
+    <row r="862">
+      <c r="A862" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B563" t="inlineStr">
+      <c r="B862" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
+      <c r="C862" t="inlineStr"/>
+      <c r="D862" t="inlineStr"/>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr"/>
+      <c r="H862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr">
+      <c r="B863" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
+      <c r="C863" t="inlineStr"/>
+      <c r="D863" t="inlineStr"/>
+      <c r="E863" t="inlineStr"/>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B565" t="inlineStr">
+      <c r="B864" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
+      <c r="C864" t="inlineStr"/>
+      <c r="D864" t="inlineStr"/>
+      <c r="E864" t="inlineStr"/>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B566" t="inlineStr">
+      <c r="B865" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
+      <c r="C865" t="inlineStr"/>
+      <c r="D865" t="inlineStr"/>
+      <c r="E865" t="inlineStr"/>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B567" t="inlineStr">
+      <c r="B866" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
+      <c r="C866" t="inlineStr"/>
+      <c r="D866" t="inlineStr"/>
+      <c r="E866" t="inlineStr"/>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B568" t="inlineStr">
+      <c r="B867" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
+      <c r="C867" t="inlineStr"/>
+      <c r="D867" t="inlineStr"/>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr"/>
+      <c r="H867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B569" t="inlineStr">
+      <c r="B868" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="inlineStr"/>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr"/>
+      <c r="H868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B570" t="inlineStr">
+      <c r="B869" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
+      <c r="C869" t="inlineStr"/>
+      <c r="D869" t="inlineStr"/>
+      <c r="E869" t="inlineStr"/>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr">
+      <c r="B870" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
+      <c r="C870" t="inlineStr"/>
+      <c r="D870" t="inlineStr"/>
+      <c r="E870" t="inlineStr"/>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr">
+      <c r="B871" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
+      <c r="C871" t="inlineStr"/>
+      <c r="D871" t="inlineStr"/>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr"/>
+      <c r="H871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr">
+      <c r="B872" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="inlineStr"/>
+      <c r="E872" t="inlineStr"/>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr"/>
+      <c r="H872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr">
+      <c r="B873" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr"/>
+      <c r="H873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr">
+      <c r="B874" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
+      <c r="C874" t="inlineStr"/>
+      <c r="D874" t="inlineStr"/>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="inlineStr"/>
+      <c r="H874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
         <is>
           <t>11.06.2025</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr">
+      <c r="B875" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="577"/>
-    <row r="578">
-      <c r="A578" t="inlineStr">
+      <c r="C875" t="inlineStr"/>
+      <c r="D875" t="inlineStr"/>
+      <c r="E875" t="inlineStr"/>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="inlineStr"/>
+      <c r="H875" t="inlineStr"/>
+    </row>
+    <row r="876"/>
+    <row r="877">
+      <c r="A877" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr">
+      <c r="B877" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
+      <c r="C877" t="inlineStr"/>
+      <c r="D877" t="inlineStr"/>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr"/>
+      <c r="H877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr">
+      <c r="B878" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr">
+      <c r="B879" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr">
+      <c r="B880" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
+      <c r="C880" t="inlineStr"/>
+      <c r="D880" t="inlineStr"/>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B582" t="inlineStr">
+      <c r="B881" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
+      <c r="C881" t="inlineStr"/>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr">
+      <c r="B882" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
+      <c r="C882" t="inlineStr"/>
+      <c r="D882" t="inlineStr"/>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr">
+      <c r="B883" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
+      <c r="C883" t="inlineStr"/>
+      <c r="D883" t="inlineStr"/>
+      <c r="E883" t="inlineStr"/>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr">
+      <c r="B884" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
+      <c r="C884" t="inlineStr"/>
+      <c r="D884" t="inlineStr"/>
+      <c r="E884" t="inlineStr"/>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr"/>
+      <c r="H884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B586" t="inlineStr">
+      <c r="B885" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
+      <c r="C885" t="inlineStr"/>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="inlineStr"/>
+      <c r="H885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B587" t="inlineStr">
+      <c r="B886" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr"/>
+      <c r="H886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr">
+      <c r="B887" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
+      <c r="C887" t="inlineStr"/>
+      <c r="D887" t="inlineStr"/>
+      <c r="E887" t="inlineStr"/>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B589" t="inlineStr">
+      <c r="B888" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
+      <c r="C888" t="inlineStr"/>
+      <c r="D888" t="inlineStr"/>
+      <c r="E888" t="inlineStr"/>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr">
+      <c r="B889" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
+      <c r="C889" t="inlineStr"/>
+      <c r="D889" t="inlineStr"/>
+      <c r="E889" t="inlineStr"/>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
         <is>
           <t>12.06.2025</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr">
+      <c r="B890" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="592"/>
-    <row r="593">
-      <c r="A593" t="inlineStr">
+      <c r="C890" t="inlineStr"/>
+      <c r="D890" t="inlineStr"/>
+      <c r="E890" t="inlineStr"/>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr"/>
+    </row>
+    <row r="891"/>
+    <row r="892">
+      <c r="A892" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B593" t="inlineStr">
+      <c r="B892" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
+      <c r="C892" t="inlineStr"/>
+      <c r="D892" t="inlineStr"/>
+      <c r="E892" t="inlineStr"/>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr"/>
+      <c r="H892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B594" t="inlineStr">
+      <c r="B893" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr"/>
+      <c r="E893" t="inlineStr"/>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr"/>
+      <c r="H893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B595" t="inlineStr">
+      <c r="B894" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
+      <c r="C894" t="inlineStr"/>
+      <c r="D894" t="inlineStr"/>
+      <c r="E894" t="inlineStr"/>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="inlineStr"/>
+      <c r="H894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B596" t="inlineStr">
+      <c r="B895" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
+      <c r="C895" t="inlineStr"/>
+      <c r="D895" t="inlineStr"/>
+      <c r="E895" t="inlineStr"/>
+      <c r="F895" t="inlineStr"/>
+      <c r="G895" t="inlineStr"/>
+      <c r="H895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B597" t="inlineStr">
+      <c r="B896" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
+      <c r="C896" t="inlineStr"/>
+      <c r="D896" t="inlineStr"/>
+      <c r="E896" t="inlineStr"/>
+      <c r="F896" t="inlineStr"/>
+      <c r="G896" t="inlineStr"/>
+      <c r="H896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B598" t="inlineStr">
+      <c r="B897" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
+      <c r="C897" t="inlineStr"/>
+      <c r="D897" t="inlineStr"/>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr"/>
+      <c r="H897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B599" t="inlineStr">
+      <c r="B898" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
+      <c r="C898" t="inlineStr"/>
+      <c r="D898" t="inlineStr"/>
+      <c r="E898" t="inlineStr"/>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr"/>
+      <c r="H898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr">
+      <c r="B899" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
+      <c r="C899" t="inlineStr"/>
+      <c r="D899" t="inlineStr"/>
+      <c r="E899" t="inlineStr"/>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
+      <c r="H899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr">
+      <c r="B900" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="inlineStr"/>
+      <c r="E900" t="inlineStr"/>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr"/>
+      <c r="H900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B602" t="inlineStr">
+      <c r="B901" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
+      <c r="C901" t="inlineStr"/>
+      <c r="D901" t="inlineStr"/>
+      <c r="E901" t="inlineStr"/>
+      <c r="F901" t="inlineStr"/>
+      <c r="G901" t="inlineStr"/>
+      <c r="H901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr">
+      <c r="B902" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
+      <c r="C902" t="inlineStr"/>
+      <c r="D902" t="inlineStr"/>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="inlineStr"/>
+      <c r="H902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr">
+      <c r="B903" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
+      <c r="C903" t="inlineStr"/>
+      <c r="D903" t="inlineStr"/>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="inlineStr"/>
+      <c r="H903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B605" t="inlineStr">
+      <c r="B904" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
+      <c r="C904" t="inlineStr"/>
+      <c r="D904" t="inlineStr"/>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="inlineStr"/>
+      <c r="H904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr">
+      <c r="B905" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="607"/>
-    <row r="608">
-      <c r="A608" t="inlineStr">
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="inlineStr"/>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="inlineStr"/>
+      <c r="H905" t="inlineStr"/>
+    </row>
+    <row r="906"/>
+    <row r="907">
+      <c r="A907" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr">
+      <c r="B907" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
+      <c r="C907" t="inlineStr"/>
+      <c r="D907" t="inlineStr"/>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr"/>
+      <c r="H907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B609" t="inlineStr">
+      <c r="B908" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
+      <c r="C908" t="inlineStr"/>
+      <c r="D908" t="inlineStr"/>
+      <c r="E908" t="inlineStr"/>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr"/>
+      <c r="H908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr">
+      <c r="B909" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
+      <c r="C909" t="inlineStr"/>
+      <c r="D909" t="inlineStr"/>
+      <c r="E909" t="inlineStr"/>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="inlineStr"/>
+      <c r="H909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr">
+      <c r="B910" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
+      <c r="C910" t="inlineStr"/>
+      <c r="D910" t="inlineStr"/>
+      <c r="E910" t="inlineStr"/>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="inlineStr"/>
+      <c r="H910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B612" t="inlineStr">
+      <c r="B911" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
+      <c r="C911" t="inlineStr"/>
+      <c r="D911" t="inlineStr"/>
+      <c r="E911" t="inlineStr"/>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="inlineStr"/>
+      <c r="H911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B613" t="inlineStr">
+      <c r="B912" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
+      <c r="C912" t="inlineStr"/>
+      <c r="D912" t="inlineStr"/>
+      <c r="E912" t="inlineStr"/>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="inlineStr"/>
+      <c r="H912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B614" t="inlineStr">
+      <c r="B913" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
+      <c r="C913" t="inlineStr"/>
+      <c r="D913" t="inlineStr"/>
+      <c r="E913" t="inlineStr"/>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="inlineStr"/>
+      <c r="H913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B615" t="inlineStr">
+      <c r="B914" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
+      <c r="C914" t="inlineStr"/>
+      <c r="D914" t="inlineStr"/>
+      <c r="E914" t="inlineStr"/>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="inlineStr"/>
+      <c r="H914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B616" t="inlineStr">
+      <c r="B915" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
+      <c r="C915" t="inlineStr"/>
+      <c r="D915" t="inlineStr"/>
+      <c r="E915" t="inlineStr"/>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="inlineStr"/>
+      <c r="H915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B617" t="inlineStr">
+      <c r="B916" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
+      <c r="C916" t="inlineStr"/>
+      <c r="D916" t="inlineStr"/>
+      <c r="E916" t="inlineStr"/>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="inlineStr"/>
+      <c r="H916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
+      <c r="B917" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
+      <c r="C917" t="inlineStr"/>
+      <c r="D917" t="inlineStr"/>
+      <c r="E917" t="inlineStr"/>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="inlineStr"/>
+      <c r="H917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B619" t="inlineStr">
+      <c r="B918" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
+      <c r="C918" t="inlineStr"/>
+      <c r="D918" t="inlineStr"/>
+      <c r="E918" t="inlineStr"/>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="inlineStr"/>
+      <c r="H918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B620" t="inlineStr">
+      <c r="B919" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
+      <c r="C919" t="inlineStr"/>
+      <c r="D919" t="inlineStr"/>
+      <c r="E919" t="inlineStr"/>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="inlineStr"/>
+      <c r="H919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
         <is>
           <t>14.06.2025</t>
         </is>
       </c>
-      <c r="B621" t="inlineStr">
+      <c r="B920" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="622"/>
-    <row r="623">
-      <c r="A623" t="inlineStr">
+      <c r="C920" t="inlineStr"/>
+      <c r="D920" t="inlineStr"/>
+      <c r="E920" t="inlineStr"/>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="inlineStr"/>
+      <c r="H920" t="inlineStr"/>
+    </row>
+    <row r="921"/>
+    <row r="922">
+      <c r="A922" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B623" t="inlineStr">
+      <c r="B922" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
+      <c r="C922" t="inlineStr"/>
+      <c r="D922" t="inlineStr"/>
+      <c r="E922" t="inlineStr"/>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="inlineStr"/>
+      <c r="H922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B624" t="inlineStr">
+      <c r="B923" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
+      <c r="C923" t="inlineStr"/>
+      <c r="D923" t="inlineStr"/>
+      <c r="E923" t="inlineStr"/>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="inlineStr"/>
+      <c r="H923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B625" t="inlineStr">
+      <c r="B924" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
+      <c r="C924" t="inlineStr"/>
+      <c r="D924" t="inlineStr"/>
+      <c r="E924" t="inlineStr"/>
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="inlineStr"/>
+      <c r="H924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B626" t="inlineStr">
+      <c r="B925" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
+      <c r="C925" t="inlineStr"/>
+      <c r="D925" t="inlineStr"/>
+      <c r="E925" t="inlineStr"/>
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="inlineStr"/>
+      <c r="H925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr">
+      <c r="B926" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
+      <c r="C926" t="inlineStr"/>
+      <c r="D926" t="inlineStr"/>
+      <c r="E926" t="inlineStr"/>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="inlineStr"/>
+      <c r="H926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B628" t="inlineStr">
+      <c r="B927" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
+      <c r="C927" t="inlineStr"/>
+      <c r="D927" t="inlineStr"/>
+      <c r="E927" t="inlineStr"/>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="inlineStr"/>
+      <c r="H927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B629" t="inlineStr">
+      <c r="B928" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
+      <c r="C928" t="inlineStr"/>
+      <c r="D928" t="inlineStr"/>
+      <c r="E928" t="inlineStr"/>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="inlineStr"/>
+      <c r="H928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B630" t="inlineStr">
+      <c r="B929" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
+      <c r="C929" t="inlineStr"/>
+      <c r="D929" t="inlineStr"/>
+      <c r="E929" t="inlineStr"/>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="inlineStr"/>
+      <c r="H929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B631" t="inlineStr">
+      <c r="B930" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
+      <c r="C930" t="inlineStr"/>
+      <c r="D930" t="inlineStr"/>
+      <c r="E930" t="inlineStr"/>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="inlineStr"/>
+      <c r="H930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B632" t="inlineStr">
+      <c r="B931" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
+      <c r="C931" t="inlineStr"/>
+      <c r="D931" t="inlineStr"/>
+      <c r="E931" t="inlineStr"/>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="inlineStr"/>
+      <c r="H931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B633" t="inlineStr">
+      <c r="B932" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
+      <c r="C932" t="inlineStr"/>
+      <c r="D932" t="inlineStr"/>
+      <c r="E932" t="inlineStr"/>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="inlineStr"/>
+      <c r="H932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B634" t="inlineStr">
+      <c r="B933" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
+      <c r="C933" t="inlineStr"/>
+      <c r="D933" t="inlineStr"/>
+      <c r="E933" t="inlineStr"/>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="inlineStr"/>
+      <c r="H933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B635" t="inlineStr">
+      <c r="B934" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
+      <c r="C934" t="inlineStr"/>
+      <c r="D934" t="inlineStr"/>
+      <c r="E934" t="inlineStr"/>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="inlineStr"/>
+      <c r="H934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B636" t="inlineStr">
+      <c r="B935" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="637"/>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
+      <c r="C935" t="inlineStr"/>
+      <c r="D935" t="inlineStr"/>
+      <c r="E935" t="inlineStr"/>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
+      <c r="H935" t="inlineStr"/>
+    </row>
+    <row r="936"/>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
+      <c r="C937" t="inlineStr"/>
+      <c r="D937" t="inlineStr"/>
+      <c r="E937" t="inlineStr"/>
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="inlineStr"/>
+      <c r="H937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
+      <c r="C938" t="inlineStr"/>
+      <c r="D938" t="inlineStr"/>
+      <c r="E938" t="inlineStr"/>
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="inlineStr"/>
+      <c r="H938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
+      <c r="C939" t="inlineStr"/>
+      <c r="D939" t="inlineStr"/>
+      <c r="E939" t="inlineStr"/>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="inlineStr"/>
+      <c r="H939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
+      <c r="C940" t="inlineStr"/>
+      <c r="D940" t="inlineStr"/>
+      <c r="E940" t="inlineStr"/>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="inlineStr"/>
+      <c r="H940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
+      <c r="C941" t="inlineStr"/>
+      <c r="D941" t="inlineStr"/>
+      <c r="E941" t="inlineStr"/>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="inlineStr"/>
+      <c r="H941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr">
+      <c r="C942" t="inlineStr"/>
+      <c r="D942" t="inlineStr"/>
+      <c r="E942" t="inlineStr"/>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="inlineStr"/>
+      <c r="H942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr">
+      <c r="C943" t="inlineStr"/>
+      <c r="D943" t="inlineStr"/>
+      <c r="E943" t="inlineStr"/>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="inlineStr"/>
+      <c r="H943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr">
+      <c r="C944" t="inlineStr"/>
+      <c r="D944" t="inlineStr"/>
+      <c r="E944" t="inlineStr"/>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="inlineStr"/>
+      <c r="H944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
+      <c r="C945" t="inlineStr"/>
+      <c r="D945" t="inlineStr"/>
+      <c r="E945" t="inlineStr"/>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="inlineStr"/>
+      <c r="H945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
+      <c r="C946" t="inlineStr"/>
+      <c r="D946" t="inlineStr"/>
+      <c r="E946" t="inlineStr"/>
+      <c r="F946" t="inlineStr"/>
+      <c r="G946" t="inlineStr"/>
+      <c r="H946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
+      <c r="C947" t="inlineStr"/>
+      <c r="D947" t="inlineStr"/>
+      <c r="E947" t="inlineStr"/>
+      <c r="F947" t="inlineStr"/>
+      <c r="G947" t="inlineStr"/>
+      <c r="H947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
+      <c r="C948" t="inlineStr"/>
+      <c r="D948" t="inlineStr"/>
+      <c r="E948" t="inlineStr"/>
+      <c r="F948" t="inlineStr"/>
+      <c r="G948" t="inlineStr"/>
+      <c r="H948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
+      <c r="C949" t="inlineStr"/>
+      <c r="D949" t="inlineStr"/>
+      <c r="E949" t="inlineStr"/>
+      <c r="F949" t="inlineStr"/>
+      <c r="G949" t="inlineStr"/>
+      <c r="H949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>16.06.2025</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="652"/>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
+      <c r="C950" t="inlineStr"/>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="inlineStr"/>
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr"/>
+      <c r="H950" t="inlineStr"/>
+    </row>
+    <row r="951"/>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
         <is>
           <t>Calathea Medalion</t>
         </is>
       </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
+      <c r="C952" t="inlineStr"/>
+      <c r="D952" t="inlineStr"/>
+      <c r="E952" t="inlineStr"/>
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
         <is>
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
+      <c r="C953" t="inlineStr"/>
+      <c r="D953" t="inlineStr"/>
+      <c r="E953" t="inlineStr"/>
+      <c r="F953" t="inlineStr"/>
+      <c r="G953" t="inlineStr"/>
+      <c r="H953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
         <is>
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
+      <c r="C954" t="inlineStr"/>
+      <c r="D954" t="inlineStr"/>
+      <c r="E954" t="inlineStr"/>
+      <c r="F954" t="inlineStr"/>
+      <c r="G954" t="inlineStr"/>
+      <c r="H954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
+      <c r="C955" t="inlineStr"/>
+      <c r="D955" t="inlineStr"/>
+      <c r="E955" t="inlineStr"/>
+      <c r="F955" t="inlineStr"/>
+      <c r="G955" t="inlineStr"/>
+      <c r="H955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
+      <c r="C956" t="inlineStr"/>
+      <c r="D956" t="inlineStr"/>
+      <c r="E956" t="inlineStr"/>
+      <c r="F956" t="inlineStr"/>
+      <c r="G956" t="inlineStr"/>
+      <c r="H956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
         <is>
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
+      <c r="C957" t="inlineStr"/>
+      <c r="D957" t="inlineStr"/>
+      <c r="E957" t="inlineStr"/>
+      <c r="F957" t="inlineStr"/>
+      <c r="G957" t="inlineStr"/>
+      <c r="H957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
         <is>
           <t>Coffea Arabica</t>
         </is>
       </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
+      <c r="C958" t="inlineStr"/>
+      <c r="D958" t="inlineStr"/>
+      <c r="E958" t="inlineStr"/>
+      <c r="F958" t="inlineStr"/>
+      <c r="G958" t="inlineStr"/>
+      <c r="H958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
         </is>
       </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
+      <c r="C959" t="inlineStr"/>
+      <c r="D959" t="inlineStr"/>
+      <c r="E959" t="inlineStr"/>
+      <c r="F959" t="inlineStr"/>
+      <c r="G959" t="inlineStr"/>
+      <c r="H959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
         <is>
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
+      <c r="C960" t="inlineStr"/>
+      <c r="D960" t="inlineStr"/>
+      <c r="E960" t="inlineStr"/>
+      <c r="F960" t="inlineStr"/>
+      <c r="G960" t="inlineStr"/>
+      <c r="H960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
         <is>
           <t>Calathea Ornata</t>
         </is>
       </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
+      <c r="C961" t="inlineStr"/>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="inlineStr"/>
+      <c r="F961" t="inlineStr"/>
+      <c r="G961" t="inlineStr"/>
+      <c r="H961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
         <is>
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="inlineStr"/>
+      <c r="F962" t="inlineStr"/>
+      <c r="G962" t="inlineStr"/>
+      <c r="H962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
         <is>
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
+      <c r="C963" t="inlineStr"/>
+      <c r="D963" t="inlineStr"/>
+      <c r="E963" t="inlineStr"/>
+      <c r="F963" t="inlineStr"/>
+      <c r="G963" t="inlineStr"/>
+      <c r="H963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
         <is>
           <t>Peperomia Hope</t>
         </is>
       </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
+      <c r="C964" t="inlineStr"/>
+      <c r="D964" t="inlineStr"/>
+      <c r="E964" t="inlineStr"/>
+      <c r="F964" t="inlineStr"/>
+      <c r="G964" t="inlineStr"/>
+      <c r="H964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>17.06.2025</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
         <is>
           <t>Hoya Mathilde</t>
         </is>
       </c>
-    </row>
-    <row r="667"/>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="682"/>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>16.06.2025</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="697"/>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>17.06.2025</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="712"/>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="727"/>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="742"/>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="757"/>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="772"/>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="787"/>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="802"/>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr"/>
-      <c r="H803" t="inlineStr"/>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr"/>
-      <c r="H804" t="inlineStr"/>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr"/>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr"/>
-      <c r="H805" t="inlineStr"/>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr"/>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr"/>
-      <c r="H806" t="inlineStr"/>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-      <c r="H807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr"/>
-      <c r="H808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr"/>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr"/>
-      <c r="H809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr"/>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr"/>
-      <c r="H810" t="inlineStr"/>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr"/>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr"/>
-      <c r="H811" t="inlineStr"/>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr"/>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr"/>
-      <c r="H812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr"/>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr"/>
-      <c r="G813" t="inlineStr"/>
-      <c r="H813" t="inlineStr"/>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr"/>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr"/>
-      <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr"/>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr"/>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr"/>
-      <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr"/>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>10.06.2025</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr"/>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr"/>
-      <c r="G816" t="inlineStr"/>
-      <c r="H816" t="inlineStr"/>
-    </row>
-    <row r="817"/>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr"/>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr"/>
-      <c r="G818" t="inlineStr"/>
-      <c r="H818" t="inlineStr"/>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr"/>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr"/>
-      <c r="H819" t="inlineStr"/>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr"/>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr"/>
-      <c r="H820" t="inlineStr"/>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr"/>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr"/>
-      <c r="H821" t="inlineStr"/>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr"/>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr"/>
-      <c r="H822" t="inlineStr"/>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr"/>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr"/>
-      <c r="H823" t="inlineStr"/>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr"/>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr"/>
-      <c r="H824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr"/>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr"/>
-      <c r="H825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr"/>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr"/>
-      <c r="H826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr"/>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr"/>
-      <c r="H827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr"/>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr"/>
-      <c r="H828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr"/>
-      <c r="E829" t="inlineStr"/>
-      <c r="F829" t="inlineStr"/>
-      <c r="G829" t="inlineStr"/>
-      <c r="H829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr"/>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr"/>
-      <c r="G830" t="inlineStr"/>
-      <c r="H830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>11.06.2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-      <c r="H831" t="inlineStr"/>
-    </row>
-    <row r="832"/>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr"/>
-      <c r="E833" t="inlineStr"/>
-      <c r="F833" t="inlineStr"/>
-      <c r="G833" t="inlineStr"/>
-      <c r="H833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr"/>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr"/>
-      <c r="G834" t="inlineStr"/>
-      <c r="H834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr"/>
-      <c r="E835" t="inlineStr"/>
-      <c r="F835" t="inlineStr"/>
-      <c r="G835" t="inlineStr"/>
-      <c r="H835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr"/>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr"/>
-      <c r="G836" t="inlineStr"/>
-      <c r="H836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr"/>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr"/>
-      <c r="G837" t="inlineStr"/>
-      <c r="H837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr"/>
-      <c r="E838" t="inlineStr"/>
-      <c r="F838" t="inlineStr"/>
-      <c r="G838" t="inlineStr"/>
-      <c r="H838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>Coffea Arabica</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr"/>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr"/>
-      <c r="G839" t="inlineStr"/>
-      <c r="H839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr"/>
-      <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr"/>
-      <c r="G840" t="inlineStr"/>
-      <c r="H840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr"/>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr"/>
-      <c r="G841" t="inlineStr"/>
-      <c r="H841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr"/>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr"/>
-      <c r="G842" t="inlineStr"/>
-      <c r="H842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
-      <c r="E843" t="inlineStr"/>
-      <c r="F843" t="inlineStr"/>
-      <c r="G843" t="inlineStr"/>
-      <c r="H843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>Nephrolepis obliterata</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
-      <c r="E844" t="inlineStr"/>
-      <c r="F844" t="inlineStr"/>
-      <c r="G844" t="inlineStr"/>
-      <c r="H844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr"/>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr"/>
-      <c r="G845" t="inlineStr"/>
-      <c r="H845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>12.06.2025</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr"/>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr"/>
-      <c r="G846" t="inlineStr"/>
-      <c r="H846" t="inlineStr"/>
-    </row>
-    <row r="847"/>
+      <c r="C965" t="inlineStr"/>
+      <c r="D965" t="inlineStr"/>
+      <c r="E965" t="inlineStr"/>
+      <c r="F965" t="inlineStr"/>
+      <c r="G965" t="inlineStr"/>
+      <c r="H965" t="inlineStr"/>
+    </row>
+    <row r="966"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC966"/>
+  <dimension ref="A1:AC1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
@@ -8318,12 +8318,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr"/>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr"/>
-      <c r="H847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -8336,12 +8330,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr"/>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr"/>
-      <c r="H848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -8354,12 +8342,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr"/>
-      <c r="G849" t="inlineStr"/>
-      <c r="H849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -8372,12 +8354,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr"/>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr"/>
-      <c r="G850" t="inlineStr"/>
-      <c r="H850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -8390,12 +8366,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr"/>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr"/>
-      <c r="G851" t="inlineStr"/>
-      <c r="H851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -8408,12 +8378,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr"/>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr"/>
-      <c r="H852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -8426,12 +8390,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr"/>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr"/>
-      <c r="H853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -8444,12 +8402,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr"/>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr"/>
-      <c r="H854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -8462,12 +8414,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr"/>
-      <c r="H855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -8480,12 +8426,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr"/>
-      <c r="H856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -8498,12 +8438,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr"/>
-      <c r="H857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -8516,12 +8450,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C858" t="inlineStr"/>
-      <c r="D858" t="inlineStr"/>
-      <c r="E858" t="inlineStr"/>
-      <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr"/>
-      <c r="H858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -8534,12 +8462,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C859" t="inlineStr"/>
-      <c r="D859" t="inlineStr"/>
-      <c r="E859" t="inlineStr"/>
-      <c r="F859" t="inlineStr"/>
-      <c r="G859" t="inlineStr"/>
-      <c r="H859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
@@ -8552,12 +8474,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C860" t="inlineStr"/>
-      <c r="D860" t="inlineStr"/>
-      <c r="E860" t="inlineStr"/>
-      <c r="F860" t="inlineStr"/>
-      <c r="G860" t="inlineStr"/>
-      <c r="H860" t="inlineStr"/>
     </row>
     <row r="861"/>
     <row r="862">
@@ -8571,12 +8487,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C862" t="inlineStr"/>
-      <c r="D862" t="inlineStr"/>
-      <c r="E862" t="inlineStr"/>
-      <c r="F862" t="inlineStr"/>
-      <c r="G862" t="inlineStr"/>
-      <c r="H862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -8589,12 +8499,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C863" t="inlineStr"/>
-      <c r="D863" t="inlineStr"/>
-      <c r="E863" t="inlineStr"/>
-      <c r="F863" t="inlineStr"/>
-      <c r="G863" t="inlineStr"/>
-      <c r="H863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
@@ -8607,12 +8511,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C864" t="inlineStr"/>
-      <c r="D864" t="inlineStr"/>
-      <c r="E864" t="inlineStr"/>
-      <c r="F864" t="inlineStr"/>
-      <c r="G864" t="inlineStr"/>
-      <c r="H864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -8625,12 +8523,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C865" t="inlineStr"/>
-      <c r="D865" t="inlineStr"/>
-      <c r="E865" t="inlineStr"/>
-      <c r="F865" t="inlineStr"/>
-      <c r="G865" t="inlineStr"/>
-      <c r="H865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -8643,12 +8535,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C866" t="inlineStr"/>
-      <c r="D866" t="inlineStr"/>
-      <c r="E866" t="inlineStr"/>
-      <c r="F866" t="inlineStr"/>
-      <c r="G866" t="inlineStr"/>
-      <c r="H866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -8661,12 +8547,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C867" t="inlineStr"/>
-      <c r="D867" t="inlineStr"/>
-      <c r="E867" t="inlineStr"/>
-      <c r="F867" t="inlineStr"/>
-      <c r="G867" t="inlineStr"/>
-      <c r="H867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -8679,12 +8559,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C868" t="inlineStr"/>
-      <c r="D868" t="inlineStr"/>
-      <c r="E868" t="inlineStr"/>
-      <c r="F868" t="inlineStr"/>
-      <c r="G868" t="inlineStr"/>
-      <c r="H868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
@@ -8697,12 +8571,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C869" t="inlineStr"/>
-      <c r="D869" t="inlineStr"/>
-      <c r="E869" t="inlineStr"/>
-      <c r="F869" t="inlineStr"/>
-      <c r="G869" t="inlineStr"/>
-      <c r="H869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -8715,12 +8583,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr"/>
-      <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr"/>
-      <c r="G870" t="inlineStr"/>
-      <c r="H870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -8733,12 +8595,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C871" t="inlineStr"/>
-      <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
-      <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr"/>
-      <c r="H871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -8751,12 +8607,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C872" t="inlineStr"/>
-      <c r="D872" t="inlineStr"/>
-      <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-      <c r="H872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -8769,12 +8619,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
-      <c r="H873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -8787,12 +8631,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C874" t="inlineStr"/>
-      <c r="D874" t="inlineStr"/>
-      <c r="E874" t="inlineStr"/>
-      <c r="F874" t="inlineStr"/>
-      <c r="G874" t="inlineStr"/>
-      <c r="H874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -8805,12 +8643,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C875" t="inlineStr"/>
-      <c r="D875" t="inlineStr"/>
-      <c r="E875" t="inlineStr"/>
-      <c r="F875" t="inlineStr"/>
-      <c r="G875" t="inlineStr"/>
-      <c r="H875" t="inlineStr"/>
     </row>
     <row r="876"/>
     <row r="877">
@@ -8824,12 +8656,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C877" t="inlineStr"/>
-      <c r="D877" t="inlineStr"/>
-      <c r="E877" t="inlineStr"/>
-      <c r="F877" t="inlineStr"/>
-      <c r="G877" t="inlineStr"/>
-      <c r="H877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -8842,12 +8668,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C878" t="inlineStr"/>
-      <c r="D878" t="inlineStr"/>
-      <c r="E878" t="inlineStr"/>
-      <c r="F878" t="inlineStr"/>
-      <c r="G878" t="inlineStr"/>
-      <c r="H878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
@@ -8860,12 +8680,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C879" t="inlineStr"/>
-      <c r="D879" t="inlineStr"/>
-      <c r="E879" t="inlineStr"/>
-      <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr"/>
-      <c r="H879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
@@ -8878,12 +8692,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C880" t="inlineStr"/>
-      <c r="D880" t="inlineStr"/>
-      <c r="E880" t="inlineStr"/>
-      <c r="F880" t="inlineStr"/>
-      <c r="G880" t="inlineStr"/>
-      <c r="H880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
@@ -8896,12 +8704,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C881" t="inlineStr"/>
-      <c r="D881" t="inlineStr"/>
-      <c r="E881" t="inlineStr"/>
-      <c r="F881" t="inlineStr"/>
-      <c r="G881" t="inlineStr"/>
-      <c r="H881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -8914,12 +8716,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C882" t="inlineStr"/>
-      <c r="D882" t="inlineStr"/>
-      <c r="E882" t="inlineStr"/>
-      <c r="F882" t="inlineStr"/>
-      <c r="G882" t="inlineStr"/>
-      <c r="H882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -8932,12 +8728,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C883" t="inlineStr"/>
-      <c r="D883" t="inlineStr"/>
-      <c r="E883" t="inlineStr"/>
-      <c r="F883" t="inlineStr"/>
-      <c r="G883" t="inlineStr"/>
-      <c r="H883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -8950,12 +8740,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C884" t="inlineStr"/>
-      <c r="D884" t="inlineStr"/>
-      <c r="E884" t="inlineStr"/>
-      <c r="F884" t="inlineStr"/>
-      <c r="G884" t="inlineStr"/>
-      <c r="H884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -8968,12 +8752,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C885" t="inlineStr"/>
-      <c r="D885" t="inlineStr"/>
-      <c r="E885" t="inlineStr"/>
-      <c r="F885" t="inlineStr"/>
-      <c r="G885" t="inlineStr"/>
-      <c r="H885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -8986,12 +8764,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C886" t="inlineStr"/>
-      <c r="D886" t="inlineStr"/>
-      <c r="E886" t="inlineStr"/>
-      <c r="F886" t="inlineStr"/>
-      <c r="G886" t="inlineStr"/>
-      <c r="H886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -9004,12 +8776,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C887" t="inlineStr"/>
-      <c r="D887" t="inlineStr"/>
-      <c r="E887" t="inlineStr"/>
-      <c r="F887" t="inlineStr"/>
-      <c r="G887" t="inlineStr"/>
-      <c r="H887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -9022,12 +8788,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C888" t="inlineStr"/>
-      <c r="D888" t="inlineStr"/>
-      <c r="E888" t="inlineStr"/>
-      <c r="F888" t="inlineStr"/>
-      <c r="G888" t="inlineStr"/>
-      <c r="H888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -9040,12 +8800,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C889" t="inlineStr"/>
-      <c r="D889" t="inlineStr"/>
-      <c r="E889" t="inlineStr"/>
-      <c r="F889" t="inlineStr"/>
-      <c r="G889" t="inlineStr"/>
-      <c r="H889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -9058,12 +8812,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C890" t="inlineStr"/>
-      <c r="D890" t="inlineStr"/>
-      <c r="E890" t="inlineStr"/>
-      <c r="F890" t="inlineStr"/>
-      <c r="G890" t="inlineStr"/>
-      <c r="H890" t="inlineStr"/>
     </row>
     <row r="891"/>
     <row r="892">
@@ -9077,12 +8825,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C892" t="inlineStr"/>
-      <c r="D892" t="inlineStr"/>
-      <c r="E892" t="inlineStr"/>
-      <c r="F892" t="inlineStr"/>
-      <c r="G892" t="inlineStr"/>
-      <c r="H892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -9095,12 +8837,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C893" t="inlineStr"/>
-      <c r="D893" t="inlineStr"/>
-      <c r="E893" t="inlineStr"/>
-      <c r="F893" t="inlineStr"/>
-      <c r="G893" t="inlineStr"/>
-      <c r="H893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -9113,12 +8849,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C894" t="inlineStr"/>
-      <c r="D894" t="inlineStr"/>
-      <c r="E894" t="inlineStr"/>
-      <c r="F894" t="inlineStr"/>
-      <c r="G894" t="inlineStr"/>
-      <c r="H894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
@@ -9131,12 +8861,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C895" t="inlineStr"/>
-      <c r="D895" t="inlineStr"/>
-      <c r="E895" t="inlineStr"/>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
-      <c r="H895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -9149,12 +8873,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C896" t="inlineStr"/>
-      <c r="D896" t="inlineStr"/>
-      <c r="E896" t="inlineStr"/>
-      <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr"/>
-      <c r="H896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -9167,12 +8885,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C897" t="inlineStr"/>
-      <c r="D897" t="inlineStr"/>
-      <c r="E897" t="inlineStr"/>
-      <c r="F897" t="inlineStr"/>
-      <c r="G897" t="inlineStr"/>
-      <c r="H897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -9185,12 +8897,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C898" t="inlineStr"/>
-      <c r="D898" t="inlineStr"/>
-      <c r="E898" t="inlineStr"/>
-      <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
-      <c r="H898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -9203,12 +8909,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C899" t="inlineStr"/>
-      <c r="D899" t="inlineStr"/>
-      <c r="E899" t="inlineStr"/>
-      <c r="F899" t="inlineStr"/>
-      <c r="G899" t="inlineStr"/>
-      <c r="H899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
@@ -9221,12 +8921,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C900" t="inlineStr"/>
-      <c r="D900" t="inlineStr"/>
-      <c r="E900" t="inlineStr"/>
-      <c r="F900" t="inlineStr"/>
-      <c r="G900" t="inlineStr"/>
-      <c r="H900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
@@ -9239,12 +8933,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C901" t="inlineStr"/>
-      <c r="D901" t="inlineStr"/>
-      <c r="E901" t="inlineStr"/>
-      <c r="F901" t="inlineStr"/>
-      <c r="G901" t="inlineStr"/>
-      <c r="H901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
@@ -9257,12 +8945,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C902" t="inlineStr"/>
-      <c r="D902" t="inlineStr"/>
-      <c r="E902" t="inlineStr"/>
-      <c r="F902" t="inlineStr"/>
-      <c r="G902" t="inlineStr"/>
-      <c r="H902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -9275,12 +8957,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C903" t="inlineStr"/>
-      <c r="D903" t="inlineStr"/>
-      <c r="E903" t="inlineStr"/>
-      <c r="F903" t="inlineStr"/>
-      <c r="G903" t="inlineStr"/>
-      <c r="H903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -9293,12 +8969,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C904" t="inlineStr"/>
-      <c r="D904" t="inlineStr"/>
-      <c r="E904" t="inlineStr"/>
-      <c r="F904" t="inlineStr"/>
-      <c r="G904" t="inlineStr"/>
-      <c r="H904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
@@ -9311,12 +8981,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C905" t="inlineStr"/>
-      <c r="D905" t="inlineStr"/>
-      <c r="E905" t="inlineStr"/>
-      <c r="F905" t="inlineStr"/>
-      <c r="G905" t="inlineStr"/>
-      <c r="H905" t="inlineStr"/>
     </row>
     <row r="906"/>
     <row r="907">
@@ -9330,12 +8994,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C907" t="inlineStr"/>
-      <c r="D907" t="inlineStr"/>
-      <c r="E907" t="inlineStr"/>
-      <c r="F907" t="inlineStr"/>
-      <c r="G907" t="inlineStr"/>
-      <c r="H907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
@@ -9348,12 +9006,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C908" t="inlineStr"/>
-      <c r="D908" t="inlineStr"/>
-      <c r="E908" t="inlineStr"/>
-      <c r="F908" t="inlineStr"/>
-      <c r="G908" t="inlineStr"/>
-      <c r="H908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
@@ -9366,12 +9018,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C909" t="inlineStr"/>
-      <c r="D909" t="inlineStr"/>
-      <c r="E909" t="inlineStr"/>
-      <c r="F909" t="inlineStr"/>
-      <c r="G909" t="inlineStr"/>
-      <c r="H909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
@@ -9384,12 +9030,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C910" t="inlineStr"/>
-      <c r="D910" t="inlineStr"/>
-      <c r="E910" t="inlineStr"/>
-      <c r="F910" t="inlineStr"/>
-      <c r="G910" t="inlineStr"/>
-      <c r="H910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -9402,12 +9042,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C911" t="inlineStr"/>
-      <c r="D911" t="inlineStr"/>
-      <c r="E911" t="inlineStr"/>
-      <c r="F911" t="inlineStr"/>
-      <c r="G911" t="inlineStr"/>
-      <c r="H911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
@@ -9420,12 +9054,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C912" t="inlineStr"/>
-      <c r="D912" t="inlineStr"/>
-      <c r="E912" t="inlineStr"/>
-      <c r="F912" t="inlineStr"/>
-      <c r="G912" t="inlineStr"/>
-      <c r="H912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -9438,12 +9066,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C913" t="inlineStr"/>
-      <c r="D913" t="inlineStr"/>
-      <c r="E913" t="inlineStr"/>
-      <c r="F913" t="inlineStr"/>
-      <c r="G913" t="inlineStr"/>
-      <c r="H913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
@@ -9456,12 +9078,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C914" t="inlineStr"/>
-      <c r="D914" t="inlineStr"/>
-      <c r="E914" t="inlineStr"/>
-      <c r="F914" t="inlineStr"/>
-      <c r="G914" t="inlineStr"/>
-      <c r="H914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
@@ -9474,12 +9090,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C915" t="inlineStr"/>
-      <c r="D915" t="inlineStr"/>
-      <c r="E915" t="inlineStr"/>
-      <c r="F915" t="inlineStr"/>
-      <c r="G915" t="inlineStr"/>
-      <c r="H915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -9492,12 +9102,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C916" t="inlineStr"/>
-      <c r="D916" t="inlineStr"/>
-      <c r="E916" t="inlineStr"/>
-      <c r="F916" t="inlineStr"/>
-      <c r="G916" t="inlineStr"/>
-      <c r="H916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
@@ -9510,12 +9114,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C917" t="inlineStr"/>
-      <c r="D917" t="inlineStr"/>
-      <c r="E917" t="inlineStr"/>
-      <c r="F917" t="inlineStr"/>
-      <c r="G917" t="inlineStr"/>
-      <c r="H917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
@@ -9528,12 +9126,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C918" t="inlineStr"/>
-      <c r="D918" t="inlineStr"/>
-      <c r="E918" t="inlineStr"/>
-      <c r="F918" t="inlineStr"/>
-      <c r="G918" t="inlineStr"/>
-      <c r="H918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
@@ -9546,12 +9138,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C919" t="inlineStr"/>
-      <c r="D919" t="inlineStr"/>
-      <c r="E919" t="inlineStr"/>
-      <c r="F919" t="inlineStr"/>
-      <c r="G919" t="inlineStr"/>
-      <c r="H919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -9564,12 +9150,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C920" t="inlineStr"/>
-      <c r="D920" t="inlineStr"/>
-      <c r="E920" t="inlineStr"/>
-      <c r="F920" t="inlineStr"/>
-      <c r="G920" t="inlineStr"/>
-      <c r="H920" t="inlineStr"/>
     </row>
     <row r="921"/>
     <row r="922">
@@ -9583,12 +9163,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C922" t="inlineStr"/>
-      <c r="D922" t="inlineStr"/>
-      <c r="E922" t="inlineStr"/>
-      <c r="F922" t="inlineStr"/>
-      <c r="G922" t="inlineStr"/>
-      <c r="H922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -9601,12 +9175,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C923" t="inlineStr"/>
-      <c r="D923" t="inlineStr"/>
-      <c r="E923" t="inlineStr"/>
-      <c r="F923" t="inlineStr"/>
-      <c r="G923" t="inlineStr"/>
-      <c r="H923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
@@ -9619,12 +9187,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C924" t="inlineStr"/>
-      <c r="D924" t="inlineStr"/>
-      <c r="E924" t="inlineStr"/>
-      <c r="F924" t="inlineStr"/>
-      <c r="G924" t="inlineStr"/>
-      <c r="H924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -9637,12 +9199,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C925" t="inlineStr"/>
-      <c r="D925" t="inlineStr"/>
-      <c r="E925" t="inlineStr"/>
-      <c r="F925" t="inlineStr"/>
-      <c r="G925" t="inlineStr"/>
-      <c r="H925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -9655,12 +9211,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C926" t="inlineStr"/>
-      <c r="D926" t="inlineStr"/>
-      <c r="E926" t="inlineStr"/>
-      <c r="F926" t="inlineStr"/>
-      <c r="G926" t="inlineStr"/>
-      <c r="H926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -9673,12 +9223,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C927" t="inlineStr"/>
-      <c r="D927" t="inlineStr"/>
-      <c r="E927" t="inlineStr"/>
-      <c r="F927" t="inlineStr"/>
-      <c r="G927" t="inlineStr"/>
-      <c r="H927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -9691,12 +9235,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C928" t="inlineStr"/>
-      <c r="D928" t="inlineStr"/>
-      <c r="E928" t="inlineStr"/>
-      <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr"/>
-      <c r="H928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -9709,12 +9247,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C929" t="inlineStr"/>
-      <c r="D929" t="inlineStr"/>
-      <c r="E929" t="inlineStr"/>
-      <c r="F929" t="inlineStr"/>
-      <c r="G929" t="inlineStr"/>
-      <c r="H929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -9727,12 +9259,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C930" t="inlineStr"/>
-      <c r="D930" t="inlineStr"/>
-      <c r="E930" t="inlineStr"/>
-      <c r="F930" t="inlineStr"/>
-      <c r="G930" t="inlineStr"/>
-      <c r="H930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -9745,12 +9271,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C931" t="inlineStr"/>
-      <c r="D931" t="inlineStr"/>
-      <c r="E931" t="inlineStr"/>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
-      <c r="H931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -9763,12 +9283,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C932" t="inlineStr"/>
-      <c r="D932" t="inlineStr"/>
-      <c r="E932" t="inlineStr"/>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
-      <c r="H932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -9781,12 +9295,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C933" t="inlineStr"/>
-      <c r="D933" t="inlineStr"/>
-      <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr"/>
-      <c r="H933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -9799,12 +9307,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C934" t="inlineStr"/>
-      <c r="D934" t="inlineStr"/>
-      <c r="E934" t="inlineStr"/>
-      <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr"/>
-      <c r="H934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
@@ -9817,12 +9319,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C935" t="inlineStr"/>
-      <c r="D935" t="inlineStr"/>
-      <c r="E935" t="inlineStr"/>
-      <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr"/>
-      <c r="H935" t="inlineStr"/>
     </row>
     <row r="936"/>
     <row r="937">
@@ -9836,12 +9332,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C937" t="inlineStr"/>
-      <c r="D937" t="inlineStr"/>
-      <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
-      <c r="G937" t="inlineStr"/>
-      <c r="H937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
@@ -9854,12 +9344,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C938" t="inlineStr"/>
-      <c r="D938" t="inlineStr"/>
-      <c r="E938" t="inlineStr"/>
-      <c r="F938" t="inlineStr"/>
-      <c r="G938" t="inlineStr"/>
-      <c r="H938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
@@ -9872,12 +9356,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C939" t="inlineStr"/>
-      <c r="D939" t="inlineStr"/>
-      <c r="E939" t="inlineStr"/>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
-      <c r="H939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
@@ -9890,12 +9368,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C940" t="inlineStr"/>
-      <c r="D940" t="inlineStr"/>
-      <c r="E940" t="inlineStr"/>
-      <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr"/>
-      <c r="H940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
@@ -9908,12 +9380,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C941" t="inlineStr"/>
-      <c r="D941" t="inlineStr"/>
-      <c r="E941" t="inlineStr"/>
-      <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr"/>
-      <c r="H941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
@@ -9926,12 +9392,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C942" t="inlineStr"/>
-      <c r="D942" t="inlineStr"/>
-      <c r="E942" t="inlineStr"/>
-      <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr"/>
-      <c r="H942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -9944,12 +9404,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C943" t="inlineStr"/>
-      <c r="D943" t="inlineStr"/>
-      <c r="E943" t="inlineStr"/>
-      <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr"/>
-      <c r="H943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -9962,12 +9416,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C944" t="inlineStr"/>
-      <c r="D944" t="inlineStr"/>
-      <c r="E944" t="inlineStr"/>
-      <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr"/>
-      <c r="H944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
@@ -9980,12 +9428,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C945" t="inlineStr"/>
-      <c r="D945" t="inlineStr"/>
-      <c r="E945" t="inlineStr"/>
-      <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr"/>
-      <c r="H945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -9998,12 +9440,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C946" t="inlineStr"/>
-      <c r="D946" t="inlineStr"/>
-      <c r="E946" t="inlineStr"/>
-      <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr"/>
-      <c r="H946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -10016,12 +9452,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C947" t="inlineStr"/>
-      <c r="D947" t="inlineStr"/>
-      <c r="E947" t="inlineStr"/>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
-      <c r="H947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
@@ -10034,12 +9464,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C948" t="inlineStr"/>
-      <c r="D948" t="inlineStr"/>
-      <c r="E948" t="inlineStr"/>
-      <c r="F948" t="inlineStr"/>
-      <c r="G948" t="inlineStr"/>
-      <c r="H948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -10052,12 +9476,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C949" t="inlineStr"/>
-      <c r="D949" t="inlineStr"/>
-      <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr"/>
-      <c r="G949" t="inlineStr"/>
-      <c r="H949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -10070,12 +9488,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C950" t="inlineStr"/>
-      <c r="D950" t="inlineStr"/>
-      <c r="E950" t="inlineStr"/>
-      <c r="F950" t="inlineStr"/>
-      <c r="G950" t="inlineStr"/>
-      <c r="H950" t="inlineStr"/>
     </row>
     <row r="951"/>
     <row r="952">
@@ -10089,12 +9501,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C952" t="inlineStr"/>
-      <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
-      <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
-      <c r="H952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
@@ -10107,12 +9513,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C953" t="inlineStr"/>
-      <c r="D953" t="inlineStr"/>
-      <c r="E953" t="inlineStr"/>
-      <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr"/>
-      <c r="H953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
@@ -10125,12 +9525,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C954" t="inlineStr"/>
-      <c r="D954" t="inlineStr"/>
-      <c r="E954" t="inlineStr"/>
-      <c r="F954" t="inlineStr"/>
-      <c r="G954" t="inlineStr"/>
-      <c r="H954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
@@ -10143,12 +9537,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C955" t="inlineStr"/>
-      <c r="D955" t="inlineStr"/>
-      <c r="E955" t="inlineStr"/>
-      <c r="F955" t="inlineStr"/>
-      <c r="G955" t="inlineStr"/>
-      <c r="H955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -10161,12 +9549,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C956" t="inlineStr"/>
-      <c r="D956" t="inlineStr"/>
-      <c r="E956" t="inlineStr"/>
-      <c r="F956" t="inlineStr"/>
-      <c r="G956" t="inlineStr"/>
-      <c r="H956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
@@ -10179,12 +9561,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C957" t="inlineStr"/>
-      <c r="D957" t="inlineStr"/>
-      <c r="E957" t="inlineStr"/>
-      <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
-      <c r="H957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
@@ -10197,12 +9573,6 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="C958" t="inlineStr"/>
-      <c r="D958" t="inlineStr"/>
-      <c r="E958" t="inlineStr"/>
-      <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr"/>
-      <c r="H958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
@@ -10215,12 +9585,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C959" t="inlineStr"/>
-      <c r="D959" t="inlineStr"/>
-      <c r="E959" t="inlineStr"/>
-      <c r="F959" t="inlineStr"/>
-      <c r="G959" t="inlineStr"/>
-      <c r="H959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
@@ -10233,12 +9597,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C960" t="inlineStr"/>
-      <c r="D960" t="inlineStr"/>
-      <c r="E960" t="inlineStr"/>
-      <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr"/>
-      <c r="H960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
@@ -10251,12 +9609,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C961" t="inlineStr"/>
-      <c r="D961" t="inlineStr"/>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr"/>
-      <c r="G961" t="inlineStr"/>
-      <c r="H961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -10269,12 +9621,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C962" t="inlineStr"/>
-      <c r="D962" t="inlineStr"/>
-      <c r="E962" t="inlineStr"/>
-      <c r="F962" t="inlineStr"/>
-      <c r="G962" t="inlineStr"/>
-      <c r="H962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
@@ -10287,12 +9633,6 @@
           <t>Nephrolepis obliterata</t>
         </is>
       </c>
-      <c r="C963" t="inlineStr"/>
-      <c r="D963" t="inlineStr"/>
-      <c r="E963" t="inlineStr"/>
-      <c r="F963" t="inlineStr"/>
-      <c r="G963" t="inlineStr"/>
-      <c r="H963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
@@ -10305,12 +9645,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C964" t="inlineStr"/>
-      <c r="D964" t="inlineStr"/>
-      <c r="E964" t="inlineStr"/>
-      <c r="F964" t="inlineStr"/>
-      <c r="G964" t="inlineStr"/>
-      <c r="H964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
@@ -10323,14 +9657,767 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C965" t="inlineStr"/>
-      <c r="D965" t="inlineStr"/>
-      <c r="E965" t="inlineStr"/>
-      <c r="F965" t="inlineStr"/>
-      <c r="G965" t="inlineStr"/>
-      <c r="H965" t="inlineStr"/>
     </row>
     <row r="966"/>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr"/>
+      <c r="D967" t="inlineStr"/>
+      <c r="E967" t="inlineStr"/>
+      <c r="F967" t="inlineStr"/>
+      <c r="G967" t="inlineStr"/>
+      <c r="H967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr"/>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="inlineStr"/>
+      <c r="F968" t="inlineStr"/>
+      <c r="G968" t="inlineStr"/>
+      <c r="H968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr"/>
+      <c r="D969" t="inlineStr"/>
+      <c r="E969" t="inlineStr"/>
+      <c r="F969" t="inlineStr"/>
+      <c r="G969" t="inlineStr"/>
+      <c r="H969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="inlineStr"/>
+      <c r="E970" t="inlineStr"/>
+      <c r="F970" t="inlineStr"/>
+      <c r="G970" t="inlineStr"/>
+      <c r="H970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr"/>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="inlineStr"/>
+      <c r="F971" t="inlineStr"/>
+      <c r="G971" t="inlineStr"/>
+      <c r="H971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr"/>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="inlineStr"/>
+      <c r="F972" t="inlineStr"/>
+      <c r="G972" t="inlineStr"/>
+      <c r="H972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr"/>
+      <c r="D973" t="inlineStr"/>
+      <c r="E973" t="inlineStr"/>
+      <c r="F973" t="inlineStr"/>
+      <c r="G973" t="inlineStr"/>
+      <c r="H973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="inlineStr"/>
+      <c r="E974" t="inlineStr"/>
+      <c r="F974" t="inlineStr"/>
+      <c r="G974" t="inlineStr"/>
+      <c r="H974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr"/>
+      <c r="D975" t="inlineStr"/>
+      <c r="E975" t="inlineStr"/>
+      <c r="F975" t="inlineStr"/>
+      <c r="G975" t="inlineStr"/>
+      <c r="H975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr"/>
+      <c r="D976" t="inlineStr"/>
+      <c r="E976" t="inlineStr"/>
+      <c r="F976" t="inlineStr"/>
+      <c r="G976" t="inlineStr"/>
+      <c r="H976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr"/>
+      <c r="D977" t="inlineStr"/>
+      <c r="E977" t="inlineStr"/>
+      <c r="F977" t="inlineStr"/>
+      <c r="G977" t="inlineStr"/>
+      <c r="H977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="inlineStr"/>
+      <c r="E978" t="inlineStr"/>
+      <c r="F978" t="inlineStr"/>
+      <c r="G978" t="inlineStr"/>
+      <c r="H978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr"/>
+      <c r="D979" t="inlineStr"/>
+      <c r="E979" t="inlineStr"/>
+      <c r="F979" t="inlineStr"/>
+      <c r="G979" t="inlineStr"/>
+      <c r="H979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>10.06.2025</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr"/>
+      <c r="D980" t="inlineStr"/>
+      <c r="E980" t="inlineStr"/>
+      <c r="F980" t="inlineStr"/>
+      <c r="G980" t="inlineStr"/>
+      <c r="H980" t="inlineStr"/>
+    </row>
+    <row r="981"/>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="inlineStr"/>
+      <c r="E982" t="inlineStr"/>
+      <c r="F982" t="inlineStr"/>
+      <c r="G982" t="inlineStr"/>
+      <c r="H982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr"/>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="inlineStr"/>
+      <c r="F983" t="inlineStr"/>
+      <c r="G983" t="inlineStr"/>
+      <c r="H983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr"/>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="inlineStr"/>
+      <c r="F984" t="inlineStr"/>
+      <c r="G984" t="inlineStr"/>
+      <c r="H984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr"/>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="inlineStr"/>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="inlineStr"/>
+      <c r="H985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr"/>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="inlineStr"/>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="inlineStr"/>
+      <c r="H989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr"/>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="inlineStr"/>
+      <c r="H990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr"/>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="inlineStr"/>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="inlineStr"/>
+      <c r="H991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="inlineStr"/>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="inlineStr"/>
+      <c r="H992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr"/>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="inlineStr"/>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="inlineStr"/>
+      <c r="H993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr"/>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>11.06.2025</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
+    </row>
+    <row r="996"/>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr"/>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="inlineStr"/>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="inlineStr"/>
+      <c r="H1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="inlineStr"/>
+      <c r="H1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="inlineStr"/>
+      <c r="H1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="inlineStr"/>
+      <c r="H1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="inlineStr"/>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="inlineStr"/>
+      <c r="H1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr"/>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="inlineStr"/>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="inlineStr"/>
+      <c r="H1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="inlineStr"/>
+      <c r="H1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="inlineStr"/>
+      <c r="H1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="inlineStr"/>
+      <c r="H1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>12.06.2025</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="inlineStr"/>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="inlineStr"/>
+      <c r="H1010" t="inlineStr"/>
+    </row>
+    <row r="1011"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -485,11 +485,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC757"/>
+  <dimension ref="A1:AC787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A580" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F591" sqref="F591"/>
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E619" sqref="E619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8416,24 +8416,25 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-    </row>
-    <row r="597" customFormat="1" s="7">
-      <c r="A597" s="7" t="inlineStr">
+      <c r="C596" s="7" t="n"/>
+      <c r="D596" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="E596" s="13" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
         <is>
           <t>13.06.2025</t>
         </is>
       </c>
-      <c r="B597" s="7" t="inlineStr">
+      <c r="B597" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-      <c r="D597" s="7" t="n">
-        <v>300</v>
-      </c>
-      <c r="E597" s="13" t="inlineStr">
-        <is>
-          <t>compo 1pw</t>
         </is>
       </c>
     </row>
@@ -8763,15 +8764,23 @@
         </is>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
+    <row r="627" customFormat="1" s="7">
+      <c r="A627" s="7" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr">
+      <c r="B627" s="7" t="inlineStr">
         <is>
           <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="D627" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="E627" s="13" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
         </is>
       </c>
     </row>
@@ -8799,15 +8808,23 @@
         </is>
       </c>
     </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
+    <row r="630" customFormat="1" s="7">
+      <c r="A630" s="7" t="inlineStr">
         <is>
           <t>15.06.2025</t>
         </is>
       </c>
-      <c r="B630" t="inlineStr">
+      <c r="B630" s="7" t="inlineStr">
         <is>
           <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="D630" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="E630" s="13" t="inlineStr">
+        <is>
+          <t>compo 1pw</t>
         </is>
       </c>
     </row>
@@ -10236,6 +10253,428 @@
       </c>
     </row>
     <row r="757"/>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>21.06.2025</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="772"/>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr"/>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="inlineStr"/>
+      <c r="H778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Coffea Arabica</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr"/>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr"/>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Nephrolepis obliterata</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr"/>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>22.06.2025</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr"/>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+    </row>
+    <row r="787"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -140,9 +140,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -489,62 +486,62 @@
   <dimension ref="A1:AD772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J654" sqref="J654"/>
+      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K675" sqref="K675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="14.42578125" customWidth="1" style="22" min="1" max="1"/>
-    <col width="40.140625" customWidth="1" style="22" min="2" max="2"/>
-    <col width="16.28515625" customWidth="1" style="22" min="3" max="3"/>
-    <col width="7.85546875" customWidth="1" style="22" min="4" max="4"/>
-    <col width="15.140625" customWidth="1" style="22" min="5" max="6"/>
-    <col width="8.5703125" customWidth="1" style="22" min="7" max="7"/>
-    <col width="11.5703125" customWidth="1" style="22" min="8" max="9"/>
-    <col width="11.42578125" customWidth="1" style="22" min="10" max="10"/>
-    <col width="74.28515625" customWidth="1" style="22" min="11" max="11"/>
-    <col width="42" customWidth="1" style="22" min="12" max="13"/>
-    <col width="27" customWidth="1" style="22" min="14" max="14"/>
-    <col width="42" customWidth="1" style="22" min="15" max="15"/>
-    <col width="15.7109375" customWidth="1" style="22" min="16" max="16"/>
-    <col width="26.7109375" customWidth="1" style="22" min="17" max="17"/>
-    <col width="22.28515625" customWidth="1" style="22" min="18" max="18"/>
-    <col width="27.5703125" customWidth="1" style="22" min="19" max="19"/>
-    <col width="37.5703125" customWidth="1" style="22" min="20" max="21"/>
-    <col width="38.85546875" customWidth="1" style="22" min="22" max="22"/>
-    <col width="37" customWidth="1" style="22" min="23" max="23"/>
-    <col width="31.5703125" customWidth="1" style="22" min="24" max="24"/>
-    <col width="27.85546875" customWidth="1" style="22" min="25" max="25"/>
-    <col width="26.42578125" customWidth="1" style="22" min="26" max="26"/>
-    <col width="29" customWidth="1" style="22" min="27" max="27"/>
-    <col width="37.28515625" customWidth="1" style="22" min="28" max="30"/>
-    <col width="36.42578125" customWidth="1" style="22" min="31" max="31"/>
-    <col width="28.5703125" customWidth="1" style="22" min="32" max="32"/>
-    <col width="30.140625" customWidth="1" style="22" min="33" max="34"/>
-    <col width="30.28515625" customWidth="1" style="22" min="35" max="35"/>
-    <col width="31" customWidth="1" style="22" min="36" max="36"/>
-    <col width="39.140625" customWidth="1" style="22" min="37" max="37"/>
-    <col width="41.7109375" customWidth="1" style="22" min="38" max="38"/>
-    <col width="39.5703125" customWidth="1" style="22" min="39" max="39"/>
-    <col width="29.42578125" customWidth="1" style="22" min="40" max="40"/>
-    <col width="30.28515625" customWidth="1" style="22" min="41" max="41"/>
-    <col width="25.85546875" customWidth="1" style="22" min="42" max="42"/>
-    <col width="30" customWidth="1" style="22" min="43" max="43"/>
-    <col width="37.7109375" customWidth="1" style="22" min="44" max="44"/>
-    <col width="36" customWidth="1" style="22" min="45" max="45"/>
-    <col width="37.7109375" customWidth="1" style="22" min="46" max="46"/>
-    <col width="37.28515625" customWidth="1" style="22" min="47" max="47"/>
-    <col width="38.5703125" customWidth="1" style="22" min="48" max="48"/>
+    <col width="14.42578125" customWidth="1" min="1" max="1"/>
+    <col width="40.140625" customWidth="1" min="2" max="2"/>
+    <col width="16.28515625" customWidth="1" min="3" max="3"/>
+    <col width="7.85546875" customWidth="1" min="4" max="4"/>
+    <col width="15.140625" customWidth="1" min="5" max="6"/>
+    <col width="8.5703125" customWidth="1" min="7" max="7"/>
+    <col width="11.5703125" customWidth="1" min="8" max="9"/>
+    <col width="11.42578125" customWidth="1" min="10" max="10"/>
+    <col width="74.28515625" customWidth="1" min="11" max="11"/>
+    <col width="42" customWidth="1" min="12" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="42" customWidth="1" min="15" max="15"/>
+    <col width="15.7109375" customWidth="1" min="16" max="16"/>
+    <col width="26.7109375" customWidth="1" min="17" max="17"/>
+    <col width="22.28515625" customWidth="1" min="18" max="18"/>
+    <col width="27.5703125" customWidth="1" min="19" max="19"/>
+    <col width="37.5703125" customWidth="1" min="20" max="21"/>
+    <col width="38.85546875" customWidth="1" min="22" max="22"/>
+    <col width="37" customWidth="1" min="23" max="23"/>
+    <col width="31.5703125" customWidth="1" min="24" max="24"/>
+    <col width="27.85546875" customWidth="1" min="25" max="25"/>
+    <col width="26.42578125" customWidth="1" min="26" max="26"/>
+    <col width="29" customWidth="1" min="27" max="27"/>
+    <col width="37.28515625" customWidth="1" min="28" max="30"/>
+    <col width="36.42578125" customWidth="1" min="31" max="31"/>
+    <col width="28.5703125" customWidth="1" min="32" max="32"/>
+    <col width="30.140625" customWidth="1" min="33" max="34"/>
+    <col width="30.28515625" customWidth="1" min="35" max="35"/>
+    <col width="31" customWidth="1" min="36" max="36"/>
+    <col width="39.140625" customWidth="1" min="37" max="37"/>
+    <col width="41.7109375" customWidth="1" min="38" max="38"/>
+    <col width="39.5703125" customWidth="1" min="39" max="39"/>
+    <col width="29.42578125" customWidth="1" min="40" max="40"/>
+    <col width="30.28515625" customWidth="1" min="41" max="41"/>
+    <col width="25.85546875" customWidth="1" min="42" max="42"/>
+    <col width="30" customWidth="1" min="43" max="43"/>
+    <col width="37.7109375" customWidth="1" min="44" max="44"/>
+    <col width="36" customWidth="1" min="45" max="45"/>
+    <col width="37.7109375" customWidth="1" min="46" max="46"/>
+    <col width="37.28515625" customWidth="1" min="47" max="47"/>
+    <col width="38.5703125" customWidth="1" min="48" max="48"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53.25" customFormat="1" customHeight="1" s="20">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" ht="53.25" customFormat="1" customHeight="1" s="6">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>plant name</t>
         </is>
@@ -554,12 +551,12 @@
           <t>days without water</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="E1" s="20" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>fertilizer</t>
         </is>
@@ -569,33 +566,33 @@
           <t>days without fertilizer</t>
         </is>
       </c>
-      <c r="G1" s="20" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>wash</t>
         </is>
       </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>neemoil</t>
         </is>
       </c>
-      <c r="I1" s="20" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>pestmix</t>
         </is>
       </c>
-      <c r="J1" s="20" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>condition</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="61.5" customFormat="1" customHeight="1" s="21">
+    <row r="2" ht="61.5" customFormat="1" customHeight="1" s="1">
       <c r="A2" s="2" t="n">
         <v>45774</v>
       </c>
@@ -604,20 +601,18 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="H2" s="21" t="n"/>
-      <c r="I2" s="21" t="n"/>
       <c r="L2" s="15" t="inlineStr">
         <is>
           <t>Calathea veitchiana</t>
         </is>
       </c>
-      <c r="M2" s="21" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>https://www.epicgardening.com/calathea-varieties/</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customFormat="1" customHeight="1" s="21">
+    <row r="3" ht="15.75" customFormat="1" customHeight="1" s="1">
       <c r="A3" s="2" t="n">
         <v>45774</v>
       </c>
@@ -626,11 +621,9 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="H3" s="21" t="n"/>
-      <c r="I3" s="21" t="n"/>
       <c r="AD3" s="3" t="n"/>
     </row>
-    <row r="4" customFormat="1" s="21">
+    <row r="4" customFormat="1" s="1">
       <c r="A4" s="2" t="n">
         <v>45774</v>
       </c>
@@ -642,11 +635,9 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="n"/>
-      <c r="I4" s="21" t="n"/>
       <c r="AD4" s="3" t="n"/>
     </row>
-    <row r="5" customFormat="1" s="21">
+    <row r="5" customFormat="1" s="1">
       <c r="A5" s="5" t="n">
         <v>45774</v>
       </c>
@@ -661,11 +652,9 @@
       <c r="D5" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H5" s="21" t="n"/>
-      <c r="I5" s="21" t="n"/>
       <c r="AD5" s="3" t="n"/>
     </row>
-    <row r="6" customFormat="1" s="21">
+    <row r="6" customFormat="1" s="1">
       <c r="A6" s="5" t="n">
         <v>45774</v>
       </c>
@@ -680,11 +669,9 @@
       <c r="D6" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H6" s="21" t="n"/>
-      <c r="I6" s="21" t="n"/>
       <c r="AD6" s="3" t="n"/>
     </row>
-    <row r="7" customFormat="1" s="21">
+    <row r="7" customFormat="1" s="1">
       <c r="A7" s="5" t="n">
         <v>45774</v>
       </c>
@@ -699,11 +686,9 @@
       <c r="D7" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H7" s="21" t="n"/>
-      <c r="I7" s="21" t="n"/>
       <c r="AD7" s="3" t="n"/>
     </row>
-    <row r="8" customFormat="1" s="21">
+    <row r="8" customFormat="1" s="1">
       <c r="A8" s="2" t="n">
         <v>45774</v>
       </c>
@@ -712,11 +697,9 @@
           <t>Coffea Arabica</t>
         </is>
       </c>
-      <c r="H8" s="21" t="n"/>
-      <c r="I8" s="21" t="n"/>
       <c r="AD8" s="3" t="n"/>
     </row>
-    <row r="9" customFormat="1" s="21">
+    <row r="9" customFormat="1" s="1">
       <c r="A9" s="5" t="n">
         <v>45774</v>
       </c>
@@ -731,8 +714,6 @@
       <c r="D9" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="21" t="n"/>
-      <c r="I9" s="21" t="n"/>
       <c r="AD9" s="3" t="n"/>
     </row>
     <row r="10" customFormat="1" s="10">
@@ -9104,6 +9085,11 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
     </row>
     <row r="658" customFormat="1" s="7">
       <c r="A658" s="7" t="inlineStr">

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD764"/>
+  <dimension ref="A1:AD777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
@@ -9895,13 +9895,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr"/>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr"/>
-      <c r="H739" t="inlineStr"/>
-      <c r="I739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -9914,13 +9907,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr"/>
-      <c r="H740" t="inlineStr"/>
-      <c r="I740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -9933,13 +9919,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr"/>
-      <c r="H741" t="inlineStr"/>
-      <c r="I741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -9952,13 +9931,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr"/>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr"/>
-      <c r="H742" t="inlineStr"/>
-      <c r="I742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -9971,13 +9943,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr"/>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr"/>
-      <c r="H743" t="inlineStr"/>
-      <c r="I743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -9990,13 +9955,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr"/>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr"/>
-      <c r="H744" t="inlineStr"/>
-      <c r="I744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -10009,13 +9967,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr"/>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr"/>
-      <c r="H745" t="inlineStr"/>
-      <c r="I745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -10028,13 +9979,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr"/>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr"/>
-      <c r="H746" t="inlineStr"/>
-      <c r="I746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -10047,13 +9991,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr"/>
-      <c r="H747" t="inlineStr"/>
-      <c r="I747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -10066,13 +10003,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr"/>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr"/>
-      <c r="H748" t="inlineStr"/>
-      <c r="I748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -10085,13 +10015,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr"/>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr"/>
-      <c r="H749" t="inlineStr"/>
-      <c r="I749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -10104,13 +10027,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr"/>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr"/>
-      <c r="H750" t="inlineStr"/>
-      <c r="I750" t="inlineStr"/>
     </row>
     <row r="751"/>
     <row r="752">
@@ -10124,13 +10040,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr"/>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr"/>
-      <c r="H752" t="inlineStr"/>
-      <c r="I752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -10143,13 +10052,6 @@
           <t>Calathea Orbifolia</t>
         </is>
       </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr"/>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr"/>
-      <c r="G753" t="inlineStr"/>
-      <c r="H753" t="inlineStr"/>
-      <c r="I753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -10162,13 +10064,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr"/>
-      <c r="E754" t="inlineStr"/>
-      <c r="F754" t="inlineStr"/>
-      <c r="G754" t="inlineStr"/>
-      <c r="H754" t="inlineStr"/>
-      <c r="I754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -10181,13 +10076,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr"/>
-      <c r="E755" t="inlineStr"/>
-      <c r="F755" t="inlineStr"/>
-      <c r="G755" t="inlineStr"/>
-      <c r="H755" t="inlineStr"/>
-      <c r="I755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -10200,13 +10088,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr"/>
-      <c r="E756" t="inlineStr"/>
-      <c r="F756" t="inlineStr"/>
-      <c r="G756" t="inlineStr"/>
-      <c r="H756" t="inlineStr"/>
-      <c r="I756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -10219,13 +10100,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr"/>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr"/>
-      <c r="G757" t="inlineStr"/>
-      <c r="H757" t="inlineStr"/>
-      <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -10238,13 +10112,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr"/>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr"/>
-      <c r="G758" t="inlineStr"/>
-      <c r="H758" t="inlineStr"/>
-      <c r="I758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -10257,13 +10124,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr"/>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr"/>
-      <c r="G759" t="inlineStr"/>
-      <c r="H759" t="inlineStr"/>
-      <c r="I759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -10276,13 +10136,6 @@
           <t>Calathea Ornata</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr"/>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr"/>
-      <c r="G760" t="inlineStr"/>
-      <c r="H760" t="inlineStr"/>
-      <c r="I760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -10295,13 +10148,6 @@
           <t>Beaucarnea recurvata</t>
         </is>
       </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr"/>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr"/>
-      <c r="G761" t="inlineStr"/>
-      <c r="H761" t="inlineStr"/>
-      <c r="I761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -10314,13 +10160,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr"/>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr"/>
-      <c r="H762" t="inlineStr"/>
-      <c r="I762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -10333,15 +10172,237 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr"/>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr"/>
-      <c r="H763" t="inlineStr"/>
-      <c r="I763" t="inlineStr"/>
     </row>
     <row r="764"/>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr"/>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr"/>
+      <c r="I766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr"/>
+      <c r="I767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr"/>
+      <c r="I768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr"/>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr"/>
+      <c r="H769" t="inlineStr"/>
+      <c r="I769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr"/>
+      <c r="E770" t="inlineStr"/>
+      <c r="F770" t="inlineStr"/>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr"/>
+      <c r="E771" t="inlineStr"/>
+      <c r="F771" t="inlineStr"/>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="inlineStr"/>
+      <c r="H772" t="inlineStr"/>
+      <c r="I772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr"/>
+      <c r="H773" t="inlineStr"/>
+      <c r="I773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr"/>
+      <c r="H774" t="inlineStr"/>
+      <c r="I774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr"/>
+      <c r="F775" t="inlineStr"/>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr"/>
+      <c r="E776" t="inlineStr"/>
+      <c r="F776" t="inlineStr"/>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+    </row>
+    <row r="777"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -483,11 +483,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD777"/>
+  <dimension ref="A1:AD793"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C664" sqref="C664"/>
+      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B681" sqref="B681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9195,15 +9195,23 @@
         </is>
       </c>
     </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
+    <row r="677" customFormat="1" s="7">
+      <c r="A677" s="7" t="inlineStr">
         <is>
           <t>25.06.2025</t>
         </is>
       </c>
-      <c r="B677" t="inlineStr">
+      <c r="B677" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="D677" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>ja</t>
         </is>
       </c>
     </row>
@@ -9303,31 +9311,47 @@
         </is>
       </c>
     </row>
-    <row r="686"/>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>26.06.2025</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>26.06.2025</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
-    </row>
+    <row r="686" customFormat="1" s="7">
+      <c r="A686" s="7" t="inlineStr">
+        <is>
+          <t>25.06.2025</t>
+        </is>
+      </c>
+      <c r="B686" s="7" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="D686" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+    </row>
+    <row r="687" customFormat="1" s="7">
+      <c r="A687" s="7" t="inlineStr">
+        <is>
+          <t>25.06.2025</t>
+        </is>
+      </c>
+      <c r="B687" s="7" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="D687" s="7" t="n">
+        <v>400</v>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>ja</t>
+        </is>
+      </c>
+    </row>
+    <row r="688"/>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
@@ -9336,9 +9360,16 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -9348,9 +9379,16 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr"/>
+      <c r="H690" t="inlineStr"/>
+      <c r="I690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -9360,9 +9398,16 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr"/>
+      <c r="H691" t="inlineStr"/>
+      <c r="I691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -9372,9 +9417,16 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr"/>
+      <c r="I692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -9384,9 +9436,16 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr"/>
+      <c r="I693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -9396,9 +9455,16 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr"/>
+      <c r="D694" t="inlineStr"/>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr"/>
+      <c r="I694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -9408,9 +9474,16 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr"/>
+      <c r="I695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -9420,9 +9493,16 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr"/>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr"/>
+      <c r="I696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -9432,9 +9512,16 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
+      <c r="I697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -9444,59 +9531,94 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="699"/>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr"/>
+      <c r="I698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>26.06.2025</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr"/>
+      <c r="I699" t="inlineStr"/>
+    </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>27.06.2025</t>
+          <t>26.06.2025</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr"/>
+      <c r="I700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>27.06.2025</t>
+          <t>26.06.2025</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr"/>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr"/>
+      <c r="I701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>27.06.2025</t>
+          <t>26.06.2025</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>27.06.2025</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
-    </row>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr"/>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+    </row>
+    <row r="703"/>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
@@ -9505,9 +9627,16 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr"/>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -9517,9 +9646,16 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -9529,9 +9665,16 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr"/>
+      <c r="I706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -9541,9 +9684,16 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr"/>
+      <c r="I707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -9553,9 +9703,16 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -9565,9 +9722,16 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -9577,9 +9741,16 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -9589,83 +9760,132 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="712"/>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>27.06.2025</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr"/>
+      <c r="I712" t="inlineStr"/>
+    </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr"/>
+      <c r="I713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr"/>
+      <c r="I714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr"/>
+      <c r="E715" t="inlineStr"/>
+      <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr"/>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>28.06.2025</t>
+          <t>27.06.2025</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>28.06.2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
-    </row>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr"/>
+      <c r="E717" t="inlineStr"/>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+    </row>
+    <row r="718"/>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
@@ -9674,9 +9894,16 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
+      <c r="H719" t="inlineStr"/>
+      <c r="I719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -9686,9 +9913,16 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
+      <c r="H720" t="inlineStr"/>
+      <c r="I720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -9698,9 +9932,16 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -9710,9 +9951,16 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr"/>
+      <c r="E722" t="inlineStr"/>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -9722,9 +9970,16 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -9734,107 +9989,170 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="725"/>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
+      <c r="H724" t="inlineStr"/>
+      <c r="I724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>28.06.2025</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
+      <c r="H725" t="inlineStr"/>
+      <c r="I725" t="inlineStr"/>
+    </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
+      <c r="H726" t="inlineStr"/>
+      <c r="I726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr"/>
+      <c r="D730" t="inlineStr"/>
+      <c r="E730" t="inlineStr"/>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>29.06.2025</t>
+          <t>28.06.2025</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>29.06.2025</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
-    </row>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+    </row>
+    <row r="733"/>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
@@ -9843,9 +10161,16 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr"/>
+      <c r="D734" t="inlineStr"/>
+      <c r="E734" t="inlineStr"/>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -9855,9 +10180,16 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr"/>
+      <c r="D735" t="inlineStr"/>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -9867,9 +10199,16 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
+      <c r="H736" t="inlineStr"/>
+      <c r="I736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -9879,131 +10218,208 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="738"/>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
+      <c r="H737" t="inlineStr"/>
+      <c r="I737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>29.06.2025</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr"/>
+      <c r="H738" t="inlineStr"/>
+      <c r="I738" t="inlineStr"/>
+    </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr"/>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr"/>
+      <c r="H741" t="inlineStr"/>
+      <c r="I741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr"/>
+      <c r="H742" t="inlineStr"/>
+      <c r="I742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="inlineStr"/>
+      <c r="H743" t="inlineStr"/>
+      <c r="I743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr"/>
+      <c r="H746" t="inlineStr"/>
+      <c r="I746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>30.06.2025</t>
+          <t>29.06.2025</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>30.06.2025</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
-    </row>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr"/>
+      <c r="H747" t="inlineStr"/>
+      <c r="I747" t="inlineStr"/>
+    </row>
+    <row r="748"/>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
@@ -10012,9 +10428,16 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -10024,156 +10447,265 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="751"/>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>30.06.2025</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="inlineStr"/>
+      <c r="H751" t="inlineStr"/>
+      <c r="I751" t="inlineStr"/>
+    </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Calathea Medalion</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
-        </is>
-      </c>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
-        </is>
-      </c>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr"/>
+      <c r="E754" t="inlineStr"/>
+      <c r="F754" t="inlineStr"/>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
-        </is>
-      </c>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr"/>
+      <c r="E755" t="inlineStr"/>
+      <c r="F755" t="inlineStr"/>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
-        </is>
-      </c>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
-        </is>
-      </c>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr"/>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
-        </is>
-      </c>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr"/>
+      <c r="H758" t="inlineStr"/>
+      <c r="I758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Ficus Elastica Abidjan</t>
-        </is>
-      </c>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr"/>
+      <c r="E759" t="inlineStr"/>
+      <c r="F759" t="inlineStr"/>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr"/>
+      <c r="I759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
-        </is>
-      </c>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr"/>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr"/>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr"/>
+      <c r="I760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01.07.2025</t>
+          <t>30.06.2025</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Beaucarnea recurvata</t>
-        </is>
-      </c>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr"/>
+      <c r="I761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
+          <t>30.06.2025</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr"/>
+      <c r="I762" t="inlineStr"/>
+    </row>
+    <row r="763"/>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
           <t>01.07.2025</t>
         </is>
       </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>Peperomia Hope</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>01.07.2025</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>Hoya Mathilde</t>
-        </is>
-      </c>
-    </row>
-    <row r="764"/>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr"/>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+    </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
@@ -10182,7 +10714,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Calathea Medalion</t>
+          <t>Calathea Orbifolia</t>
         </is>
       </c>
       <c r="C765" t="inlineStr"/>
@@ -10201,7 +10733,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Calathea Orbifolia</t>
+          <t>Epipremnum Aureum</t>
         </is>
       </c>
       <c r="C766" t="inlineStr"/>
@@ -10220,7 +10752,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Epipremnum Aureum</t>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
       <c r="C767" t="inlineStr"/>
@@ -10239,7 +10771,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philodendron Scandens Micans </t>
+          <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
       <c r="C768" t="inlineStr"/>
@@ -10258,7 +10790,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Scindapsus Treubii Moonlight</t>
+          <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
       <c r="C769" t="inlineStr"/>
@@ -10277,7 +10809,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Philodendron Hedaracium Brasil</t>
+          <t>Monstera Adenossii</t>
         </is>
       </c>
       <c r="C770" t="inlineStr"/>
@@ -10296,7 +10828,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Monstera Adenossii</t>
+          <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
       <c r="C771" t="inlineStr"/>
@@ -10315,7 +10847,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Ficus Elastica Abidjan</t>
+          <t>Calathea Ornata</t>
         </is>
       </c>
       <c r="C772" t="inlineStr"/>
@@ -10334,7 +10866,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Calathea Ornata</t>
+          <t>Beaucarnea recurvata</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
@@ -10353,7 +10885,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Beaucarnea recurvata</t>
+          <t>Peperomia Hope</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
@@ -10372,7 +10904,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Peperomia Hope</t>
+          <t>Hoya Mathilde</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
@@ -10391,7 +10923,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Hoya Mathilde</t>
+          <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
@@ -10402,7 +10934,293 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr"/>
     </row>
-    <row r="777"/>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>01.07.2025</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+    </row>
+    <row r="778"/>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Calathea Orbifolia</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr"/>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr"/>
+      <c r="H781" t="inlineStr"/>
+      <c r="I781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr"/>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr"/>
+      <c r="H782" t="inlineStr"/>
+      <c r="I782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr"/>
+      <c r="E783" t="inlineStr"/>
+      <c r="F783" t="inlineStr"/>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr"/>
+      <c r="E784" t="inlineStr"/>
+      <c r="F784" t="inlineStr"/>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr"/>
+      <c r="H785" t="inlineStr"/>
+      <c r="I785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr"/>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
+      <c r="H786" t="inlineStr"/>
+      <c r="I786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Calathea Ornata</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr"/>
+      <c r="D787" t="inlineStr"/>
+      <c r="E787" t="inlineStr"/>
+      <c r="F787" t="inlineStr"/>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Beaucarnea recurvata</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr"/>
+      <c r="E788" t="inlineStr"/>
+      <c r="F788" t="inlineStr"/>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr"/>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr"/>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr"/>
+      <c r="E790" t="inlineStr"/>
+      <c r="F790" t="inlineStr"/>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr"/>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
+      <c r="H791" t="inlineStr"/>
+      <c r="I791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>02.07.2025</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr"/>
+      <c r="E792" t="inlineStr"/>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="inlineStr"/>
+      <c r="H792" t="inlineStr"/>
+      <c r="I792" t="inlineStr"/>
+    </row>
+    <row r="793"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F391721-9250-47D8-A516-BF1A86430E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E51FAE-F62B-4AE6-B3E9-326923E0AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,8 +655,8 @@
   <dimension ref="A1:AD792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F694" sqref="F694"/>
+      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F724" sqref="F724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7452,7 +7452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>69</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>69</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>69</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>69</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>69</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>69</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>69</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>69</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>69</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>69</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>69</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>69</v>
       </c>
@@ -7548,15 +7548,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+    <row r="734" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D734" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>70</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>70</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>70</v>
       </c>
@@ -7580,15 +7583,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+    <row r="738" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D738" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>70</v>
       </c>
@@ -7596,7 +7602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>70</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>70</v>
       </c>
@@ -7612,7 +7618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>70</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>70</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>70</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>70</v>
       </c>
@@ -7644,7 +7650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>70</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>70</v>
       </c>
@@ -7660,7 +7666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>71</v>
       </c>
@@ -7668,7 +7674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>71</v>
       </c>
@@ -7676,7 +7682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>71</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>71</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E51FAE-F62B-4AE6-B3E9-326923E0AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4A8D4-A522-40EC-883C-B00DAC54A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="74">
   <si>
     <t>date</t>
   </si>
@@ -655,8 +655,8 @@
   <dimension ref="A1:AD792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F724" sqref="F724"/>
+      <pane ySplit="1" topLeftCell="A1204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E781" sqref="E781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7818,7 +7818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>72</v>
       </c>
@@ -7826,15 +7826,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+    <row r="770" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B770" t="s">
+      <c r="B770" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D770" s="7">
+        <v>400</v>
+      </c>
+      <c r="E770" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>72</v>
       </c>
@@ -7842,7 +7848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>72</v>
       </c>
@@ -7850,15 +7856,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+    <row r="773" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B773" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D773" s="7">
+        <v>400</v>
+      </c>
+      <c r="E773" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>72</v>
       </c>
@@ -7866,7 +7878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>72</v>
       </c>
@@ -7874,23 +7886,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+    <row r="776" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B776" t="s">
+      <c r="B776" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+      <c r="D776" s="7">
+        <v>400</v>
+      </c>
+      <c r="E776" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B777" t="s">
+      <c r="B777" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D777" s="7">
+        <v>400</v>
+      </c>
+      <c r="E777" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>73</v>
       </c>
@@ -7898,7 +7922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>73</v>
       </c>
@@ -7906,7 +7930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>73</v>
       </c>
@@ -7914,7 +7938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>73</v>
       </c>
@@ -7922,7 +7946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>73</v>
       </c>
@@ -7930,7 +7954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>73</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4A8D4-A522-40EC-883C-B00DAC54A945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD009195-B92E-4905-9BE2-32A07BA08538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="74">
   <si>
     <t>date</t>
   </si>
@@ -655,8 +655,8 @@
   <dimension ref="A1:AD792"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E781" sqref="E781"/>
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F797" sqref="F797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7930,20 +7930,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+    <row r="781" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B781" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
+      <c r="D781" s="7">
+        <v>800</v>
+      </c>
+      <c r="E781" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B782" t="s">
+      <c r="B782" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="D782" s="7">
+        <v>400</v>
+      </c>
+      <c r="E782" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.25">
@@ -7962,7 +7974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>73</v>
       </c>
@@ -7970,15 +7982,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
+    <row r="786" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B786" t="s">
+      <c r="B786" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D786" s="7">
+        <v>400</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>73</v>
       </c>
@@ -7986,7 +8004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>73</v>
       </c>
@@ -7994,7 +8012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>73</v>
       </c>
@@ -8002,7 +8020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>73</v>
       </c>
@@ -8010,7 +8028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>73</v>
       </c>
@@ -8018,7 +8036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>73</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD009195-B92E-4905-9BE2-32A07BA08538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65317767-7FE9-459D-BF95-7B7916AD7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="81">
   <si>
     <t>date</t>
   </si>
@@ -243,6 +243,27 @@
   <si>
     <t>02.07.2025</t>
   </si>
+  <si>
+    <t>03.07.2025</t>
+  </si>
+  <si>
+    <t>04.07.2025</t>
+  </si>
+  <si>
+    <t>05.07.2025</t>
+  </si>
+  <si>
+    <t>06.07.2025</t>
+  </si>
+  <si>
+    <t>07.07.2025</t>
+  </si>
+  <si>
+    <t>08.07.2025</t>
+  </si>
+  <si>
+    <t>09.07.2025</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -372,6 +399,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -652,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD792"/>
+  <dimension ref="A1:AD912"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F797" sqref="F797"/>
+      <pane ySplit="1" topLeftCell="A847" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E861" sqref="E861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8044,6 +8072,926 @@
         <v>66</v>
       </c>
     </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>73</v>
+      </c>
+      <c r="B794" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>73</v>
+      </c>
+      <c r="B795" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>73</v>
+      </c>
+      <c r="B796" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>73</v>
+      </c>
+      <c r="B797" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>73</v>
+      </c>
+      <c r="B798" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>73</v>
+      </c>
+      <c r="B799" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>73</v>
+      </c>
+      <c r="B800" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>73</v>
+      </c>
+      <c r="B801" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>73</v>
+      </c>
+      <c r="B802" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>73</v>
+      </c>
+      <c r="B803" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>73</v>
+      </c>
+      <c r="B804" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>73</v>
+      </c>
+      <c r="B805" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>73</v>
+      </c>
+      <c r="B806" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>73</v>
+      </c>
+      <c r="B807" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>74</v>
+      </c>
+      <c r="B809" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>74</v>
+      </c>
+      <c r="B810" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>74</v>
+      </c>
+      <c r="B811" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>74</v>
+      </c>
+      <c r="B812" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>74</v>
+      </c>
+      <c r="B813" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>74</v>
+      </c>
+      <c r="B814" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>74</v>
+      </c>
+      <c r="B815" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>74</v>
+      </c>
+      <c r="B816" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>74</v>
+      </c>
+      <c r="B817" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>74</v>
+      </c>
+      <c r="B818" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>74</v>
+      </c>
+      <c r="B819" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>74</v>
+      </c>
+      <c r="B820" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>74</v>
+      </c>
+      <c r="B821" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>74</v>
+      </c>
+      <c r="B822" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>75</v>
+      </c>
+      <c r="B824" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>75</v>
+      </c>
+      <c r="B825" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>75</v>
+      </c>
+      <c r="B826" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>75</v>
+      </c>
+      <c r="B827" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>75</v>
+      </c>
+      <c r="B828" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>75</v>
+      </c>
+      <c r="B829" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>75</v>
+      </c>
+      <c r="B830" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>75</v>
+      </c>
+      <c r="B831" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>75</v>
+      </c>
+      <c r="B832" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>75</v>
+      </c>
+      <c r="B833" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>75</v>
+      </c>
+      <c r="B834" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>75</v>
+      </c>
+      <c r="B835" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>75</v>
+      </c>
+      <c r="B836" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>75</v>
+      </c>
+      <c r="B837" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>76</v>
+      </c>
+      <c r="B839" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>76</v>
+      </c>
+      <c r="B840" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>76</v>
+      </c>
+      <c r="B841" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>76</v>
+      </c>
+      <c r="B842" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>76</v>
+      </c>
+      <c r="B843" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>76</v>
+      </c>
+      <c r="B844" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>76</v>
+      </c>
+      <c r="B845" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>76</v>
+      </c>
+      <c r="B846" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>76</v>
+      </c>
+      <c r="B847" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>76</v>
+      </c>
+      <c r="B848" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>76</v>
+      </c>
+      <c r="B849" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>76</v>
+      </c>
+      <c r="B850" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>76</v>
+      </c>
+      <c r="B851" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>76</v>
+      </c>
+      <c r="B852" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>77</v>
+      </c>
+      <c r="B854" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>77</v>
+      </c>
+      <c r="B855" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>77</v>
+      </c>
+      <c r="B856" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>77</v>
+      </c>
+      <c r="B857" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B858" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D858" s="20">
+        <v>300</v>
+      </c>
+      <c r="E858" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>77</v>
+      </c>
+      <c r="B859" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>77</v>
+      </c>
+      <c r="B860" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>77</v>
+      </c>
+      <c r="B861" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>77</v>
+      </c>
+      <c r="B862" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>77</v>
+      </c>
+      <c r="B863" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B864" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D864" s="20">
+        <v>300</v>
+      </c>
+      <c r="E864" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B865" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D865" s="20">
+        <v>300</v>
+      </c>
+      <c r="E865" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B866" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D866" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B867" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D867" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>78</v>
+      </c>
+      <c r="B869" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>78</v>
+      </c>
+      <c r="B870" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>78</v>
+      </c>
+      <c r="B871" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>78</v>
+      </c>
+      <c r="B872" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>78</v>
+      </c>
+      <c r="B873" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>78</v>
+      </c>
+      <c r="B874" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>78</v>
+      </c>
+      <c r="B875" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>78</v>
+      </c>
+      <c r="B876" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>78</v>
+      </c>
+      <c r="B877" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>78</v>
+      </c>
+      <c r="B878" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>78</v>
+      </c>
+      <c r="B879" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>78</v>
+      </c>
+      <c r="B880" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>78</v>
+      </c>
+      <c r="B881" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>78</v>
+      </c>
+      <c r="B882" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>79</v>
+      </c>
+      <c r="B884" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>79</v>
+      </c>
+      <c r="B885" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>79</v>
+      </c>
+      <c r="B886" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>79</v>
+      </c>
+      <c r="B887" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>79</v>
+      </c>
+      <c r="B888" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>79</v>
+      </c>
+      <c r="B889" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>79</v>
+      </c>
+      <c r="B890" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>79</v>
+      </c>
+      <c r="B891" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>79</v>
+      </c>
+      <c r="B892" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>79</v>
+      </c>
+      <c r="B893" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>79</v>
+      </c>
+      <c r="B894" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>79</v>
+      </c>
+      <c r="B895" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>79</v>
+      </c>
+      <c r="B896" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>79</v>
+      </c>
+      <c r="B897" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>80</v>
+      </c>
+      <c r="B899" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>80</v>
+      </c>
+      <c r="B900" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>80</v>
+      </c>
+      <c r="B901" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>80</v>
+      </c>
+      <c r="B902" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>80</v>
+      </c>
+      <c r="B903" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>80</v>
+      </c>
+      <c r="B904" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>80</v>
+      </c>
+      <c r="B905" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>80</v>
+      </c>
+      <c r="B906" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>80</v>
+      </c>
+      <c r="B907" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>80</v>
+      </c>
+      <c r="B908" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>80</v>
+      </c>
+      <c r="B909" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>80</v>
+      </c>
+      <c r="B910" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>80</v>
+      </c>
+      <c r="B911" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>80</v>
+      </c>
+      <c r="B912" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65317767-7FE9-459D-BF95-7B7916AD7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F2E22-8F59-4E56-9056-83118EB2BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="85">
   <si>
     <t>date</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>09.07.2025</t>
+  </si>
+  <si>
+    <t>10.07.2025</t>
+  </si>
+  <si>
+    <t>11.07.2025</t>
+  </si>
+  <si>
+    <t>12.07.2025</t>
+  </si>
+  <si>
+    <t>13.07.2025</t>
   </si>
 </sst>
 </file>
@@ -680,11 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD912"/>
+  <dimension ref="A1:AD1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A847" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E861" sqref="E861"/>
+      <pane ySplit="1" topLeftCell="A853" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E863" sqref="E863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,12 +8676,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
+    <row r="870" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A870" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B870" t="s">
+      <c r="B870" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="D870" s="7">
+        <v>700</v>
+      </c>
+      <c r="E870" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
@@ -8989,6 +9007,790 @@
         <v>80</v>
       </c>
       <c r="B912" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>77</v>
+      </c>
+      <c r="B914" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>77</v>
+      </c>
+      <c r="B915" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>77</v>
+      </c>
+      <c r="B916" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>77</v>
+      </c>
+      <c r="B917" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>77</v>
+      </c>
+      <c r="B918" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>77</v>
+      </c>
+      <c r="B919" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>77</v>
+      </c>
+      <c r="B920" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>77</v>
+      </c>
+      <c r="B921" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>77</v>
+      </c>
+      <c r="B922" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>77</v>
+      </c>
+      <c r="B923" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>77</v>
+      </c>
+      <c r="B924" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>77</v>
+      </c>
+      <c r="B925" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>77</v>
+      </c>
+      <c r="B926" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>77</v>
+      </c>
+      <c r="B927" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>79</v>
+      </c>
+      <c r="B929" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>79</v>
+      </c>
+      <c r="B930" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>79</v>
+      </c>
+      <c r="B931" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>79</v>
+      </c>
+      <c r="B932" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>79</v>
+      </c>
+      <c r="B933" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>79</v>
+      </c>
+      <c r="B934" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>79</v>
+      </c>
+      <c r="B935" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>79</v>
+      </c>
+      <c r="B936" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>79</v>
+      </c>
+      <c r="B937" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>79</v>
+      </c>
+      <c r="B938" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>79</v>
+      </c>
+      <c r="B939" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>79</v>
+      </c>
+      <c r="B940" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>79</v>
+      </c>
+      <c r="B941" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>79</v>
+      </c>
+      <c r="B942" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>80</v>
+      </c>
+      <c r="B944" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>80</v>
+      </c>
+      <c r="B945" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>80</v>
+      </c>
+      <c r="B946" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>80</v>
+      </c>
+      <c r="B947" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>80</v>
+      </c>
+      <c r="B948" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>80</v>
+      </c>
+      <c r="B949" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>80</v>
+      </c>
+      <c r="B950" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>80</v>
+      </c>
+      <c r="B951" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>80</v>
+      </c>
+      <c r="B952" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>80</v>
+      </c>
+      <c r="B953" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>80</v>
+      </c>
+      <c r="B954" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>80</v>
+      </c>
+      <c r="B955" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>80</v>
+      </c>
+      <c r="B956" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>80</v>
+      </c>
+      <c r="B957" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>81</v>
+      </c>
+      <c r="B959" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>81</v>
+      </c>
+      <c r="B960" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>81</v>
+      </c>
+      <c r="B961" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>81</v>
+      </c>
+      <c r="B962" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>81</v>
+      </c>
+      <c r="B963" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>81</v>
+      </c>
+      <c r="B964" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>81</v>
+      </c>
+      <c r="B965" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>81</v>
+      </c>
+      <c r="B966" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>81</v>
+      </c>
+      <c r="B967" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>81</v>
+      </c>
+      <c r="B968" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>81</v>
+      </c>
+      <c r="B969" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>81</v>
+      </c>
+      <c r="B970" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>81</v>
+      </c>
+      <c r="B971" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>81</v>
+      </c>
+      <c r="B972" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>82</v>
+      </c>
+      <c r="B974" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>82</v>
+      </c>
+      <c r="B975" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>82</v>
+      </c>
+      <c r="B976" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>82</v>
+      </c>
+      <c r="B977" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>82</v>
+      </c>
+      <c r="B978" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>82</v>
+      </c>
+      <c r="B979" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>82</v>
+      </c>
+      <c r="B980" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>82</v>
+      </c>
+      <c r="B981" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>82</v>
+      </c>
+      <c r="B982" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>82</v>
+      </c>
+      <c r="B983" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>82</v>
+      </c>
+      <c r="B984" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>82</v>
+      </c>
+      <c r="B985" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>82</v>
+      </c>
+      <c r="B986" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>82</v>
+      </c>
+      <c r="B987" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>83</v>
+      </c>
+      <c r="B989" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>83</v>
+      </c>
+      <c r="B990" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>83</v>
+      </c>
+      <c r="B991" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>83</v>
+      </c>
+      <c r="B992" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>83</v>
+      </c>
+      <c r="B993" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>83</v>
+      </c>
+      <c r="B994" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>83</v>
+      </c>
+      <c r="B995" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>83</v>
+      </c>
+      <c r="B996" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>83</v>
+      </c>
+      <c r="B997" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>83</v>
+      </c>
+      <c r="B998" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>83</v>
+      </c>
+      <c r="B999" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1017" t="s">
         <v>66</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F2E22-8F59-4E56-9056-83118EB2BC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2E340-67C4-402F-985F-2056BC83AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="81">
   <si>
     <t>date</t>
   </si>
@@ -263,18 +263,6 @@
   </si>
   <si>
     <t>09.07.2025</t>
-  </si>
-  <si>
-    <t>10.07.2025</t>
-  </si>
-  <si>
-    <t>11.07.2025</t>
-  </si>
-  <si>
-    <t>12.07.2025</t>
-  </si>
-  <si>
-    <t>13.07.2025</t>
   </si>
 </sst>
 </file>
@@ -692,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1017"/>
+  <dimension ref="A1:AD912"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A853" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E863" sqref="E863"/>
+      <pane ySplit="1" topLeftCell="A871" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F893" sqref="F893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8890,7 +8878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>79</v>
       </c>
@@ -8898,15 +8886,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
+    <row r="899" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A899" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B899" t="s">
+      <c r="B899" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D899" s="20">
+        <v>400</v>
+      </c>
+      <c r="E899" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>80</v>
       </c>
@@ -8914,7 +8908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>80</v>
       </c>
@@ -8922,15 +8916,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A902" t="s">
+    <row r="902" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A902" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B902" t="s">
+      <c r="B902" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D902" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>80</v>
       </c>
@@ -8938,23 +8935,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
+    <row r="904" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B904" t="s">
+      <c r="B904" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
+      <c r="D904" s="20">
+        <v>400</v>
+      </c>
+      <c r="E904" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A905" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B905" t="s">
+      <c r="B905" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D905" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>80</v>
       </c>
@@ -8962,7 +8968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>80</v>
       </c>
@@ -8970,7 +8976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>80</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>80</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>80</v>
       </c>
@@ -8994,7 +9000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>80</v>
       </c>
@@ -9002,795 +9008,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>80</v>
       </c>
       <c r="B912" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" t="s">
-        <v>77</v>
-      </c>
-      <c r="B914" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
-        <v>77</v>
-      </c>
-      <c r="B915" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>77</v>
-      </c>
-      <c r="B916" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
-        <v>77</v>
-      </c>
-      <c r="B917" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
-        <v>77</v>
-      </c>
-      <c r="B918" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A919" t="s">
-        <v>77</v>
-      </c>
-      <c r="B919" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
-        <v>77</v>
-      </c>
-      <c r="B920" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
-        <v>77</v>
-      </c>
-      <c r="B921" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A922" t="s">
-        <v>77</v>
-      </c>
-      <c r="B922" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A923" t="s">
-        <v>77</v>
-      </c>
-      <c r="B923" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
-        <v>77</v>
-      </c>
-      <c r="B924" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
-        <v>77</v>
-      </c>
-      <c r="B925" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
-        <v>77</v>
-      </c>
-      <c r="B926" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A927" t="s">
-        <v>77</v>
-      </c>
-      <c r="B927" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A929" t="s">
-        <v>79</v>
-      </c>
-      <c r="B929" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
-        <v>79</v>
-      </c>
-      <c r="B930" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A931" t="s">
-        <v>79</v>
-      </c>
-      <c r="B931" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
-        <v>79</v>
-      </c>
-      <c r="B932" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
-        <v>79</v>
-      </c>
-      <c r="B933" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
-        <v>79</v>
-      </c>
-      <c r="B934" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" t="s">
-        <v>79</v>
-      </c>
-      <c r="B935" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
-        <v>79</v>
-      </c>
-      <c r="B936" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
-        <v>79</v>
-      </c>
-      <c r="B937" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A938" t="s">
-        <v>79</v>
-      </c>
-      <c r="B938" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A939" t="s">
-        <v>79</v>
-      </c>
-      <c r="B939" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A940" t="s">
-        <v>79</v>
-      </c>
-      <c r="B940" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
-        <v>79</v>
-      </c>
-      <c r="B941" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
-        <v>79</v>
-      </c>
-      <c r="B942" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" t="s">
-        <v>80</v>
-      </c>
-      <c r="B944" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" t="s">
-        <v>80</v>
-      </c>
-      <c r="B945" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
-        <v>80</v>
-      </c>
-      <c r="B946" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" t="s">
-        <v>80</v>
-      </c>
-      <c r="B947" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A948" t="s">
-        <v>80</v>
-      </c>
-      <c r="B948" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A949" t="s">
-        <v>80</v>
-      </c>
-      <c r="B949" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" t="s">
-        <v>80</v>
-      </c>
-      <c r="B950" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A951" t="s">
-        <v>80</v>
-      </c>
-      <c r="B951" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
-        <v>80</v>
-      </c>
-      <c r="B952" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" t="s">
-        <v>80</v>
-      </c>
-      <c r="B953" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" t="s">
-        <v>80</v>
-      </c>
-      <c r="B954" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A955" t="s">
-        <v>80</v>
-      </c>
-      <c r="B955" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A956" t="s">
-        <v>80</v>
-      </c>
-      <c r="B956" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A957" t="s">
-        <v>80</v>
-      </c>
-      <c r="B957" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A959" t="s">
-        <v>81</v>
-      </c>
-      <c r="B959" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A960" t="s">
-        <v>81</v>
-      </c>
-      <c r="B960" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
-        <v>81</v>
-      </c>
-      <c r="B961" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A962" t="s">
-        <v>81</v>
-      </c>
-      <c r="B962" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A963" t="s">
-        <v>81</v>
-      </c>
-      <c r="B963" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A964" t="s">
-        <v>81</v>
-      </c>
-      <c r="B964" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A965" t="s">
-        <v>81</v>
-      </c>
-      <c r="B965" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A966" t="s">
-        <v>81</v>
-      </c>
-      <c r="B966" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
-        <v>81</v>
-      </c>
-      <c r="B967" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A968" t="s">
-        <v>81</v>
-      </c>
-      <c r="B968" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" t="s">
-        <v>81</v>
-      </c>
-      <c r="B969" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" t="s">
-        <v>81</v>
-      </c>
-      <c r="B970" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A971" t="s">
-        <v>81</v>
-      </c>
-      <c r="B971" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A972" t="s">
-        <v>81</v>
-      </c>
-      <c r="B972" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A974" t="s">
-        <v>82</v>
-      </c>
-      <c r="B974" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A975" t="s">
-        <v>82</v>
-      </c>
-      <c r="B975" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" t="s">
-        <v>82</v>
-      </c>
-      <c r="B976" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A977" t="s">
-        <v>82</v>
-      </c>
-      <c r="B977" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A978" t="s">
-        <v>82</v>
-      </c>
-      <c r="B978" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
-        <v>82</v>
-      </c>
-      <c r="B979" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
-        <v>82</v>
-      </c>
-      <c r="B980" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
-        <v>82</v>
-      </c>
-      <c r="B981" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>82</v>
-      </c>
-      <c r="B982" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
-        <v>82</v>
-      </c>
-      <c r="B983" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
-        <v>82</v>
-      </c>
-      <c r="B984" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
-        <v>82</v>
-      </c>
-      <c r="B985" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>82</v>
-      </c>
-      <c r="B986" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
-        <v>82</v>
-      </c>
-      <c r="B987" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
-        <v>83</v>
-      </c>
-      <c r="B989" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>83</v>
-      </c>
-      <c r="B990" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
-        <v>83</v>
-      </c>
-      <c r="B991" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
-        <v>83</v>
-      </c>
-      <c r="B992" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A993" t="s">
-        <v>83</v>
-      </c>
-      <c r="B993" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A994" t="s">
-        <v>83</v>
-      </c>
-      <c r="B994" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
-        <v>83</v>
-      </c>
-      <c r="B995" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
-        <v>83</v>
-      </c>
-      <c r="B996" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A997" t="s">
-        <v>83</v>
-      </c>
-      <c r="B997" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
-        <v>83</v>
-      </c>
-      <c r="B998" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
-        <v>83</v>
-      </c>
-      <c r="B999" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1012" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1016" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1017" t="s">
         <v>66</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B2E340-67C4-402F-985F-2056BC83AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B963E2A-0BE4-40DF-8E45-C1FFB5664890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="81">
   <si>
     <t>date</t>
   </si>
@@ -683,8 +683,8 @@
   <dimension ref="A1:AD912"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A871" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F893" sqref="F893"/>
+      <pane ySplit="1" topLeftCell="A877" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K915" sqref="K915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8878,7 +8878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>79</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="899" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="20" t="s">
         <v>80</v>
       </c>
@@ -8899,24 +8899,33 @@
       <c r="E899" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I899" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>80</v>
       </c>
       <c r="B900" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I900" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>80</v>
       </c>
       <c r="B901" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="902" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I901" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="7" t="s">
         <v>80</v>
       </c>
@@ -8926,16 +8935,22 @@
       <c r="D902" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I902" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>80</v>
       </c>
       <c r="B903" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="904" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I903" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="20" t="s">
         <v>80</v>
       </c>
@@ -8948,8 +8963,11 @@
       <c r="E904" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="905" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I904" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="7" t="s">
         <v>80</v>
       </c>
@@ -8959,61 +8977,81 @@
       <c r="D905" s="7">
         <v>400</v>
       </c>
-    </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I905" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>80</v>
       </c>
       <c r="B906" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I906" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>80</v>
       </c>
       <c r="B907" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I907" s="7"/>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>80</v>
       </c>
       <c r="B908" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I908" s="7"/>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>80</v>
       </c>
       <c r="B909" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I909" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>80</v>
       </c>
       <c r="B910" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I910" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>80</v>
       </c>
       <c r="B911" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I911" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>80</v>
       </c>
       <c r="B912" t="s">
         <v>66</v>
+      </c>
+      <c r="I912" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B963E2A-0BE4-40DF-8E45-C1FFB5664890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8DD581-DE67-41B0-A5EB-22D02A9C1EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="81">
   <si>
     <t>date</t>
   </si>
@@ -680,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD912"/>
+  <dimension ref="A1:AD1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A877" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K915" sqref="K915"/>
+      <pane ySplit="1" topLeftCell="A941" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E967" sqref="E967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9054,6 +9054,802 @@
         <v>21</v>
       </c>
     </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B914" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B915" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B916" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B917" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B918" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B919" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B920" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B921" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B922" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B923" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B924" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B925" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B926" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B927" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B929" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B930" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B931" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B932" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B933" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B934" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B935" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B936" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B937" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B938" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B939" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B940" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B941" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" s="2">
+        <v>45849</v>
+      </c>
+      <c r="B942" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B944" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B945" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B946" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B947" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B948" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B949" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B950" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B951" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B952" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B953" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B954" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B955" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B956" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" s="2">
+        <v>45850</v>
+      </c>
+      <c r="B957" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B959" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B960" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B961" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="19">
+        <v>45851</v>
+      </c>
+      <c r="B962" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D962" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="19">
+        <v>45851</v>
+      </c>
+      <c r="B963" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D963" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B964" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B965" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B966" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B967" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B968" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B969" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" s="2">
+        <v>45851</v>
+      </c>
+      <c r="B970" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="19">
+        <v>45851</v>
+      </c>
+      <c r="B971" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D971" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="19">
+        <v>45851</v>
+      </c>
+      <c r="B972" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D972" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B974" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B975" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B976" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B977" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B978" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B979" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B980" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B981" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B982" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B983" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B984" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B985" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B986" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" s="2">
+        <v>45852</v>
+      </c>
+      <c r="B987" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B989" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B990" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B991" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B992" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B993" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B994" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B995" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B996" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B997" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B998" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B999" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DCAEA-482B-4EEF-B141-1BFCFD8EA16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CCB1E4-0977-4807-BF2A-98371CA56FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791D55A-0028-4F3A-A7EF-03F188DEE523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4428A8A8-BC7C-49EA-ACB2-D5D01D0C6A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="90">
   <si>
     <t>date</t>
   </si>
@@ -269,6 +269,27 @@
   </si>
   <si>
     <t>Pachira Aquatica</t>
+  </si>
+  <si>
+    <t>18.07.2025</t>
+  </si>
+  <si>
+    <t>19.07.2025</t>
+  </si>
+  <si>
+    <t>20.07.2025</t>
+  </si>
+  <si>
+    <t>21.07.2025</t>
+  </si>
+  <si>
+    <t>22.07.2025</t>
+  </si>
+  <si>
+    <t>23.07.2025</t>
+  </si>
+  <si>
+    <t>24.07.2025</t>
   </si>
 </sst>
 </file>
@@ -686,11 +707,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD907"/>
+  <dimension ref="A1:AD1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162:XFD163"/>
+      <pane ySplit="1" topLeftCell="A883" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B901" sqref="B901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8896,6 +8917,846 @@
         <v>64</v>
       </c>
     </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>83</v>
+      </c>
+      <c r="B909" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>83</v>
+      </c>
+      <c r="B910" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>83</v>
+      </c>
+      <c r="B911" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>83</v>
+      </c>
+      <c r="B912" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>83</v>
+      </c>
+      <c r="B913" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>83</v>
+      </c>
+      <c r="B914" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>83</v>
+      </c>
+      <c r="B915" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>83</v>
+      </c>
+      <c r="B916" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>83</v>
+      </c>
+      <c r="B917" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>83</v>
+      </c>
+      <c r="B918" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>83</v>
+      </c>
+      <c r="B919" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>83</v>
+      </c>
+      <c r="B920" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>83</v>
+      </c>
+      <c r="B921" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>83</v>
+      </c>
+      <c r="B922" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>83</v>
+      </c>
+      <c r="B923" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>84</v>
+      </c>
+      <c r="B925" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>84</v>
+      </c>
+      <c r="B926" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>84</v>
+      </c>
+      <c r="B927" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>84</v>
+      </c>
+      <c r="B928" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>84</v>
+      </c>
+      <c r="B929" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>84</v>
+      </c>
+      <c r="B930" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>84</v>
+      </c>
+      <c r="B931" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>84</v>
+      </c>
+      <c r="B932" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>84</v>
+      </c>
+      <c r="B933" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>84</v>
+      </c>
+      <c r="B934" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>84</v>
+      </c>
+      <c r="B935" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>84</v>
+      </c>
+      <c r="B936" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>84</v>
+      </c>
+      <c r="B937" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>84</v>
+      </c>
+      <c r="B938" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>84</v>
+      </c>
+      <c r="B939" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>85</v>
+      </c>
+      <c r="B941" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>85</v>
+      </c>
+      <c r="B942" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>85</v>
+      </c>
+      <c r="B943" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>85</v>
+      </c>
+      <c r="B944" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>85</v>
+      </c>
+      <c r="B945" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>85</v>
+      </c>
+      <c r="B946" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>85</v>
+      </c>
+      <c r="B947" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>85</v>
+      </c>
+      <c r="B948" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>85</v>
+      </c>
+      <c r="B949" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>85</v>
+      </c>
+      <c r="B950" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>85</v>
+      </c>
+      <c r="B951" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>85</v>
+      </c>
+      <c r="B952" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>85</v>
+      </c>
+      <c r="B953" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>85</v>
+      </c>
+      <c r="B954" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>85</v>
+      </c>
+      <c r="B955" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>86</v>
+      </c>
+      <c r="B957" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>86</v>
+      </c>
+      <c r="B958" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>86</v>
+      </c>
+      <c r="B959" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>86</v>
+      </c>
+      <c r="B960" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>86</v>
+      </c>
+      <c r="B961" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>86</v>
+      </c>
+      <c r="B962" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>86</v>
+      </c>
+      <c r="B963" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>86</v>
+      </c>
+      <c r="B964" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>86</v>
+      </c>
+      <c r="B965" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>86</v>
+      </c>
+      <c r="B966" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>86</v>
+      </c>
+      <c r="B967" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>86</v>
+      </c>
+      <c r="B968" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>86</v>
+      </c>
+      <c r="B969" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>86</v>
+      </c>
+      <c r="B970" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>86</v>
+      </c>
+      <c r="B971" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>87</v>
+      </c>
+      <c r="B973" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>87</v>
+      </c>
+      <c r="B974" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>87</v>
+      </c>
+      <c r="B975" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>87</v>
+      </c>
+      <c r="B976" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>87</v>
+      </c>
+      <c r="B977" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>87</v>
+      </c>
+      <c r="B978" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>87</v>
+      </c>
+      <c r="B979" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>87</v>
+      </c>
+      <c r="B980" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>87</v>
+      </c>
+      <c r="B981" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>87</v>
+      </c>
+      <c r="B982" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>87</v>
+      </c>
+      <c r="B983" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>87</v>
+      </c>
+      <c r="B984" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>87</v>
+      </c>
+      <c r="B985" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>87</v>
+      </c>
+      <c r="B986" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>87</v>
+      </c>
+      <c r="B987" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>88</v>
+      </c>
+      <c r="B989" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>88</v>
+      </c>
+      <c r="B990" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>88</v>
+      </c>
+      <c r="B991" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>88</v>
+      </c>
+      <c r="B992" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>88</v>
+      </c>
+      <c r="B993" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>88</v>
+      </c>
+      <c r="B994" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>88</v>
+      </c>
+      <c r="B995" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>88</v>
+      </c>
+      <c r="B996" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>88</v>
+      </c>
+      <c r="B997" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>88</v>
+      </c>
+      <c r="B998" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>88</v>
+      </c>
+      <c r="B999" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4428A8A8-BC7C-49EA-ACB2-D5D01D0C6A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC97FE-4BCF-43B4-8FAC-79AF43E1F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="83">
   <si>
     <t>date</t>
   </si>
@@ -259,9 +259,6 @@
     <t>09.07.2025</t>
   </si>
   <si>
-    <t>17.07.2025</t>
-  </si>
-  <si>
     <t>Epipremnum Aureum Saal</t>
   </si>
   <si>
@@ -272,24 +269,6 @@
   </si>
   <si>
     <t>18.07.2025</t>
-  </si>
-  <si>
-    <t>19.07.2025</t>
-  </si>
-  <si>
-    <t>20.07.2025</t>
-  </si>
-  <si>
-    <t>21.07.2025</t>
-  </si>
-  <si>
-    <t>22.07.2025</t>
-  </si>
-  <si>
-    <t>23.07.2025</t>
-  </si>
-  <si>
-    <t>24.07.2025</t>
   </si>
 </sst>
 </file>
@@ -707,11 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1019"/>
+  <dimension ref="A1:AD932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A883" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B901" sqref="B901"/>
+      <pane ySplit="1" topLeftCell="A842" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K862" sqref="K862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8468,7 +8447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>45851</v>
       </c>
@@ -8476,7 +8455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" s="2">
         <v>45851</v>
       </c>
@@ -8484,7 +8463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="851" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="19">
         <v>45851</v>
       </c>
@@ -8495,7 +8474,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="852" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A852" s="19">
         <v>45851</v>
       </c>
@@ -8506,1255 +8485,622 @@
         <v>400</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B854" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B855" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B856" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B857" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B858" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B859" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I859" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B860" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B861" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B862" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B863" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B864" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I864" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B865" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B866" t="s">
+        <v>79</v>
+      </c>
+      <c r="I866" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B867" t="s">
+        <v>80</v>
+      </c>
+      <c r="I867" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A868" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B868" t="s">
+        <v>81</v>
+      </c>
+      <c r="I868" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A870" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B870" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A868" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B868" t="s">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A871" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B871" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A869" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B869" t="s">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B872" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A870" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B870" t="s">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B873" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A871" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B871" t="s">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B874" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A872" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B872" t="s">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B875" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A873" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B873" t="s">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B876" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A874" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B874" t="s">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B877" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A875" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B875" t="s">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B878" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A876" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B876" t="s">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B879" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A877" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B877" t="s">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B880" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A878" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B878" t="s">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B881" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A880" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B880" t="s">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B882" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B883" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B884" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B886" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A881" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B881" t="s">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B887" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A882" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B882" t="s">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B888" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A883" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B883" t="s">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B889" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A884" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B884" t="s">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B890" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A885" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B885" t="s">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B891" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A886" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B886" t="s">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B892" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A887" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B887" t="s">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B893" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A888" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B888" t="s">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B894" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A889" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B889" t="s">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B895" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A890" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B890" t="s">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B896" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A891" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B891" t="s">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A897" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B897" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A893" t="s">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A898" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B898" t="s">
         <v>79</v>
       </c>
-      <c r="B893" t="s">
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A899" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B899" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A900" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B900" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A902" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B902" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A903" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B903" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B904" t="s">
+        <v>15</v>
+      </c>
+      <c r="D904" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A905" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B905" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A906" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B906" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A907" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B907" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A908" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B908" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A909" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B909" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A910" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B910" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A911" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B911" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A912" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B912" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B913" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B914" t="s">
         <v>79</v>
       </c>
-      <c r="B894" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="895" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B895" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D895" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="896" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B896" s="7" t="s">
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B915" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
-        <v>79</v>
-      </c>
-      <c r="B897" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
-        <v>79</v>
-      </c>
-      <c r="B898" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
-        <v>79</v>
-      </c>
-      <c r="B899" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A900" t="s">
-        <v>79</v>
-      </c>
-      <c r="B900" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A901" t="s">
-        <v>79</v>
-      </c>
-      <c r="B901" t="s">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B916" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A902" t="s">
-        <v>79</v>
-      </c>
-      <c r="B902" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
-        <v>79</v>
-      </c>
-      <c r="B903" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
-        <v>79</v>
-      </c>
-      <c r="B904" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
-        <v>79</v>
-      </c>
-      <c r="B905" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
-        <v>79</v>
-      </c>
-      <c r="B906" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A907" t="s">
-        <v>79</v>
-      </c>
-      <c r="B907" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
-        <v>83</v>
-      </c>
-      <c r="B909" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A910" t="s">
-        <v>83</v>
-      </c>
-      <c r="B910" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A911" t="s">
-        <v>83</v>
-      </c>
-      <c r="B911" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A912" t="s">
-        <v>83</v>
-      </c>
-      <c r="B912" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
-        <v>83</v>
-      </c>
-      <c r="B913" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A914" t="s">
-        <v>83</v>
-      </c>
-      <c r="B914" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
-        <v>83</v>
-      </c>
-      <c r="B915" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>83</v>
-      </c>
-      <c r="B916" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
-        <v>83</v>
-      </c>
-      <c r="B917" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B918" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B919" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B920" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B921" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B922" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B923" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
         <v>82</v>
+      </c>
+      <c r="B924" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B925" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B926" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B927" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B928" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B929" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B930" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B931" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B932" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
-        <v>84</v>
-      </c>
-      <c r="B933" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
-        <v>84</v>
-      </c>
-      <c r="B934" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" t="s">
-        <v>84</v>
-      </c>
-      <c r="B935" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
-        <v>84</v>
-      </c>
-      <c r="B936" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
-        <v>84</v>
-      </c>
-      <c r="B937" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A938" t="s">
-        <v>84</v>
-      </c>
-      <c r="B938" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A939" t="s">
-        <v>84</v>
-      </c>
-      <c r="B939" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
-        <v>85</v>
-      </c>
-      <c r="B941" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
-        <v>85</v>
-      </c>
-      <c r="B942" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A943" t="s">
-        <v>85</v>
-      </c>
-      <c r="B943" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A944" t="s">
-        <v>85</v>
-      </c>
-      <c r="B944" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A945" t="s">
-        <v>85</v>
-      </c>
-      <c r="B945" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
-        <v>85</v>
-      </c>
-      <c r="B946" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A947" t="s">
-        <v>85</v>
-      </c>
-      <c r="B947" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A948" t="s">
-        <v>85</v>
-      </c>
-      <c r="B948" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A949" t="s">
-        <v>85</v>
-      </c>
-      <c r="B949" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" t="s">
-        <v>85</v>
-      </c>
-      <c r="B950" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A951" t="s">
-        <v>85</v>
-      </c>
-      <c r="B951" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
-        <v>85</v>
-      </c>
-      <c r="B952" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A953" t="s">
-        <v>85</v>
-      </c>
-      <c r="B953" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A954" t="s">
-        <v>85</v>
-      </c>
-      <c r="B954" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A955" t="s">
-        <v>85</v>
-      </c>
-      <c r="B955" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A957" t="s">
-        <v>86</v>
-      </c>
-      <c r="B957" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A958" t="s">
-        <v>86</v>
-      </c>
-      <c r="B958" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A959" t="s">
-        <v>86</v>
-      </c>
-      <c r="B959" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A960" t="s">
-        <v>86</v>
-      </c>
-      <c r="B960" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
-        <v>86</v>
-      </c>
-      <c r="B961" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A962" t="s">
-        <v>86</v>
-      </c>
-      <c r="B962" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A963" t="s">
-        <v>86</v>
-      </c>
-      <c r="B963" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A964" t="s">
-        <v>86</v>
-      </c>
-      <c r="B964" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A965" t="s">
-        <v>86</v>
-      </c>
-      <c r="B965" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A966" t="s">
-        <v>86</v>
-      </c>
-      <c r="B966" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
-        <v>86</v>
-      </c>
-      <c r="B967" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A968" t="s">
-        <v>86</v>
-      </c>
-      <c r="B968" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A969" t="s">
-        <v>86</v>
-      </c>
-      <c r="B969" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A970" t="s">
-        <v>86</v>
-      </c>
-      <c r="B970" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A971" t="s">
-        <v>86</v>
-      </c>
-      <c r="B971" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A973" t="s">
-        <v>87</v>
-      </c>
-      <c r="B973" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A974" t="s">
-        <v>87</v>
-      </c>
-      <c r="B974" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A975" t="s">
-        <v>87</v>
-      </c>
-      <c r="B975" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A976" t="s">
-        <v>87</v>
-      </c>
-      <c r="B976" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A977" t="s">
-        <v>87</v>
-      </c>
-      <c r="B977" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A978" t="s">
-        <v>87</v>
-      </c>
-      <c r="B978" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
-        <v>87</v>
-      </c>
-      <c r="B979" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
-        <v>87</v>
-      </c>
-      <c r="B980" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
-        <v>87</v>
-      </c>
-      <c r="B981" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>87</v>
-      </c>
-      <c r="B982" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
-        <v>87</v>
-      </c>
-      <c r="B983" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
-        <v>87</v>
-      </c>
-      <c r="B984" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
-        <v>87</v>
-      </c>
-      <c r="B985" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>87</v>
-      </c>
-      <c r="B986" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
-        <v>87</v>
-      </c>
-      <c r="B987" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
-        <v>88</v>
-      </c>
-      <c r="B989" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>88</v>
-      </c>
-      <c r="B990" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
-        <v>88</v>
-      </c>
-      <c r="B991" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
-        <v>88</v>
-      </c>
-      <c r="B992" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A993" t="s">
-        <v>88</v>
-      </c>
-      <c r="B993" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A994" t="s">
-        <v>88</v>
-      </c>
-      <c r="B994" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
-        <v>88</v>
-      </c>
-      <c r="B995" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
-        <v>88</v>
-      </c>
-      <c r="B996" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A997" t="s">
-        <v>88</v>
-      </c>
-      <c r="B997" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
-        <v>88</v>
-      </c>
-      <c r="B998" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
-        <v>88</v>
-      </c>
-      <c r="B999" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1012" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1014" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1016" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1018" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1019" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE54020-627A-4D5F-8E69-75B91F1571C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A37741-270A-4C9D-A4BF-253DF93BD171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,8 +707,8 @@
   <dimension ref="A1:AD1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A912" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G926" sqref="G926"/>
+      <pane ySplit="1" topLeftCell="A924" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E959" sqref="E959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9215,7 +9215,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>83</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>83</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>83</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>83</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>84</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>84</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>84</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>84</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>84</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>84</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>84</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>84</v>
       </c>
@@ -9311,15 +9311,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A958" t="s">
+    <row r="958" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B958" t="s">
+      <c r="B958" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D958" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>84</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>84</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>84</v>
       </c>
@@ -9343,7 +9346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>84</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>84</v>
       </c>
@@ -9359,15 +9362,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>84</v>
       </c>
       <c r="B964" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D964">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>85</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>85</v>
       </c>
@@ -9383,7 +9389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>85</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>85</v>
       </c>
@@ -9399,7 +9405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>85</v>
       </c>
@@ -9407,7 +9413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>85</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>85</v>
       </c>
@@ -9423,7 +9429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>85</v>
       </c>
@@ -9431,7 +9437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>85</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>85</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>85</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A37741-270A-4C9D-A4BF-253DF93BD171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BB9BA-BC13-4C51-BA7A-86759F32AF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -287,6 +287,15 @@
   </si>
   <si>
     <t>24.07.2025</t>
+  </si>
+  <si>
+    <t>25.07.2025</t>
+  </si>
+  <si>
+    <t>26.07.2025</t>
+  </si>
+  <si>
+    <t>27.07.2025</t>
   </si>
 </sst>
 </file>
@@ -704,11 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1028"/>
+  <dimension ref="A1:AD1076"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A924" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E959" sqref="E959"/>
+      <pane ySplit="1" topLeftCell="A972" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A995" sqref="A995:XFD995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9373,12 +9382,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A966" t="s">
+    <row r="966" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B966" t="s">
+      <c r="B966" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="D966" s="7">
+        <v>300</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
@@ -9461,7 +9473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>85</v>
       </c>
@@ -9469,7 +9481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>85</v>
       </c>
@@ -9477,7 +9489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>85</v>
       </c>
@@ -9485,7 +9497,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>85</v>
       </c>
@@ -9493,7 +9505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>86</v>
       </c>
@@ -9501,7 +9513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>86</v>
       </c>
@@ -9509,7 +9521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>86</v>
       </c>
@@ -9517,7 +9529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>86</v>
       </c>
@@ -9525,7 +9537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>86</v>
       </c>
@@ -9533,15 +9545,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
+    <row r="987" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B987" t="s">
+      <c r="B987" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D987" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>86</v>
       </c>
@@ -9549,7 +9564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>86</v>
       </c>
@@ -9557,7 +9572,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>86</v>
       </c>
@@ -9565,7 +9580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>86</v>
       </c>
@@ -9573,7 +9588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>86</v>
       </c>
@@ -9581,7 +9596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>86</v>
       </c>
@@ -9589,7 +9604,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>86</v>
       </c>
@@ -9597,15 +9612,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
+    <row r="995" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B995" t="s">
+      <c r="B995" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D995" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>86</v>
       </c>
@@ -9613,7 +9631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>87</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>87</v>
       </c>
@@ -9629,7 +9647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>87</v>
       </c>
@@ -9637,7 +9655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>87</v>
       </c>
@@ -9645,7 +9663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>87</v>
       </c>
@@ -9653,7 +9671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>87</v>
       </c>
@@ -9661,7 +9679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>87</v>
       </c>
@@ -9669,7 +9687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>87</v>
       </c>
@@ -9677,7 +9695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>87</v>
       </c>
@@ -9685,7 +9703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>87</v>
       </c>
@@ -9693,7 +9711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>87</v>
       </c>
@@ -9850,6 +9868,366 @@
         <v>88</v>
       </c>
       <c r="B1028" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1076" t="s">
         <v>81</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8657A02-2442-4EA0-A248-B28A85D81B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A95F4D-AD80-4A49-B288-F20D3DC6D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="100">
   <si>
     <t>date</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>01.08.2025</t>
+  </si>
+  <si>
+    <t>02.08.2025</t>
+  </si>
+  <si>
+    <t>03.08.2025</t>
   </si>
 </sst>
 </file>
@@ -731,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1074"/>
+  <dimension ref="A1:AD1125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A939" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E968" sqref="E968"/>
+      <pane ySplit="1" topLeftCell="A1008" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1017" sqref="C1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9654,7 +9660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>95</v>
       </c>
@@ -9662,7 +9668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>95</v>
       </c>
@@ -9670,7 +9676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>95</v>
       </c>
@@ -9678,7 +9684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>95</v>
       </c>
@@ -9686,7 +9692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>95</v>
       </c>
@@ -9694,7 +9700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>95</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>95</v>
       </c>
@@ -9710,7 +9716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>95</v>
       </c>
@@ -9718,15 +9724,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1033" t="s">
+    <row r="1033" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B1033" t="s">
+      <c r="B1033" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1033" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>95</v>
       </c>
@@ -9734,7 +9743,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>95</v>
       </c>
@@ -9742,7 +9751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>95</v>
       </c>
@@ -9750,7 +9759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>95</v>
       </c>
@@ -9758,7 +9767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>95</v>
       </c>
@@ -9766,7 +9775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>95</v>
       </c>
@@ -9774,7 +9783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>95</v>
       </c>
@@ -10035,6 +10044,390 @@
         <v>97</v>
       </c>
       <c r="B1074" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1125" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D8B5B3-21A4-4D35-B624-816986F2C931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15AF8B-0913-4018-86B5-2704BC48AC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="102">
   <si>
     <t>date</t>
   </si>
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1073" sqref="B1073"/>
+      <selection pane="bottomLeft" activeCell="H1090" sqref="H1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10040,7 +10040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>97</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>97</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>97</v>
       </c>
@@ -10064,31 +10064,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>97</v>
       </c>
       <c r="B1077" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1077" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>97</v>
       </c>
       <c r="B1078" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1078">
+        <v>500</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>97</v>
       </c>
       <c r="B1079" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="1080" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1079">
+        <v>500</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="13" t="s">
         <v>97</v>
       </c>
@@ -10102,7 +10117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>97</v>
       </c>
@@ -10112,8 +10127,11 @@
       <c r="D1081">
         <v>500</v>
       </c>
-    </row>
-    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I1081" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>97</v>
       </c>
@@ -10121,7 +10139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>97</v>
       </c>
@@ -10129,7 +10147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>97</v>
       </c>
@@ -10137,7 +10155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1085" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="13" t="s">
         <v>97</v>
       </c>
@@ -10151,7 +10169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>97</v>
       </c>
@@ -10159,7 +10177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>97</v>
       </c>
@@ -10170,7 +10188,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>97</v>
       </c>
@@ -10181,7 +10199,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
         <v>97</v>
       </c>
@@ -10192,23 +10210,35 @@
         <v>800</v>
       </c>
     </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
         <v>97</v>
       </c>
       <c r="B1090" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1090">
+        <v>600</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
         <v>97</v>
       </c>
       <c r="B1091" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1091">
+        <v>500</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
         <v>98</v>
       </c>
@@ -10216,7 +10246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
         <v>98</v>
       </c>
@@ -10224,7 +10254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
         <v>98</v>
       </c>
@@ -10232,7 +10262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
         <v>98</v>
       </c>
@@ -10240,7 +10270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
         <v>98</v>
       </c>
@@ -10248,7 +10278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
         <v>98</v>
       </c>
@@ -10256,7 +10286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
         <v>98</v>
       </c>
@@ -10264,7 +10294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
         <v>98</v>
       </c>
@@ -10272,7 +10302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
         <v>98</v>
       </c>
@@ -10280,7 +10310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
         <v>98</v>
       </c>
@@ -10288,7 +10318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
         <v>98</v>
       </c>
@@ -10296,7 +10326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
         <v>98</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB15AF8B-0913-4018-86B5-2704BC48AC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2F3C33-B871-40B5-9B4D-B0E06573BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1090" sqref="H1090"/>
+      <selection pane="bottomLeft" activeCell="D1107" sqref="D1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10040,7 +10040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>97</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>97</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>97</v>
       </c>
@@ -10064,74 +10064,48 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>97</v>
       </c>
       <c r="B1077" t="s">
         <v>14</v>
       </c>
-      <c r="I1077" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>97</v>
       </c>
       <c r="B1078" t="s">
         <v>15</v>
       </c>
-      <c r="D1078">
-        <v>500</v>
-      </c>
-      <c r="I1078" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>97</v>
       </c>
       <c r="B1079" t="s">
         <v>16</v>
       </c>
-      <c r="D1079">
-        <v>500</v>
-      </c>
-      <c r="I1079" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1080" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B1080" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1080" s="13">
-        <v>500</v>
-      </c>
-      <c r="E1080" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1080" s="7"/>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>97</v>
       </c>
       <c r="B1081" t="s">
         <v>18</v>
       </c>
-      <c r="D1081">
-        <v>500</v>
-      </c>
-      <c r="I1081" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>97</v>
       </c>
@@ -10139,7 +10113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>97</v>
       </c>
@@ -10147,7 +10121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>97</v>
       </c>
@@ -10155,21 +10129,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1085" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1085" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B1085" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D1085" s="13">
-        <v>600</v>
-      </c>
-      <c r="E1085" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1085" s="7"/>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
         <v>97</v>
       </c>
@@ -10177,26 +10146,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
         <v>97</v>
       </c>
       <c r="B1087" t="s">
         <v>78</v>
       </c>
-      <c r="D1087">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
         <v>97</v>
       </c>
       <c r="B1088" t="s">
         <v>79</v>
-      </c>
-      <c r="D1088">
-        <v>500</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
@@ -10206,9 +10169,6 @@
       <c r="B1089" t="s">
         <v>80</v>
       </c>
-      <c r="D1089">
-        <v>800</v>
-      </c>
     </row>
     <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
@@ -10217,12 +10177,6 @@
       <c r="B1090" t="s">
         <v>89</v>
       </c>
-      <c r="D1090">
-        <v>600</v>
-      </c>
-      <c r="I1090" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
@@ -10231,12 +10185,6 @@
       <c r="B1091" t="s">
         <v>90</v>
       </c>
-      <c r="D1091">
-        <v>500</v>
-      </c>
-      <c r="I1091" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
@@ -10253,6 +10201,9 @@
       <c r="B1094" t="s">
         <v>14</v>
       </c>
+      <c r="I1094" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
@@ -10261,6 +10212,12 @@
       <c r="B1095" t="s">
         <v>15</v>
       </c>
+      <c r="D1095">
+        <v>500</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
@@ -10269,6 +10226,12 @@
       <c r="B1096" t="s">
         <v>16</v>
       </c>
+      <c r="D1096">
+        <v>500</v>
+      </c>
+      <c r="I1096" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
@@ -10277,6 +10240,17 @@
       <c r="B1097" t="s">
         <v>17</v>
       </c>
+      <c r="C1097" s="13"/>
+      <c r="D1097" s="13">
+        <v>500</v>
+      </c>
+      <c r="E1097" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1097" s="13"/>
+      <c r="G1097" s="13"/>
+      <c r="H1097" s="13"/>
+      <c r="I1097" s="13"/>
     </row>
     <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
@@ -10285,6 +10259,12 @@
       <c r="B1098" t="s">
         <v>18</v>
       </c>
+      <c r="D1098">
+        <v>500</v>
+      </c>
+      <c r="I1098" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
@@ -10317,6 +10297,17 @@
       <c r="B1102" t="s">
         <v>62</v>
       </c>
+      <c r="C1102" s="13"/>
+      <c r="D1102" s="13">
+        <v>600</v>
+      </c>
+      <c r="E1102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1102" s="13"/>
+      <c r="G1102" s="13"/>
+      <c r="H1102" s="13"/>
+      <c r="I1102" s="13"/>
     </row>
     <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
@@ -10333,40 +10324,61 @@
       <c r="B1104" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1104">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
         <v>98</v>
       </c>
       <c r="B1105" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1105">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
         <v>98</v>
       </c>
       <c r="B1106" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1106">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
         <v>98</v>
       </c>
       <c r="B1107" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1107">
+        <v>600</v>
+      </c>
+      <c r="I1107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
         <v>98</v>
       </c>
       <c r="B1108" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1108">
+        <v>500</v>
+      </c>
+      <c r="I1108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
         <v>99</v>
       </c>
@@ -10374,7 +10386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
         <v>99</v>
       </c>
@@ -10382,7 +10394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
         <v>99</v>
       </c>
@@ -10390,7 +10402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>99</v>
       </c>
@@ -10398,7 +10410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
         <v>99</v>
       </c>
@@ -10406,7 +10418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
         <v>99</v>
       </c>
@@ -10414,7 +10426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
         <v>99</v>
       </c>
@@ -10422,7 +10434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
         <v>99</v>
       </c>
@@ -10430,7 +10442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
         <v>99</v>
       </c>
@@ -10438,7 +10450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
         <v>99</v>
       </c>
@@ -10446,7 +10458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
         <v>99</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2078"/>
+  <dimension ref="A1:AD2758"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
@@ -23979,13 +23979,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1994" t="inlineStr"/>
-      <c r="D1994" t="inlineStr"/>
-      <c r="E1994" t="inlineStr"/>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
-      <c r="H1994" t="inlineStr"/>
-      <c r="I1994" t="inlineStr"/>
     </row>
     <row r="1995">
       <c r="A1995" t="inlineStr">
@@ -23998,13 +23991,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1995" t="inlineStr"/>
-      <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr"/>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr"/>
-      <c r="I1995" t="inlineStr"/>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
@@ -24017,13 +24003,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1996" t="inlineStr"/>
-      <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr"/>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr"/>
-      <c r="H1996" t="inlineStr"/>
-      <c r="I1996" t="inlineStr"/>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
@@ -24036,13 +24015,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1997" t="inlineStr"/>
-      <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr"/>
-      <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr"/>
-      <c r="H1997" t="inlineStr"/>
-      <c r="I1997" t="inlineStr"/>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
@@ -24055,13 +24027,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1998" t="inlineStr"/>
-      <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr"/>
-      <c r="I1998" t="inlineStr"/>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
@@ -24074,13 +24039,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1999" t="inlineStr"/>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr"/>
-      <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
-      <c r="H1999" t="inlineStr"/>
-      <c r="I1999" t="inlineStr"/>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
@@ -24093,13 +24051,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2000" t="inlineStr"/>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
-      <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr"/>
-      <c r="I2000" t="inlineStr"/>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
@@ -24112,13 +24063,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2001" t="inlineStr"/>
-      <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr"/>
-      <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr"/>
-      <c r="I2001" t="inlineStr"/>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
@@ -24131,13 +24075,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2002" t="inlineStr"/>
-      <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr"/>
-      <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
-      <c r="H2002" t="inlineStr"/>
-      <c r="I2002" t="inlineStr"/>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
@@ -24150,13 +24087,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2003" t="inlineStr"/>
-      <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr"/>
-      <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr"/>
-      <c r="H2003" t="inlineStr"/>
-      <c r="I2003" t="inlineStr"/>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
@@ -24169,13 +24099,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2004" t="inlineStr"/>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr"/>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr"/>
-      <c r="I2004" t="inlineStr"/>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
@@ -24188,13 +24111,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2005" t="inlineStr"/>
-      <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr"/>
-      <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr"/>
-      <c r="I2005" t="inlineStr"/>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
@@ -24207,13 +24123,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2006" t="inlineStr"/>
-      <c r="D2006" t="inlineStr"/>
-      <c r="E2006" t="inlineStr"/>
-      <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr"/>
-      <c r="I2006" t="inlineStr"/>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
@@ -24226,13 +24135,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2007" t="inlineStr"/>
-      <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr"/>
-      <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr"/>
-      <c r="I2007" t="inlineStr"/>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
@@ -24245,13 +24147,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2008" t="inlineStr"/>
-      <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr"/>
-      <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr"/>
-      <c r="H2008" t="inlineStr"/>
-      <c r="I2008" t="inlineStr"/>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
@@ -24264,13 +24159,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2009" t="inlineStr"/>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
-      <c r="H2009" t="inlineStr"/>
-      <c r="I2009" t="inlineStr"/>
     </row>
     <row r="2010"/>
     <row r="2011">
@@ -24284,13 +24172,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2011" t="inlineStr"/>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
-      <c r="H2011" t="inlineStr"/>
-      <c r="I2011" t="inlineStr"/>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
@@ -24303,13 +24184,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2012" t="inlineStr"/>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr"/>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
-      <c r="H2012" t="inlineStr"/>
-      <c r="I2012" t="inlineStr"/>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
@@ -24322,13 +24196,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2013" t="inlineStr"/>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr"/>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr"/>
-      <c r="I2013" t="inlineStr"/>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
@@ -24341,13 +24208,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2014" t="inlineStr"/>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr"/>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
-      <c r="H2014" t="inlineStr"/>
-      <c r="I2014" t="inlineStr"/>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
@@ -24360,13 +24220,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2015" t="inlineStr"/>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr"/>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
-      <c r="H2015" t="inlineStr"/>
-      <c r="I2015" t="inlineStr"/>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
@@ -24379,13 +24232,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2016" t="inlineStr"/>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr"/>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr"/>
-      <c r="I2016" t="inlineStr"/>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
@@ -24398,13 +24244,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr"/>
-      <c r="I2017" t="inlineStr"/>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
@@ -24417,13 +24256,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2018" t="inlineStr"/>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr"/>
-      <c r="I2018" t="inlineStr"/>
     </row>
     <row r="2019">
       <c r="A2019" t="inlineStr">
@@ -24436,13 +24268,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2019" t="inlineStr"/>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr"/>
-      <c r="I2019" t="inlineStr"/>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
@@ -24455,13 +24280,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2020" t="inlineStr"/>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
-      <c r="H2020" t="inlineStr"/>
-      <c r="I2020" t="inlineStr"/>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
@@ -24474,13 +24292,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2021" t="inlineStr"/>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr"/>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr"/>
-      <c r="H2021" t="inlineStr"/>
-      <c r="I2021" t="inlineStr"/>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
@@ -24493,13 +24304,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2022" t="inlineStr"/>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
-      <c r="H2022" t="inlineStr"/>
-      <c r="I2022" t="inlineStr"/>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
@@ -24512,13 +24316,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2023" t="inlineStr"/>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
-      <c r="H2023" t="inlineStr"/>
-      <c r="I2023" t="inlineStr"/>
     </row>
     <row r="2024">
       <c r="A2024" t="inlineStr">
@@ -24531,13 +24328,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2024" t="inlineStr"/>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr"/>
-      <c r="H2024" t="inlineStr"/>
-      <c r="I2024" t="inlineStr"/>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
@@ -24550,13 +24340,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2025" t="inlineStr"/>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr"/>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr"/>
-      <c r="I2025" t="inlineStr"/>
     </row>
     <row r="2026">
       <c r="A2026" t="inlineStr">
@@ -24569,13 +24352,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2026" t="inlineStr"/>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr"/>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr"/>
-      <c r="H2026" t="inlineStr"/>
-      <c r="I2026" t="inlineStr"/>
     </row>
     <row r="2027"/>
     <row r="2028">
@@ -24589,13 +24365,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2028" t="inlineStr"/>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr"/>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr"/>
-      <c r="I2028" t="inlineStr"/>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
@@ -24608,13 +24377,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2029" t="inlineStr"/>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr"/>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr"/>
-      <c r="I2029" t="inlineStr"/>
     </row>
     <row r="2030">
       <c r="A2030" t="inlineStr">
@@ -24627,13 +24389,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2030" t="inlineStr"/>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr"/>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr"/>
-      <c r="H2030" t="inlineStr"/>
-      <c r="I2030" t="inlineStr"/>
     </row>
     <row r="2031">
       <c r="A2031" t="inlineStr">
@@ -24646,13 +24401,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2031" t="inlineStr"/>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr"/>
-      <c r="H2031" t="inlineStr"/>
-      <c r="I2031" t="inlineStr"/>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
@@ -24665,13 +24413,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2032" t="inlineStr"/>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
-      <c r="H2032" t="inlineStr"/>
-      <c r="I2032" t="inlineStr"/>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
@@ -24684,13 +24425,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2033" t="inlineStr"/>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr"/>
-      <c r="H2033" t="inlineStr"/>
-      <c r="I2033" t="inlineStr"/>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
@@ -24703,13 +24437,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2034" t="inlineStr"/>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr"/>
-      <c r="H2034" t="inlineStr"/>
-      <c r="I2034" t="inlineStr"/>
     </row>
     <row r="2035">
       <c r="A2035" t="inlineStr">
@@ -24722,13 +24449,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2035" t="inlineStr"/>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
-      <c r="H2035" t="inlineStr"/>
-      <c r="I2035" t="inlineStr"/>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
@@ -24741,13 +24461,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2036" t="inlineStr"/>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr"/>
-      <c r="H2036" t="inlineStr"/>
-      <c r="I2036" t="inlineStr"/>
     </row>
     <row r="2037">
       <c r="A2037" t="inlineStr">
@@ -24760,13 +24473,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2037" t="inlineStr"/>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-      <c r="H2037" t="inlineStr"/>
-      <c r="I2037" t="inlineStr"/>
     </row>
     <row r="2038">
       <c r="A2038" t="inlineStr">
@@ -24779,13 +24485,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr"/>
-      <c r="H2038" t="inlineStr"/>
-      <c r="I2038" t="inlineStr"/>
     </row>
     <row r="2039">
       <c r="A2039" t="inlineStr">
@@ -24798,13 +24497,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr"/>
-      <c r="H2039" t="inlineStr"/>
-      <c r="I2039" t="inlineStr"/>
     </row>
     <row r="2040">
       <c r="A2040" t="inlineStr">
@@ -24817,13 +24509,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr"/>
-      <c r="H2040" t="inlineStr"/>
-      <c r="I2040" t="inlineStr"/>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
@@ -24836,13 +24521,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2041" t="inlineStr"/>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr"/>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr"/>
-      <c r="H2041" t="inlineStr"/>
-      <c r="I2041" t="inlineStr"/>
     </row>
     <row r="2042">
       <c r="A2042" t="inlineStr">
@@ -24855,13 +24533,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2042" t="inlineStr"/>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
-      <c r="H2042" t="inlineStr"/>
-      <c r="I2042" t="inlineStr"/>
     </row>
     <row r="2043">
       <c r="A2043" t="inlineStr">
@@ -24874,13 +24545,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2043" t="inlineStr"/>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr"/>
-      <c r="H2043" t="inlineStr"/>
-      <c r="I2043" t="inlineStr"/>
     </row>
     <row r="2044"/>
     <row r="2045">
@@ -24894,13 +24558,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2045" t="inlineStr"/>
-      <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr"/>
-      <c r="H2045" t="inlineStr"/>
-      <c r="I2045" t="inlineStr"/>
     </row>
     <row r="2046">
       <c r="A2046" t="inlineStr">
@@ -24913,13 +24570,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2046" t="inlineStr"/>
-      <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr"/>
-      <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr"/>
-      <c r="H2046" t="inlineStr"/>
-      <c r="I2046" t="inlineStr"/>
     </row>
     <row r="2047">
       <c r="A2047" t="inlineStr">
@@ -24932,13 +24582,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2047" t="inlineStr"/>
-      <c r="D2047" t="inlineStr"/>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr"/>
-      <c r="I2047" t="inlineStr"/>
     </row>
     <row r="2048">
       <c r="A2048" t="inlineStr">
@@ -24951,13 +24594,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2048" t="inlineStr"/>
-      <c r="D2048" t="inlineStr"/>
-      <c r="E2048" t="inlineStr"/>
-      <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr"/>
-      <c r="I2048" t="inlineStr"/>
     </row>
     <row r="2049">
       <c r="A2049" t="inlineStr">
@@ -24970,13 +24606,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2049" t="inlineStr"/>
-      <c r="D2049" t="inlineStr"/>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr"/>
-      <c r="G2049" t="inlineStr"/>
-      <c r="H2049" t="inlineStr"/>
-      <c r="I2049" t="inlineStr"/>
     </row>
     <row r="2050">
       <c r="A2050" t="inlineStr">
@@ -24989,13 +24618,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr"/>
-      <c r="I2050" t="inlineStr"/>
     </row>
     <row r="2051">
       <c r="A2051" t="inlineStr">
@@ -25008,13 +24630,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2051" t="inlineStr"/>
-      <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr"/>
-      <c r="I2051" t="inlineStr"/>
     </row>
     <row r="2052">
       <c r="A2052" t="inlineStr">
@@ -25027,13 +24642,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr"/>
-      <c r="I2052" t="inlineStr"/>
     </row>
     <row r="2053">
       <c r="A2053" t="inlineStr">
@@ -25046,13 +24654,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2053" t="inlineStr"/>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr"/>
-      <c r="I2053" t="inlineStr"/>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
@@ -25065,13 +24666,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2054" t="inlineStr"/>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-      <c r="H2054" t="inlineStr"/>
-      <c r="I2054" t="inlineStr"/>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
@@ -25084,13 +24678,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2055" t="inlineStr"/>
-      <c r="D2055" t="inlineStr"/>
-      <c r="E2055" t="inlineStr"/>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr"/>
-      <c r="H2055" t="inlineStr"/>
-      <c r="I2055" t="inlineStr"/>
     </row>
     <row r="2056">
       <c r="A2056" t="inlineStr">
@@ -25103,13 +24690,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2056" t="inlineStr"/>
-      <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr"/>
-      <c r="H2056" t="inlineStr"/>
-      <c r="I2056" t="inlineStr"/>
     </row>
     <row r="2057">
       <c r="A2057" t="inlineStr">
@@ -25122,13 +24702,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2057" t="inlineStr"/>
-      <c r="D2057" t="inlineStr"/>
-      <c r="E2057" t="inlineStr"/>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr"/>
-      <c r="H2057" t="inlineStr"/>
-      <c r="I2057" t="inlineStr"/>
     </row>
     <row r="2058">
       <c r="A2058" t="inlineStr">
@@ -25141,13 +24714,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2058" t="inlineStr"/>
-      <c r="D2058" t="inlineStr"/>
-      <c r="E2058" t="inlineStr"/>
-      <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr"/>
-      <c r="H2058" t="inlineStr"/>
-      <c r="I2058" t="inlineStr"/>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
@@ -25160,13 +24726,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2059" t="inlineStr"/>
-      <c r="D2059" t="inlineStr"/>
-      <c r="E2059" t="inlineStr"/>
-      <c r="F2059" t="inlineStr"/>
-      <c r="G2059" t="inlineStr"/>
-      <c r="H2059" t="inlineStr"/>
-      <c r="I2059" t="inlineStr"/>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
@@ -25179,13 +24738,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2060" t="inlineStr"/>
-      <c r="D2060" t="inlineStr"/>
-      <c r="E2060" t="inlineStr"/>
-      <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr"/>
-      <c r="H2060" t="inlineStr"/>
-      <c r="I2060" t="inlineStr"/>
     </row>
     <row r="2061"/>
     <row r="2062">
@@ -25199,13 +24751,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2062" t="inlineStr"/>
-      <c r="D2062" t="inlineStr"/>
-      <c r="E2062" t="inlineStr"/>
-      <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr"/>
-      <c r="H2062" t="inlineStr"/>
-      <c r="I2062" t="inlineStr"/>
     </row>
     <row r="2063">
       <c r="A2063" t="inlineStr">
@@ -25218,13 +24763,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2063" t="inlineStr"/>
-      <c r="D2063" t="inlineStr"/>
-      <c r="E2063" t="inlineStr"/>
-      <c r="F2063" t="inlineStr"/>
-      <c r="G2063" t="inlineStr"/>
-      <c r="H2063" t="inlineStr"/>
-      <c r="I2063" t="inlineStr"/>
     </row>
     <row r="2064">
       <c r="A2064" t="inlineStr">
@@ -25237,13 +24775,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2064" t="inlineStr"/>
-      <c r="D2064" t="inlineStr"/>
-      <c r="E2064" t="inlineStr"/>
-      <c r="F2064" t="inlineStr"/>
-      <c r="G2064" t="inlineStr"/>
-      <c r="H2064" t="inlineStr"/>
-      <c r="I2064" t="inlineStr"/>
     </row>
     <row r="2065">
       <c r="A2065" t="inlineStr">
@@ -25256,13 +24787,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2065" t="inlineStr"/>
-      <c r="D2065" t="inlineStr"/>
-      <c r="E2065" t="inlineStr"/>
-      <c r="F2065" t="inlineStr"/>
-      <c r="G2065" t="inlineStr"/>
-      <c r="H2065" t="inlineStr"/>
-      <c r="I2065" t="inlineStr"/>
     </row>
     <row r="2066">
       <c r="A2066" t="inlineStr">
@@ -25275,13 +24799,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2066" t="inlineStr"/>
-      <c r="D2066" t="inlineStr"/>
-      <c r="E2066" t="inlineStr"/>
-      <c r="F2066" t="inlineStr"/>
-      <c r="G2066" t="inlineStr"/>
-      <c r="H2066" t="inlineStr"/>
-      <c r="I2066" t="inlineStr"/>
     </row>
     <row r="2067">
       <c r="A2067" t="inlineStr">
@@ -25294,13 +24811,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2067" t="inlineStr"/>
-      <c r="D2067" t="inlineStr"/>
-      <c r="E2067" t="inlineStr"/>
-      <c r="F2067" t="inlineStr"/>
-      <c r="G2067" t="inlineStr"/>
-      <c r="H2067" t="inlineStr"/>
-      <c r="I2067" t="inlineStr"/>
     </row>
     <row r="2068">
       <c r="A2068" t="inlineStr">
@@ -25313,13 +24823,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2068" t="inlineStr"/>
-      <c r="D2068" t="inlineStr"/>
-      <c r="E2068" t="inlineStr"/>
-      <c r="F2068" t="inlineStr"/>
-      <c r="G2068" t="inlineStr"/>
-      <c r="H2068" t="inlineStr"/>
-      <c r="I2068" t="inlineStr"/>
     </row>
     <row r="2069">
       <c r="A2069" t="inlineStr">
@@ -25332,13 +24835,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2069" t="inlineStr"/>
-      <c r="D2069" t="inlineStr"/>
-      <c r="E2069" t="inlineStr"/>
-      <c r="F2069" t="inlineStr"/>
-      <c r="G2069" t="inlineStr"/>
-      <c r="H2069" t="inlineStr"/>
-      <c r="I2069" t="inlineStr"/>
     </row>
     <row r="2070">
       <c r="A2070" t="inlineStr">
@@ -25351,13 +24847,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2070" t="inlineStr"/>
-      <c r="D2070" t="inlineStr"/>
-      <c r="E2070" t="inlineStr"/>
-      <c r="F2070" t="inlineStr"/>
-      <c r="G2070" t="inlineStr"/>
-      <c r="H2070" t="inlineStr"/>
-      <c r="I2070" t="inlineStr"/>
     </row>
     <row r="2071">
       <c r="A2071" t="inlineStr">
@@ -25370,13 +24859,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2071" t="inlineStr"/>
-      <c r="D2071" t="inlineStr"/>
-      <c r="E2071" t="inlineStr"/>
-      <c r="F2071" t="inlineStr"/>
-      <c r="G2071" t="inlineStr"/>
-      <c r="H2071" t="inlineStr"/>
-      <c r="I2071" t="inlineStr"/>
     </row>
     <row r="2072">
       <c r="A2072" t="inlineStr">
@@ -25389,13 +24871,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2072" t="inlineStr"/>
-      <c r="D2072" t="inlineStr"/>
-      <c r="E2072" t="inlineStr"/>
-      <c r="F2072" t="inlineStr"/>
-      <c r="G2072" t="inlineStr"/>
-      <c r="H2072" t="inlineStr"/>
-      <c r="I2072" t="inlineStr"/>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
@@ -25408,13 +24883,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2073" t="inlineStr"/>
-      <c r="D2073" t="inlineStr"/>
-      <c r="E2073" t="inlineStr"/>
-      <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr"/>
-      <c r="I2073" t="inlineStr"/>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
@@ -25427,13 +24895,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2074" t="inlineStr"/>
-      <c r="D2074" t="inlineStr"/>
-      <c r="E2074" t="inlineStr"/>
-      <c r="F2074" t="inlineStr"/>
-      <c r="G2074" t="inlineStr"/>
-      <c r="H2074" t="inlineStr"/>
-      <c r="I2074" t="inlineStr"/>
     </row>
     <row r="2075">
       <c r="A2075" t="inlineStr">
@@ -25446,13 +24907,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2075" t="inlineStr"/>
-      <c r="D2075" t="inlineStr"/>
-      <c r="E2075" t="inlineStr"/>
-      <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr"/>
-      <c r="I2075" t="inlineStr"/>
     </row>
     <row r="2076">
       <c r="A2076" t="inlineStr">
@@ -25465,13 +24919,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2076" t="inlineStr"/>
-      <c r="D2076" t="inlineStr"/>
-      <c r="E2076" t="inlineStr"/>
-      <c r="F2076" t="inlineStr"/>
-      <c r="G2076" t="inlineStr"/>
-      <c r="H2076" t="inlineStr"/>
-      <c r="I2076" t="inlineStr"/>
     </row>
     <row r="2077">
       <c r="A2077" t="inlineStr">
@@ -25484,15 +24931,8288 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2077" t="inlineStr"/>
-      <c r="D2077" t="inlineStr"/>
-      <c r="E2077" t="inlineStr"/>
-      <c r="F2077" t="inlineStr"/>
-      <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr"/>
-      <c r="I2077" t="inlineStr"/>
     </row>
     <row r="2078"/>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2095"/>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2112"/>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2129"/>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2146"/>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2163"/>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2180"/>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2197"/>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2214"/>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2231"/>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2248"/>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2265"/>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282"/>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299"/>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316"/>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2333"/>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2350"/>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2367"/>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2384"/>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2401"/>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2418"/>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2435"/>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2452"/>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2469"/>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2486"/>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2503"/>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2520"/>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2537"/>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2554"/>
+    <row r="2555">
+      <c r="A2555" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2571"/>
+    <row r="2572">
+      <c r="A2572" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2588"/>
+    <row r="2589">
+      <c r="A2589" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2605"/>
+    <row r="2606">
+      <c r="A2606" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2622"/>
+    <row r="2623">
+      <c r="A2623" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2625">
+      <c r="A2625" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2626">
+      <c r="A2626" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2627">
+      <c r="A2627" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2628">
+      <c r="A2628" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2629">
+      <c r="A2629" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2630">
+      <c r="A2630" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2631">
+      <c r="A2631" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2632">
+      <c r="A2632" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2633">
+      <c r="A2633" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2634">
+      <c r="A2634" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2635">
+      <c r="A2635" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2636">
+      <c r="A2636" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2637">
+      <c r="A2637" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2638">
+      <c r="A2638" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2639"/>
+    <row r="2640">
+      <c r="A2640" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2640" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2641">
+      <c r="A2641" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2641" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2642">
+      <c r="A2642" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2643">
+      <c r="A2643" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2643" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2644">
+      <c r="A2644" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2644" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2645">
+      <c r="A2645" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2645" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2646">
+      <c r="A2646" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2646" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2647">
+      <c r="A2647" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2647" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2648">
+      <c r="A2648" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2648" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2649">
+      <c r="A2649" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2649" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2650">
+      <c r="A2650" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2650" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2651">
+      <c r="A2651" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2652">
+      <c r="A2652" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2653">
+      <c r="A2653" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2654">
+      <c r="A2654" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2655">
+      <c r="A2655" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2656"/>
+    <row r="2657">
+      <c r="A2657" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2658">
+      <c r="A2658" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2659">
+      <c r="A2659" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2660">
+      <c r="A2660" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2661">
+      <c r="A2661" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2663">
+      <c r="A2663" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2664">
+      <c r="A2664" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2667">
+      <c r="A2667" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2668">
+      <c r="A2668" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2669">
+      <c r="A2669" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2672">
+      <c r="A2672" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2672" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2673"/>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2674" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2674" t="inlineStr"/>
+      <c r="D2674" t="inlineStr"/>
+      <c r="E2674" t="inlineStr"/>
+      <c r="F2674" t="inlineStr"/>
+      <c r="G2674" t="inlineStr"/>
+      <c r="H2674" t="inlineStr"/>
+      <c r="I2674" t="inlineStr"/>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2675" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2675" t="inlineStr"/>
+      <c r="D2675" t="inlineStr"/>
+      <c r="E2675" t="inlineStr"/>
+      <c r="F2675" t="inlineStr"/>
+      <c r="G2675" t="inlineStr"/>
+      <c r="H2675" t="inlineStr"/>
+      <c r="I2675" t="inlineStr"/>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2676" t="inlineStr"/>
+      <c r="D2676" t="inlineStr"/>
+      <c r="E2676" t="inlineStr"/>
+      <c r="F2676" t="inlineStr"/>
+      <c r="G2676" t="inlineStr"/>
+      <c r="H2676" t="inlineStr"/>
+      <c r="I2676" t="inlineStr"/>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2677" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2677" t="inlineStr"/>
+      <c r="D2677" t="inlineStr"/>
+      <c r="E2677" t="inlineStr"/>
+      <c r="F2677" t="inlineStr"/>
+      <c r="G2677" t="inlineStr"/>
+      <c r="H2677" t="inlineStr"/>
+      <c r="I2677" t="inlineStr"/>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2678" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2678" t="inlineStr"/>
+      <c r="D2678" t="inlineStr"/>
+      <c r="E2678" t="inlineStr"/>
+      <c r="F2678" t="inlineStr"/>
+      <c r="G2678" t="inlineStr"/>
+      <c r="H2678" t="inlineStr"/>
+      <c r="I2678" t="inlineStr"/>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2679" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2679" t="inlineStr"/>
+      <c r="D2679" t="inlineStr"/>
+      <c r="E2679" t="inlineStr"/>
+      <c r="F2679" t="inlineStr"/>
+      <c r="G2679" t="inlineStr"/>
+      <c r="H2679" t="inlineStr"/>
+      <c r="I2679" t="inlineStr"/>
+    </row>
+    <row r="2680">
+      <c r="A2680" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2680" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2680" t="inlineStr"/>
+      <c r="D2680" t="inlineStr"/>
+      <c r="E2680" t="inlineStr"/>
+      <c r="F2680" t="inlineStr"/>
+      <c r="G2680" t="inlineStr"/>
+      <c r="H2680" t="inlineStr"/>
+      <c r="I2680" t="inlineStr"/>
+    </row>
+    <row r="2681">
+      <c r="A2681" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2681" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2681" t="inlineStr"/>
+      <c r="D2681" t="inlineStr"/>
+      <c r="E2681" t="inlineStr"/>
+      <c r="F2681" t="inlineStr"/>
+      <c r="G2681" t="inlineStr"/>
+      <c r="H2681" t="inlineStr"/>
+      <c r="I2681" t="inlineStr"/>
+    </row>
+    <row r="2682">
+      <c r="A2682" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2682" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2682" t="inlineStr"/>
+      <c r="D2682" t="inlineStr"/>
+      <c r="E2682" t="inlineStr"/>
+      <c r="F2682" t="inlineStr"/>
+      <c r="G2682" t="inlineStr"/>
+      <c r="H2682" t="inlineStr"/>
+      <c r="I2682" t="inlineStr"/>
+    </row>
+    <row r="2683">
+      <c r="A2683" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2683" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2683" t="inlineStr"/>
+      <c r="D2683" t="inlineStr"/>
+      <c r="E2683" t="inlineStr"/>
+      <c r="F2683" t="inlineStr"/>
+      <c r="G2683" t="inlineStr"/>
+      <c r="H2683" t="inlineStr"/>
+      <c r="I2683" t="inlineStr"/>
+    </row>
+    <row r="2684">
+      <c r="A2684" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2684" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2684" t="inlineStr"/>
+      <c r="D2684" t="inlineStr"/>
+      <c r="E2684" t="inlineStr"/>
+      <c r="F2684" t="inlineStr"/>
+      <c r="G2684" t="inlineStr"/>
+      <c r="H2684" t="inlineStr"/>
+      <c r="I2684" t="inlineStr"/>
+    </row>
+    <row r="2685">
+      <c r="A2685" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2685" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2685" t="inlineStr"/>
+      <c r="D2685" t="inlineStr"/>
+      <c r="E2685" t="inlineStr"/>
+      <c r="F2685" t="inlineStr"/>
+      <c r="G2685" t="inlineStr"/>
+      <c r="H2685" t="inlineStr"/>
+      <c r="I2685" t="inlineStr"/>
+    </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2686" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2686" t="inlineStr"/>
+      <c r="D2686" t="inlineStr"/>
+      <c r="E2686" t="inlineStr"/>
+      <c r="F2686" t="inlineStr"/>
+      <c r="G2686" t="inlineStr"/>
+      <c r="H2686" t="inlineStr"/>
+      <c r="I2686" t="inlineStr"/>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2687" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2687" t="inlineStr"/>
+      <c r="D2687" t="inlineStr"/>
+      <c r="E2687" t="inlineStr"/>
+      <c r="F2687" t="inlineStr"/>
+      <c r="G2687" t="inlineStr"/>
+      <c r="H2687" t="inlineStr"/>
+      <c r="I2687" t="inlineStr"/>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2688" t="inlineStr"/>
+      <c r="D2688" t="inlineStr"/>
+      <c r="E2688" t="inlineStr"/>
+      <c r="F2688" t="inlineStr"/>
+      <c r="G2688" t="inlineStr"/>
+      <c r="H2688" t="inlineStr"/>
+      <c r="I2688" t="inlineStr"/>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>03.08.2025</t>
+        </is>
+      </c>
+      <c r="B2689" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2689" t="inlineStr"/>
+      <c r="D2689" t="inlineStr"/>
+      <c r="E2689" t="inlineStr"/>
+      <c r="F2689" t="inlineStr"/>
+      <c r="G2689" t="inlineStr"/>
+      <c r="H2689" t="inlineStr"/>
+      <c r="I2689" t="inlineStr"/>
+    </row>
+    <row r="2690"/>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2691" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2691" t="inlineStr"/>
+      <c r="D2691" t="inlineStr"/>
+      <c r="E2691" t="inlineStr"/>
+      <c r="F2691" t="inlineStr"/>
+      <c r="G2691" t="inlineStr"/>
+      <c r="H2691" t="inlineStr"/>
+      <c r="I2691" t="inlineStr"/>
+    </row>
+    <row r="2692">
+      <c r="A2692" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2692" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2692" t="inlineStr"/>
+      <c r="D2692" t="inlineStr"/>
+      <c r="E2692" t="inlineStr"/>
+      <c r="F2692" t="inlineStr"/>
+      <c r="G2692" t="inlineStr"/>
+      <c r="H2692" t="inlineStr"/>
+      <c r="I2692" t="inlineStr"/>
+    </row>
+    <row r="2693">
+      <c r="A2693" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2693" t="inlineStr"/>
+      <c r="D2693" t="inlineStr"/>
+      <c r="E2693" t="inlineStr"/>
+      <c r="F2693" t="inlineStr"/>
+      <c r="G2693" t="inlineStr"/>
+      <c r="H2693" t="inlineStr"/>
+      <c r="I2693" t="inlineStr"/>
+    </row>
+    <row r="2694">
+      <c r="A2694" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2694" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2694" t="inlineStr"/>
+      <c r="D2694" t="inlineStr"/>
+      <c r="E2694" t="inlineStr"/>
+      <c r="F2694" t="inlineStr"/>
+      <c r="G2694" t="inlineStr"/>
+      <c r="H2694" t="inlineStr"/>
+      <c r="I2694" t="inlineStr"/>
+    </row>
+    <row r="2695">
+      <c r="A2695" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2695" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2695" t="inlineStr"/>
+      <c r="D2695" t="inlineStr"/>
+      <c r="E2695" t="inlineStr"/>
+      <c r="F2695" t="inlineStr"/>
+      <c r="G2695" t="inlineStr"/>
+      <c r="H2695" t="inlineStr"/>
+      <c r="I2695" t="inlineStr"/>
+    </row>
+    <row r="2696">
+      <c r="A2696" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2696" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2696" t="inlineStr"/>
+      <c r="D2696" t="inlineStr"/>
+      <c r="E2696" t="inlineStr"/>
+      <c r="F2696" t="inlineStr"/>
+      <c r="G2696" t="inlineStr"/>
+      <c r="H2696" t="inlineStr"/>
+      <c r="I2696" t="inlineStr"/>
+    </row>
+    <row r="2697">
+      <c r="A2697" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr"/>
+      <c r="D2697" t="inlineStr"/>
+      <c r="E2697" t="inlineStr"/>
+      <c r="F2697" t="inlineStr"/>
+      <c r="G2697" t="inlineStr"/>
+      <c r="H2697" t="inlineStr"/>
+      <c r="I2697" t="inlineStr"/>
+    </row>
+    <row r="2698">
+      <c r="A2698" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr"/>
+      <c r="D2698" t="inlineStr"/>
+      <c r="E2698" t="inlineStr"/>
+      <c r="F2698" t="inlineStr"/>
+      <c r="G2698" t="inlineStr"/>
+      <c r="H2698" t="inlineStr"/>
+      <c r="I2698" t="inlineStr"/>
+    </row>
+    <row r="2699">
+      <c r="A2699" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr"/>
+      <c r="D2699" t="inlineStr"/>
+      <c r="E2699" t="inlineStr"/>
+      <c r="F2699" t="inlineStr"/>
+      <c r="G2699" t="inlineStr"/>
+      <c r="H2699" t="inlineStr"/>
+      <c r="I2699" t="inlineStr"/>
+    </row>
+    <row r="2700">
+      <c r="A2700" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr"/>
+      <c r="D2700" t="inlineStr"/>
+      <c r="E2700" t="inlineStr"/>
+      <c r="F2700" t="inlineStr"/>
+      <c r="G2700" t="inlineStr"/>
+      <c r="H2700" t="inlineStr"/>
+      <c r="I2700" t="inlineStr"/>
+    </row>
+    <row r="2701">
+      <c r="A2701" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr"/>
+      <c r="D2701" t="inlineStr"/>
+      <c r="E2701" t="inlineStr"/>
+      <c r="F2701" t="inlineStr"/>
+      <c r="G2701" t="inlineStr"/>
+      <c r="H2701" t="inlineStr"/>
+      <c r="I2701" t="inlineStr"/>
+    </row>
+    <row r="2702">
+      <c r="A2702" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr"/>
+      <c r="D2702" t="inlineStr"/>
+      <c r="E2702" t="inlineStr"/>
+      <c r="F2702" t="inlineStr"/>
+      <c r="G2702" t="inlineStr"/>
+      <c r="H2702" t="inlineStr"/>
+      <c r="I2702" t="inlineStr"/>
+    </row>
+    <row r="2703">
+      <c r="A2703" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr"/>
+      <c r="D2703" t="inlineStr"/>
+      <c r="E2703" t="inlineStr"/>
+      <c r="F2703" t="inlineStr"/>
+      <c r="G2703" t="inlineStr"/>
+      <c r="H2703" t="inlineStr"/>
+      <c r="I2703" t="inlineStr"/>
+    </row>
+    <row r="2704">
+      <c r="A2704" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr"/>
+      <c r="D2704" t="inlineStr"/>
+      <c r="E2704" t="inlineStr"/>
+      <c r="F2704" t="inlineStr"/>
+      <c r="G2704" t="inlineStr"/>
+      <c r="H2704" t="inlineStr"/>
+      <c r="I2704" t="inlineStr"/>
+    </row>
+    <row r="2705">
+      <c r="A2705" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr"/>
+      <c r="D2705" t="inlineStr"/>
+      <c r="E2705" t="inlineStr"/>
+      <c r="F2705" t="inlineStr"/>
+      <c r="G2705" t="inlineStr"/>
+      <c r="H2705" t="inlineStr"/>
+      <c r="I2705" t="inlineStr"/>
+    </row>
+    <row r="2706">
+      <c r="A2706" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr"/>
+      <c r="D2706" t="inlineStr"/>
+      <c r="E2706" t="inlineStr"/>
+      <c r="F2706" t="inlineStr"/>
+      <c r="G2706" t="inlineStr"/>
+      <c r="H2706" t="inlineStr"/>
+      <c r="I2706" t="inlineStr"/>
+    </row>
+    <row r="2707"/>
+    <row r="2708">
+      <c r="A2708" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr"/>
+      <c r="D2708" t="inlineStr"/>
+      <c r="E2708" t="inlineStr"/>
+      <c r="F2708" t="inlineStr"/>
+      <c r="G2708" t="inlineStr"/>
+      <c r="H2708" t="inlineStr"/>
+      <c r="I2708" t="inlineStr"/>
+    </row>
+    <row r="2709">
+      <c r="A2709" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr"/>
+      <c r="D2709" t="inlineStr"/>
+      <c r="E2709" t="inlineStr"/>
+      <c r="F2709" t="inlineStr"/>
+      <c r="G2709" t="inlineStr"/>
+      <c r="H2709" t="inlineStr"/>
+      <c r="I2709" t="inlineStr"/>
+    </row>
+    <row r="2710">
+      <c r="A2710" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr"/>
+      <c r="D2710" t="inlineStr"/>
+      <c r="E2710" t="inlineStr"/>
+      <c r="F2710" t="inlineStr"/>
+      <c r="G2710" t="inlineStr"/>
+      <c r="H2710" t="inlineStr"/>
+      <c r="I2710" t="inlineStr"/>
+    </row>
+    <row r="2711">
+      <c r="A2711" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr"/>
+      <c r="D2711" t="inlineStr"/>
+      <c r="E2711" t="inlineStr"/>
+      <c r="F2711" t="inlineStr"/>
+      <c r="G2711" t="inlineStr"/>
+      <c r="H2711" t="inlineStr"/>
+      <c r="I2711" t="inlineStr"/>
+    </row>
+    <row r="2712">
+      <c r="A2712" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2712" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2712" t="inlineStr"/>
+      <c r="D2712" t="inlineStr"/>
+      <c r="E2712" t="inlineStr"/>
+      <c r="F2712" t="inlineStr"/>
+      <c r="G2712" t="inlineStr"/>
+      <c r="H2712" t="inlineStr"/>
+      <c r="I2712" t="inlineStr"/>
+    </row>
+    <row r="2713">
+      <c r="A2713" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2713" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2713" t="inlineStr"/>
+      <c r="D2713" t="inlineStr"/>
+      <c r="E2713" t="inlineStr"/>
+      <c r="F2713" t="inlineStr"/>
+      <c r="G2713" t="inlineStr"/>
+      <c r="H2713" t="inlineStr"/>
+      <c r="I2713" t="inlineStr"/>
+    </row>
+    <row r="2714">
+      <c r="A2714" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2714" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2714" t="inlineStr"/>
+      <c r="D2714" t="inlineStr"/>
+      <c r="E2714" t="inlineStr"/>
+      <c r="F2714" t="inlineStr"/>
+      <c r="G2714" t="inlineStr"/>
+      <c r="H2714" t="inlineStr"/>
+      <c r="I2714" t="inlineStr"/>
+    </row>
+    <row r="2715">
+      <c r="A2715" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2715" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2715" t="inlineStr"/>
+      <c r="D2715" t="inlineStr"/>
+      <c r="E2715" t="inlineStr"/>
+      <c r="F2715" t="inlineStr"/>
+      <c r="G2715" t="inlineStr"/>
+      <c r="H2715" t="inlineStr"/>
+      <c r="I2715" t="inlineStr"/>
+    </row>
+    <row r="2716">
+      <c r="A2716" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2716" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2716" t="inlineStr"/>
+      <c r="D2716" t="inlineStr"/>
+      <c r="E2716" t="inlineStr"/>
+      <c r="F2716" t="inlineStr"/>
+      <c r="G2716" t="inlineStr"/>
+      <c r="H2716" t="inlineStr"/>
+      <c r="I2716" t="inlineStr"/>
+    </row>
+    <row r="2717">
+      <c r="A2717" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2717" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2717" t="inlineStr"/>
+      <c r="D2717" t="inlineStr"/>
+      <c r="E2717" t="inlineStr"/>
+      <c r="F2717" t="inlineStr"/>
+      <c r="G2717" t="inlineStr"/>
+      <c r="H2717" t="inlineStr"/>
+      <c r="I2717" t="inlineStr"/>
+    </row>
+    <row r="2718">
+      <c r="A2718" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2718" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2718" t="inlineStr"/>
+      <c r="D2718" t="inlineStr"/>
+      <c r="E2718" t="inlineStr"/>
+      <c r="F2718" t="inlineStr"/>
+      <c r="G2718" t="inlineStr"/>
+      <c r="H2718" t="inlineStr"/>
+      <c r="I2718" t="inlineStr"/>
+    </row>
+    <row r="2719">
+      <c r="A2719" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2719" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2719" t="inlineStr"/>
+      <c r="D2719" t="inlineStr"/>
+      <c r="E2719" t="inlineStr"/>
+      <c r="F2719" t="inlineStr"/>
+      <c r="G2719" t="inlineStr"/>
+      <c r="H2719" t="inlineStr"/>
+      <c r="I2719" t="inlineStr"/>
+    </row>
+    <row r="2720">
+      <c r="A2720" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2720" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2720" t="inlineStr"/>
+      <c r="D2720" t="inlineStr"/>
+      <c r="E2720" t="inlineStr"/>
+      <c r="F2720" t="inlineStr"/>
+      <c r="G2720" t="inlineStr"/>
+      <c r="H2720" t="inlineStr"/>
+      <c r="I2720" t="inlineStr"/>
+    </row>
+    <row r="2721">
+      <c r="A2721" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2721" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2721" t="inlineStr"/>
+      <c r="D2721" t="inlineStr"/>
+      <c r="E2721" t="inlineStr"/>
+      <c r="F2721" t="inlineStr"/>
+      <c r="G2721" t="inlineStr"/>
+      <c r="H2721" t="inlineStr"/>
+      <c r="I2721" t="inlineStr"/>
+    </row>
+    <row r="2722">
+      <c r="A2722" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2722" t="inlineStr"/>
+      <c r="D2722" t="inlineStr"/>
+      <c r="E2722" t="inlineStr"/>
+      <c r="F2722" t="inlineStr"/>
+      <c r="G2722" t="inlineStr"/>
+      <c r="H2722" t="inlineStr"/>
+      <c r="I2722" t="inlineStr"/>
+    </row>
+    <row r="2723">
+      <c r="A2723" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2723" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2723" t="inlineStr"/>
+      <c r="D2723" t="inlineStr"/>
+      <c r="E2723" t="inlineStr"/>
+      <c r="F2723" t="inlineStr"/>
+      <c r="G2723" t="inlineStr"/>
+      <c r="H2723" t="inlineStr"/>
+      <c r="I2723" t="inlineStr"/>
+    </row>
+    <row r="2724"/>
+    <row r="2725">
+      <c r="A2725" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2725" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2725" t="inlineStr"/>
+      <c r="D2725" t="inlineStr"/>
+      <c r="E2725" t="inlineStr"/>
+      <c r="F2725" t="inlineStr"/>
+      <c r="G2725" t="inlineStr"/>
+      <c r="H2725" t="inlineStr"/>
+      <c r="I2725" t="inlineStr"/>
+    </row>
+    <row r="2726">
+      <c r="A2726" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2726" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2726" t="inlineStr"/>
+      <c r="D2726" t="inlineStr"/>
+      <c r="E2726" t="inlineStr"/>
+      <c r="F2726" t="inlineStr"/>
+      <c r="G2726" t="inlineStr"/>
+      <c r="H2726" t="inlineStr"/>
+      <c r="I2726" t="inlineStr"/>
+    </row>
+    <row r="2727">
+      <c r="A2727" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2727" t="inlineStr"/>
+      <c r="D2727" t="inlineStr"/>
+      <c r="E2727" t="inlineStr"/>
+      <c r="F2727" t="inlineStr"/>
+      <c r="G2727" t="inlineStr"/>
+      <c r="H2727" t="inlineStr"/>
+      <c r="I2727" t="inlineStr"/>
+    </row>
+    <row r="2728">
+      <c r="A2728" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2728" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2728" t="inlineStr"/>
+      <c r="D2728" t="inlineStr"/>
+      <c r="E2728" t="inlineStr"/>
+      <c r="F2728" t="inlineStr"/>
+      <c r="G2728" t="inlineStr"/>
+      <c r="H2728" t="inlineStr"/>
+      <c r="I2728" t="inlineStr"/>
+    </row>
+    <row r="2729">
+      <c r="A2729" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2729" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2729" t="inlineStr"/>
+      <c r="D2729" t="inlineStr"/>
+      <c r="E2729" t="inlineStr"/>
+      <c r="F2729" t="inlineStr"/>
+      <c r="G2729" t="inlineStr"/>
+      <c r="H2729" t="inlineStr"/>
+      <c r="I2729" t="inlineStr"/>
+    </row>
+    <row r="2730">
+      <c r="A2730" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2730" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2730" t="inlineStr"/>
+      <c r="D2730" t="inlineStr"/>
+      <c r="E2730" t="inlineStr"/>
+      <c r="F2730" t="inlineStr"/>
+      <c r="G2730" t="inlineStr"/>
+      <c r="H2730" t="inlineStr"/>
+      <c r="I2730" t="inlineStr"/>
+    </row>
+    <row r="2731">
+      <c r="A2731" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2731" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2731" t="inlineStr"/>
+      <c r="D2731" t="inlineStr"/>
+      <c r="E2731" t="inlineStr"/>
+      <c r="F2731" t="inlineStr"/>
+      <c r="G2731" t="inlineStr"/>
+      <c r="H2731" t="inlineStr"/>
+      <c r="I2731" t="inlineStr"/>
+    </row>
+    <row r="2732">
+      <c r="A2732" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2732" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2732" t="inlineStr"/>
+      <c r="D2732" t="inlineStr"/>
+      <c r="E2732" t="inlineStr"/>
+      <c r="F2732" t="inlineStr"/>
+      <c r="G2732" t="inlineStr"/>
+      <c r="H2732" t="inlineStr"/>
+      <c r="I2732" t="inlineStr"/>
+    </row>
+    <row r="2733">
+      <c r="A2733" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2733" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2733" t="inlineStr"/>
+      <c r="D2733" t="inlineStr"/>
+      <c r="E2733" t="inlineStr"/>
+      <c r="F2733" t="inlineStr"/>
+      <c r="G2733" t="inlineStr"/>
+      <c r="H2733" t="inlineStr"/>
+      <c r="I2733" t="inlineStr"/>
+    </row>
+    <row r="2734">
+      <c r="A2734" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2734" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2734" t="inlineStr"/>
+      <c r="D2734" t="inlineStr"/>
+      <c r="E2734" t="inlineStr"/>
+      <c r="F2734" t="inlineStr"/>
+      <c r="G2734" t="inlineStr"/>
+      <c r="H2734" t="inlineStr"/>
+      <c r="I2734" t="inlineStr"/>
+    </row>
+    <row r="2735">
+      <c r="A2735" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr"/>
+      <c r="D2735" t="inlineStr"/>
+      <c r="E2735" t="inlineStr"/>
+      <c r="F2735" t="inlineStr"/>
+      <c r="G2735" t="inlineStr"/>
+      <c r="H2735" t="inlineStr"/>
+      <c r="I2735" t="inlineStr"/>
+    </row>
+    <row r="2736">
+      <c r="A2736" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr"/>
+      <c r="D2736" t="inlineStr"/>
+      <c r="E2736" t="inlineStr"/>
+      <c r="F2736" t="inlineStr"/>
+      <c r="G2736" t="inlineStr"/>
+      <c r="H2736" t="inlineStr"/>
+      <c r="I2736" t="inlineStr"/>
+    </row>
+    <row r="2737">
+      <c r="A2737" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr"/>
+      <c r="D2737" t="inlineStr"/>
+      <c r="E2737" t="inlineStr"/>
+      <c r="F2737" t="inlineStr"/>
+      <c r="G2737" t="inlineStr"/>
+      <c r="H2737" t="inlineStr"/>
+      <c r="I2737" t="inlineStr"/>
+    </row>
+    <row r="2738">
+      <c r="A2738" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr"/>
+      <c r="D2738" t="inlineStr"/>
+      <c r="E2738" t="inlineStr"/>
+      <c r="F2738" t="inlineStr"/>
+      <c r="G2738" t="inlineStr"/>
+      <c r="H2738" t="inlineStr"/>
+      <c r="I2738" t="inlineStr"/>
+    </row>
+    <row r="2739">
+      <c r="A2739" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr"/>
+      <c r="D2739" t="inlineStr"/>
+      <c r="E2739" t="inlineStr"/>
+      <c r="F2739" t="inlineStr"/>
+      <c r="G2739" t="inlineStr"/>
+      <c r="H2739" t="inlineStr"/>
+      <c r="I2739" t="inlineStr"/>
+    </row>
+    <row r="2740">
+      <c r="A2740" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr"/>
+      <c r="D2740" t="inlineStr"/>
+      <c r="E2740" t="inlineStr"/>
+      <c r="F2740" t="inlineStr"/>
+      <c r="G2740" t="inlineStr"/>
+      <c r="H2740" t="inlineStr"/>
+      <c r="I2740" t="inlineStr"/>
+    </row>
+    <row r="2741"/>
+    <row r="2742">
+      <c r="A2742" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr"/>
+      <c r="D2742" t="inlineStr"/>
+      <c r="E2742" t="inlineStr"/>
+      <c r="F2742" t="inlineStr"/>
+      <c r="G2742" t="inlineStr"/>
+      <c r="H2742" t="inlineStr"/>
+      <c r="I2742" t="inlineStr"/>
+    </row>
+    <row r="2743">
+      <c r="A2743" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr"/>
+      <c r="D2743" t="inlineStr"/>
+      <c r="E2743" t="inlineStr"/>
+      <c r="F2743" t="inlineStr"/>
+      <c r="G2743" t="inlineStr"/>
+      <c r="H2743" t="inlineStr"/>
+      <c r="I2743" t="inlineStr"/>
+    </row>
+    <row r="2744">
+      <c r="A2744" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr"/>
+      <c r="D2744" t="inlineStr"/>
+      <c r="E2744" t="inlineStr"/>
+      <c r="F2744" t="inlineStr"/>
+      <c r="G2744" t="inlineStr"/>
+      <c r="H2744" t="inlineStr"/>
+      <c r="I2744" t="inlineStr"/>
+    </row>
+    <row r="2745">
+      <c r="A2745" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr"/>
+      <c r="D2745" t="inlineStr"/>
+      <c r="E2745" t="inlineStr"/>
+      <c r="F2745" t="inlineStr"/>
+      <c r="G2745" t="inlineStr"/>
+      <c r="H2745" t="inlineStr"/>
+      <c r="I2745" t="inlineStr"/>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr"/>
+      <c r="D2746" t="inlineStr"/>
+      <c r="E2746" t="inlineStr"/>
+      <c r="F2746" t="inlineStr"/>
+      <c r="G2746" t="inlineStr"/>
+      <c r="H2746" t="inlineStr"/>
+      <c r="I2746" t="inlineStr"/>
+    </row>
+    <row r="2747">
+      <c r="A2747" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr"/>
+      <c r="D2747" t="inlineStr"/>
+      <c r="E2747" t="inlineStr"/>
+      <c r="F2747" t="inlineStr"/>
+      <c r="G2747" t="inlineStr"/>
+      <c r="H2747" t="inlineStr"/>
+      <c r="I2747" t="inlineStr"/>
+    </row>
+    <row r="2748">
+      <c r="A2748" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr"/>
+      <c r="D2748" t="inlineStr"/>
+      <c r="E2748" t="inlineStr"/>
+      <c r="F2748" t="inlineStr"/>
+      <c r="G2748" t="inlineStr"/>
+      <c r="H2748" t="inlineStr"/>
+      <c r="I2748" t="inlineStr"/>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr"/>
+      <c r="D2749" t="inlineStr"/>
+      <c r="E2749" t="inlineStr"/>
+      <c r="F2749" t="inlineStr"/>
+      <c r="G2749" t="inlineStr"/>
+      <c r="H2749" t="inlineStr"/>
+      <c r="I2749" t="inlineStr"/>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr"/>
+      <c r="D2750" t="inlineStr"/>
+      <c r="E2750" t="inlineStr"/>
+      <c r="F2750" t="inlineStr"/>
+      <c r="G2750" t="inlineStr"/>
+      <c r="H2750" t="inlineStr"/>
+      <c r="I2750" t="inlineStr"/>
+    </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr"/>
+      <c r="D2751" t="inlineStr"/>
+      <c r="E2751" t="inlineStr"/>
+      <c r="F2751" t="inlineStr"/>
+      <c r="G2751" t="inlineStr"/>
+      <c r="H2751" t="inlineStr"/>
+      <c r="I2751" t="inlineStr"/>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr"/>
+      <c r="D2752" t="inlineStr"/>
+      <c r="E2752" t="inlineStr"/>
+      <c r="F2752" t="inlineStr"/>
+      <c r="G2752" t="inlineStr"/>
+      <c r="H2752" t="inlineStr"/>
+      <c r="I2752" t="inlineStr"/>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr"/>
+      <c r="D2753" t="inlineStr"/>
+      <c r="E2753" t="inlineStr"/>
+      <c r="F2753" t="inlineStr"/>
+      <c r="G2753" t="inlineStr"/>
+      <c r="H2753" t="inlineStr"/>
+      <c r="I2753" t="inlineStr"/>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr"/>
+      <c r="D2754" t="inlineStr"/>
+      <c r="E2754" t="inlineStr"/>
+      <c r="F2754" t="inlineStr"/>
+      <c r="G2754" t="inlineStr"/>
+      <c r="H2754" t="inlineStr"/>
+      <c r="I2754" t="inlineStr"/>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr"/>
+      <c r="D2755" t="inlineStr"/>
+      <c r="E2755" t="inlineStr"/>
+      <c r="F2755" t="inlineStr"/>
+      <c r="G2755" t="inlineStr"/>
+      <c r="H2755" t="inlineStr"/>
+      <c r="I2755" t="inlineStr"/>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2756" t="inlineStr"/>
+      <c r="D2756" t="inlineStr"/>
+      <c r="E2756" t="inlineStr"/>
+      <c r="F2756" t="inlineStr"/>
+      <c r="G2756" t="inlineStr"/>
+      <c r="H2756" t="inlineStr"/>
+      <c r="I2756" t="inlineStr"/>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2757" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2757" t="inlineStr"/>
+      <c r="D2757" t="inlineStr"/>
+      <c r="E2757" t="inlineStr"/>
+      <c r="F2757" t="inlineStr"/>
+      <c r="G2757" t="inlineStr"/>
+      <c r="H2757" t="inlineStr"/>
+      <c r="I2757" t="inlineStr"/>
+    </row>
+    <row r="2758"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2758"/>
+  <dimension ref="A1:AD2928"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
@@ -31699,13 +31699,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2674" t="inlineStr"/>
-      <c r="D2674" t="inlineStr"/>
-      <c r="E2674" t="inlineStr"/>
-      <c r="F2674" t="inlineStr"/>
-      <c r="G2674" t="inlineStr"/>
-      <c r="H2674" t="inlineStr"/>
-      <c r="I2674" t="inlineStr"/>
     </row>
     <row r="2675">
       <c r="A2675" t="inlineStr">
@@ -31718,13 +31711,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2675" t="inlineStr"/>
-      <c r="D2675" t="inlineStr"/>
-      <c r="E2675" t="inlineStr"/>
-      <c r="F2675" t="inlineStr"/>
-      <c r="G2675" t="inlineStr"/>
-      <c r="H2675" t="inlineStr"/>
-      <c r="I2675" t="inlineStr"/>
     </row>
     <row r="2676">
       <c r="A2676" t="inlineStr">
@@ -31737,13 +31723,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2676" t="inlineStr"/>
-      <c r="D2676" t="inlineStr"/>
-      <c r="E2676" t="inlineStr"/>
-      <c r="F2676" t="inlineStr"/>
-      <c r="G2676" t="inlineStr"/>
-      <c r="H2676" t="inlineStr"/>
-      <c r="I2676" t="inlineStr"/>
     </row>
     <row r="2677">
       <c r="A2677" t="inlineStr">
@@ -31756,13 +31735,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2677" t="inlineStr"/>
-      <c r="D2677" t="inlineStr"/>
-      <c r="E2677" t="inlineStr"/>
-      <c r="F2677" t="inlineStr"/>
-      <c r="G2677" t="inlineStr"/>
-      <c r="H2677" t="inlineStr"/>
-      <c r="I2677" t="inlineStr"/>
     </row>
     <row r="2678">
       <c r="A2678" t="inlineStr">
@@ -31775,13 +31747,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2678" t="inlineStr"/>
-      <c r="D2678" t="inlineStr"/>
-      <c r="E2678" t="inlineStr"/>
-      <c r="F2678" t="inlineStr"/>
-      <c r="G2678" t="inlineStr"/>
-      <c r="H2678" t="inlineStr"/>
-      <c r="I2678" t="inlineStr"/>
     </row>
     <row r="2679">
       <c r="A2679" t="inlineStr">
@@ -31794,13 +31759,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2679" t="inlineStr"/>
-      <c r="D2679" t="inlineStr"/>
-      <c r="E2679" t="inlineStr"/>
-      <c r="F2679" t="inlineStr"/>
-      <c r="G2679" t="inlineStr"/>
-      <c r="H2679" t="inlineStr"/>
-      <c r="I2679" t="inlineStr"/>
     </row>
     <row r="2680">
       <c r="A2680" t="inlineStr">
@@ -31813,13 +31771,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2680" t="inlineStr"/>
-      <c r="D2680" t="inlineStr"/>
-      <c r="E2680" t="inlineStr"/>
-      <c r="F2680" t="inlineStr"/>
-      <c r="G2680" t="inlineStr"/>
-      <c r="H2680" t="inlineStr"/>
-      <c r="I2680" t="inlineStr"/>
     </row>
     <row r="2681">
       <c r="A2681" t="inlineStr">
@@ -31832,13 +31783,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2681" t="inlineStr"/>
-      <c r="D2681" t="inlineStr"/>
-      <c r="E2681" t="inlineStr"/>
-      <c r="F2681" t="inlineStr"/>
-      <c r="G2681" t="inlineStr"/>
-      <c r="H2681" t="inlineStr"/>
-      <c r="I2681" t="inlineStr"/>
     </row>
     <row r="2682">
       <c r="A2682" t="inlineStr">
@@ -31851,13 +31795,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2682" t="inlineStr"/>
-      <c r="D2682" t="inlineStr"/>
-      <c r="E2682" t="inlineStr"/>
-      <c r="F2682" t="inlineStr"/>
-      <c r="G2682" t="inlineStr"/>
-      <c r="H2682" t="inlineStr"/>
-      <c r="I2682" t="inlineStr"/>
     </row>
     <row r="2683">
       <c r="A2683" t="inlineStr">
@@ -31870,13 +31807,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2683" t="inlineStr"/>
-      <c r="D2683" t="inlineStr"/>
-      <c r="E2683" t="inlineStr"/>
-      <c r="F2683" t="inlineStr"/>
-      <c r="G2683" t="inlineStr"/>
-      <c r="H2683" t="inlineStr"/>
-      <c r="I2683" t="inlineStr"/>
     </row>
     <row r="2684">
       <c r="A2684" t="inlineStr">
@@ -31889,13 +31819,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2684" t="inlineStr"/>
-      <c r="D2684" t="inlineStr"/>
-      <c r="E2684" t="inlineStr"/>
-      <c r="F2684" t="inlineStr"/>
-      <c r="G2684" t="inlineStr"/>
-      <c r="H2684" t="inlineStr"/>
-      <c r="I2684" t="inlineStr"/>
     </row>
     <row r="2685">
       <c r="A2685" t="inlineStr">
@@ -31908,13 +31831,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2685" t="inlineStr"/>
-      <c r="D2685" t="inlineStr"/>
-      <c r="E2685" t="inlineStr"/>
-      <c r="F2685" t="inlineStr"/>
-      <c r="G2685" t="inlineStr"/>
-      <c r="H2685" t="inlineStr"/>
-      <c r="I2685" t="inlineStr"/>
     </row>
     <row r="2686">
       <c r="A2686" t="inlineStr">
@@ -31927,13 +31843,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2686" t="inlineStr"/>
-      <c r="D2686" t="inlineStr"/>
-      <c r="E2686" t="inlineStr"/>
-      <c r="F2686" t="inlineStr"/>
-      <c r="G2686" t="inlineStr"/>
-      <c r="H2686" t="inlineStr"/>
-      <c r="I2686" t="inlineStr"/>
     </row>
     <row r="2687">
       <c r="A2687" t="inlineStr">
@@ -31946,13 +31855,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2687" t="inlineStr"/>
-      <c r="D2687" t="inlineStr"/>
-      <c r="E2687" t="inlineStr"/>
-      <c r="F2687" t="inlineStr"/>
-      <c r="G2687" t="inlineStr"/>
-      <c r="H2687" t="inlineStr"/>
-      <c r="I2687" t="inlineStr"/>
     </row>
     <row r="2688">
       <c r="A2688" t="inlineStr">
@@ -31965,13 +31867,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2688" t="inlineStr"/>
-      <c r="D2688" t="inlineStr"/>
-      <c r="E2688" t="inlineStr"/>
-      <c r="F2688" t="inlineStr"/>
-      <c r="G2688" t="inlineStr"/>
-      <c r="H2688" t="inlineStr"/>
-      <c r="I2688" t="inlineStr"/>
     </row>
     <row r="2689">
       <c r="A2689" t="inlineStr">
@@ -31984,13 +31879,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2689" t="inlineStr"/>
-      <c r="D2689" t="inlineStr"/>
-      <c r="E2689" t="inlineStr"/>
-      <c r="F2689" t="inlineStr"/>
-      <c r="G2689" t="inlineStr"/>
-      <c r="H2689" t="inlineStr"/>
-      <c r="I2689" t="inlineStr"/>
     </row>
     <row r="2690"/>
     <row r="2691">
@@ -32004,13 +31892,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2691" t="inlineStr"/>
-      <c r="D2691" t="inlineStr"/>
-      <c r="E2691" t="inlineStr"/>
-      <c r="F2691" t="inlineStr"/>
-      <c r="G2691" t="inlineStr"/>
-      <c r="H2691" t="inlineStr"/>
-      <c r="I2691" t="inlineStr"/>
     </row>
     <row r="2692">
       <c r="A2692" t="inlineStr">
@@ -32023,13 +31904,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2692" t="inlineStr"/>
-      <c r="D2692" t="inlineStr"/>
-      <c r="E2692" t="inlineStr"/>
-      <c r="F2692" t="inlineStr"/>
-      <c r="G2692" t="inlineStr"/>
-      <c r="H2692" t="inlineStr"/>
-      <c r="I2692" t="inlineStr"/>
     </row>
     <row r="2693">
       <c r="A2693" t="inlineStr">
@@ -32042,13 +31916,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2693" t="inlineStr"/>
-      <c r="D2693" t="inlineStr"/>
-      <c r="E2693" t="inlineStr"/>
-      <c r="F2693" t="inlineStr"/>
-      <c r="G2693" t="inlineStr"/>
-      <c r="H2693" t="inlineStr"/>
-      <c r="I2693" t="inlineStr"/>
     </row>
     <row r="2694">
       <c r="A2694" t="inlineStr">
@@ -32061,13 +31928,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2694" t="inlineStr"/>
-      <c r="D2694" t="inlineStr"/>
-      <c r="E2694" t="inlineStr"/>
-      <c r="F2694" t="inlineStr"/>
-      <c r="G2694" t="inlineStr"/>
-      <c r="H2694" t="inlineStr"/>
-      <c r="I2694" t="inlineStr"/>
     </row>
     <row r="2695">
       <c r="A2695" t="inlineStr">
@@ -32080,13 +31940,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2695" t="inlineStr"/>
-      <c r="D2695" t="inlineStr"/>
-      <c r="E2695" t="inlineStr"/>
-      <c r="F2695" t="inlineStr"/>
-      <c r="G2695" t="inlineStr"/>
-      <c r="H2695" t="inlineStr"/>
-      <c r="I2695" t="inlineStr"/>
     </row>
     <row r="2696">
       <c r="A2696" t="inlineStr">
@@ -32099,13 +31952,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2696" t="inlineStr"/>
-      <c r="D2696" t="inlineStr"/>
-      <c r="E2696" t="inlineStr"/>
-      <c r="F2696" t="inlineStr"/>
-      <c r="G2696" t="inlineStr"/>
-      <c r="H2696" t="inlineStr"/>
-      <c r="I2696" t="inlineStr"/>
     </row>
     <row r="2697">
       <c r="A2697" t="inlineStr">
@@ -32118,13 +31964,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2697" t="inlineStr"/>
-      <c r="D2697" t="inlineStr"/>
-      <c r="E2697" t="inlineStr"/>
-      <c r="F2697" t="inlineStr"/>
-      <c r="G2697" t="inlineStr"/>
-      <c r="H2697" t="inlineStr"/>
-      <c r="I2697" t="inlineStr"/>
     </row>
     <row r="2698">
       <c r="A2698" t="inlineStr">
@@ -32137,13 +31976,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2698" t="inlineStr"/>
-      <c r="D2698" t="inlineStr"/>
-      <c r="E2698" t="inlineStr"/>
-      <c r="F2698" t="inlineStr"/>
-      <c r="G2698" t="inlineStr"/>
-      <c r="H2698" t="inlineStr"/>
-      <c r="I2698" t="inlineStr"/>
     </row>
     <row r="2699">
       <c r="A2699" t="inlineStr">
@@ -32156,13 +31988,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2699" t="inlineStr"/>
-      <c r="D2699" t="inlineStr"/>
-      <c r="E2699" t="inlineStr"/>
-      <c r="F2699" t="inlineStr"/>
-      <c r="G2699" t="inlineStr"/>
-      <c r="H2699" t="inlineStr"/>
-      <c r="I2699" t="inlineStr"/>
     </row>
     <row r="2700">
       <c r="A2700" t="inlineStr">
@@ -32175,13 +32000,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2700" t="inlineStr"/>
-      <c r="D2700" t="inlineStr"/>
-      <c r="E2700" t="inlineStr"/>
-      <c r="F2700" t="inlineStr"/>
-      <c r="G2700" t="inlineStr"/>
-      <c r="H2700" t="inlineStr"/>
-      <c r="I2700" t="inlineStr"/>
     </row>
     <row r="2701">
       <c r="A2701" t="inlineStr">
@@ -32194,13 +32012,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2701" t="inlineStr"/>
-      <c r="D2701" t="inlineStr"/>
-      <c r="E2701" t="inlineStr"/>
-      <c r="F2701" t="inlineStr"/>
-      <c r="G2701" t="inlineStr"/>
-      <c r="H2701" t="inlineStr"/>
-      <c r="I2701" t="inlineStr"/>
     </row>
     <row r="2702">
       <c r="A2702" t="inlineStr">
@@ -32213,13 +32024,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2702" t="inlineStr"/>
-      <c r="D2702" t="inlineStr"/>
-      <c r="E2702" t="inlineStr"/>
-      <c r="F2702" t="inlineStr"/>
-      <c r="G2702" t="inlineStr"/>
-      <c r="H2702" t="inlineStr"/>
-      <c r="I2702" t="inlineStr"/>
     </row>
     <row r="2703">
       <c r="A2703" t="inlineStr">
@@ -32232,13 +32036,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2703" t="inlineStr"/>
-      <c r="D2703" t="inlineStr"/>
-      <c r="E2703" t="inlineStr"/>
-      <c r="F2703" t="inlineStr"/>
-      <c r="G2703" t="inlineStr"/>
-      <c r="H2703" t="inlineStr"/>
-      <c r="I2703" t="inlineStr"/>
     </row>
     <row r="2704">
       <c r="A2704" t="inlineStr">
@@ -32251,13 +32048,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2704" t="inlineStr"/>
-      <c r="D2704" t="inlineStr"/>
-      <c r="E2704" t="inlineStr"/>
-      <c r="F2704" t="inlineStr"/>
-      <c r="G2704" t="inlineStr"/>
-      <c r="H2704" t="inlineStr"/>
-      <c r="I2704" t="inlineStr"/>
     </row>
     <row r="2705">
       <c r="A2705" t="inlineStr">
@@ -32270,13 +32060,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2705" t="inlineStr"/>
-      <c r="D2705" t="inlineStr"/>
-      <c r="E2705" t="inlineStr"/>
-      <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr"/>
-      <c r="I2705" t="inlineStr"/>
     </row>
     <row r="2706">
       <c r="A2706" t="inlineStr">
@@ -32289,13 +32072,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2706" t="inlineStr"/>
-      <c r="D2706" t="inlineStr"/>
-      <c r="E2706" t="inlineStr"/>
-      <c r="F2706" t="inlineStr"/>
-      <c r="G2706" t="inlineStr"/>
-      <c r="H2706" t="inlineStr"/>
-      <c r="I2706" t="inlineStr"/>
     </row>
     <row r="2707"/>
     <row r="2708">
@@ -32309,13 +32085,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2708" t="inlineStr"/>
-      <c r="D2708" t="inlineStr"/>
-      <c r="E2708" t="inlineStr"/>
-      <c r="F2708" t="inlineStr"/>
-      <c r="G2708" t="inlineStr"/>
-      <c r="H2708" t="inlineStr"/>
-      <c r="I2708" t="inlineStr"/>
     </row>
     <row r="2709">
       <c r="A2709" t="inlineStr">
@@ -32328,13 +32097,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2709" t="inlineStr"/>
-      <c r="D2709" t="inlineStr"/>
-      <c r="E2709" t="inlineStr"/>
-      <c r="F2709" t="inlineStr"/>
-      <c r="G2709" t="inlineStr"/>
-      <c r="H2709" t="inlineStr"/>
-      <c r="I2709" t="inlineStr"/>
     </row>
     <row r="2710">
       <c r="A2710" t="inlineStr">
@@ -32347,13 +32109,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2710" t="inlineStr"/>
-      <c r="D2710" t="inlineStr"/>
-      <c r="E2710" t="inlineStr"/>
-      <c r="F2710" t="inlineStr"/>
-      <c r="G2710" t="inlineStr"/>
-      <c r="H2710" t="inlineStr"/>
-      <c r="I2710" t="inlineStr"/>
     </row>
     <row r="2711">
       <c r="A2711" t="inlineStr">
@@ -32366,13 +32121,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2711" t="inlineStr"/>
-      <c r="D2711" t="inlineStr"/>
-      <c r="E2711" t="inlineStr"/>
-      <c r="F2711" t="inlineStr"/>
-      <c r="G2711" t="inlineStr"/>
-      <c r="H2711" t="inlineStr"/>
-      <c r="I2711" t="inlineStr"/>
     </row>
     <row r="2712">
       <c r="A2712" t="inlineStr">
@@ -32385,13 +32133,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2712" t="inlineStr"/>
-      <c r="D2712" t="inlineStr"/>
-      <c r="E2712" t="inlineStr"/>
-      <c r="F2712" t="inlineStr"/>
-      <c r="G2712" t="inlineStr"/>
-      <c r="H2712" t="inlineStr"/>
-      <c r="I2712" t="inlineStr"/>
     </row>
     <row r="2713">
       <c r="A2713" t="inlineStr">
@@ -32404,13 +32145,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2713" t="inlineStr"/>
-      <c r="D2713" t="inlineStr"/>
-      <c r="E2713" t="inlineStr"/>
-      <c r="F2713" t="inlineStr"/>
-      <c r="G2713" t="inlineStr"/>
-      <c r="H2713" t="inlineStr"/>
-      <c r="I2713" t="inlineStr"/>
     </row>
     <row r="2714">
       <c r="A2714" t="inlineStr">
@@ -32423,13 +32157,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2714" t="inlineStr"/>
-      <c r="D2714" t="inlineStr"/>
-      <c r="E2714" t="inlineStr"/>
-      <c r="F2714" t="inlineStr"/>
-      <c r="G2714" t="inlineStr"/>
-      <c r="H2714" t="inlineStr"/>
-      <c r="I2714" t="inlineStr"/>
     </row>
     <row r="2715">
       <c r="A2715" t="inlineStr">
@@ -32442,13 +32169,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2715" t="inlineStr"/>
-      <c r="D2715" t="inlineStr"/>
-      <c r="E2715" t="inlineStr"/>
-      <c r="F2715" t="inlineStr"/>
-      <c r="G2715" t="inlineStr"/>
-      <c r="H2715" t="inlineStr"/>
-      <c r="I2715" t="inlineStr"/>
     </row>
     <row r="2716">
       <c r="A2716" t="inlineStr">
@@ -32461,13 +32181,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2716" t="inlineStr"/>
-      <c r="D2716" t="inlineStr"/>
-      <c r="E2716" t="inlineStr"/>
-      <c r="F2716" t="inlineStr"/>
-      <c r="G2716" t="inlineStr"/>
-      <c r="H2716" t="inlineStr"/>
-      <c r="I2716" t="inlineStr"/>
     </row>
     <row r="2717">
       <c r="A2717" t="inlineStr">
@@ -32480,13 +32193,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2717" t="inlineStr"/>
-      <c r="D2717" t="inlineStr"/>
-      <c r="E2717" t="inlineStr"/>
-      <c r="F2717" t="inlineStr"/>
-      <c r="G2717" t="inlineStr"/>
-      <c r="H2717" t="inlineStr"/>
-      <c r="I2717" t="inlineStr"/>
     </row>
     <row r="2718">
       <c r="A2718" t="inlineStr">
@@ -32499,13 +32205,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2718" t="inlineStr"/>
-      <c r="D2718" t="inlineStr"/>
-      <c r="E2718" t="inlineStr"/>
-      <c r="F2718" t="inlineStr"/>
-      <c r="G2718" t="inlineStr"/>
-      <c r="H2718" t="inlineStr"/>
-      <c r="I2718" t="inlineStr"/>
     </row>
     <row r="2719">
       <c r="A2719" t="inlineStr">
@@ -32518,13 +32217,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2719" t="inlineStr"/>
-      <c r="D2719" t="inlineStr"/>
-      <c r="E2719" t="inlineStr"/>
-      <c r="F2719" t="inlineStr"/>
-      <c r="G2719" t="inlineStr"/>
-      <c r="H2719" t="inlineStr"/>
-      <c r="I2719" t="inlineStr"/>
     </row>
     <row r="2720">
       <c r="A2720" t="inlineStr">
@@ -32537,13 +32229,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2720" t="inlineStr"/>
-      <c r="D2720" t="inlineStr"/>
-      <c r="E2720" t="inlineStr"/>
-      <c r="F2720" t="inlineStr"/>
-      <c r="G2720" t="inlineStr"/>
-      <c r="H2720" t="inlineStr"/>
-      <c r="I2720" t="inlineStr"/>
     </row>
     <row r="2721">
       <c r="A2721" t="inlineStr">
@@ -32556,13 +32241,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2721" t="inlineStr"/>
-      <c r="D2721" t="inlineStr"/>
-      <c r="E2721" t="inlineStr"/>
-      <c r="F2721" t="inlineStr"/>
-      <c r="G2721" t="inlineStr"/>
-      <c r="H2721" t="inlineStr"/>
-      <c r="I2721" t="inlineStr"/>
     </row>
     <row r="2722">
       <c r="A2722" t="inlineStr">
@@ -32575,13 +32253,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2722" t="inlineStr"/>
-      <c r="D2722" t="inlineStr"/>
-      <c r="E2722" t="inlineStr"/>
-      <c r="F2722" t="inlineStr"/>
-      <c r="G2722" t="inlineStr"/>
-      <c r="H2722" t="inlineStr"/>
-      <c r="I2722" t="inlineStr"/>
     </row>
     <row r="2723">
       <c r="A2723" t="inlineStr">
@@ -32594,13 +32265,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2723" t="inlineStr"/>
-      <c r="D2723" t="inlineStr"/>
-      <c r="E2723" t="inlineStr"/>
-      <c r="F2723" t="inlineStr"/>
-      <c r="G2723" t="inlineStr"/>
-      <c r="H2723" t="inlineStr"/>
-      <c r="I2723" t="inlineStr"/>
     </row>
     <row r="2724"/>
     <row r="2725">
@@ -32614,13 +32278,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2725" t="inlineStr"/>
-      <c r="D2725" t="inlineStr"/>
-      <c r="E2725" t="inlineStr"/>
-      <c r="F2725" t="inlineStr"/>
-      <c r="G2725" t="inlineStr"/>
-      <c r="H2725" t="inlineStr"/>
-      <c r="I2725" t="inlineStr"/>
     </row>
     <row r="2726">
       <c r="A2726" t="inlineStr">
@@ -32633,13 +32290,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2726" t="inlineStr"/>
-      <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
-      <c r="F2726" t="inlineStr"/>
-      <c r="G2726" t="inlineStr"/>
-      <c r="H2726" t="inlineStr"/>
-      <c r="I2726" t="inlineStr"/>
     </row>
     <row r="2727">
       <c r="A2727" t="inlineStr">
@@ -32652,13 +32302,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2727" t="inlineStr"/>
-      <c r="D2727" t="inlineStr"/>
-      <c r="E2727" t="inlineStr"/>
-      <c r="F2727" t="inlineStr"/>
-      <c r="G2727" t="inlineStr"/>
-      <c r="H2727" t="inlineStr"/>
-      <c r="I2727" t="inlineStr"/>
     </row>
     <row r="2728">
       <c r="A2728" t="inlineStr">
@@ -32671,13 +32314,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2728" t="inlineStr"/>
-      <c r="D2728" t="inlineStr"/>
-      <c r="E2728" t="inlineStr"/>
-      <c r="F2728" t="inlineStr"/>
-      <c r="G2728" t="inlineStr"/>
-      <c r="H2728" t="inlineStr"/>
-      <c r="I2728" t="inlineStr"/>
     </row>
     <row r="2729">
       <c r="A2729" t="inlineStr">
@@ -32690,13 +32326,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2729" t="inlineStr"/>
-      <c r="D2729" t="inlineStr"/>
-      <c r="E2729" t="inlineStr"/>
-      <c r="F2729" t="inlineStr"/>
-      <c r="G2729" t="inlineStr"/>
-      <c r="H2729" t="inlineStr"/>
-      <c r="I2729" t="inlineStr"/>
     </row>
     <row r="2730">
       <c r="A2730" t="inlineStr">
@@ -32709,13 +32338,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2730" t="inlineStr"/>
-      <c r="D2730" t="inlineStr"/>
-      <c r="E2730" t="inlineStr"/>
-      <c r="F2730" t="inlineStr"/>
-      <c r="G2730" t="inlineStr"/>
-      <c r="H2730" t="inlineStr"/>
-      <c r="I2730" t="inlineStr"/>
     </row>
     <row r="2731">
       <c r="A2731" t="inlineStr">
@@ -32728,13 +32350,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2731" t="inlineStr"/>
-      <c r="D2731" t="inlineStr"/>
-      <c r="E2731" t="inlineStr"/>
-      <c r="F2731" t="inlineStr"/>
-      <c r="G2731" t="inlineStr"/>
-      <c r="H2731" t="inlineStr"/>
-      <c r="I2731" t="inlineStr"/>
     </row>
     <row r="2732">
       <c r="A2732" t="inlineStr">
@@ -32747,13 +32362,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2732" t="inlineStr"/>
-      <c r="D2732" t="inlineStr"/>
-      <c r="E2732" t="inlineStr"/>
-      <c r="F2732" t="inlineStr"/>
-      <c r="G2732" t="inlineStr"/>
-      <c r="H2732" t="inlineStr"/>
-      <c r="I2732" t="inlineStr"/>
     </row>
     <row r="2733">
       <c r="A2733" t="inlineStr">
@@ -32766,13 +32374,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2733" t="inlineStr"/>
-      <c r="D2733" t="inlineStr"/>
-      <c r="E2733" t="inlineStr"/>
-      <c r="F2733" t="inlineStr"/>
-      <c r="G2733" t="inlineStr"/>
-      <c r="H2733" t="inlineStr"/>
-      <c r="I2733" t="inlineStr"/>
     </row>
     <row r="2734">
       <c r="A2734" t="inlineStr">
@@ -32785,13 +32386,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2734" t="inlineStr"/>
-      <c r="D2734" t="inlineStr"/>
-      <c r="E2734" t="inlineStr"/>
-      <c r="F2734" t="inlineStr"/>
-      <c r="G2734" t="inlineStr"/>
-      <c r="H2734" t="inlineStr"/>
-      <c r="I2734" t="inlineStr"/>
     </row>
     <row r="2735">
       <c r="A2735" t="inlineStr">
@@ -32804,13 +32398,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2735" t="inlineStr"/>
-      <c r="D2735" t="inlineStr"/>
-      <c r="E2735" t="inlineStr"/>
-      <c r="F2735" t="inlineStr"/>
-      <c r="G2735" t="inlineStr"/>
-      <c r="H2735" t="inlineStr"/>
-      <c r="I2735" t="inlineStr"/>
     </row>
     <row r="2736">
       <c r="A2736" t="inlineStr">
@@ -32823,13 +32410,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2736" t="inlineStr"/>
-      <c r="D2736" t="inlineStr"/>
-      <c r="E2736" t="inlineStr"/>
-      <c r="F2736" t="inlineStr"/>
-      <c r="G2736" t="inlineStr"/>
-      <c r="H2736" t="inlineStr"/>
-      <c r="I2736" t="inlineStr"/>
     </row>
     <row r="2737">
       <c r="A2737" t="inlineStr">
@@ -32842,13 +32422,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2737" t="inlineStr"/>
-      <c r="D2737" t="inlineStr"/>
-      <c r="E2737" t="inlineStr"/>
-      <c r="F2737" t="inlineStr"/>
-      <c r="G2737" t="inlineStr"/>
-      <c r="H2737" t="inlineStr"/>
-      <c r="I2737" t="inlineStr"/>
     </row>
     <row r="2738">
       <c r="A2738" t="inlineStr">
@@ -32861,13 +32434,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2738" t="inlineStr"/>
-      <c r="D2738" t="inlineStr"/>
-      <c r="E2738" t="inlineStr"/>
-      <c r="F2738" t="inlineStr"/>
-      <c r="G2738" t="inlineStr"/>
-      <c r="H2738" t="inlineStr"/>
-      <c r="I2738" t="inlineStr"/>
     </row>
     <row r="2739">
       <c r="A2739" t="inlineStr">
@@ -32880,13 +32446,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2739" t="inlineStr"/>
-      <c r="D2739" t="inlineStr"/>
-      <c r="E2739" t="inlineStr"/>
-      <c r="F2739" t="inlineStr"/>
-      <c r="G2739" t="inlineStr"/>
-      <c r="H2739" t="inlineStr"/>
-      <c r="I2739" t="inlineStr"/>
     </row>
     <row r="2740">
       <c r="A2740" t="inlineStr">
@@ -32899,13 +32458,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2740" t="inlineStr"/>
-      <c r="D2740" t="inlineStr"/>
-      <c r="E2740" t="inlineStr"/>
-      <c r="F2740" t="inlineStr"/>
-      <c r="G2740" t="inlineStr"/>
-      <c r="H2740" t="inlineStr"/>
-      <c r="I2740" t="inlineStr"/>
     </row>
     <row r="2741"/>
     <row r="2742">
@@ -32919,13 +32471,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2742" t="inlineStr"/>
-      <c r="D2742" t="inlineStr"/>
-      <c r="E2742" t="inlineStr"/>
-      <c r="F2742" t="inlineStr"/>
-      <c r="G2742" t="inlineStr"/>
-      <c r="H2742" t="inlineStr"/>
-      <c r="I2742" t="inlineStr"/>
     </row>
     <row r="2743">
       <c r="A2743" t="inlineStr">
@@ -32938,13 +32483,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2743" t="inlineStr"/>
-      <c r="D2743" t="inlineStr"/>
-      <c r="E2743" t="inlineStr"/>
-      <c r="F2743" t="inlineStr"/>
-      <c r="G2743" t="inlineStr"/>
-      <c r="H2743" t="inlineStr"/>
-      <c r="I2743" t="inlineStr"/>
     </row>
     <row r="2744">
       <c r="A2744" t="inlineStr">
@@ -32957,13 +32495,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2744" t="inlineStr"/>
-      <c r="D2744" t="inlineStr"/>
-      <c r="E2744" t="inlineStr"/>
-      <c r="F2744" t="inlineStr"/>
-      <c r="G2744" t="inlineStr"/>
-      <c r="H2744" t="inlineStr"/>
-      <c r="I2744" t="inlineStr"/>
     </row>
     <row r="2745">
       <c r="A2745" t="inlineStr">
@@ -32976,13 +32507,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2745" t="inlineStr"/>
-      <c r="D2745" t="inlineStr"/>
-      <c r="E2745" t="inlineStr"/>
-      <c r="F2745" t="inlineStr"/>
-      <c r="G2745" t="inlineStr"/>
-      <c r="H2745" t="inlineStr"/>
-      <c r="I2745" t="inlineStr"/>
     </row>
     <row r="2746">
       <c r="A2746" t="inlineStr">
@@ -32995,13 +32519,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2746" t="inlineStr"/>
-      <c r="D2746" t="inlineStr"/>
-      <c r="E2746" t="inlineStr"/>
-      <c r="F2746" t="inlineStr"/>
-      <c r="G2746" t="inlineStr"/>
-      <c r="H2746" t="inlineStr"/>
-      <c r="I2746" t="inlineStr"/>
     </row>
     <row r="2747">
       <c r="A2747" t="inlineStr">
@@ -33014,13 +32531,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2747" t="inlineStr"/>
-      <c r="D2747" t="inlineStr"/>
-      <c r="E2747" t="inlineStr"/>
-      <c r="F2747" t="inlineStr"/>
-      <c r="G2747" t="inlineStr"/>
-      <c r="H2747" t="inlineStr"/>
-      <c r="I2747" t="inlineStr"/>
     </row>
     <row r="2748">
       <c r="A2748" t="inlineStr">
@@ -33033,13 +32543,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2748" t="inlineStr"/>
-      <c r="D2748" t="inlineStr"/>
-      <c r="E2748" t="inlineStr"/>
-      <c r="F2748" t="inlineStr"/>
-      <c r="G2748" t="inlineStr"/>
-      <c r="H2748" t="inlineStr"/>
-      <c r="I2748" t="inlineStr"/>
     </row>
     <row r="2749">
       <c r="A2749" t="inlineStr">
@@ -33052,13 +32555,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2749" t="inlineStr"/>
-      <c r="D2749" t="inlineStr"/>
-      <c r="E2749" t="inlineStr"/>
-      <c r="F2749" t="inlineStr"/>
-      <c r="G2749" t="inlineStr"/>
-      <c r="H2749" t="inlineStr"/>
-      <c r="I2749" t="inlineStr"/>
     </row>
     <row r="2750">
       <c r="A2750" t="inlineStr">
@@ -33071,13 +32567,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2750" t="inlineStr"/>
-      <c r="D2750" t="inlineStr"/>
-      <c r="E2750" t="inlineStr"/>
-      <c r="F2750" t="inlineStr"/>
-      <c r="G2750" t="inlineStr"/>
-      <c r="H2750" t="inlineStr"/>
-      <c r="I2750" t="inlineStr"/>
     </row>
     <row r="2751">
       <c r="A2751" t="inlineStr">
@@ -33090,13 +32579,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2751" t="inlineStr"/>
-      <c r="D2751" t="inlineStr"/>
-      <c r="E2751" t="inlineStr"/>
-      <c r="F2751" t="inlineStr"/>
-      <c r="G2751" t="inlineStr"/>
-      <c r="H2751" t="inlineStr"/>
-      <c r="I2751" t="inlineStr"/>
     </row>
     <row r="2752">
       <c r="A2752" t="inlineStr">
@@ -33109,13 +32591,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2752" t="inlineStr"/>
-      <c r="D2752" t="inlineStr"/>
-      <c r="E2752" t="inlineStr"/>
-      <c r="F2752" t="inlineStr"/>
-      <c r="G2752" t="inlineStr"/>
-      <c r="H2752" t="inlineStr"/>
-      <c r="I2752" t="inlineStr"/>
     </row>
     <row r="2753">
       <c r="A2753" t="inlineStr">
@@ -33128,13 +32603,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2753" t="inlineStr"/>
-      <c r="D2753" t="inlineStr"/>
-      <c r="E2753" t="inlineStr"/>
-      <c r="F2753" t="inlineStr"/>
-      <c r="G2753" t="inlineStr"/>
-      <c r="H2753" t="inlineStr"/>
-      <c r="I2753" t="inlineStr"/>
     </row>
     <row r="2754">
       <c r="A2754" t="inlineStr">
@@ -33147,13 +32615,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2754" t="inlineStr"/>
-      <c r="D2754" t="inlineStr"/>
-      <c r="E2754" t="inlineStr"/>
-      <c r="F2754" t="inlineStr"/>
-      <c r="G2754" t="inlineStr"/>
-      <c r="H2754" t="inlineStr"/>
-      <c r="I2754" t="inlineStr"/>
     </row>
     <row r="2755">
       <c r="A2755" t="inlineStr">
@@ -33166,13 +32627,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2755" t="inlineStr"/>
-      <c r="D2755" t="inlineStr"/>
-      <c r="E2755" t="inlineStr"/>
-      <c r="F2755" t="inlineStr"/>
-      <c r="G2755" t="inlineStr"/>
-      <c r="H2755" t="inlineStr"/>
-      <c r="I2755" t="inlineStr"/>
     </row>
     <row r="2756">
       <c r="A2756" t="inlineStr">
@@ -33185,13 +32639,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2756" t="inlineStr"/>
-      <c r="D2756" t="inlineStr"/>
-      <c r="E2756" t="inlineStr"/>
-      <c r="F2756" t="inlineStr"/>
-      <c r="G2756" t="inlineStr"/>
-      <c r="H2756" t="inlineStr"/>
-      <c r="I2756" t="inlineStr"/>
     </row>
     <row r="2757">
       <c r="A2757" t="inlineStr">
@@ -33204,15 +32651,2498 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2757" t="inlineStr"/>
-      <c r="D2757" t="inlineStr"/>
-      <c r="E2757" t="inlineStr"/>
-      <c r="F2757" t="inlineStr"/>
-      <c r="G2757" t="inlineStr"/>
-      <c r="H2757" t="inlineStr"/>
-      <c r="I2757" t="inlineStr"/>
     </row>
     <row r="2758"/>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2759" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2760" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2761" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2762" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2763" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2764" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2765" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2766" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2767" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2768" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2769" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2770" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2771" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2772" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2774" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2775"/>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2776" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2777">
+      <c r="A2777" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2777" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2778">
+      <c r="A2778" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2779">
+      <c r="A2779" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2779" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2780">
+      <c r="A2780" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2780" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2781">
+      <c r="A2781" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2781" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2782">
+      <c r="A2782" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2782" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2783">
+      <c r="A2783" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2783" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2784">
+      <c r="A2784" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2784" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2785">
+      <c r="A2785" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2785" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2786">
+      <c r="A2786" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2786" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2787">
+      <c r="A2787" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2787" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2788">
+      <c r="A2788" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2788" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2789">
+      <c r="A2789" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2789" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2790">
+      <c r="A2790" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2790" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2791">
+      <c r="A2791" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2791" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2792"/>
+    <row r="2793">
+      <c r="A2793" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2793" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2794">
+      <c r="A2794" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2794" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2795">
+      <c r="A2795" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2795" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2796">
+      <c r="A2796" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2796" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2797">
+      <c r="A2797" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2797" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2798">
+      <c r="A2798" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2798" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2799">
+      <c r="A2799" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2799" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2800">
+      <c r="A2800" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2800" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2801">
+      <c r="A2801" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2801" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2802">
+      <c r="A2802" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2802" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2803">
+      <c r="A2803" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2803" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2804">
+      <c r="A2804" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2804" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2805">
+      <c r="A2805" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2806">
+      <c r="A2806" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2807">
+      <c r="A2807" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2808">
+      <c r="A2808" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2809"/>
+    <row r="2810">
+      <c r="A2810" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2811">
+      <c r="A2811" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2812">
+      <c r="A2812" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2813">
+      <c r="A2813" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2814">
+      <c r="A2814" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2815">
+      <c r="A2815" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2817">
+      <c r="A2817" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2818">
+      <c r="A2818" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2821">
+      <c r="A2821" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2822">
+      <c r="A2822" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2823">
+      <c r="A2823" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2826"/>
+    <row r="2827">
+      <c r="A2827" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2827" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2828">
+      <c r="A2828" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2828" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2829" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2830" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2831" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2832" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2833" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2835" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="2843"/>
+    <row r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr"/>
+      <c r="D2844" t="inlineStr"/>
+      <c r="E2844" t="inlineStr"/>
+      <c r="F2844" t="inlineStr"/>
+      <c r="G2844" t="inlineStr"/>
+      <c r="H2844" t="inlineStr"/>
+      <c r="I2844" t="inlineStr"/>
+    </row>
+    <row r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr"/>
+      <c r="D2845" t="inlineStr"/>
+      <c r="E2845" t="inlineStr"/>
+      <c r="F2845" t="inlineStr"/>
+      <c r="G2845" t="inlineStr"/>
+      <c r="H2845" t="inlineStr"/>
+      <c r="I2845" t="inlineStr"/>
+    </row>
+    <row r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2846" t="inlineStr"/>
+      <c r="D2846" t="inlineStr"/>
+      <c r="E2846" t="inlineStr"/>
+      <c r="F2846" t="inlineStr"/>
+      <c r="G2846" t="inlineStr"/>
+      <c r="H2846" t="inlineStr"/>
+      <c r="I2846" t="inlineStr"/>
+    </row>
+    <row r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2847" t="inlineStr"/>
+      <c r="D2847" t="inlineStr"/>
+      <c r="E2847" t="inlineStr"/>
+      <c r="F2847" t="inlineStr"/>
+      <c r="G2847" t="inlineStr"/>
+      <c r="H2847" t="inlineStr"/>
+      <c r="I2847" t="inlineStr"/>
+    </row>
+    <row r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2848" t="inlineStr"/>
+      <c r="D2848" t="inlineStr"/>
+      <c r="E2848" t="inlineStr"/>
+      <c r="F2848" t="inlineStr"/>
+      <c r="G2848" t="inlineStr"/>
+      <c r="H2848" t="inlineStr"/>
+      <c r="I2848" t="inlineStr"/>
+    </row>
+    <row r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr"/>
+      <c r="D2849" t="inlineStr"/>
+      <c r="E2849" t="inlineStr"/>
+      <c r="F2849" t="inlineStr"/>
+      <c r="G2849" t="inlineStr"/>
+      <c r="H2849" t="inlineStr"/>
+      <c r="I2849" t="inlineStr"/>
+    </row>
+    <row r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2850" t="inlineStr"/>
+      <c r="D2850" t="inlineStr"/>
+      <c r="E2850" t="inlineStr"/>
+      <c r="F2850" t="inlineStr"/>
+      <c r="G2850" t="inlineStr"/>
+      <c r="H2850" t="inlineStr"/>
+      <c r="I2850" t="inlineStr"/>
+    </row>
+    <row r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2851" t="inlineStr"/>
+      <c r="D2851" t="inlineStr"/>
+      <c r="E2851" t="inlineStr"/>
+      <c r="F2851" t="inlineStr"/>
+      <c r="G2851" t="inlineStr"/>
+      <c r="H2851" t="inlineStr"/>
+      <c r="I2851" t="inlineStr"/>
+    </row>
+    <row r="2852">
+      <c r="A2852" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2852" t="inlineStr"/>
+      <c r="D2852" t="inlineStr"/>
+      <c r="E2852" t="inlineStr"/>
+      <c r="F2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr"/>
+      <c r="H2852" t="inlineStr"/>
+      <c r="I2852" t="inlineStr"/>
+    </row>
+    <row r="2853">
+      <c r="A2853" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr"/>
+      <c r="D2853" t="inlineStr"/>
+      <c r="E2853" t="inlineStr"/>
+      <c r="F2853" t="inlineStr"/>
+      <c r="G2853" t="inlineStr"/>
+      <c r="H2853" t="inlineStr"/>
+      <c r="I2853" t="inlineStr"/>
+    </row>
+    <row r="2854">
+      <c r="A2854" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr"/>
+      <c r="D2854" t="inlineStr"/>
+      <c r="E2854" t="inlineStr"/>
+      <c r="F2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr"/>
+      <c r="H2854" t="inlineStr"/>
+      <c r="I2854" t="inlineStr"/>
+    </row>
+    <row r="2855">
+      <c r="A2855" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr"/>
+      <c r="D2855" t="inlineStr"/>
+      <c r="E2855" t="inlineStr"/>
+      <c r="F2855" t="inlineStr"/>
+      <c r="G2855" t="inlineStr"/>
+      <c r="H2855" t="inlineStr"/>
+      <c r="I2855" t="inlineStr"/>
+    </row>
+    <row r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr"/>
+      <c r="D2856" t="inlineStr"/>
+      <c r="E2856" t="inlineStr"/>
+      <c r="F2856" t="inlineStr"/>
+      <c r="G2856" t="inlineStr"/>
+      <c r="H2856" t="inlineStr"/>
+      <c r="I2856" t="inlineStr"/>
+    </row>
+    <row r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr"/>
+      <c r="D2857" t="inlineStr"/>
+      <c r="E2857" t="inlineStr"/>
+      <c r="F2857" t="inlineStr"/>
+      <c r="G2857" t="inlineStr"/>
+      <c r="H2857" t="inlineStr"/>
+      <c r="I2857" t="inlineStr"/>
+    </row>
+    <row r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr"/>
+      <c r="D2858" t="inlineStr"/>
+      <c r="E2858" t="inlineStr"/>
+      <c r="F2858" t="inlineStr"/>
+      <c r="G2858" t="inlineStr"/>
+      <c r="H2858" t="inlineStr"/>
+      <c r="I2858" t="inlineStr"/>
+    </row>
+    <row r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>04.08.2025</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr"/>
+      <c r="D2859" t="inlineStr"/>
+      <c r="E2859" t="inlineStr"/>
+      <c r="F2859" t="inlineStr"/>
+      <c r="G2859" t="inlineStr"/>
+      <c r="H2859" t="inlineStr"/>
+      <c r="I2859" t="inlineStr"/>
+    </row>
+    <row r="2860"/>
+    <row r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr"/>
+      <c r="D2861" t="inlineStr"/>
+      <c r="E2861" t="inlineStr"/>
+      <c r="F2861" t="inlineStr"/>
+      <c r="G2861" t="inlineStr"/>
+      <c r="H2861" t="inlineStr"/>
+      <c r="I2861" t="inlineStr"/>
+    </row>
+    <row r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr"/>
+      <c r="D2862" t="inlineStr"/>
+      <c r="E2862" t="inlineStr"/>
+      <c r="F2862" t="inlineStr"/>
+      <c r="G2862" t="inlineStr"/>
+      <c r="H2862" t="inlineStr"/>
+      <c r="I2862" t="inlineStr"/>
+    </row>
+    <row r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr"/>
+      <c r="D2863" t="inlineStr"/>
+      <c r="E2863" t="inlineStr"/>
+      <c r="F2863" t="inlineStr"/>
+      <c r="G2863" t="inlineStr"/>
+      <c r="H2863" t="inlineStr"/>
+      <c r="I2863" t="inlineStr"/>
+    </row>
+    <row r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr"/>
+      <c r="D2864" t="inlineStr"/>
+      <c r="E2864" t="inlineStr"/>
+      <c r="F2864" t="inlineStr"/>
+      <c r="G2864" t="inlineStr"/>
+      <c r="H2864" t="inlineStr"/>
+      <c r="I2864" t="inlineStr"/>
+    </row>
+    <row r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr"/>
+      <c r="D2865" t="inlineStr"/>
+      <c r="E2865" t="inlineStr"/>
+      <c r="F2865" t="inlineStr"/>
+      <c r="G2865" t="inlineStr"/>
+      <c r="H2865" t="inlineStr"/>
+      <c r="I2865" t="inlineStr"/>
+    </row>
+    <row r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr"/>
+      <c r="D2866" t="inlineStr"/>
+      <c r="E2866" t="inlineStr"/>
+      <c r="F2866" t="inlineStr"/>
+      <c r="G2866" t="inlineStr"/>
+      <c r="H2866" t="inlineStr"/>
+      <c r="I2866" t="inlineStr"/>
+    </row>
+    <row r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr"/>
+      <c r="D2867" t="inlineStr"/>
+      <c r="E2867" t="inlineStr"/>
+      <c r="F2867" t="inlineStr"/>
+      <c r="G2867" t="inlineStr"/>
+      <c r="H2867" t="inlineStr"/>
+      <c r="I2867" t="inlineStr"/>
+    </row>
+    <row r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr"/>
+      <c r="D2868" t="inlineStr"/>
+      <c r="E2868" t="inlineStr"/>
+      <c r="F2868" t="inlineStr"/>
+      <c r="G2868" t="inlineStr"/>
+      <c r="H2868" t="inlineStr"/>
+      <c r="I2868" t="inlineStr"/>
+    </row>
+    <row r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr"/>
+      <c r="D2869" t="inlineStr"/>
+      <c r="E2869" t="inlineStr"/>
+      <c r="F2869" t="inlineStr"/>
+      <c r="G2869" t="inlineStr"/>
+      <c r="H2869" t="inlineStr"/>
+      <c r="I2869" t="inlineStr"/>
+    </row>
+    <row r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr"/>
+      <c r="D2870" t="inlineStr"/>
+      <c r="E2870" t="inlineStr"/>
+      <c r="F2870" t="inlineStr"/>
+      <c r="G2870" t="inlineStr"/>
+      <c r="H2870" t="inlineStr"/>
+      <c r="I2870" t="inlineStr"/>
+    </row>
+    <row r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr"/>
+      <c r="D2871" t="inlineStr"/>
+      <c r="E2871" t="inlineStr"/>
+      <c r="F2871" t="inlineStr"/>
+      <c r="G2871" t="inlineStr"/>
+      <c r="H2871" t="inlineStr"/>
+      <c r="I2871" t="inlineStr"/>
+    </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr"/>
+      <c r="D2872" t="inlineStr"/>
+      <c r="E2872" t="inlineStr"/>
+      <c r="F2872" t="inlineStr"/>
+      <c r="G2872" t="inlineStr"/>
+      <c r="H2872" t="inlineStr"/>
+      <c r="I2872" t="inlineStr"/>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr"/>
+      <c r="D2873" t="inlineStr"/>
+      <c r="E2873" t="inlineStr"/>
+      <c r="F2873" t="inlineStr"/>
+      <c r="G2873" t="inlineStr"/>
+      <c r="H2873" t="inlineStr"/>
+      <c r="I2873" t="inlineStr"/>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr"/>
+      <c r="D2874" t="inlineStr"/>
+      <c r="E2874" t="inlineStr"/>
+      <c r="F2874" t="inlineStr"/>
+      <c r="G2874" t="inlineStr"/>
+      <c r="H2874" t="inlineStr"/>
+      <c r="I2874" t="inlineStr"/>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr"/>
+      <c r="D2875" t="inlineStr"/>
+      <c r="E2875" t="inlineStr"/>
+      <c r="F2875" t="inlineStr"/>
+      <c r="G2875" t="inlineStr"/>
+      <c r="H2875" t="inlineStr"/>
+      <c r="I2875" t="inlineStr"/>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr"/>
+      <c r="D2876" t="inlineStr"/>
+      <c r="E2876" t="inlineStr"/>
+      <c r="F2876" t="inlineStr"/>
+      <c r="G2876" t="inlineStr"/>
+      <c r="H2876" t="inlineStr"/>
+      <c r="I2876" t="inlineStr"/>
+    </row>
+    <row r="2877"/>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr"/>
+      <c r="D2878" t="inlineStr"/>
+      <c r="E2878" t="inlineStr"/>
+      <c r="F2878" t="inlineStr"/>
+      <c r="G2878" t="inlineStr"/>
+      <c r="H2878" t="inlineStr"/>
+      <c r="I2878" t="inlineStr"/>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr"/>
+      <c r="D2879" t="inlineStr"/>
+      <c r="E2879" t="inlineStr"/>
+      <c r="F2879" t="inlineStr"/>
+      <c r="G2879" t="inlineStr"/>
+      <c r="H2879" t="inlineStr"/>
+      <c r="I2879" t="inlineStr"/>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr"/>
+      <c r="D2880" t="inlineStr"/>
+      <c r="E2880" t="inlineStr"/>
+      <c r="F2880" t="inlineStr"/>
+      <c r="G2880" t="inlineStr"/>
+      <c r="H2880" t="inlineStr"/>
+      <c r="I2880" t="inlineStr"/>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr"/>
+      <c r="D2881" t="inlineStr"/>
+      <c r="E2881" t="inlineStr"/>
+      <c r="F2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr"/>
+      <c r="H2881" t="inlineStr"/>
+      <c r="I2881" t="inlineStr"/>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr"/>
+      <c r="D2882" t="inlineStr"/>
+      <c r="E2882" t="inlineStr"/>
+      <c r="F2882" t="inlineStr"/>
+      <c r="G2882" t="inlineStr"/>
+      <c r="H2882" t="inlineStr"/>
+      <c r="I2882" t="inlineStr"/>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr"/>
+      <c r="D2883" t="inlineStr"/>
+      <c r="E2883" t="inlineStr"/>
+      <c r="F2883" t="inlineStr"/>
+      <c r="G2883" t="inlineStr"/>
+      <c r="H2883" t="inlineStr"/>
+      <c r="I2883" t="inlineStr"/>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr"/>
+      <c r="D2884" t="inlineStr"/>
+      <c r="E2884" t="inlineStr"/>
+      <c r="F2884" t="inlineStr"/>
+      <c r="G2884" t="inlineStr"/>
+      <c r="H2884" t="inlineStr"/>
+      <c r="I2884" t="inlineStr"/>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr"/>
+      <c r="D2885" t="inlineStr"/>
+      <c r="E2885" t="inlineStr"/>
+      <c r="F2885" t="inlineStr"/>
+      <c r="G2885" t="inlineStr"/>
+      <c r="H2885" t="inlineStr"/>
+      <c r="I2885" t="inlineStr"/>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2886" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2886" t="inlineStr"/>
+      <c r="D2886" t="inlineStr"/>
+      <c r="E2886" t="inlineStr"/>
+      <c r="F2886" t="inlineStr"/>
+      <c r="G2886" t="inlineStr"/>
+      <c r="H2886" t="inlineStr"/>
+      <c r="I2886" t="inlineStr"/>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2887" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2887" t="inlineStr"/>
+      <c r="D2887" t="inlineStr"/>
+      <c r="E2887" t="inlineStr"/>
+      <c r="F2887" t="inlineStr"/>
+      <c r="G2887" t="inlineStr"/>
+      <c r="H2887" t="inlineStr"/>
+      <c r="I2887" t="inlineStr"/>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2888" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2888" t="inlineStr"/>
+      <c r="D2888" t="inlineStr"/>
+      <c r="E2888" t="inlineStr"/>
+      <c r="F2888" t="inlineStr"/>
+      <c r="G2888" t="inlineStr"/>
+      <c r="H2888" t="inlineStr"/>
+      <c r="I2888" t="inlineStr"/>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2889" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2889" t="inlineStr"/>
+      <c r="D2889" t="inlineStr"/>
+      <c r="E2889" t="inlineStr"/>
+      <c r="F2889" t="inlineStr"/>
+      <c r="G2889" t="inlineStr"/>
+      <c r="H2889" t="inlineStr"/>
+      <c r="I2889" t="inlineStr"/>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2890" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2890" t="inlineStr"/>
+      <c r="D2890" t="inlineStr"/>
+      <c r="E2890" t="inlineStr"/>
+      <c r="F2890" t="inlineStr"/>
+      <c r="G2890" t="inlineStr"/>
+      <c r="H2890" t="inlineStr"/>
+      <c r="I2890" t="inlineStr"/>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2891" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2891" t="inlineStr"/>
+      <c r="D2891" t="inlineStr"/>
+      <c r="E2891" t="inlineStr"/>
+      <c r="F2891" t="inlineStr"/>
+      <c r="G2891" t="inlineStr"/>
+      <c r="H2891" t="inlineStr"/>
+      <c r="I2891" t="inlineStr"/>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2892" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2892" t="inlineStr"/>
+      <c r="D2892" t="inlineStr"/>
+      <c r="E2892" t="inlineStr"/>
+      <c r="F2892" t="inlineStr"/>
+      <c r="G2892" t="inlineStr"/>
+      <c r="H2892" t="inlineStr"/>
+      <c r="I2892" t="inlineStr"/>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2893" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2893" t="inlineStr"/>
+      <c r="D2893" t="inlineStr"/>
+      <c r="E2893" t="inlineStr"/>
+      <c r="F2893" t="inlineStr"/>
+      <c r="G2893" t="inlineStr"/>
+      <c r="H2893" t="inlineStr"/>
+      <c r="I2893" t="inlineStr"/>
+    </row>
+    <row r="2894"/>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2895" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2895" t="inlineStr"/>
+      <c r="D2895" t="inlineStr"/>
+      <c r="E2895" t="inlineStr"/>
+      <c r="F2895" t="inlineStr"/>
+      <c r="G2895" t="inlineStr"/>
+      <c r="H2895" t="inlineStr"/>
+      <c r="I2895" t="inlineStr"/>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2896" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2896" t="inlineStr"/>
+      <c r="D2896" t="inlineStr"/>
+      <c r="E2896" t="inlineStr"/>
+      <c r="F2896" t="inlineStr"/>
+      <c r="G2896" t="inlineStr"/>
+      <c r="H2896" t="inlineStr"/>
+      <c r="I2896" t="inlineStr"/>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2897" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2897" t="inlineStr"/>
+      <c r="D2897" t="inlineStr"/>
+      <c r="E2897" t="inlineStr"/>
+      <c r="F2897" t="inlineStr"/>
+      <c r="G2897" t="inlineStr"/>
+      <c r="H2897" t="inlineStr"/>
+      <c r="I2897" t="inlineStr"/>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2898" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2898" t="inlineStr"/>
+      <c r="D2898" t="inlineStr"/>
+      <c r="E2898" t="inlineStr"/>
+      <c r="F2898" t="inlineStr"/>
+      <c r="G2898" t="inlineStr"/>
+      <c r="H2898" t="inlineStr"/>
+      <c r="I2898" t="inlineStr"/>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2899" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2899" t="inlineStr"/>
+      <c r="D2899" t="inlineStr"/>
+      <c r="E2899" t="inlineStr"/>
+      <c r="F2899" t="inlineStr"/>
+      <c r="G2899" t="inlineStr"/>
+      <c r="H2899" t="inlineStr"/>
+      <c r="I2899" t="inlineStr"/>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2900" t="inlineStr"/>
+      <c r="D2900" t="inlineStr"/>
+      <c r="E2900" t="inlineStr"/>
+      <c r="F2900" t="inlineStr"/>
+      <c r="G2900" t="inlineStr"/>
+      <c r="H2900" t="inlineStr"/>
+      <c r="I2900" t="inlineStr"/>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2901" t="inlineStr"/>
+      <c r="D2901" t="inlineStr"/>
+      <c r="E2901" t="inlineStr"/>
+      <c r="F2901" t="inlineStr"/>
+      <c r="G2901" t="inlineStr"/>
+      <c r="H2901" t="inlineStr"/>
+      <c r="I2901" t="inlineStr"/>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2902" t="inlineStr"/>
+      <c r="D2902" t="inlineStr"/>
+      <c r="E2902" t="inlineStr"/>
+      <c r="F2902" t="inlineStr"/>
+      <c r="G2902" t="inlineStr"/>
+      <c r="H2902" t="inlineStr"/>
+      <c r="I2902" t="inlineStr"/>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2903" t="inlineStr"/>
+      <c r="D2903" t="inlineStr"/>
+      <c r="E2903" t="inlineStr"/>
+      <c r="F2903" t="inlineStr"/>
+      <c r="G2903" t="inlineStr"/>
+      <c r="H2903" t="inlineStr"/>
+      <c r="I2903" t="inlineStr"/>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2904" t="inlineStr"/>
+      <c r="D2904" t="inlineStr"/>
+      <c r="E2904" t="inlineStr"/>
+      <c r="F2904" t="inlineStr"/>
+      <c r="G2904" t="inlineStr"/>
+      <c r="H2904" t="inlineStr"/>
+      <c r="I2904" t="inlineStr"/>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2905" t="inlineStr"/>
+      <c r="D2905" t="inlineStr"/>
+      <c r="E2905" t="inlineStr"/>
+      <c r="F2905" t="inlineStr"/>
+      <c r="G2905" t="inlineStr"/>
+      <c r="H2905" t="inlineStr"/>
+      <c r="I2905" t="inlineStr"/>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2906" t="inlineStr"/>
+      <c r="D2906" t="inlineStr"/>
+      <c r="E2906" t="inlineStr"/>
+      <c r="F2906" t="inlineStr"/>
+      <c r="G2906" t="inlineStr"/>
+      <c r="H2906" t="inlineStr"/>
+      <c r="I2906" t="inlineStr"/>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2907" t="inlineStr"/>
+      <c r="D2907" t="inlineStr"/>
+      <c r="E2907" t="inlineStr"/>
+      <c r="F2907" t="inlineStr"/>
+      <c r="G2907" t="inlineStr"/>
+      <c r="H2907" t="inlineStr"/>
+      <c r="I2907" t="inlineStr"/>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2908" t="inlineStr"/>
+      <c r="D2908" t="inlineStr"/>
+      <c r="E2908" t="inlineStr"/>
+      <c r="F2908" t="inlineStr"/>
+      <c r="G2908" t="inlineStr"/>
+      <c r="H2908" t="inlineStr"/>
+      <c r="I2908" t="inlineStr"/>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2909" t="inlineStr"/>
+      <c r="D2909" t="inlineStr"/>
+      <c r="E2909" t="inlineStr"/>
+      <c r="F2909" t="inlineStr"/>
+      <c r="G2909" t="inlineStr"/>
+      <c r="H2909" t="inlineStr"/>
+      <c r="I2909" t="inlineStr"/>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2910" t="inlineStr"/>
+      <c r="D2910" t="inlineStr"/>
+      <c r="E2910" t="inlineStr"/>
+      <c r="F2910" t="inlineStr"/>
+      <c r="G2910" t="inlineStr"/>
+      <c r="H2910" t="inlineStr"/>
+      <c r="I2910" t="inlineStr"/>
+    </row>
+    <row r="2911"/>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2912" t="inlineStr"/>
+      <c r="D2912" t="inlineStr"/>
+      <c r="E2912" t="inlineStr"/>
+      <c r="F2912" t="inlineStr"/>
+      <c r="G2912" t="inlineStr"/>
+      <c r="H2912" t="inlineStr"/>
+      <c r="I2912" t="inlineStr"/>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2913" t="inlineStr"/>
+      <c r="D2913" t="inlineStr"/>
+      <c r="E2913" t="inlineStr"/>
+      <c r="F2913" t="inlineStr"/>
+      <c r="G2913" t="inlineStr"/>
+      <c r="H2913" t="inlineStr"/>
+      <c r="I2913" t="inlineStr"/>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2914" t="inlineStr"/>
+      <c r="D2914" t="inlineStr"/>
+      <c r="E2914" t="inlineStr"/>
+      <c r="F2914" t="inlineStr"/>
+      <c r="G2914" t="inlineStr"/>
+      <c r="H2914" t="inlineStr"/>
+      <c r="I2914" t="inlineStr"/>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2915" t="inlineStr"/>
+      <c r="D2915" t="inlineStr"/>
+      <c r="E2915" t="inlineStr"/>
+      <c r="F2915" t="inlineStr"/>
+      <c r="G2915" t="inlineStr"/>
+      <c r="H2915" t="inlineStr"/>
+      <c r="I2915" t="inlineStr"/>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2916" t="inlineStr"/>
+      <c r="D2916" t="inlineStr"/>
+      <c r="E2916" t="inlineStr"/>
+      <c r="F2916" t="inlineStr"/>
+      <c r="G2916" t="inlineStr"/>
+      <c r="H2916" t="inlineStr"/>
+      <c r="I2916" t="inlineStr"/>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2917" t="inlineStr"/>
+      <c r="D2917" t="inlineStr"/>
+      <c r="E2917" t="inlineStr"/>
+      <c r="F2917" t="inlineStr"/>
+      <c r="G2917" t="inlineStr"/>
+      <c r="H2917" t="inlineStr"/>
+      <c r="I2917" t="inlineStr"/>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2918" t="inlineStr"/>
+      <c r="D2918" t="inlineStr"/>
+      <c r="E2918" t="inlineStr"/>
+      <c r="F2918" t="inlineStr"/>
+      <c r="G2918" t="inlineStr"/>
+      <c r="H2918" t="inlineStr"/>
+      <c r="I2918" t="inlineStr"/>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2919" t="inlineStr"/>
+      <c r="D2919" t="inlineStr"/>
+      <c r="E2919" t="inlineStr"/>
+      <c r="F2919" t="inlineStr"/>
+      <c r="G2919" t="inlineStr"/>
+      <c r="H2919" t="inlineStr"/>
+      <c r="I2919" t="inlineStr"/>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2920" t="inlineStr"/>
+      <c r="D2920" t="inlineStr"/>
+      <c r="E2920" t="inlineStr"/>
+      <c r="F2920" t="inlineStr"/>
+      <c r="G2920" t="inlineStr"/>
+      <c r="H2920" t="inlineStr"/>
+      <c r="I2920" t="inlineStr"/>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2921" t="inlineStr"/>
+      <c r="D2921" t="inlineStr"/>
+      <c r="E2921" t="inlineStr"/>
+      <c r="F2921" t="inlineStr"/>
+      <c r="G2921" t="inlineStr"/>
+      <c r="H2921" t="inlineStr"/>
+      <c r="I2921" t="inlineStr"/>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2922" t="inlineStr"/>
+      <c r="D2922" t="inlineStr"/>
+      <c r="E2922" t="inlineStr"/>
+      <c r="F2922" t="inlineStr"/>
+      <c r="G2922" t="inlineStr"/>
+      <c r="H2922" t="inlineStr"/>
+      <c r="I2922" t="inlineStr"/>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2923" t="inlineStr"/>
+      <c r="D2923" t="inlineStr"/>
+      <c r="E2923" t="inlineStr"/>
+      <c r="F2923" t="inlineStr"/>
+      <c r="G2923" t="inlineStr"/>
+      <c r="H2923" t="inlineStr"/>
+      <c r="I2923" t="inlineStr"/>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2924" t="inlineStr"/>
+      <c r="D2924" t="inlineStr"/>
+      <c r="E2924" t="inlineStr"/>
+      <c r="F2924" t="inlineStr"/>
+      <c r="G2924" t="inlineStr"/>
+      <c r="H2924" t="inlineStr"/>
+      <c r="I2924" t="inlineStr"/>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2925" t="inlineStr"/>
+      <c r="D2925" t="inlineStr"/>
+      <c r="E2925" t="inlineStr"/>
+      <c r="F2925" t="inlineStr"/>
+      <c r="G2925" t="inlineStr"/>
+      <c r="H2925" t="inlineStr"/>
+      <c r="I2925" t="inlineStr"/>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2926" t="inlineStr"/>
+      <c r="D2926" t="inlineStr"/>
+      <c r="E2926" t="inlineStr"/>
+      <c r="F2926" t="inlineStr"/>
+      <c r="G2926" t="inlineStr"/>
+      <c r="H2926" t="inlineStr"/>
+      <c r="I2926" t="inlineStr"/>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2927" t="inlineStr"/>
+      <c r="D2927" t="inlineStr"/>
+      <c r="E2927" t="inlineStr"/>
+      <c r="F2927" t="inlineStr"/>
+      <c r="G2927" t="inlineStr"/>
+      <c r="H2927" t="inlineStr"/>
+      <c r="I2927" t="inlineStr"/>
+    </row>
+    <row r="2928"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD2928"/>
+  <dimension ref="A1:AD3013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
@@ -33629,13 +33629,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2844" t="inlineStr"/>
-      <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr"/>
-      <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
-      <c r="H2844" t="inlineStr"/>
-      <c r="I2844" t="inlineStr"/>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
@@ -33648,13 +33641,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2845" t="inlineStr"/>
-      <c r="D2845" t="inlineStr"/>
-      <c r="E2845" t="inlineStr"/>
-      <c r="F2845" t="inlineStr"/>
-      <c r="G2845" t="inlineStr"/>
-      <c r="H2845" t="inlineStr"/>
-      <c r="I2845" t="inlineStr"/>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
@@ -33667,13 +33653,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2846" t="inlineStr"/>
-      <c r="D2846" t="inlineStr"/>
-      <c r="E2846" t="inlineStr"/>
-      <c r="F2846" t="inlineStr"/>
-      <c r="G2846" t="inlineStr"/>
-      <c r="H2846" t="inlineStr"/>
-      <c r="I2846" t="inlineStr"/>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
@@ -33686,13 +33665,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2847" t="inlineStr"/>
-      <c r="D2847" t="inlineStr"/>
-      <c r="E2847" t="inlineStr"/>
-      <c r="F2847" t="inlineStr"/>
-      <c r="G2847" t="inlineStr"/>
-      <c r="H2847" t="inlineStr"/>
-      <c r="I2847" t="inlineStr"/>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
@@ -33705,13 +33677,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2848" t="inlineStr"/>
-      <c r="D2848" t="inlineStr"/>
-      <c r="E2848" t="inlineStr"/>
-      <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr"/>
-      <c r="H2848" t="inlineStr"/>
-      <c r="I2848" t="inlineStr"/>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
@@ -33724,13 +33689,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2849" t="inlineStr"/>
-      <c r="D2849" t="inlineStr"/>
-      <c r="E2849" t="inlineStr"/>
-      <c r="F2849" t="inlineStr"/>
-      <c r="G2849" t="inlineStr"/>
-      <c r="H2849" t="inlineStr"/>
-      <c r="I2849" t="inlineStr"/>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
@@ -33743,13 +33701,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2850" t="inlineStr"/>
-      <c r="D2850" t="inlineStr"/>
-      <c r="E2850" t="inlineStr"/>
-      <c r="F2850" t="inlineStr"/>
-      <c r="G2850" t="inlineStr"/>
-      <c r="H2850" t="inlineStr"/>
-      <c r="I2850" t="inlineStr"/>
     </row>
     <row r="2851">
       <c r="A2851" t="inlineStr">
@@ -33762,13 +33713,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2851" t="inlineStr"/>
-      <c r="D2851" t="inlineStr"/>
-      <c r="E2851" t="inlineStr"/>
-      <c r="F2851" t="inlineStr"/>
-      <c r="G2851" t="inlineStr"/>
-      <c r="H2851" t="inlineStr"/>
-      <c r="I2851" t="inlineStr"/>
     </row>
     <row r="2852">
       <c r="A2852" t="inlineStr">
@@ -33781,13 +33725,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2852" t="inlineStr"/>
-      <c r="D2852" t="inlineStr"/>
-      <c r="E2852" t="inlineStr"/>
-      <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
-      <c r="H2852" t="inlineStr"/>
-      <c r="I2852" t="inlineStr"/>
     </row>
     <row r="2853">
       <c r="A2853" t="inlineStr">
@@ -33800,13 +33737,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2853" t="inlineStr"/>
-      <c r="D2853" t="inlineStr"/>
-      <c r="E2853" t="inlineStr"/>
-      <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr"/>
-      <c r="H2853" t="inlineStr"/>
-      <c r="I2853" t="inlineStr"/>
     </row>
     <row r="2854">
       <c r="A2854" t="inlineStr">
@@ -33819,13 +33749,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2854" t="inlineStr"/>
-      <c r="D2854" t="inlineStr"/>
-      <c r="E2854" t="inlineStr"/>
-      <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
-      <c r="H2854" t="inlineStr"/>
-      <c r="I2854" t="inlineStr"/>
     </row>
     <row r="2855">
       <c r="A2855" t="inlineStr">
@@ -33838,13 +33761,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2855" t="inlineStr"/>
-      <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr"/>
-      <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr"/>
-      <c r="H2855" t="inlineStr"/>
-      <c r="I2855" t="inlineStr"/>
     </row>
     <row r="2856">
       <c r="A2856" t="inlineStr">
@@ -33857,13 +33773,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2856" t="inlineStr"/>
-      <c r="D2856" t="inlineStr"/>
-      <c r="E2856" t="inlineStr"/>
-      <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr"/>
-      <c r="H2856" t="inlineStr"/>
-      <c r="I2856" t="inlineStr"/>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
@@ -33876,13 +33785,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2857" t="inlineStr"/>
-      <c r="D2857" t="inlineStr"/>
-      <c r="E2857" t="inlineStr"/>
-      <c r="F2857" t="inlineStr"/>
-      <c r="G2857" t="inlineStr"/>
-      <c r="H2857" t="inlineStr"/>
-      <c r="I2857" t="inlineStr"/>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
@@ -33895,13 +33797,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2858" t="inlineStr"/>
-      <c r="D2858" t="inlineStr"/>
-      <c r="E2858" t="inlineStr"/>
-      <c r="F2858" t="inlineStr"/>
-      <c r="G2858" t="inlineStr"/>
-      <c r="H2858" t="inlineStr"/>
-      <c r="I2858" t="inlineStr"/>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
@@ -33914,13 +33809,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2859" t="inlineStr"/>
-      <c r="D2859" t="inlineStr"/>
-      <c r="E2859" t="inlineStr"/>
-      <c r="F2859" t="inlineStr"/>
-      <c r="G2859" t="inlineStr"/>
-      <c r="H2859" t="inlineStr"/>
-      <c r="I2859" t="inlineStr"/>
     </row>
     <row r="2860"/>
     <row r="2861">
@@ -33934,13 +33822,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2861" t="inlineStr"/>
-      <c r="D2861" t="inlineStr"/>
-      <c r="E2861" t="inlineStr"/>
-      <c r="F2861" t="inlineStr"/>
-      <c r="G2861" t="inlineStr"/>
-      <c r="H2861" t="inlineStr"/>
-      <c r="I2861" t="inlineStr"/>
     </row>
     <row r="2862">
       <c r="A2862" t="inlineStr">
@@ -33953,13 +33834,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2862" t="inlineStr"/>
-      <c r="D2862" t="inlineStr"/>
-      <c r="E2862" t="inlineStr"/>
-      <c r="F2862" t="inlineStr"/>
-      <c r="G2862" t="inlineStr"/>
-      <c r="H2862" t="inlineStr"/>
-      <c r="I2862" t="inlineStr"/>
     </row>
     <row r="2863">
       <c r="A2863" t="inlineStr">
@@ -33972,13 +33846,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2863" t="inlineStr"/>
-      <c r="D2863" t="inlineStr"/>
-      <c r="E2863" t="inlineStr"/>
-      <c r="F2863" t="inlineStr"/>
-      <c r="G2863" t="inlineStr"/>
-      <c r="H2863" t="inlineStr"/>
-      <c r="I2863" t="inlineStr"/>
     </row>
     <row r="2864">
       <c r="A2864" t="inlineStr">
@@ -33991,13 +33858,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2864" t="inlineStr"/>
-      <c r="D2864" t="inlineStr"/>
-      <c r="E2864" t="inlineStr"/>
-      <c r="F2864" t="inlineStr"/>
-      <c r="G2864" t="inlineStr"/>
-      <c r="H2864" t="inlineStr"/>
-      <c r="I2864" t="inlineStr"/>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
@@ -34010,13 +33870,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2865" t="inlineStr"/>
-      <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr"/>
-      <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr"/>
-      <c r="H2865" t="inlineStr"/>
-      <c r="I2865" t="inlineStr"/>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
@@ -34029,13 +33882,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2866" t="inlineStr"/>
-      <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr"/>
-      <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr"/>
-      <c r="H2866" t="inlineStr"/>
-      <c r="I2866" t="inlineStr"/>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
@@ -34048,13 +33894,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2867" t="inlineStr"/>
-      <c r="D2867" t="inlineStr"/>
-      <c r="E2867" t="inlineStr"/>
-      <c r="F2867" t="inlineStr"/>
-      <c r="G2867" t="inlineStr"/>
-      <c r="H2867" t="inlineStr"/>
-      <c r="I2867" t="inlineStr"/>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
@@ -34067,13 +33906,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2868" t="inlineStr"/>
-      <c r="D2868" t="inlineStr"/>
-      <c r="E2868" t="inlineStr"/>
-      <c r="F2868" t="inlineStr"/>
-      <c r="G2868" t="inlineStr"/>
-      <c r="H2868" t="inlineStr"/>
-      <c r="I2868" t="inlineStr"/>
     </row>
     <row r="2869">
       <c r="A2869" t="inlineStr">
@@ -34086,13 +33918,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2869" t="inlineStr"/>
-      <c r="D2869" t="inlineStr"/>
-      <c r="E2869" t="inlineStr"/>
-      <c r="F2869" t="inlineStr"/>
-      <c r="G2869" t="inlineStr"/>
-      <c r="H2869" t="inlineStr"/>
-      <c r="I2869" t="inlineStr"/>
     </row>
     <row r="2870">
       <c r="A2870" t="inlineStr">
@@ -34105,13 +33930,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2870" t="inlineStr"/>
-      <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr"/>
-      <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr"/>
-      <c r="H2870" t="inlineStr"/>
-      <c r="I2870" t="inlineStr"/>
     </row>
     <row r="2871">
       <c r="A2871" t="inlineStr">
@@ -34124,13 +33942,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2871" t="inlineStr"/>
-      <c r="D2871" t="inlineStr"/>
-      <c r="E2871" t="inlineStr"/>
-      <c r="F2871" t="inlineStr"/>
-      <c r="G2871" t="inlineStr"/>
-      <c r="H2871" t="inlineStr"/>
-      <c r="I2871" t="inlineStr"/>
     </row>
     <row r="2872">
       <c r="A2872" t="inlineStr">
@@ -34143,13 +33954,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2872" t="inlineStr"/>
-      <c r="D2872" t="inlineStr"/>
-      <c r="E2872" t="inlineStr"/>
-      <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr"/>
-      <c r="H2872" t="inlineStr"/>
-      <c r="I2872" t="inlineStr"/>
     </row>
     <row r="2873">
       <c r="A2873" t="inlineStr">
@@ -34162,13 +33966,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2873" t="inlineStr"/>
-      <c r="D2873" t="inlineStr"/>
-      <c r="E2873" t="inlineStr"/>
-      <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr"/>
-      <c r="H2873" t="inlineStr"/>
-      <c r="I2873" t="inlineStr"/>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
@@ -34181,13 +33978,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2874" t="inlineStr"/>
-      <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr"/>
-      <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr"/>
-      <c r="H2874" t="inlineStr"/>
-      <c r="I2874" t="inlineStr"/>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
@@ -34200,13 +33990,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2875" t="inlineStr"/>
-      <c r="D2875" t="inlineStr"/>
-      <c r="E2875" t="inlineStr"/>
-      <c r="F2875" t="inlineStr"/>
-      <c r="G2875" t="inlineStr"/>
-      <c r="H2875" t="inlineStr"/>
-      <c r="I2875" t="inlineStr"/>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
@@ -34219,13 +34002,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2876" t="inlineStr"/>
-      <c r="D2876" t="inlineStr"/>
-      <c r="E2876" t="inlineStr"/>
-      <c r="F2876" t="inlineStr"/>
-      <c r="G2876" t="inlineStr"/>
-      <c r="H2876" t="inlineStr"/>
-      <c r="I2876" t="inlineStr"/>
     </row>
     <row r="2877"/>
     <row r="2878">
@@ -34239,13 +34015,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2878" t="inlineStr"/>
-      <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr"/>
-      <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr"/>
-      <c r="H2878" t="inlineStr"/>
-      <c r="I2878" t="inlineStr"/>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
@@ -34258,13 +34027,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2879" t="inlineStr"/>
-      <c r="D2879" t="inlineStr"/>
-      <c r="E2879" t="inlineStr"/>
-      <c r="F2879" t="inlineStr"/>
-      <c r="G2879" t="inlineStr"/>
-      <c r="H2879" t="inlineStr"/>
-      <c r="I2879" t="inlineStr"/>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
@@ -34277,13 +34039,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2880" t="inlineStr"/>
-      <c r="D2880" t="inlineStr"/>
-      <c r="E2880" t="inlineStr"/>
-      <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr"/>
-      <c r="H2880" t="inlineStr"/>
-      <c r="I2880" t="inlineStr"/>
     </row>
     <row r="2881">
       <c r="A2881" t="inlineStr">
@@ -34296,13 +34051,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2881" t="inlineStr"/>
-      <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr"/>
-      <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
-      <c r="H2881" t="inlineStr"/>
-      <c r="I2881" t="inlineStr"/>
     </row>
     <row r="2882">
       <c r="A2882" t="inlineStr">
@@ -34315,13 +34063,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2882" t="inlineStr"/>
-      <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr"/>
-      <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr"/>
-      <c r="H2882" t="inlineStr"/>
-      <c r="I2882" t="inlineStr"/>
     </row>
     <row r="2883">
       <c r="A2883" t="inlineStr">
@@ -34334,13 +34075,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2883" t="inlineStr"/>
-      <c r="D2883" t="inlineStr"/>
-      <c r="E2883" t="inlineStr"/>
-      <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr"/>
-      <c r="H2883" t="inlineStr"/>
-      <c r="I2883" t="inlineStr"/>
     </row>
     <row r="2884">
       <c r="A2884" t="inlineStr">
@@ -34353,13 +34087,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2884" t="inlineStr"/>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr"/>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr"/>
-      <c r="H2884" t="inlineStr"/>
-      <c r="I2884" t="inlineStr"/>
     </row>
     <row r="2885">
       <c r="A2885" t="inlineStr">
@@ -34372,13 +34099,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2885" t="inlineStr"/>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr"/>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr"/>
-      <c r="H2885" t="inlineStr"/>
-      <c r="I2885" t="inlineStr"/>
     </row>
     <row r="2886">
       <c r="A2886" t="inlineStr">
@@ -34391,13 +34111,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2886" t="inlineStr"/>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr"/>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr"/>
-      <c r="H2886" t="inlineStr"/>
-      <c r="I2886" t="inlineStr"/>
     </row>
     <row r="2887">
       <c r="A2887" t="inlineStr">
@@ -34410,13 +34123,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2887" t="inlineStr"/>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr"/>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr"/>
-      <c r="H2887" t="inlineStr"/>
-      <c r="I2887" t="inlineStr"/>
     </row>
     <row r="2888">
       <c r="A2888" t="inlineStr">
@@ -34429,13 +34135,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2888" t="inlineStr"/>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr"/>
-      <c r="F2888" t="inlineStr"/>
-      <c r="G2888" t="inlineStr"/>
-      <c r="H2888" t="inlineStr"/>
-      <c r="I2888" t="inlineStr"/>
     </row>
     <row r="2889">
       <c r="A2889" t="inlineStr">
@@ -34448,13 +34147,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2889" t="inlineStr"/>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr"/>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr"/>
-      <c r="H2889" t="inlineStr"/>
-      <c r="I2889" t="inlineStr"/>
     </row>
     <row r="2890">
       <c r="A2890" t="inlineStr">
@@ -34467,13 +34159,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2890" t="inlineStr"/>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr"/>
-      <c r="I2890" t="inlineStr"/>
     </row>
     <row r="2891">
       <c r="A2891" t="inlineStr">
@@ -34486,13 +34171,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2891" t="inlineStr"/>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr"/>
-      <c r="I2891" t="inlineStr"/>
     </row>
     <row r="2892">
       <c r="A2892" t="inlineStr">
@@ -34505,13 +34183,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2892" t="inlineStr"/>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr"/>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr"/>
-      <c r="H2892" t="inlineStr"/>
-      <c r="I2892" t="inlineStr"/>
     </row>
     <row r="2893">
       <c r="A2893" t="inlineStr">
@@ -34524,13 +34195,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2893" t="inlineStr"/>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr"/>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr"/>
-      <c r="H2893" t="inlineStr"/>
-      <c r="I2893" t="inlineStr"/>
     </row>
     <row r="2894"/>
     <row r="2895">
@@ -34544,13 +34208,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2895" t="inlineStr"/>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr"/>
-      <c r="I2895" t="inlineStr"/>
     </row>
     <row r="2896">
       <c r="A2896" t="inlineStr">
@@ -34563,13 +34220,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2896" t="inlineStr"/>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr"/>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr"/>
-      <c r="H2896" t="inlineStr"/>
-      <c r="I2896" t="inlineStr"/>
     </row>
     <row r="2897">
       <c r="A2897" t="inlineStr">
@@ -34582,13 +34232,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2897" t="inlineStr"/>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr"/>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr"/>
-      <c r="I2897" t="inlineStr"/>
     </row>
     <row r="2898">
       <c r="A2898" t="inlineStr">
@@ -34601,13 +34244,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2898" t="inlineStr"/>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr"/>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr"/>
-      <c r="I2898" t="inlineStr"/>
     </row>
     <row r="2899">
       <c r="A2899" t="inlineStr">
@@ -34620,13 +34256,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2899" t="inlineStr"/>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr"/>
-      <c r="I2899" t="inlineStr"/>
     </row>
     <row r="2900">
       <c r="A2900" t="inlineStr">
@@ -34639,13 +34268,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2900" t="inlineStr"/>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr"/>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr"/>
-      <c r="H2900" t="inlineStr"/>
-      <c r="I2900" t="inlineStr"/>
     </row>
     <row r="2901">
       <c r="A2901" t="inlineStr">
@@ -34658,13 +34280,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2901" t="inlineStr"/>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr"/>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr"/>
-      <c r="H2901" t="inlineStr"/>
-      <c r="I2901" t="inlineStr"/>
     </row>
     <row r="2902">
       <c r="A2902" t="inlineStr">
@@ -34677,13 +34292,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2902" t="inlineStr"/>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr"/>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr"/>
-      <c r="H2902" t="inlineStr"/>
-      <c r="I2902" t="inlineStr"/>
     </row>
     <row r="2903">
       <c r="A2903" t="inlineStr">
@@ -34696,13 +34304,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2903" t="inlineStr"/>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr"/>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
-      <c r="H2903" t="inlineStr"/>
-      <c r="I2903" t="inlineStr"/>
     </row>
     <row r="2904">
       <c r="A2904" t="inlineStr">
@@ -34715,13 +34316,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2904" t="inlineStr"/>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr"/>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr"/>
-      <c r="H2904" t="inlineStr"/>
-      <c r="I2904" t="inlineStr"/>
     </row>
     <row r="2905">
       <c r="A2905" t="inlineStr">
@@ -34734,13 +34328,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2905" t="inlineStr"/>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr"/>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
-      <c r="H2905" t="inlineStr"/>
-      <c r="I2905" t="inlineStr"/>
     </row>
     <row r="2906">
       <c r="A2906" t="inlineStr">
@@ -34753,13 +34340,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2906" t="inlineStr"/>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr"/>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr"/>
-      <c r="H2906" t="inlineStr"/>
-      <c r="I2906" t="inlineStr"/>
     </row>
     <row r="2907">
       <c r="A2907" t="inlineStr">
@@ -34772,13 +34352,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2907" t="inlineStr"/>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr"/>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
-      <c r="H2907" t="inlineStr"/>
-      <c r="I2907" t="inlineStr"/>
     </row>
     <row r="2908">
       <c r="A2908" t="inlineStr">
@@ -34791,13 +34364,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2908" t="inlineStr"/>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr"/>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr"/>
-      <c r="I2908" t="inlineStr"/>
     </row>
     <row r="2909">
       <c r="A2909" t="inlineStr">
@@ -34810,13 +34376,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2909" t="inlineStr"/>
-      <c r="D2909" t="inlineStr"/>
-      <c r="E2909" t="inlineStr"/>
-      <c r="F2909" t="inlineStr"/>
-      <c r="G2909" t="inlineStr"/>
-      <c r="H2909" t="inlineStr"/>
-      <c r="I2909" t="inlineStr"/>
     </row>
     <row r="2910">
       <c r="A2910" t="inlineStr">
@@ -34829,13 +34388,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2910" t="inlineStr"/>
-      <c r="D2910" t="inlineStr"/>
-      <c r="E2910" t="inlineStr"/>
-      <c r="F2910" t="inlineStr"/>
-      <c r="G2910" t="inlineStr"/>
-      <c r="H2910" t="inlineStr"/>
-      <c r="I2910" t="inlineStr"/>
     </row>
     <row r="2911"/>
     <row r="2912">
@@ -34849,13 +34401,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C2912" t="inlineStr"/>
-      <c r="D2912" t="inlineStr"/>
-      <c r="E2912" t="inlineStr"/>
-      <c r="F2912" t="inlineStr"/>
-      <c r="G2912" t="inlineStr"/>
-      <c r="H2912" t="inlineStr"/>
-      <c r="I2912" t="inlineStr"/>
     </row>
     <row r="2913">
       <c r="A2913" t="inlineStr">
@@ -34868,13 +34413,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C2913" t="inlineStr"/>
-      <c r="D2913" t="inlineStr"/>
-      <c r="E2913" t="inlineStr"/>
-      <c r="F2913" t="inlineStr"/>
-      <c r="G2913" t="inlineStr"/>
-      <c r="H2913" t="inlineStr"/>
-      <c r="I2913" t="inlineStr"/>
     </row>
     <row r="2914">
       <c r="A2914" t="inlineStr">
@@ -34887,13 +34425,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C2914" t="inlineStr"/>
-      <c r="D2914" t="inlineStr"/>
-      <c r="E2914" t="inlineStr"/>
-      <c r="F2914" t="inlineStr"/>
-      <c r="G2914" t="inlineStr"/>
-      <c r="H2914" t="inlineStr"/>
-      <c r="I2914" t="inlineStr"/>
     </row>
     <row r="2915">
       <c r="A2915" t="inlineStr">
@@ -34906,13 +34437,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C2915" t="inlineStr"/>
-      <c r="D2915" t="inlineStr"/>
-      <c r="E2915" t="inlineStr"/>
-      <c r="F2915" t="inlineStr"/>
-      <c r="G2915" t="inlineStr"/>
-      <c r="H2915" t="inlineStr"/>
-      <c r="I2915" t="inlineStr"/>
     </row>
     <row r="2916">
       <c r="A2916" t="inlineStr">
@@ -34925,13 +34449,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C2916" t="inlineStr"/>
-      <c r="D2916" t="inlineStr"/>
-      <c r="E2916" t="inlineStr"/>
-      <c r="F2916" t="inlineStr"/>
-      <c r="G2916" t="inlineStr"/>
-      <c r="H2916" t="inlineStr"/>
-      <c r="I2916" t="inlineStr"/>
     </row>
     <row r="2917">
       <c r="A2917" t="inlineStr">
@@ -34944,13 +34461,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C2917" t="inlineStr"/>
-      <c r="D2917" t="inlineStr"/>
-      <c r="E2917" t="inlineStr"/>
-      <c r="F2917" t="inlineStr"/>
-      <c r="G2917" t="inlineStr"/>
-      <c r="H2917" t="inlineStr"/>
-      <c r="I2917" t="inlineStr"/>
     </row>
     <row r="2918">
       <c r="A2918" t="inlineStr">
@@ -34963,13 +34473,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C2918" t="inlineStr"/>
-      <c r="D2918" t="inlineStr"/>
-      <c r="E2918" t="inlineStr"/>
-      <c r="F2918" t="inlineStr"/>
-      <c r="G2918" t="inlineStr"/>
-      <c r="H2918" t="inlineStr"/>
-      <c r="I2918" t="inlineStr"/>
     </row>
     <row r="2919">
       <c r="A2919" t="inlineStr">
@@ -34982,13 +34485,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C2919" t="inlineStr"/>
-      <c r="D2919" t="inlineStr"/>
-      <c r="E2919" t="inlineStr"/>
-      <c r="F2919" t="inlineStr"/>
-      <c r="G2919" t="inlineStr"/>
-      <c r="H2919" t="inlineStr"/>
-      <c r="I2919" t="inlineStr"/>
     </row>
     <row r="2920">
       <c r="A2920" t="inlineStr">
@@ -35001,13 +34497,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C2920" t="inlineStr"/>
-      <c r="D2920" t="inlineStr"/>
-      <c r="E2920" t="inlineStr"/>
-      <c r="F2920" t="inlineStr"/>
-      <c r="G2920" t="inlineStr"/>
-      <c r="H2920" t="inlineStr"/>
-      <c r="I2920" t="inlineStr"/>
     </row>
     <row r="2921">
       <c r="A2921" t="inlineStr">
@@ -35020,13 +34509,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C2921" t="inlineStr"/>
-      <c r="D2921" t="inlineStr"/>
-      <c r="E2921" t="inlineStr"/>
-      <c r="F2921" t="inlineStr"/>
-      <c r="G2921" t="inlineStr"/>
-      <c r="H2921" t="inlineStr"/>
-      <c r="I2921" t="inlineStr"/>
     </row>
     <row r="2922">
       <c r="A2922" t="inlineStr">
@@ -35039,13 +34521,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C2922" t="inlineStr"/>
-      <c r="D2922" t="inlineStr"/>
-      <c r="E2922" t="inlineStr"/>
-      <c r="F2922" t="inlineStr"/>
-      <c r="G2922" t="inlineStr"/>
-      <c r="H2922" t="inlineStr"/>
-      <c r="I2922" t="inlineStr"/>
     </row>
     <row r="2923">
       <c r="A2923" t="inlineStr">
@@ -35058,13 +34533,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C2923" t="inlineStr"/>
-      <c r="D2923" t="inlineStr"/>
-      <c r="E2923" t="inlineStr"/>
-      <c r="F2923" t="inlineStr"/>
-      <c r="G2923" t="inlineStr"/>
-      <c r="H2923" t="inlineStr"/>
-      <c r="I2923" t="inlineStr"/>
     </row>
     <row r="2924">
       <c r="A2924" t="inlineStr">
@@ -35077,13 +34545,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C2924" t="inlineStr"/>
-      <c r="D2924" t="inlineStr"/>
-      <c r="E2924" t="inlineStr"/>
-      <c r="F2924" t="inlineStr"/>
-      <c r="G2924" t="inlineStr"/>
-      <c r="H2924" t="inlineStr"/>
-      <c r="I2924" t="inlineStr"/>
     </row>
     <row r="2925">
       <c r="A2925" t="inlineStr">
@@ -35096,13 +34557,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C2925" t="inlineStr"/>
-      <c r="D2925" t="inlineStr"/>
-      <c r="E2925" t="inlineStr"/>
-      <c r="F2925" t="inlineStr"/>
-      <c r="G2925" t="inlineStr"/>
-      <c r="H2925" t="inlineStr"/>
-      <c r="I2925" t="inlineStr"/>
     </row>
     <row r="2926">
       <c r="A2926" t="inlineStr">
@@ -35115,13 +34569,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C2926" t="inlineStr"/>
-      <c r="D2926" t="inlineStr"/>
-      <c r="E2926" t="inlineStr"/>
-      <c r="F2926" t="inlineStr"/>
-      <c r="G2926" t="inlineStr"/>
-      <c r="H2926" t="inlineStr"/>
-      <c r="I2926" t="inlineStr"/>
     </row>
     <row r="2927">
       <c r="A2927" t="inlineStr">
@@ -35134,15 +34581,1533 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C2927" t="inlineStr"/>
-      <c r="D2927" t="inlineStr"/>
-      <c r="E2927" t="inlineStr"/>
-      <c r="F2927" t="inlineStr"/>
-      <c r="G2927" t="inlineStr"/>
-      <c r="H2927" t="inlineStr"/>
-      <c r="I2927" t="inlineStr"/>
     </row>
     <row r="2928"/>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2929" t="inlineStr"/>
+      <c r="D2929" t="inlineStr"/>
+      <c r="E2929" t="inlineStr"/>
+      <c r="F2929" t="inlineStr"/>
+      <c r="G2929" t="inlineStr"/>
+      <c r="H2929" t="inlineStr"/>
+      <c r="I2929" t="inlineStr"/>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2930" t="inlineStr"/>
+      <c r="D2930" t="inlineStr"/>
+      <c r="E2930" t="inlineStr"/>
+      <c r="F2930" t="inlineStr"/>
+      <c r="G2930" t="inlineStr"/>
+      <c r="H2930" t="inlineStr"/>
+      <c r="I2930" t="inlineStr"/>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2931" t="inlineStr"/>
+      <c r="D2931" t="inlineStr"/>
+      <c r="E2931" t="inlineStr"/>
+      <c r="F2931" t="inlineStr"/>
+      <c r="G2931" t="inlineStr"/>
+      <c r="H2931" t="inlineStr"/>
+      <c r="I2931" t="inlineStr"/>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2932" t="inlineStr"/>
+      <c r="D2932" t="inlineStr"/>
+      <c r="E2932" t="inlineStr"/>
+      <c r="F2932" t="inlineStr"/>
+      <c r="G2932" t="inlineStr"/>
+      <c r="H2932" t="inlineStr"/>
+      <c r="I2932" t="inlineStr"/>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2933" t="inlineStr"/>
+      <c r="D2933" t="inlineStr"/>
+      <c r="E2933" t="inlineStr"/>
+      <c r="F2933" t="inlineStr"/>
+      <c r="G2933" t="inlineStr"/>
+      <c r="H2933" t="inlineStr"/>
+      <c r="I2933" t="inlineStr"/>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2934" t="inlineStr"/>
+      <c r="D2934" t="inlineStr"/>
+      <c r="E2934" t="inlineStr"/>
+      <c r="F2934" t="inlineStr"/>
+      <c r="G2934" t="inlineStr"/>
+      <c r="H2934" t="inlineStr"/>
+      <c r="I2934" t="inlineStr"/>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2935" t="inlineStr"/>
+      <c r="D2935" t="inlineStr"/>
+      <c r="E2935" t="inlineStr"/>
+      <c r="F2935" t="inlineStr"/>
+      <c r="G2935" t="inlineStr"/>
+      <c r="H2935" t="inlineStr"/>
+      <c r="I2935" t="inlineStr"/>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2936" t="inlineStr"/>
+      <c r="D2936" t="inlineStr"/>
+      <c r="E2936" t="inlineStr"/>
+      <c r="F2936" t="inlineStr"/>
+      <c r="G2936" t="inlineStr"/>
+      <c r="H2936" t="inlineStr"/>
+      <c r="I2936" t="inlineStr"/>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2937" t="inlineStr"/>
+      <c r="D2937" t="inlineStr"/>
+      <c r="E2937" t="inlineStr"/>
+      <c r="F2937" t="inlineStr"/>
+      <c r="G2937" t="inlineStr"/>
+      <c r="H2937" t="inlineStr"/>
+      <c r="I2937" t="inlineStr"/>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2938" t="inlineStr"/>
+      <c r="D2938" t="inlineStr"/>
+      <c r="E2938" t="inlineStr"/>
+      <c r="F2938" t="inlineStr"/>
+      <c r="G2938" t="inlineStr"/>
+      <c r="H2938" t="inlineStr"/>
+      <c r="I2938" t="inlineStr"/>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2939" t="inlineStr"/>
+      <c r="D2939" t="inlineStr"/>
+      <c r="E2939" t="inlineStr"/>
+      <c r="F2939" t="inlineStr"/>
+      <c r="G2939" t="inlineStr"/>
+      <c r="H2939" t="inlineStr"/>
+      <c r="I2939" t="inlineStr"/>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2940" t="inlineStr"/>
+      <c r="D2940" t="inlineStr"/>
+      <c r="E2940" t="inlineStr"/>
+      <c r="F2940" t="inlineStr"/>
+      <c r="G2940" t="inlineStr"/>
+      <c r="H2940" t="inlineStr"/>
+      <c r="I2940" t="inlineStr"/>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2941" t="inlineStr"/>
+      <c r="D2941" t="inlineStr"/>
+      <c r="E2941" t="inlineStr"/>
+      <c r="F2941" t="inlineStr"/>
+      <c r="G2941" t="inlineStr"/>
+      <c r="H2941" t="inlineStr"/>
+      <c r="I2941" t="inlineStr"/>
+    </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2942" t="inlineStr"/>
+      <c r="D2942" t="inlineStr"/>
+      <c r="E2942" t="inlineStr"/>
+      <c r="F2942" t="inlineStr"/>
+      <c r="G2942" t="inlineStr"/>
+      <c r="H2942" t="inlineStr"/>
+      <c r="I2942" t="inlineStr"/>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2943" t="inlineStr"/>
+      <c r="D2943" t="inlineStr"/>
+      <c r="E2943" t="inlineStr"/>
+      <c r="F2943" t="inlineStr"/>
+      <c r="G2943" t="inlineStr"/>
+      <c r="H2943" t="inlineStr"/>
+      <c r="I2943" t="inlineStr"/>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2944" t="inlineStr"/>
+      <c r="D2944" t="inlineStr"/>
+      <c r="E2944" t="inlineStr"/>
+      <c r="F2944" t="inlineStr"/>
+      <c r="G2944" t="inlineStr"/>
+      <c r="H2944" t="inlineStr"/>
+      <c r="I2944" t="inlineStr"/>
+    </row>
+    <row r="2945"/>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2946" t="inlineStr"/>
+      <c r="D2946" t="inlineStr"/>
+      <c r="E2946" t="inlineStr"/>
+      <c r="F2946" t="inlineStr"/>
+      <c r="G2946" t="inlineStr"/>
+      <c r="H2946" t="inlineStr"/>
+      <c r="I2946" t="inlineStr"/>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2947" t="inlineStr"/>
+      <c r="D2947" t="inlineStr"/>
+      <c r="E2947" t="inlineStr"/>
+      <c r="F2947" t="inlineStr"/>
+      <c r="G2947" t="inlineStr"/>
+      <c r="H2947" t="inlineStr"/>
+      <c r="I2947" t="inlineStr"/>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr"/>
+      <c r="D2948" t="inlineStr"/>
+      <c r="E2948" t="inlineStr"/>
+      <c r="F2948" t="inlineStr"/>
+      <c r="G2948" t="inlineStr"/>
+      <c r="H2948" t="inlineStr"/>
+      <c r="I2948" t="inlineStr"/>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr"/>
+      <c r="D2949" t="inlineStr"/>
+      <c r="E2949" t="inlineStr"/>
+      <c r="F2949" t="inlineStr"/>
+      <c r="G2949" t="inlineStr"/>
+      <c r="H2949" t="inlineStr"/>
+      <c r="I2949" t="inlineStr"/>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr"/>
+      <c r="D2950" t="inlineStr"/>
+      <c r="E2950" t="inlineStr"/>
+      <c r="F2950" t="inlineStr"/>
+      <c r="G2950" t="inlineStr"/>
+      <c r="H2950" t="inlineStr"/>
+      <c r="I2950" t="inlineStr"/>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr"/>
+      <c r="D2951" t="inlineStr"/>
+      <c r="E2951" t="inlineStr"/>
+      <c r="F2951" t="inlineStr"/>
+      <c r="G2951" t="inlineStr"/>
+      <c r="H2951" t="inlineStr"/>
+      <c r="I2951" t="inlineStr"/>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr"/>
+      <c r="D2952" t="inlineStr"/>
+      <c r="E2952" t="inlineStr"/>
+      <c r="F2952" t="inlineStr"/>
+      <c r="G2952" t="inlineStr"/>
+      <c r="H2952" t="inlineStr"/>
+      <c r="I2952" t="inlineStr"/>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr"/>
+      <c r="D2953" t="inlineStr"/>
+      <c r="E2953" t="inlineStr"/>
+      <c r="F2953" t="inlineStr"/>
+      <c r="G2953" t="inlineStr"/>
+      <c r="H2953" t="inlineStr"/>
+      <c r="I2953" t="inlineStr"/>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr"/>
+      <c r="D2954" t="inlineStr"/>
+      <c r="E2954" t="inlineStr"/>
+      <c r="F2954" t="inlineStr"/>
+      <c r="G2954" t="inlineStr"/>
+      <c r="H2954" t="inlineStr"/>
+      <c r="I2954" t="inlineStr"/>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr"/>
+      <c r="D2955" t="inlineStr"/>
+      <c r="E2955" t="inlineStr"/>
+      <c r="F2955" t="inlineStr"/>
+      <c r="G2955" t="inlineStr"/>
+      <c r="H2955" t="inlineStr"/>
+      <c r="I2955" t="inlineStr"/>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr"/>
+      <c r="D2956" t="inlineStr"/>
+      <c r="E2956" t="inlineStr"/>
+      <c r="F2956" t="inlineStr"/>
+      <c r="G2956" t="inlineStr"/>
+      <c r="H2956" t="inlineStr"/>
+      <c r="I2956" t="inlineStr"/>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr"/>
+      <c r="D2957" t="inlineStr"/>
+      <c r="E2957" t="inlineStr"/>
+      <c r="F2957" t="inlineStr"/>
+      <c r="G2957" t="inlineStr"/>
+      <c r="H2957" t="inlineStr"/>
+      <c r="I2957" t="inlineStr"/>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr"/>
+      <c r="D2958" t="inlineStr"/>
+      <c r="E2958" t="inlineStr"/>
+      <c r="F2958" t="inlineStr"/>
+      <c r="G2958" t="inlineStr"/>
+      <c r="H2958" t="inlineStr"/>
+      <c r="I2958" t="inlineStr"/>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr"/>
+      <c r="D2959" t="inlineStr"/>
+      <c r="E2959" t="inlineStr"/>
+      <c r="F2959" t="inlineStr"/>
+      <c r="G2959" t="inlineStr"/>
+      <c r="H2959" t="inlineStr"/>
+      <c r="I2959" t="inlineStr"/>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr"/>
+      <c r="D2960" t="inlineStr"/>
+      <c r="E2960" t="inlineStr"/>
+      <c r="F2960" t="inlineStr"/>
+      <c r="G2960" t="inlineStr"/>
+      <c r="H2960" t="inlineStr"/>
+      <c r="I2960" t="inlineStr"/>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr"/>
+      <c r="D2961" t="inlineStr"/>
+      <c r="E2961" t="inlineStr"/>
+      <c r="F2961" t="inlineStr"/>
+      <c r="G2961" t="inlineStr"/>
+      <c r="H2961" t="inlineStr"/>
+      <c r="I2961" t="inlineStr"/>
+    </row>
+    <row r="2962"/>
+    <row r="2963">
+      <c r="A2963" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr"/>
+      <c r="D2963" t="inlineStr"/>
+      <c r="E2963" t="inlineStr"/>
+      <c r="F2963" t="inlineStr"/>
+      <c r="G2963" t="inlineStr"/>
+      <c r="H2963" t="inlineStr"/>
+      <c r="I2963" t="inlineStr"/>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr"/>
+      <c r="D2964" t="inlineStr"/>
+      <c r="E2964" t="inlineStr"/>
+      <c r="F2964" t="inlineStr"/>
+      <c r="G2964" t="inlineStr"/>
+      <c r="H2964" t="inlineStr"/>
+      <c r="I2964" t="inlineStr"/>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr"/>
+      <c r="D2965" t="inlineStr"/>
+      <c r="E2965" t="inlineStr"/>
+      <c r="F2965" t="inlineStr"/>
+      <c r="G2965" t="inlineStr"/>
+      <c r="H2965" t="inlineStr"/>
+      <c r="I2965" t="inlineStr"/>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr"/>
+      <c r="D2966" t="inlineStr"/>
+      <c r="E2966" t="inlineStr"/>
+      <c r="F2966" t="inlineStr"/>
+      <c r="G2966" t="inlineStr"/>
+      <c r="H2966" t="inlineStr"/>
+      <c r="I2966" t="inlineStr"/>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr"/>
+      <c r="D2967" t="inlineStr"/>
+      <c r="E2967" t="inlineStr"/>
+      <c r="F2967" t="inlineStr"/>
+      <c r="G2967" t="inlineStr"/>
+      <c r="H2967" t="inlineStr"/>
+      <c r="I2967" t="inlineStr"/>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr"/>
+      <c r="D2968" t="inlineStr"/>
+      <c r="E2968" t="inlineStr"/>
+      <c r="F2968" t="inlineStr"/>
+      <c r="G2968" t="inlineStr"/>
+      <c r="H2968" t="inlineStr"/>
+      <c r="I2968" t="inlineStr"/>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2969" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2969" t="inlineStr"/>
+      <c r="D2969" t="inlineStr"/>
+      <c r="E2969" t="inlineStr"/>
+      <c r="F2969" t="inlineStr"/>
+      <c r="G2969" t="inlineStr"/>
+      <c r="H2969" t="inlineStr"/>
+      <c r="I2969" t="inlineStr"/>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2970" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2970" t="inlineStr"/>
+      <c r="D2970" t="inlineStr"/>
+      <c r="E2970" t="inlineStr"/>
+      <c r="F2970" t="inlineStr"/>
+      <c r="G2970" t="inlineStr"/>
+      <c r="H2970" t="inlineStr"/>
+      <c r="I2970" t="inlineStr"/>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2971" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2971" t="inlineStr"/>
+      <c r="D2971" t="inlineStr"/>
+      <c r="E2971" t="inlineStr"/>
+      <c r="F2971" t="inlineStr"/>
+      <c r="G2971" t="inlineStr"/>
+      <c r="H2971" t="inlineStr"/>
+      <c r="I2971" t="inlineStr"/>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2972" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2972" t="inlineStr"/>
+      <c r="D2972" t="inlineStr"/>
+      <c r="E2972" t="inlineStr"/>
+      <c r="F2972" t="inlineStr"/>
+      <c r="G2972" t="inlineStr"/>
+      <c r="H2972" t="inlineStr"/>
+      <c r="I2972" t="inlineStr"/>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2973" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2973" t="inlineStr"/>
+      <c r="D2973" t="inlineStr"/>
+      <c r="E2973" t="inlineStr"/>
+      <c r="F2973" t="inlineStr"/>
+      <c r="G2973" t="inlineStr"/>
+      <c r="H2973" t="inlineStr"/>
+      <c r="I2973" t="inlineStr"/>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2974" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2974" t="inlineStr"/>
+      <c r="D2974" t="inlineStr"/>
+      <c r="E2974" t="inlineStr"/>
+      <c r="F2974" t="inlineStr"/>
+      <c r="G2974" t="inlineStr"/>
+      <c r="H2974" t="inlineStr"/>
+      <c r="I2974" t="inlineStr"/>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2975" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2975" t="inlineStr"/>
+      <c r="D2975" t="inlineStr"/>
+      <c r="E2975" t="inlineStr"/>
+      <c r="F2975" t="inlineStr"/>
+      <c r="G2975" t="inlineStr"/>
+      <c r="H2975" t="inlineStr"/>
+      <c r="I2975" t="inlineStr"/>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2976" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2976" t="inlineStr"/>
+      <c r="D2976" t="inlineStr"/>
+      <c r="E2976" t="inlineStr"/>
+      <c r="F2976" t="inlineStr"/>
+      <c r="G2976" t="inlineStr"/>
+      <c r="H2976" t="inlineStr"/>
+      <c r="I2976" t="inlineStr"/>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2977" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2977" t="inlineStr"/>
+      <c r="D2977" t="inlineStr"/>
+      <c r="E2977" t="inlineStr"/>
+      <c r="F2977" t="inlineStr"/>
+      <c r="G2977" t="inlineStr"/>
+      <c r="H2977" t="inlineStr"/>
+      <c r="I2977" t="inlineStr"/>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B2978" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2978" t="inlineStr"/>
+      <c r="D2978" t="inlineStr"/>
+      <c r="E2978" t="inlineStr"/>
+      <c r="F2978" t="inlineStr"/>
+      <c r="G2978" t="inlineStr"/>
+      <c r="H2978" t="inlineStr"/>
+      <c r="I2978" t="inlineStr"/>
+    </row>
+    <row r="2979"/>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2980" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2980" t="inlineStr"/>
+      <c r="D2980" t="inlineStr"/>
+      <c r="E2980" t="inlineStr"/>
+      <c r="F2980" t="inlineStr"/>
+      <c r="G2980" t="inlineStr"/>
+      <c r="H2980" t="inlineStr"/>
+      <c r="I2980" t="inlineStr"/>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2981" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2981" t="inlineStr"/>
+      <c r="D2981" t="inlineStr"/>
+      <c r="E2981" t="inlineStr"/>
+      <c r="F2981" t="inlineStr"/>
+      <c r="G2981" t="inlineStr"/>
+      <c r="H2981" t="inlineStr"/>
+      <c r="I2981" t="inlineStr"/>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2982" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2982" t="inlineStr"/>
+      <c r="D2982" t="inlineStr"/>
+      <c r="E2982" t="inlineStr"/>
+      <c r="F2982" t="inlineStr"/>
+      <c r="G2982" t="inlineStr"/>
+      <c r="H2982" t="inlineStr"/>
+      <c r="I2982" t="inlineStr"/>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2983" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C2983" t="inlineStr"/>
+      <c r="D2983" t="inlineStr"/>
+      <c r="E2983" t="inlineStr"/>
+      <c r="F2983" t="inlineStr"/>
+      <c r="G2983" t="inlineStr"/>
+      <c r="H2983" t="inlineStr"/>
+      <c r="I2983" t="inlineStr"/>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2984" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C2984" t="inlineStr"/>
+      <c r="D2984" t="inlineStr"/>
+      <c r="E2984" t="inlineStr"/>
+      <c r="F2984" t="inlineStr"/>
+      <c r="G2984" t="inlineStr"/>
+      <c r="H2984" t="inlineStr"/>
+      <c r="I2984" t="inlineStr"/>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2985" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C2985" t="inlineStr"/>
+      <c r="D2985" t="inlineStr"/>
+      <c r="E2985" t="inlineStr"/>
+      <c r="F2985" t="inlineStr"/>
+      <c r="G2985" t="inlineStr"/>
+      <c r="H2985" t="inlineStr"/>
+      <c r="I2985" t="inlineStr"/>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2986" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C2986" t="inlineStr"/>
+      <c r="D2986" t="inlineStr"/>
+      <c r="E2986" t="inlineStr"/>
+      <c r="F2986" t="inlineStr"/>
+      <c r="G2986" t="inlineStr"/>
+      <c r="H2986" t="inlineStr"/>
+      <c r="I2986" t="inlineStr"/>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2987" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C2987" t="inlineStr"/>
+      <c r="D2987" t="inlineStr"/>
+      <c r="E2987" t="inlineStr"/>
+      <c r="F2987" t="inlineStr"/>
+      <c r="G2987" t="inlineStr"/>
+      <c r="H2987" t="inlineStr"/>
+      <c r="I2987" t="inlineStr"/>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2988" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C2988" t="inlineStr"/>
+      <c r="D2988" t="inlineStr"/>
+      <c r="E2988" t="inlineStr"/>
+      <c r="F2988" t="inlineStr"/>
+      <c r="G2988" t="inlineStr"/>
+      <c r="H2988" t="inlineStr"/>
+      <c r="I2988" t="inlineStr"/>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2989" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C2989" t="inlineStr"/>
+      <c r="D2989" t="inlineStr"/>
+      <c r="E2989" t="inlineStr"/>
+      <c r="F2989" t="inlineStr"/>
+      <c r="G2989" t="inlineStr"/>
+      <c r="H2989" t="inlineStr"/>
+      <c r="I2989" t="inlineStr"/>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2990" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C2990" t="inlineStr"/>
+      <c r="D2990" t="inlineStr"/>
+      <c r="E2990" t="inlineStr"/>
+      <c r="F2990" t="inlineStr"/>
+      <c r="G2990" t="inlineStr"/>
+      <c r="H2990" t="inlineStr"/>
+      <c r="I2990" t="inlineStr"/>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2991" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C2991" t="inlineStr"/>
+      <c r="D2991" t="inlineStr"/>
+      <c r="E2991" t="inlineStr"/>
+      <c r="F2991" t="inlineStr"/>
+      <c r="G2991" t="inlineStr"/>
+      <c r="H2991" t="inlineStr"/>
+      <c r="I2991" t="inlineStr"/>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2992" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C2992" t="inlineStr"/>
+      <c r="D2992" t="inlineStr"/>
+      <c r="E2992" t="inlineStr"/>
+      <c r="F2992" t="inlineStr"/>
+      <c r="G2992" t="inlineStr"/>
+      <c r="H2992" t="inlineStr"/>
+      <c r="I2992" t="inlineStr"/>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2993" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C2993" t="inlineStr"/>
+      <c r="D2993" t="inlineStr"/>
+      <c r="E2993" t="inlineStr"/>
+      <c r="F2993" t="inlineStr"/>
+      <c r="G2993" t="inlineStr"/>
+      <c r="H2993" t="inlineStr"/>
+      <c r="I2993" t="inlineStr"/>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2994" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C2994" t="inlineStr"/>
+      <c r="D2994" t="inlineStr"/>
+      <c r="E2994" t="inlineStr"/>
+      <c r="F2994" t="inlineStr"/>
+      <c r="G2994" t="inlineStr"/>
+      <c r="H2994" t="inlineStr"/>
+      <c r="I2994" t="inlineStr"/>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B2995" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C2995" t="inlineStr"/>
+      <c r="D2995" t="inlineStr"/>
+      <c r="E2995" t="inlineStr"/>
+      <c r="F2995" t="inlineStr"/>
+      <c r="G2995" t="inlineStr"/>
+      <c r="H2995" t="inlineStr"/>
+      <c r="I2995" t="inlineStr"/>
+    </row>
+    <row r="2996"/>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B2997" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C2997" t="inlineStr"/>
+      <c r="D2997" t="inlineStr"/>
+      <c r="E2997" t="inlineStr"/>
+      <c r="F2997" t="inlineStr"/>
+      <c r="G2997" t="inlineStr"/>
+      <c r="H2997" t="inlineStr"/>
+      <c r="I2997" t="inlineStr"/>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B2998" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C2998" t="inlineStr"/>
+      <c r="D2998" t="inlineStr"/>
+      <c r="E2998" t="inlineStr"/>
+      <c r="F2998" t="inlineStr"/>
+      <c r="G2998" t="inlineStr"/>
+      <c r="H2998" t="inlineStr"/>
+      <c r="I2998" t="inlineStr"/>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B2999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C2999" t="inlineStr"/>
+      <c r="D2999" t="inlineStr"/>
+      <c r="E2999" t="inlineStr"/>
+      <c r="F2999" t="inlineStr"/>
+      <c r="G2999" t="inlineStr"/>
+      <c r="H2999" t="inlineStr"/>
+      <c r="I2999" t="inlineStr"/>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3000" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C3000" t="inlineStr"/>
+      <c r="D3000" t="inlineStr"/>
+      <c r="E3000" t="inlineStr"/>
+      <c r="F3000" t="inlineStr"/>
+      <c r="G3000" t="inlineStr"/>
+      <c r="H3000" t="inlineStr"/>
+      <c r="I3000" t="inlineStr"/>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3001" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C3001" t="inlineStr"/>
+      <c r="D3001" t="inlineStr"/>
+      <c r="E3001" t="inlineStr"/>
+      <c r="F3001" t="inlineStr"/>
+      <c r="G3001" t="inlineStr"/>
+      <c r="H3001" t="inlineStr"/>
+      <c r="I3001" t="inlineStr"/>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3002" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C3002" t="inlineStr"/>
+      <c r="D3002" t="inlineStr"/>
+      <c r="E3002" t="inlineStr"/>
+      <c r="F3002" t="inlineStr"/>
+      <c r="G3002" t="inlineStr"/>
+      <c r="H3002" t="inlineStr"/>
+      <c r="I3002" t="inlineStr"/>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3003" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C3003" t="inlineStr"/>
+      <c r="D3003" t="inlineStr"/>
+      <c r="E3003" t="inlineStr"/>
+      <c r="F3003" t="inlineStr"/>
+      <c r="G3003" t="inlineStr"/>
+      <c r="H3003" t="inlineStr"/>
+      <c r="I3003" t="inlineStr"/>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3004" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C3004" t="inlineStr"/>
+      <c r="D3004" t="inlineStr"/>
+      <c r="E3004" t="inlineStr"/>
+      <c r="F3004" t="inlineStr"/>
+      <c r="G3004" t="inlineStr"/>
+      <c r="H3004" t="inlineStr"/>
+      <c r="I3004" t="inlineStr"/>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3005" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C3005" t="inlineStr"/>
+      <c r="D3005" t="inlineStr"/>
+      <c r="E3005" t="inlineStr"/>
+      <c r="F3005" t="inlineStr"/>
+      <c r="G3005" t="inlineStr"/>
+      <c r="H3005" t="inlineStr"/>
+      <c r="I3005" t="inlineStr"/>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3006" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C3006" t="inlineStr"/>
+      <c r="D3006" t="inlineStr"/>
+      <c r="E3006" t="inlineStr"/>
+      <c r="F3006" t="inlineStr"/>
+      <c r="G3006" t="inlineStr"/>
+      <c r="H3006" t="inlineStr"/>
+      <c r="I3006" t="inlineStr"/>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3007" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C3007" t="inlineStr"/>
+      <c r="D3007" t="inlineStr"/>
+      <c r="E3007" t="inlineStr"/>
+      <c r="F3007" t="inlineStr"/>
+      <c r="G3007" t="inlineStr"/>
+      <c r="H3007" t="inlineStr"/>
+      <c r="I3007" t="inlineStr"/>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3008" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C3008" t="inlineStr"/>
+      <c r="D3008" t="inlineStr"/>
+      <c r="E3008" t="inlineStr"/>
+      <c r="F3008" t="inlineStr"/>
+      <c r="G3008" t="inlineStr"/>
+      <c r="H3008" t="inlineStr"/>
+      <c r="I3008" t="inlineStr"/>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3009" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C3009" t="inlineStr"/>
+      <c r="D3009" t="inlineStr"/>
+      <c r="E3009" t="inlineStr"/>
+      <c r="F3009" t="inlineStr"/>
+      <c r="G3009" t="inlineStr"/>
+      <c r="H3009" t="inlineStr"/>
+      <c r="I3009" t="inlineStr"/>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3010" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C3010" t="inlineStr"/>
+      <c r="D3010" t="inlineStr"/>
+      <c r="E3010" t="inlineStr"/>
+      <c r="F3010" t="inlineStr"/>
+      <c r="G3010" t="inlineStr"/>
+      <c r="H3010" t="inlineStr"/>
+      <c r="I3010" t="inlineStr"/>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3011" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C3011" t="inlineStr"/>
+      <c r="D3011" t="inlineStr"/>
+      <c r="E3011" t="inlineStr"/>
+      <c r="F3011" t="inlineStr"/>
+      <c r="G3011" t="inlineStr"/>
+      <c r="H3011" t="inlineStr"/>
+      <c r="I3011" t="inlineStr"/>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B3012" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C3012" t="inlineStr"/>
+      <c r="D3012" t="inlineStr"/>
+      <c r="E3012" t="inlineStr"/>
+      <c r="F3012" t="inlineStr"/>
+      <c r="G3012" t="inlineStr"/>
+      <c r="H3012" t="inlineStr"/>
+      <c r="I3012" t="inlineStr"/>
+    </row>
+    <row r="3013"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD1313"/>
+  <dimension ref="A1:AD1398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1068" activePane="bottomLeft" state="frozen"/>
@@ -15101,13 +15101,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
@@ -15120,13 +15113,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr"/>
-      <c r="I1213" t="inlineStr"/>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
@@ -15139,13 +15125,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr"/>
-      <c r="I1214" t="inlineStr"/>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
@@ -15158,13 +15137,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
@@ -15177,13 +15149,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr"/>
-      <c r="I1216" t="inlineStr"/>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
@@ -15196,13 +15161,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
@@ -15215,13 +15173,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
-      <c r="I1218" t="inlineStr"/>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
@@ -15234,13 +15185,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
-      <c r="I1219" t="inlineStr"/>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
@@ -15253,13 +15197,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr"/>
-      <c r="I1220" t="inlineStr"/>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
@@ -15272,13 +15209,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr"/>
-      <c r="I1221" t="inlineStr"/>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
@@ -15291,13 +15221,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr"/>
-      <c r="I1222" t="inlineStr"/>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
@@ -15310,13 +15233,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr"/>
-      <c r="I1223" t="inlineStr"/>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
@@ -15329,13 +15245,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr"/>
-      <c r="I1224" t="inlineStr"/>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
@@ -15348,13 +15257,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr"/>
-      <c r="I1225" t="inlineStr"/>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
@@ -15367,13 +15269,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
-      <c r="I1226" t="inlineStr"/>
     </row>
     <row r="1227">
       <c r="A1227" t="inlineStr">
@@ -15386,13 +15281,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
     </row>
     <row r="1228"/>
     <row r="1229">
@@ -15406,13 +15294,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-      <c r="H1229" t="inlineStr"/>
-      <c r="I1229" t="inlineStr"/>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
@@ -15425,13 +15306,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr"/>
-      <c r="I1230" t="inlineStr"/>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
@@ -15444,13 +15318,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-      <c r="I1231" t="inlineStr"/>
     </row>
     <row r="1232">
       <c r="A1232" t="inlineStr">
@@ -15463,13 +15330,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr"/>
-      <c r="I1232" t="inlineStr"/>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
@@ -15482,13 +15342,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
-      <c r="I1233" t="inlineStr"/>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
@@ -15501,13 +15354,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr"/>
-      <c r="I1234" t="inlineStr"/>
     </row>
     <row r="1235">
       <c r="A1235" t="inlineStr">
@@ -15520,13 +15366,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr"/>
-      <c r="I1235" t="inlineStr"/>
     </row>
     <row r="1236">
       <c r="A1236" t="inlineStr">
@@ -15539,13 +15378,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr"/>
-      <c r="I1236" t="inlineStr"/>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
@@ -15558,13 +15390,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr"/>
-      <c r="I1237" t="inlineStr"/>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
@@ -15577,13 +15402,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr"/>
-      <c r="I1238" t="inlineStr"/>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
@@ -15596,13 +15414,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr"/>
-      <c r="I1239" t="inlineStr"/>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
@@ -15615,13 +15426,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
-      <c r="I1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
@@ -15634,13 +15438,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr"/>
-      <c r="I1241" t="inlineStr"/>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
@@ -15653,13 +15450,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr"/>
-      <c r="I1242" t="inlineStr"/>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
@@ -15672,13 +15462,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr"/>
-      <c r="I1243" t="inlineStr"/>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
@@ -15691,13 +15474,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr"/>
-      <c r="I1244" t="inlineStr"/>
     </row>
     <row r="1245"/>
     <row r="1246">
@@ -15711,13 +15487,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr"/>
-      <c r="I1246" t="inlineStr"/>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
@@ -15730,13 +15499,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr"/>
-      <c r="I1247" t="inlineStr"/>
     </row>
     <row r="1248">
       <c r="A1248" t="inlineStr">
@@ -15749,13 +15511,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr"/>
-      <c r="I1248" t="inlineStr"/>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
@@ -15768,13 +15523,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr"/>
-      <c r="I1249" t="inlineStr"/>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
@@ -15787,13 +15535,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr"/>
-      <c r="I1250" t="inlineStr"/>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
@@ -15806,13 +15547,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr"/>
-      <c r="I1251" t="inlineStr"/>
     </row>
     <row r="1252">
       <c r="A1252" t="inlineStr">
@@ -15825,13 +15559,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr"/>
-      <c r="I1252" t="inlineStr"/>
     </row>
     <row r="1253">
       <c r="A1253" t="inlineStr">
@@ -15844,13 +15571,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr"/>
-      <c r="I1253" t="inlineStr"/>
     </row>
     <row r="1254">
       <c r="A1254" t="inlineStr">
@@ -15863,13 +15583,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-      <c r="H1254" t="inlineStr"/>
-      <c r="I1254" t="inlineStr"/>
     </row>
     <row r="1255">
       <c r="A1255" t="inlineStr">
@@ -15882,13 +15595,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
-      <c r="H1255" t="inlineStr"/>
-      <c r="I1255" t="inlineStr"/>
     </row>
     <row r="1256">
       <c r="A1256" t="inlineStr">
@@ -15901,13 +15607,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr"/>
-      <c r="I1256" t="inlineStr"/>
     </row>
     <row r="1257">
       <c r="A1257" t="inlineStr">
@@ -15920,13 +15619,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr"/>
-      <c r="I1257" t="inlineStr"/>
     </row>
     <row r="1258">
       <c r="A1258" t="inlineStr">
@@ -15939,13 +15631,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
-      <c r="H1258" t="inlineStr"/>
-      <c r="I1258" t="inlineStr"/>
     </row>
     <row r="1259">
       <c r="A1259" t="inlineStr">
@@ -15958,13 +15643,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr"/>
-      <c r="I1259" t="inlineStr"/>
     </row>
     <row r="1260">
       <c r="A1260" t="inlineStr">
@@ -15977,13 +15655,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
-      <c r="H1260" t="inlineStr"/>
-      <c r="I1260" t="inlineStr"/>
     </row>
     <row r="1261">
       <c r="A1261" t="inlineStr">
@@ -15996,13 +15667,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr"/>
-      <c r="I1261" t="inlineStr"/>
     </row>
     <row r="1262"/>
     <row r="1263">
@@ -16016,13 +15680,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr"/>
-      <c r="I1263" t="inlineStr"/>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
@@ -16035,13 +15692,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr"/>
-      <c r="I1264" t="inlineStr"/>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
@@ -16054,13 +15704,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr"/>
-      <c r="I1265" t="inlineStr"/>
     </row>
     <row r="1266">
       <c r="A1266" t="inlineStr">
@@ -16073,13 +15716,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr"/>
-      <c r="I1266" t="inlineStr"/>
     </row>
     <row r="1267">
       <c r="A1267" t="inlineStr">
@@ -16092,13 +15728,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr"/>
-      <c r="I1267" t="inlineStr"/>
     </row>
     <row r="1268">
       <c r="A1268" t="inlineStr">
@@ -16111,13 +15740,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr"/>
-      <c r="I1268" t="inlineStr"/>
     </row>
     <row r="1269">
       <c r="A1269" t="inlineStr">
@@ -16130,13 +15752,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr"/>
-      <c r="I1269" t="inlineStr"/>
     </row>
     <row r="1270">
       <c r="A1270" t="inlineStr">
@@ -16149,13 +15764,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
-      <c r="I1270" t="inlineStr"/>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
@@ -16168,13 +15776,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr"/>
-      <c r="I1271" t="inlineStr"/>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
@@ -16187,13 +15788,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr"/>
-      <c r="I1272" t="inlineStr"/>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
@@ -16206,13 +15800,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr"/>
-      <c r="I1273" t="inlineStr"/>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
@@ -16225,13 +15812,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr"/>
-      <c r="I1274" t="inlineStr"/>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
@@ -16244,13 +15824,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr"/>
-      <c r="I1275" t="inlineStr"/>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
@@ -16263,13 +15836,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr"/>
-      <c r="I1276" t="inlineStr"/>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
@@ -16282,13 +15848,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr"/>
-      <c r="I1277" t="inlineStr"/>
     </row>
     <row r="1278">
       <c r="A1278" t="inlineStr">
@@ -16301,13 +15860,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr"/>
-      <c r="I1278" t="inlineStr"/>
     </row>
     <row r="1279"/>
     <row r="1280">
@@ -16321,13 +15873,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
     </row>
     <row r="1281">
       <c r="A1281" t="inlineStr">
@@ -16340,13 +15885,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr"/>
-      <c r="I1281" t="inlineStr"/>
     </row>
     <row r="1282">
       <c r="A1282" t="inlineStr">
@@ -16359,13 +15897,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr"/>
-      <c r="I1282" t="inlineStr"/>
     </row>
     <row r="1283">
       <c r="A1283" t="inlineStr">
@@ -16378,13 +15909,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
@@ -16397,13 +15921,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
     </row>
     <row r="1285">
       <c r="A1285" t="inlineStr">
@@ -16416,13 +15933,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
@@ -16435,13 +15945,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
     </row>
     <row r="1287">
       <c r="A1287" t="inlineStr">
@@ -16454,13 +15957,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
@@ -16473,13 +15969,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
-      <c r="I1288" t="inlineStr"/>
     </row>
     <row r="1289">
       <c r="A1289" t="inlineStr">
@@ -16492,13 +15981,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
     </row>
     <row r="1290">
       <c r="A1290" t="inlineStr">
@@ -16511,13 +15993,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
@@ -16530,13 +16005,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
-      <c r="I1291" t="inlineStr"/>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
@@ -16549,13 +16017,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
     </row>
     <row r="1293">
       <c r="A1293" t="inlineStr">
@@ -16568,13 +16029,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr"/>
-      <c r="I1293" t="inlineStr"/>
     </row>
     <row r="1294">
       <c r="A1294" t="inlineStr">
@@ -16587,13 +16041,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr"/>
-      <c r="I1294" t="inlineStr"/>
     </row>
     <row r="1295">
       <c r="A1295" t="inlineStr">
@@ -16606,13 +16053,6 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr"/>
-      <c r="I1295" t="inlineStr"/>
     </row>
     <row r="1296"/>
     <row r="1297">
@@ -16626,13 +16066,6 @@
           <t>Calathea Medalion</t>
         </is>
       </c>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr"/>
-      <c r="I1297" t="inlineStr"/>
     </row>
     <row r="1298">
       <c r="A1298" t="inlineStr">
@@ -16645,13 +16078,6 @@
           <t>Epipremnum Aureum</t>
         </is>
       </c>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
     </row>
     <row r="1299">
       <c r="A1299" t="inlineStr">
@@ -16664,13 +16090,6 @@
           <t xml:space="preserve">Philodendron Scandens Micans </t>
         </is>
       </c>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
@@ -16683,13 +16102,6 @@
           <t>Scindapsus Treubii Moonlight</t>
         </is>
       </c>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
     </row>
     <row r="1301">
       <c r="A1301" t="inlineStr">
@@ -16702,13 +16114,6 @@
           <t>Philodendron Hedaracium Brasil</t>
         </is>
       </c>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
     </row>
     <row r="1302">
       <c r="A1302" t="inlineStr">
@@ -16721,13 +16126,6 @@
           <t>Monstera Adenossii</t>
         </is>
       </c>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
     </row>
     <row r="1303">
       <c r="A1303" t="inlineStr">
@@ -16740,13 +16138,6 @@
           <t>Ficus Elastica Abidjan</t>
         </is>
       </c>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
     </row>
     <row r="1304">
       <c r="A1304" t="inlineStr">
@@ -16759,13 +16150,6 @@
           <t>Peperomia Hope</t>
         </is>
       </c>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
     </row>
     <row r="1305">
       <c r="A1305" t="inlineStr">
@@ -16778,13 +16162,6 @@
           <t>Hoya Mathilde</t>
         </is>
       </c>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
@@ -16797,13 +16174,6 @@
           <t>Epipremnum Pinnatum Blue</t>
         </is>
       </c>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
     </row>
     <row r="1307">
       <c r="A1307" t="inlineStr">
@@ -16816,13 +16186,6 @@
           <t>Sansevieria Laurentii</t>
         </is>
       </c>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
     </row>
     <row r="1308">
       <c r="A1308" t="inlineStr">
@@ -16835,13 +16198,6 @@
           <t>Epipremnum Aureum Saal</t>
         </is>
       </c>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
     </row>
     <row r="1309">
       <c r="A1309" t="inlineStr">
@@ -16854,13 +16210,6 @@
           <t>Monstera Deliciosa Variegata</t>
         </is>
       </c>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
     </row>
     <row r="1310">
       <c r="A1310" t="inlineStr">
@@ -16873,13 +16222,6 @@
           <t>Pachira Aquatica</t>
         </is>
       </c>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
     </row>
     <row r="1311">
       <c r="A1311" t="inlineStr">
@@ -16892,13 +16234,6 @@
           <t xml:space="preserve">Monstera Deliciosa </t>
         </is>
       </c>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
     </row>
     <row r="1312">
       <c r="A1312" t="inlineStr">
@@ -16911,15 +16246,1533 @@
           <t>Philodendron Imperial Red</t>
         </is>
       </c>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
     </row>
     <row r="1313"/>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr"/>
+      <c r="D1314" t="inlineStr"/>
+      <c r="E1314" t="inlineStr"/>
+      <c r="F1314" t="inlineStr"/>
+      <c r="G1314" t="inlineStr"/>
+      <c r="H1314" t="inlineStr"/>
+      <c r="I1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr"/>
+      <c r="E1315" t="inlineStr"/>
+      <c r="F1315" t="inlineStr"/>
+      <c r="G1315" t="inlineStr"/>
+      <c r="H1315" t="inlineStr"/>
+      <c r="I1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr"/>
+      <c r="D1316" t="inlineStr"/>
+      <c r="E1316" t="inlineStr"/>
+      <c r="F1316" t="inlineStr"/>
+      <c r="G1316" t="inlineStr"/>
+      <c r="H1316" t="inlineStr"/>
+      <c r="I1316" t="inlineStr"/>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr"/>
+      <c r="D1317" t="inlineStr"/>
+      <c r="E1317" t="inlineStr"/>
+      <c r="F1317" t="inlineStr"/>
+      <c r="G1317" t="inlineStr"/>
+      <c r="H1317" t="inlineStr"/>
+      <c r="I1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr"/>
+      <c r="D1318" t="inlineStr"/>
+      <c r="E1318" t="inlineStr"/>
+      <c r="F1318" t="inlineStr"/>
+      <c r="G1318" t="inlineStr"/>
+      <c r="H1318" t="inlineStr"/>
+      <c r="I1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr"/>
+      <c r="D1319" t="inlineStr"/>
+      <c r="E1319" t="inlineStr"/>
+      <c r="F1319" t="inlineStr"/>
+      <c r="G1319" t="inlineStr"/>
+      <c r="H1319" t="inlineStr"/>
+      <c r="I1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr"/>
+      <c r="D1320" t="inlineStr"/>
+      <c r="E1320" t="inlineStr"/>
+      <c r="F1320" t="inlineStr"/>
+      <c r="G1320" t="inlineStr"/>
+      <c r="H1320" t="inlineStr"/>
+      <c r="I1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr"/>
+      <c r="D1321" t="inlineStr"/>
+      <c r="E1321" t="inlineStr"/>
+      <c r="F1321" t="inlineStr"/>
+      <c r="G1321" t="inlineStr"/>
+      <c r="H1321" t="inlineStr"/>
+      <c r="I1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr"/>
+      <c r="D1322" t="inlineStr"/>
+      <c r="E1322" t="inlineStr"/>
+      <c r="F1322" t="inlineStr"/>
+      <c r="G1322" t="inlineStr"/>
+      <c r="H1322" t="inlineStr"/>
+      <c r="I1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr"/>
+      <c r="D1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="inlineStr"/>
+      <c r="H1323" t="inlineStr"/>
+      <c r="I1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr"/>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="inlineStr"/>
+      <c r="H1324" t="inlineStr"/>
+      <c r="I1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr"/>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="inlineStr"/>
+      <c r="H1325" t="inlineStr"/>
+      <c r="I1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr"/>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="inlineStr"/>
+      <c r="H1326" t="inlineStr"/>
+      <c r="I1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr"/>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
+      <c r="H1327" t="inlineStr"/>
+      <c r="I1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr"/>
+      <c r="E1328" t="inlineStr"/>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="inlineStr"/>
+      <c r="H1328" t="inlineStr"/>
+      <c r="I1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>05.08.2025</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr"/>
+      <c r="H1329" t="inlineStr"/>
+      <c r="I1329" t="inlineStr"/>
+    </row>
+    <row r="1330"/>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="inlineStr"/>
+      <c r="H1331" t="inlineStr"/>
+      <c r="I1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr"/>
+      <c r="H1332" t="inlineStr"/>
+      <c r="I1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="inlineStr"/>
+      <c r="H1333" t="inlineStr"/>
+      <c r="I1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="inlineStr"/>
+      <c r="I1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="inlineStr"/>
+      <c r="I1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr"/>
+      <c r="H1336" t="inlineStr"/>
+      <c r="I1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr"/>
+      <c r="E1337" t="inlineStr"/>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="inlineStr"/>
+      <c r="H1337" t="inlineStr"/>
+      <c r="I1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr"/>
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="inlineStr"/>
+      <c r="H1338" t="inlineStr"/>
+      <c r="I1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="inlineStr"/>
+      <c r="H1339" t="inlineStr"/>
+      <c r="I1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr"/>
+      <c r="H1340" t="inlineStr"/>
+      <c r="I1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr"/>
+      <c r="H1341" t="inlineStr"/>
+      <c r="I1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr"/>
+      <c r="H1342" t="inlineStr"/>
+      <c r="I1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr"/>
+      <c r="I1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr"/>
+      <c r="H1345" t="inlineStr"/>
+      <c r="I1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>09.08.2025</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr"/>
+      <c r="H1346" t="inlineStr"/>
+      <c r="I1346" t="inlineStr"/>
+    </row>
+    <row r="1347"/>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="inlineStr"/>
+      <c r="H1348" t="inlineStr"/>
+      <c r="I1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="inlineStr"/>
+      <c r="H1350" t="inlineStr"/>
+      <c r="I1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr"/>
+      <c r="H1351" t="inlineStr"/>
+      <c r="I1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr"/>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="inlineStr"/>
+      <c r="H1352" t="inlineStr"/>
+      <c r="I1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr"/>
+      <c r="D1353" t="inlineStr"/>
+      <c r="E1353" t="inlineStr"/>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="inlineStr"/>
+      <c r="H1353" t="inlineStr"/>
+      <c r="I1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr"/>
+      <c r="D1354" t="inlineStr"/>
+      <c r="E1354" t="inlineStr"/>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="inlineStr"/>
+      <c r="H1354" t="inlineStr"/>
+      <c r="I1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr"/>
+      <c r="D1355" t="inlineStr"/>
+      <c r="E1355" t="inlineStr"/>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="inlineStr"/>
+      <c r="H1355" t="inlineStr"/>
+      <c r="I1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr"/>
+      <c r="D1356" t="inlineStr"/>
+      <c r="E1356" t="inlineStr"/>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="inlineStr"/>
+      <c r="H1356" t="inlineStr"/>
+      <c r="I1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr"/>
+      <c r="D1357" t="inlineStr"/>
+      <c r="E1357" t="inlineStr"/>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="inlineStr"/>
+      <c r="H1357" t="inlineStr"/>
+      <c r="I1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr"/>
+      <c r="D1358" t="inlineStr"/>
+      <c r="E1358" t="inlineStr"/>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="inlineStr"/>
+      <c r="H1358" t="inlineStr"/>
+      <c r="I1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr"/>
+      <c r="D1359" t="inlineStr"/>
+      <c r="E1359" t="inlineStr"/>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="inlineStr"/>
+      <c r="H1359" t="inlineStr"/>
+      <c r="I1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr"/>
+      <c r="D1360" t="inlineStr"/>
+      <c r="E1360" t="inlineStr"/>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="inlineStr"/>
+      <c r="H1360" t="inlineStr"/>
+      <c r="I1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr"/>
+      <c r="E1361" t="inlineStr"/>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="inlineStr"/>
+      <c r="H1361" t="inlineStr"/>
+      <c r="I1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr"/>
+      <c r="E1362" t="inlineStr"/>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="inlineStr"/>
+      <c r="H1362" t="inlineStr"/>
+      <c r="I1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>10.08.2025</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr"/>
+      <c r="D1363" t="inlineStr"/>
+      <c r="E1363" t="inlineStr"/>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="inlineStr"/>
+      <c r="H1363" t="inlineStr"/>
+      <c r="I1363" t="inlineStr"/>
+    </row>
+    <row r="1364"/>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr"/>
+      <c r="D1365" t="inlineStr"/>
+      <c r="E1365" t="inlineStr"/>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="inlineStr"/>
+      <c r="H1365" t="inlineStr"/>
+      <c r="I1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr"/>
+      <c r="D1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr"/>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="inlineStr"/>
+      <c r="H1366" t="inlineStr"/>
+      <c r="I1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr"/>
+      <c r="D1367" t="inlineStr"/>
+      <c r="E1367" t="inlineStr"/>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="inlineStr"/>
+      <c r="H1367" t="inlineStr"/>
+      <c r="I1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr"/>
+      <c r="D1375" t="inlineStr"/>
+      <c r="E1375" t="inlineStr"/>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="inlineStr"/>
+      <c r="H1375" t="inlineStr"/>
+      <c r="I1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>11.08.2025</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+    </row>
+    <row r="1381"/>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>Calathea Medalion</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philodendron Scandens Micans </t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Scindapsus Treubii Moonlight</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>Philodendron Hedaracium Brasil</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>Monstera Adenossii</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>Ficus Elastica Abidjan</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>Peperomia Hope</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>Hoya Mathilde</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>Epipremnum Pinnatum Blue</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>Sansevieria Laurentii</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>Epipremnum Aureum Saal</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr"/>
+      <c r="D1393" t="inlineStr"/>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>Monstera Deliciosa Variegata</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr"/>
+      <c r="D1394" t="inlineStr"/>
+      <c r="E1394" t="inlineStr"/>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="inlineStr"/>
+      <c r="H1394" t="inlineStr"/>
+      <c r="I1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>Pachira Aquatica</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera Deliciosa </t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr"/>
+      <c r="D1396" t="inlineStr"/>
+      <c r="E1396" t="inlineStr"/>
+      <c r="F1396" t="inlineStr"/>
+      <c r="G1396" t="inlineStr"/>
+      <c r="H1396" t="inlineStr"/>
+      <c r="I1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>12.08.2025</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>Philodendron Imperial Red</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr"/>
+      <c r="D1397" t="inlineStr"/>
+      <c r="E1397" t="inlineStr"/>
+      <c r="F1397" t="inlineStr"/>
+      <c r="G1397" t="inlineStr"/>
+      <c r="H1397" t="inlineStr"/>
+      <c r="I1397" t="inlineStr"/>
+    </row>
+    <row r="1398"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B762E0FA-4624-411E-80E5-05761AEA431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F4937-7321-49C1-82EF-3911ACEC6DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="112">
   <si>
     <t>date</t>
   </si>
@@ -322,6 +322,12 @@
     <t>03.08.2025</t>
   </si>
   <si>
+    <t>etwas Spinnmilben</t>
+  </si>
+  <si>
+    <t>heftige Spinnmilben</t>
+  </si>
+  <si>
     <t>10.08.2025</t>
   </si>
   <si>
@@ -343,10 +349,13 @@
     <t>16.08.2025</t>
   </si>
   <si>
-    <t>heftige Spinnmilben</t>
+    <t>17.08.2025</t>
   </si>
   <si>
-    <t>etwas Spinnmilben</t>
+    <t>18.08.2025</t>
+  </si>
+  <si>
+    <t>19.08.2025</t>
   </si>
 </sst>
 </file>
@@ -764,11 +773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1346"/>
+  <dimension ref="A1:AD1414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1140" sqref="K1140"/>
+      <pane ySplit="1" topLeftCell="A1246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1262" sqref="J1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10720,7 +10729,7 @@
         <v>20</v>
       </c>
       <c r="K1150" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1151" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10740,7 +10749,7 @@
         <v>20</v>
       </c>
       <c r="K1151" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1152" spans="1:11" x14ac:dyDescent="0.25">
@@ -11198,6 +11207,9 @@
       <c r="B1212" t="s">
         <v>11</v>
       </c>
+      <c r="D1212">
+        <v>300</v>
+      </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1213" s="2">
@@ -11336,7 +11348,7 @@
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1229" t="s">
         <v>11</v>
@@ -11344,7 +11356,7 @@
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1230" t="s">
         <v>14</v>
@@ -11355,7 +11367,7 @@
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1231" t="s">
         <v>15</v>
@@ -11363,7 +11375,7 @@
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1232" t="s">
         <v>16</v>
@@ -11371,7 +11383,7 @@
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1233" t="s">
         <v>17</v>
@@ -11379,7 +11391,7 @@
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1234" t="s">
         <v>18</v>
@@ -11387,7 +11399,7 @@
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1235" t="s">
         <v>27</v>
@@ -11395,7 +11407,7 @@
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1236" t="s">
         <v>28</v>
@@ -11403,7 +11415,7 @@
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1237" t="s">
         <v>29</v>
@@ -11411,7 +11423,7 @@
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1238" t="s">
         <v>62</v>
@@ -11419,7 +11431,7 @@
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1239" t="s">
         <v>63</v>
@@ -11427,7 +11439,7 @@
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1240" t="s">
         <v>78</v>
@@ -11435,7 +11447,7 @@
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1241" t="s">
         <v>79</v>
@@ -11443,7 +11455,7 @@
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1242" t="s">
         <v>80</v>
@@ -11451,7 +11463,7 @@
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1243" t="s">
         <v>89</v>
@@ -11459,7 +11471,7 @@
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1244" t="s">
         <v>90</v>
@@ -11467,7 +11479,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1246" t="s">
         <v>11</v>
@@ -11475,7 +11487,7 @@
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1247" t="s">
         <v>14</v>
@@ -11483,7 +11495,7 @@
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1248" t="s">
         <v>15</v>
@@ -11491,7 +11503,7 @@
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1249" t="s">
         <v>16</v>
@@ -11499,7 +11511,7 @@
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1250" t="s">
         <v>17</v>
@@ -11507,7 +11519,7 @@
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1251" t="s">
         <v>18</v>
@@ -11515,7 +11527,7 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1252" t="s">
         <v>27</v>
@@ -11523,7 +11535,7 @@
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1253" t="s">
         <v>28</v>
@@ -11531,7 +11543,7 @@
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1254" t="s">
         <v>29</v>
@@ -11539,7 +11551,7 @@
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1255" t="s">
         <v>62</v>
@@ -11547,7 +11559,7 @@
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1256" t="s">
         <v>63</v>
@@ -11555,7 +11567,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1257" t="s">
         <v>78</v>
@@ -11563,7 +11575,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1258" t="s">
         <v>79</v>
@@ -11571,7 +11583,7 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1259" t="s">
         <v>80</v>
@@ -11579,7 +11591,7 @@
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1260" t="s">
         <v>89</v>
@@ -11587,7 +11599,7 @@
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1261" t="s">
         <v>90</v>
@@ -11595,7 +11607,7 @@
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1263" t="s">
         <v>11</v>
@@ -11603,127 +11615,161 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1264" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1265" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1266" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1266" t="s">
+    <row r="1266" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1266" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1266" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1266">
+        <v>600</v>
+      </c>
+      <c r="E1266" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1267" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1268" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1268" t="s">
+    <row r="1268" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1268" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1268" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1268">
+        <v>600</v>
+      </c>
+      <c r="E1268" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1269" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1269" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1270" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1271" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1272" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1272">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1273" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1274" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="1275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1275" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1275" t="s">
+    <row r="1275" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1275" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1275" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1276" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1276" t="s">
+      <c r="D1275">
+        <v>600</v>
+      </c>
+      <c r="E1275" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1275" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1276" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1276" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1276" s="4"/>
+      <c r="D1276" s="4">
+        <v>700</v>
+      </c>
+      <c r="E1276" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1277" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1278" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1280" t="s">
         <v>11</v>
@@ -11731,7 +11777,7 @@
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1281" t="s">
         <v>14</v>
@@ -11739,7 +11785,7 @@
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1282" t="s">
         <v>15</v>
@@ -11747,7 +11793,7 @@
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1283" t="s">
         <v>16</v>
@@ -11755,7 +11801,7 @@
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1284" t="s">
         <v>17</v>
@@ -11763,7 +11809,7 @@
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1285" t="s">
         <v>18</v>
@@ -11771,7 +11817,7 @@
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1286" t="s">
         <v>27</v>
@@ -11779,7 +11825,7 @@
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1287" t="s">
         <v>28</v>
@@ -11787,7 +11833,7 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1288" t="s">
         <v>29</v>
@@ -11795,7 +11841,7 @@
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1289" t="s">
         <v>62</v>
@@ -11803,7 +11849,7 @@
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1290" t="s">
         <v>63</v>
@@ -11811,7 +11857,7 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1291" t="s">
         <v>78</v>
@@ -11819,7 +11865,7 @@
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1292" t="s">
         <v>79</v>
@@ -11827,7 +11873,7 @@
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1293" t="s">
         <v>80</v>
@@ -11835,7 +11881,7 @@
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1294" t="s">
         <v>89</v>
@@ -11843,7 +11889,7 @@
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1295" t="s">
         <v>90</v>
@@ -11851,7 +11897,7 @@
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1297" t="s">
         <v>11</v>
@@ -11859,7 +11905,7 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1298" t="s">
         <v>14</v>
@@ -11867,7 +11913,7 @@
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1299" t="s">
         <v>15</v>
@@ -11875,7 +11921,7 @@
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1300" t="s">
         <v>16</v>
@@ -11883,7 +11929,7 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1301" t="s">
         <v>17</v>
@@ -11891,7 +11937,7 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1302" t="s">
         <v>18</v>
@@ -11899,7 +11945,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1303" t="s">
         <v>27</v>
@@ -11907,7 +11953,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1304" t="s">
         <v>28</v>
@@ -11915,7 +11961,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1305" t="s">
         <v>29</v>
@@ -11923,7 +11969,7 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1306" t="s">
         <v>62</v>
@@ -11931,7 +11977,7 @@
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1307" t="s">
         <v>63</v>
@@ -11939,7 +11985,7 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1308" t="s">
         <v>78</v>
@@ -11947,7 +11993,7 @@
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1309" t="s">
         <v>79</v>
@@ -11955,7 +12001,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1310" t="s">
         <v>80</v>
@@ -11963,7 +12009,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1311" t="s">
         <v>89</v>
@@ -11971,7 +12017,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1312" t="s">
         <v>90</v>
@@ -11979,7 +12025,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1314" t="s">
         <v>11</v>
@@ -11987,7 +12033,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1315" t="s">
         <v>14</v>
@@ -11995,7 +12041,7 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1316" t="s">
         <v>15</v>
@@ -12003,7 +12049,7 @@
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1317" t="s">
         <v>16</v>
@@ -12011,7 +12057,7 @@
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1318" t="s">
         <v>17</v>
@@ -12019,7 +12065,7 @@
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1319" t="s">
         <v>18</v>
@@ -12027,7 +12073,7 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1320" t="s">
         <v>27</v>
@@ -12035,7 +12081,7 @@
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1321" t="s">
         <v>28</v>
@@ -12043,7 +12089,7 @@
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1322" t="s">
         <v>29</v>
@@ -12051,7 +12097,7 @@
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1323" t="s">
         <v>62</v>
@@ -12059,7 +12105,7 @@
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1324" t="s">
         <v>63</v>
@@ -12067,7 +12113,7 @@
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1325" t="s">
         <v>78</v>
@@ -12075,7 +12121,7 @@
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1326" t="s">
         <v>79</v>
@@ -12083,7 +12129,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1327" t="s">
         <v>80</v>
@@ -12091,7 +12137,7 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1328" t="s">
         <v>89</v>
@@ -12099,7 +12145,7 @@
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1329" t="s">
         <v>90</v>
@@ -12107,7 +12153,7 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1331" t="s">
         <v>11</v>
@@ -12115,7 +12161,7 @@
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1332" t="s">
         <v>14</v>
@@ -12123,7 +12169,7 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1333" t="s">
         <v>15</v>
@@ -12131,7 +12177,7 @@
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1334" t="s">
         <v>16</v>
@@ -12139,7 +12185,7 @@
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1335" t="s">
         <v>17</v>
@@ -12147,7 +12193,7 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1336" t="s">
         <v>18</v>
@@ -12155,7 +12201,7 @@
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1337" t="s">
         <v>27</v>
@@ -12163,7 +12209,7 @@
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1338" t="s">
         <v>28</v>
@@ -12171,7 +12217,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1339" t="s">
         <v>29</v>
@@ -12179,7 +12225,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1340" t="s">
         <v>62</v>
@@ -12187,7 +12233,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1341" t="s">
         <v>63</v>
@@ -12195,7 +12241,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1342" t="s">
         <v>78</v>
@@ -12203,7 +12249,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1343" t="s">
         <v>79</v>
@@ -12211,7 +12257,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1344" t="s">
         <v>80</v>
@@ -12219,7 +12265,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1345" t="s">
         <v>89</v>
@@ -12227,9 +12273,521 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1346" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1414" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9F4937-7321-49C1-82EF-3911ACEC6DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F346AA-39F8-4244-BFAE-A35F5008C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="114">
   <si>
     <t>date</t>
   </si>
@@ -357,6 +357,12 @@
   <si>
     <t>19.08.2025</t>
   </si>
+  <si>
+    <t>20.08.2025</t>
+  </si>
+  <si>
+    <t>21.08.2025</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +456,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -463,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,6 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -773,11 +786,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1414"/>
+  <dimension ref="A1:AD1448"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1262" sqref="J1262"/>
+      <pane ySplit="1" topLeftCell="A1297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1322" sqref="B1322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11775,7 +11788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
         <v>105</v>
       </c>
@@ -11783,15 +11796,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
         <v>105</v>
       </c>
-      <c r="B1282" t="s">
+      <c r="B1282" s="21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H1282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
         <v>105</v>
       </c>
@@ -11799,7 +11815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
         <v>105</v>
       </c>
@@ -11807,7 +11823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
         <v>105</v>
       </c>
@@ -11815,7 +11831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
         <v>105</v>
       </c>
@@ -11823,7 +11839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
         <v>105</v>
       </c>
@@ -11831,7 +11847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
         <v>105</v>
       </c>
@@ -11839,7 +11855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
         <v>105</v>
       </c>
@@ -11847,7 +11863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
         <v>105</v>
       </c>
@@ -11855,7 +11871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
         <v>105</v>
       </c>
@@ -11863,7 +11879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
         <v>105</v>
       </c>
@@ -11871,7 +11887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
         <v>105</v>
       </c>
@@ -11879,15 +11895,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
         <v>105</v>
       </c>
-      <c r="B1294" t="s">
+      <c r="B1294" s="21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1294" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
         <v>105</v>
       </c>
@@ -12023,7 +12042,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>107</v>
       </c>
@@ -12031,7 +12050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
         <v>107</v>
       </c>
@@ -12039,15 +12058,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
         <v>107</v>
       </c>
-      <c r="B1316" t="s">
+      <c r="B1316" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1316">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
         <v>107</v>
       </c>
@@ -12055,15 +12077,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
         <v>107</v>
       </c>
       <c r="B1318" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1318">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
         <v>107</v>
       </c>
@@ -12071,15 +12096,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
         <v>107</v>
       </c>
       <c r="B1320" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1320">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
         <v>107</v>
       </c>
@@ -12087,15 +12115,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
         <v>107</v>
       </c>
       <c r="B1322" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1322">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
         <v>107</v>
       </c>
@@ -12103,7 +12134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
         <v>107</v>
       </c>
@@ -12111,7 +12142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
         <v>107</v>
       </c>
@@ -12119,7 +12150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
         <v>107</v>
       </c>
@@ -12127,7 +12158,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
         <v>107</v>
       </c>
@@ -12135,23 +12166,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
         <v>107</v>
       </c>
       <c r="B1328" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1328">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
         <v>107</v>
       </c>
       <c r="B1329" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1329">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
         <v>108</v>
       </c>
@@ -12159,7 +12196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>108</v>
       </c>
@@ -12167,7 +12204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
         <v>108</v>
       </c>
@@ -12175,7 +12212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
         <v>108</v>
       </c>
@@ -12183,7 +12220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>108</v>
       </c>
@@ -12191,7 +12228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
         <v>108</v>
       </c>
@@ -12199,7 +12236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
         <v>108</v>
       </c>
@@ -12207,7 +12244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
         <v>108</v>
       </c>
@@ -12215,7 +12252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
         <v>108</v>
       </c>
@@ -12223,7 +12260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
         <v>108</v>
       </c>
@@ -12231,7 +12268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
         <v>108</v>
       </c>
@@ -12239,7 +12276,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
         <v>108</v>
       </c>
@@ -12247,7 +12284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
         <v>108</v>
       </c>
@@ -12255,7 +12292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
         <v>108</v>
       </c>
@@ -12788,6 +12825,262 @@
         <v>111</v>
       </c>
       <c r="B1414" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1448" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE03FD2C-D1F9-49F9-B4DD-C7439B2980AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C957E598-2C74-420C-8A10-2A54AC73D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="121">
   <si>
     <t>date</t>
   </si>
@@ -375,6 +375,15 @@
   <si>
     <t>25.08.2025</t>
   </si>
+  <si>
+    <t>26.08.2025</t>
+  </si>
+  <si>
+    <t>27.08.2025</t>
+  </si>
+  <si>
+    <t>28.08.2025</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +483,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -487,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,6 +533,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -798,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1516"/>
+  <dimension ref="A1:AD1567"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1397" sqref="D1397"/>
+      <pane ySplit="1" topLeftCell="A1414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1433" sqref="E1433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12924,7 +12940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
         <v>112</v>
       </c>
@@ -12932,7 +12948,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
         <v>112</v>
       </c>
@@ -12940,7 +12956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
         <v>112</v>
       </c>
@@ -12948,7 +12964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
         <v>112</v>
       </c>
@@ -12956,7 +12972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
         <v>112</v>
       </c>
@@ -12964,7 +12980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
         <v>112</v>
       </c>
@@ -12972,7 +12988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
         <v>112</v>
       </c>
@@ -12980,7 +12996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
         <v>113</v>
       </c>
@@ -12988,7 +13004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
         <v>113</v>
       </c>
@@ -12996,7 +13012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
         <v>113</v>
       </c>
@@ -13004,7 +13020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
         <v>113</v>
       </c>
@@ -13012,7 +13028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
         <v>113</v>
       </c>
@@ -13020,15 +13036,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1438" t="s">
+    <row r="1438" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1438" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B1438" t="s">
+      <c r="B1438" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1438" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
         <v>113</v>
       </c>
@@ -13036,15 +13055,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1440" t="s">
+    <row r="1440" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1440" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B1440" t="s">
+      <c r="B1440" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1440" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
         <v>113</v>
       </c>
@@ -13052,7 +13074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
         <v>113</v>
       </c>
@@ -13060,31 +13082,40 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1443" t="s">
+    <row r="1443" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1443" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B1443" t="s">
+      <c r="B1443" s="22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1444" t="s">
+      <c r="I1443" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1444" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B1444" t="s">
+      <c r="B1444" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1445" t="s">
+      <c r="D1444" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1445" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B1445" t="s">
+      <c r="B1445" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1445" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
         <v>113</v>
       </c>
@@ -13092,7 +13123,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
         <v>113</v>
       </c>
@@ -13100,7 +13131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
         <v>113</v>
       </c>
@@ -13108,7 +13139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1450" t="s">
         <v>114</v>
       </c>
@@ -13116,7 +13147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
         <v>114</v>
       </c>
@@ -13124,7 +13155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
         <v>114</v>
       </c>
@@ -13132,7 +13163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
         <v>114</v>
       </c>
@@ -13140,7 +13171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
         <v>114</v>
       </c>
@@ -13148,7 +13179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1455" t="s">
         <v>114</v>
       </c>
@@ -13156,7 +13187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
         <v>114</v>
       </c>
@@ -13617,6 +13648,390 @@
         <v>117</v>
       </c>
       <c r="B1516" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1567" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C957E598-2C74-420C-8A10-2A54AC73D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3D54D-E685-493A-B91E-8CB592CB1C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1815" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="123">
   <si>
     <t>date</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>28.08.2025</t>
+  </si>
+  <si>
+    <t>29.08.2025</t>
+  </si>
+  <si>
+    <t>30.08.2025</t>
   </si>
 </sst>
 </file>
@@ -814,11 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1567"/>
+  <dimension ref="A1:AD1601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1433" sqref="E1433"/>
+      <pane ySplit="1" topLeftCell="A1444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1462" sqref="G1462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13195,7 +13201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
         <v>114</v>
       </c>
@@ -13203,7 +13209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1458" t="s">
         <v>114</v>
       </c>
@@ -13211,7 +13217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
         <v>114</v>
       </c>
@@ -13219,7 +13225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
         <v>114</v>
       </c>
@@ -13227,7 +13233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
         <v>114</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1462" t="s">
         <v>114</v>
       </c>
@@ -13243,7 +13249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
         <v>114</v>
       </c>
@@ -13251,7 +13257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1464" t="s">
         <v>114</v>
       </c>
@@ -13259,7 +13265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
         <v>114</v>
       </c>
@@ -13267,7 +13273,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1467" t="s">
         <v>115</v>
       </c>
@@ -13275,23 +13281,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1468" t="s">
+    <row r="1468" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1468" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B1468" t="s">
+      <c r="B1468" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1469" t="s">
+      <c r="D1468" s="7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1469" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B1469" t="s">
+      <c r="B1469" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1469" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
         <v>115</v>
       </c>
@@ -13299,7 +13311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
         <v>115</v>
       </c>
@@ -13307,7 +13319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
         <v>115</v>
       </c>
@@ -13315,7 +13327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1473" t="s">
         <v>115</v>
       </c>
@@ -13323,7 +13335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
         <v>115</v>
       </c>
@@ -13331,7 +13343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1475" t="s">
         <v>115</v>
       </c>
@@ -13339,7 +13351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
         <v>115</v>
       </c>
@@ -13347,7 +13359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1477" t="s">
         <v>115</v>
       </c>
@@ -13355,7 +13367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
         <v>115</v>
       </c>
@@ -13363,7 +13375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
         <v>115</v>
       </c>
@@ -13371,23 +13383,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1480" t="s">
+    <row r="1480" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1480" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B1480" t="s">
+      <c r="B1480" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1481" t="s">
+      <c r="D1480" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1481" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B1481" t="s">
+      <c r="B1481" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1481" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
         <v>115</v>
       </c>
@@ -13395,7 +13413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
         <v>116</v>
       </c>
@@ -13403,7 +13421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
         <v>116</v>
       </c>
@@ -13411,7 +13429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
         <v>116</v>
       </c>
@@ -13419,7 +13437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
         <v>116</v>
       </c>
@@ -13427,7 +13445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
         <v>116</v>
       </c>
@@ -14032,6 +14050,262 @@
         <v>120</v>
       </c>
       <c r="B1567" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1601" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3D54D-E685-493A-B91E-8CB592CB1C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703374F2-7C6F-4BDD-819A-2BC4C74F7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,8 +823,8 @@
   <dimension ref="A1:AD1601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1462" sqref="G1462"/>
+      <pane ySplit="1" topLeftCell="A1459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1474" sqref="D1474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13453,7 +13453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
         <v>116</v>
       </c>
@@ -13461,15 +13461,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1490" t="s">
+    <row r="1490" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1490" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B1490" t="s">
+      <c r="B1490" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1490" s="7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
         <v>116</v>
       </c>
@@ -13477,7 +13480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>116</v>
       </c>
@@ -13485,15 +13488,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1493" t="s">
+    <row r="1493" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1493" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B1493" t="s">
+      <c r="B1493" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1493" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
         <v>116</v>
       </c>
@@ -13501,7 +13507,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
         <v>116</v>
       </c>
@@ -13509,7 +13515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
         <v>116</v>
       </c>
@@ -13517,7 +13523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
         <v>116</v>
       </c>
@@ -13525,7 +13531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
         <v>116</v>
       </c>
@@ -13533,7 +13539,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
         <v>116</v>
       </c>
@@ -13541,7 +13547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
         <v>117</v>
       </c>
@@ -13549,7 +13555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>117</v>
       </c>
@@ -13557,7 +13563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
         <v>117</v>
       </c>
@@ -13565,7 +13571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
         <v>117</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3079CA0-013B-4EA5-AA7E-9756BB22C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38349F64-B5E1-429D-A3BF-8363C73579E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="130">
   <si>
     <t>date</t>
   </si>
@@ -391,7 +391,25 @@
     <t>30.08.2025</t>
   </si>
   <si>
+    <t>Habe eine Überlebte larve gesehen daher noch mal Pestmix</t>
+  </si>
+  <si>
     <t>31.08.2025</t>
+  </si>
+  <si>
+    <t>01.09.2025</t>
+  </si>
+  <si>
+    <t>02.09.2025</t>
+  </si>
+  <si>
+    <t>03.09.2025</t>
+  </si>
+  <si>
+    <t>04.09.2025</t>
+  </si>
+  <si>
+    <t>05.09.2025</t>
   </si>
 </sst>
 </file>
@@ -823,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1618"/>
+  <dimension ref="A1:AD1788"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1505" sqref="G1505"/>
+      <pane ySplit="1" topLeftCell="A1564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1580" sqref="F1580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14193,7 +14211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
         <v>122</v>
       </c>
@@ -14201,7 +14219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1587" t="s">
         <v>122</v>
       </c>
@@ -14209,23 +14227,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1588" t="s">
         <v>122</v>
       </c>
       <c r="B1588" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1588">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
         <v>122</v>
       </c>
       <c r="B1589" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="1590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1589">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
         <v>122</v>
       </c>
@@ -14233,15 +14257,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
         <v>122</v>
       </c>
       <c r="B1591" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="1592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1591">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1592" t="s">
         <v>122</v>
       </c>
@@ -14249,7 +14276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
         <v>122</v>
       </c>
@@ -14257,7 +14284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1594" t="s">
         <v>122</v>
       </c>
@@ -14265,7 +14292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
         <v>122</v>
       </c>
@@ -14273,15 +14300,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1596" t="s">
         <v>122</v>
       </c>
       <c r="B1596" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="1597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I1596" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1596" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
         <v>122</v>
       </c>
@@ -14289,145 +14322,157 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1598" t="s">
         <v>122</v>
       </c>
       <c r="B1598" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1598">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
         <v>122</v>
       </c>
       <c r="B1599" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1599">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1600" t="s">
         <v>122</v>
       </c>
       <c r="B1600" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1600">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1601" t="s">
         <v>122</v>
       </c>
       <c r="B1601" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1601">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1603" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1604" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1605" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1606" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1607" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1608" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1609" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1610" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1611" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1612" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1613" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1614" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1615" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1616" t="s">
         <v>80</v>
@@ -14435,7 +14480,7 @@
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1617" t="s">
         <v>89</v>
@@ -14443,9 +14488,1289 @@
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1618" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1618" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1730" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1731" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1732" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1733" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1734" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1735" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1736" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1737" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1739" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1740" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1741" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1742" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1743" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1744" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1745" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1746" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1788" t="s">
         <v>90</v>
       </c>
     </row>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA99B89D-84C2-45B0-947A-F9B571517D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D57545-31EC-4DEC-8ACE-42375BDE6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="134">
   <si>
     <t>date</t>
   </si>
@@ -397,10 +397,16 @@
     <t>31.08.2025</t>
   </si>
   <si>
+    <t>Philodendron McColleys Finale</t>
+  </si>
+  <si>
     <t>01.09.2025</t>
   </si>
   <si>
     <t>02.09.2025</t>
+  </si>
+  <si>
+    <t>Philodendron Birkin</t>
   </si>
   <si>
     <t>03.09.2025</t>
@@ -410,6 +416,12 @@
   </si>
   <si>
     <t>05.09.2025</t>
+  </si>
+  <si>
+    <t>08.09.2025</t>
+  </si>
+  <si>
+    <t>09.09.2025</t>
   </si>
 </sst>
 </file>
@@ -841,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1873"/>
+  <dimension ref="A1:AD1846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1606" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1621" sqref="E1621"/>
+      <pane ySplit="1" topLeftCell="A1643" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1670" sqref="C1670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14494,90 +14506,84 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1620" t="s">
+    <row r="1619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1619" t="s">
         <v>125</v>
-      </c>
-      <c r="B1620" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1621" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1622" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1623" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1623" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1624" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1624" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1625" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1626" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1626" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1627" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1627" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1628" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1628" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1628" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1628" s="7">
-        <v>500</v>
-      </c>
-      <c r="E1628" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="1629" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1629" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1629" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D1629" s="7">
         <v>500</v>
@@ -14586,51 +14592,65 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1630" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1630" t="s">
-        <v>63</v>
+    <row r="1630" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1630" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1630" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1630" s="7">
+        <v>500</v>
+      </c>
+      <c r="E1630" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1631" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1632" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1632" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1633" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1634" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1635" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1636" t="s">
         <v>90</v>
       </c>
     </row>
@@ -14639,879 +14659,883 @@
         <v>126</v>
       </c>
       <c r="B1637" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1638" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1638" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1639" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1640" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1641" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1642" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1643" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1644" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1645" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1646" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1646" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1647" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1648" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1650" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1649" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1649" t="s">
+    <row r="1651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1651" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1650" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1650" t="s">
+    <row r="1652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1652" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1651" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1651" t="s">
+    <row r="1653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1653" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1652" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1652" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
         <v>127</v>
       </c>
       <c r="B1654" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
         <v>127</v>
       </c>
       <c r="B1655" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="D1655" s="7">
+        <v>500</v>
+      </c>
+      <c r="I1655" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
         <v>127</v>
       </c>
       <c r="B1656" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1656" s="7">
+        <v>500</v>
+      </c>
+      <c r="I1656" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1660" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1657" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1657" t="s">
+    <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1661" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1658" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1658" t="s">
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1662" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1659" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1659" t="s">
+    <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1663" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1660" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1660" t="s">
+    <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1664" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1661" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1661" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1662" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1662" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1663" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1663" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1664" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1664" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1665" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1666" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1667" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1668" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B1669" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1671" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1672" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1673" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1674" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1675" t="s">
         <v>128</v>
-      </c>
-      <c r="B1675" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1676" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1676" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1677" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1678" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1679" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1680" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1681" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1682" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1683" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1684" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1685" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1686" t="s">
-        <v>90</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1688" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1689" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1690" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1691" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1692" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1693" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1694" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1695" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1695" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1696" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1697" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1698" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1699" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1700" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1701" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1702" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1703" t="s">
-        <v>90</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1705" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1706" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1707" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1708" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1709" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1710" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1711" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1712" t="s">
         <v>125</v>
-      </c>
-      <c r="B1712" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B1713" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1714" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1714" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1715" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1716" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1717" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1718" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1719" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B1720" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1722" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1723" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1723" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1724" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1724" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1725" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1725" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1726" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1726" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1727" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1727" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1728" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1728" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1729" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1730" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1730" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1731" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1731" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1732" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B1732" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1733" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1733" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B1734" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1735" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B1735" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B1736" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1737" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B1737" t="s">
-        <v>90</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1738" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1739" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1739" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1740" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1741" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1742" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1743" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1744" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1745" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1745" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1746" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1747" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1747" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1748" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1748" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1749" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1749" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1750" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1751" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1751" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1752" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1752" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
@@ -15519,7 +15543,7 @@
         <v>127</v>
       </c>
       <c r="B1753" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
@@ -15527,135 +15551,143 @@
         <v>127</v>
       </c>
       <c r="B1754" t="s">
-        <v>90</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1756" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1757" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1758" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1758" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1759" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1759" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1760" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1761" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1762" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1763" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1764" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1765" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1766" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1766" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1767" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1767" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1768" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1768" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1769" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1769" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1770" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1770" t="s">
         <v>128</v>
       </c>
-      <c r="B1770" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1771" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1771" t="s">
-        <v>90</v>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
@@ -15663,7 +15695,7 @@
         <v>129</v>
       </c>
       <c r="B1773" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
@@ -15671,7 +15703,7 @@
         <v>129</v>
       </c>
       <c r="B1774" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
@@ -15679,7 +15711,7 @@
         <v>129</v>
       </c>
       <c r="B1775" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
@@ -15687,7 +15719,7 @@
         <v>129</v>
       </c>
       <c r="B1776" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
@@ -15695,7 +15727,7 @@
         <v>129</v>
       </c>
       <c r="B1777" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
@@ -15703,7 +15735,7 @@
         <v>129</v>
       </c>
       <c r="B1778" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
@@ -15711,7 +15743,7 @@
         <v>129</v>
       </c>
       <c r="B1779" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
@@ -15719,7 +15751,7 @@
         <v>129</v>
       </c>
       <c r="B1780" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
@@ -15727,7 +15759,7 @@
         <v>129</v>
       </c>
       <c r="B1781" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
@@ -15735,7 +15767,7 @@
         <v>129</v>
       </c>
       <c r="B1782" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
@@ -15743,7 +15775,7 @@
         <v>129</v>
       </c>
       <c r="B1783" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
@@ -15751,7 +15783,7 @@
         <v>129</v>
       </c>
       <c r="B1784" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
@@ -15759,7 +15791,7 @@
         <v>129</v>
       </c>
       <c r="B1785" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
@@ -15767,7 +15799,7 @@
         <v>129</v>
       </c>
       <c r="B1786" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
@@ -15775,7 +15807,7 @@
         <v>129</v>
       </c>
       <c r="B1787" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
@@ -15783,650 +15815,451 @@
         <v>129</v>
       </c>
       <c r="B1788" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="1790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1790" t="s">
         <v>125</v>
       </c>
-      <c r="B1790" t="s">
-        <v>11</v>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1791" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1792" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1793" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1794" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1795" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1796" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1797" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1798" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1799" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1800" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1801" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1802" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1803" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1804" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B1805" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1806" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1807" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B1808" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1809" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1809" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1810" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1811" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1812" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1813" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1814" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1815" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1816" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1817" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1818" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1819" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1820" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1821" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B1822" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1824" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1825" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1826" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1827" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1828" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1828" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1829" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1830" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1831" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1832" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1833" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1834" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1835" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1836" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1837" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1838" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B1839" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1840" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1841" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1842" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1843" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1844" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1845" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1846" t="s">
         <v>128</v>
-      </c>
-      <c r="B1846" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1847" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1847" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1848" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1848" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1849" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1849" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1850" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1850" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1851" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1851" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1852" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1852" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1853" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1853" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1854" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1854" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1855" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1855" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1856" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1856" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1858" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1858" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1859" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1859" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1860" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1860" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1861" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1862" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1862" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1863" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1864" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1864" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1865" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1865" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1866" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1866" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1867" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1867" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1868" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1868" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1869" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1869" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1870" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1870" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1871" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1871" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1872" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1872" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1873" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1873" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D57545-31EC-4DEC-8ACE-42375BDE6AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BBC8BE-D1F4-4BCC-8AFD-57BE70AA2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="134">
   <si>
     <t>date</t>
   </si>
@@ -856,8 +856,8 @@
   <dimension ref="A1:AD1846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1643" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1670" sqref="C1670"/>
+      <pane ySplit="1" topLeftCell="A1616" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1660" sqref="F1660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14830,16 +14830,25 @@
       <c r="A1659" t="s">
         <v>129</v>
       </c>
-      <c r="B1659" t="s">
+      <c r="B1659" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="D1659">
+        <v>700</v>
+      </c>
+      <c r="E1659" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
         <v>129</v>
       </c>
-      <c r="B1660" t="s">
+      <c r="B1660" s="7" t="s">
         <v>15</v>
+      </c>
+      <c r="I1660" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
@@ -14854,8 +14863,14 @@
       <c r="A1662" t="s">
         <v>129</v>
       </c>
-      <c r="B1662" t="s">
+      <c r="B1662" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="D1662">
+        <v>400</v>
+      </c>
+      <c r="E1662" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
@@ -14874,15 +14889,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
         <v>129</v>
       </c>
-      <c r="B1665" t="s">
+      <c r="B1665" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1665">
+        <v>400</v>
+      </c>
+      <c r="E1665" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
         <v>129</v>
       </c>
@@ -14890,7 +14911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
         <v>129</v>
       </c>
@@ -14898,15 +14919,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
         <v>129</v>
       </c>
-      <c r="B1668" t="s">
+      <c r="B1668" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1668">
+        <v>400</v>
+      </c>
+      <c r="E1668" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1668" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
         <v>129</v>
       </c>
@@ -14914,7 +14944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
         <v>129</v>
       </c>
@@ -14922,7 +14952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
         <v>129</v>
       </c>
@@ -14930,23 +14960,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
         <v>129</v>
       </c>
-      <c r="B1672" t="s">
+      <c r="B1672" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I1672" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
         <v>129</v>
       </c>
-      <c r="B1673" t="s">
+      <c r="B1673" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I1673" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
         <v>129</v>
       </c>
@@ -14954,7 +14990,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
         <v>129</v>
       </c>
@@ -14962,7 +14998,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
         <v>130</v>
       </c>
@@ -14970,7 +15006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
         <v>130</v>
       </c>
@@ -14978,7 +15014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
         <v>130</v>
       </c>
@@ -14986,7 +15022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
         <v>130</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BBC8BE-D1F4-4BCC-8AFD-57BE70AA2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B51E2D-940F-475D-B1EE-935E8DF79511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="134">
   <si>
     <t>date</t>
   </si>
@@ -856,8 +856,8 @@
   <dimension ref="A1:AD1846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1616" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1660" sqref="F1660"/>
+      <pane ySplit="1" topLeftCell="A1655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1683" sqref="J1683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15030,87 +15030,177 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
         <v>130</v>
       </c>
-      <c r="B1681" t="s">
+      <c r="B1681" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1681" s="7"/>
+      <c r="D1681" s="7"/>
+      <c r="E1681" s="7"/>
+      <c r="F1681" s="7"/>
+      <c r="G1681" s="7"/>
+      <c r="H1681" s="7"/>
+      <c r="I1681" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
         <v>130</v>
       </c>
-      <c r="B1682" t="s">
+      <c r="B1682" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1682" s="7"/>
+      <c r="D1682" s="7"/>
+      <c r="E1682" s="7"/>
+      <c r="F1682" s="7"/>
+      <c r="G1682" s="7"/>
+      <c r="H1682" s="7"/>
+      <c r="I1682" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
         <v>130</v>
       </c>
-      <c r="B1683" t="s">
+      <c r="B1683" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1683" s="7"/>
+      <c r="D1683" s="7"/>
+      <c r="E1683" s="7"/>
+      <c r="F1683" s="7"/>
+      <c r="G1683" s="7"/>
+      <c r="H1683" s="7"/>
+      <c r="I1683" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
         <v>130</v>
       </c>
-      <c r="B1684" t="s">
+      <c r="B1684" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1684" s="7"/>
+      <c r="D1684" s="7"/>
+      <c r="E1684" s="7"/>
+      <c r="F1684" s="7"/>
+      <c r="G1684" s="7"/>
+      <c r="H1684" s="7"/>
+      <c r="I1684" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
         <v>130</v>
       </c>
-      <c r="B1685" t="s">
+      <c r="B1685" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1685" s="7"/>
+      <c r="D1685" s="7"/>
+      <c r="E1685" s="7"/>
+      <c r="F1685" s="7"/>
+      <c r="G1685" s="7"/>
+      <c r="H1685" s="7"/>
+      <c r="I1685" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
         <v>130</v>
       </c>
-      <c r="B1686" t="s">
+      <c r="B1686" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1686" s="7"/>
+      <c r="D1686" s="7"/>
+      <c r="E1686" s="7"/>
+      <c r="F1686" s="7"/>
+      <c r="G1686" s="7"/>
+      <c r="H1686" s="7"/>
+      <c r="I1686" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
         <v>130</v>
       </c>
-      <c r="B1687" t="s">
+      <c r="B1687" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1687" s="7"/>
+      <c r="D1687" s="7"/>
+      <c r="E1687" s="7"/>
+      <c r="F1687" s="7"/>
+      <c r="G1687" s="7"/>
+      <c r="H1687" s="7"/>
+      <c r="I1687" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
         <v>130</v>
       </c>
-      <c r="B1688" t="s">
+      <c r="B1688" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1688" s="7"/>
+      <c r="D1688" s="7"/>
+      <c r="E1688" s="7"/>
+      <c r="F1688" s="7"/>
+      <c r="G1688" s="7"/>
+      <c r="H1688" s="7"/>
+      <c r="I1688" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
         <v>130</v>
       </c>
-      <c r="B1689" t="s">
+      <c r="B1689" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1689" s="7"/>
+      <c r="D1689" s="7"/>
+      <c r="E1689" s="7"/>
+      <c r="F1689" s="7"/>
+      <c r="G1689" s="7"/>
+      <c r="H1689" s="7"/>
+      <c r="I1689" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
         <v>130</v>
       </c>
-      <c r="B1690" t="s">
+      <c r="B1690" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1690" s="7"/>
+      <c r="D1690" s="7"/>
+      <c r="E1690" s="7"/>
+      <c r="F1690" s="7"/>
+      <c r="G1690" s="7"/>
+      <c r="H1690" s="7"/>
+      <c r="I1690" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
         <v>130</v>
       </c>
@@ -15118,7 +15208,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
         <v>130</v>
       </c>
@@ -15126,7 +15216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
         <v>130</v>
       </c>
@@ -15134,7 +15224,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
         <v>130</v>
       </c>
@@ -15142,7 +15232,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
         <v>131</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B51E2D-940F-475D-B1EE-935E8DF79511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737E259-1ACD-415F-A782-FDF80CB122D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="134">
   <si>
     <t>date</t>
   </si>
@@ -856,8 +856,8 @@
   <dimension ref="A1:AD1846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1655" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1683" sqref="J1683"/>
+      <pane ySplit="1" topLeftCell="A1673" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1701" sqref="E1701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15240,7 +15240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
         <v>131</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
         <v>131</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>131</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
         <v>131</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
         <v>131</v>
       </c>
@@ -15280,15 +15280,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1702" t="s">
+    <row r="1702" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1702" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1702" t="s">
+      <c r="B1702" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1702">
+        <v>400</v>
+      </c>
+      <c r="E1702" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
         <v>131</v>
       </c>
@@ -15296,7 +15302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
         <v>131</v>
       </c>
@@ -15304,7 +15310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
         <v>131</v>
       </c>
@@ -15312,7 +15318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
         <v>131</v>
       </c>
@@ -15320,23 +15326,35 @@
         <v>63</v>
       </c>
     </row>
-    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1707" t="s">
+    <row r="1707" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1707" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1707" t="s">
+      <c r="B1707" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1708" t="s">
+      <c r="D1707">
+        <v>400</v>
+      </c>
+      <c r="E1707" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1708" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1708" t="s">
+      <c r="B1708" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1708">
+        <v>400</v>
+      </c>
+      <c r="E1708" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
         <v>131</v>
       </c>
@@ -15344,15 +15362,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1710" t="s">
+    <row r="1710" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1710" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B1710" t="s">
+      <c r="B1710" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1710">
+        <v>400</v>
+      </c>
+      <c r="E1710" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
         <v>131</v>
       </c>
@@ -15360,7 +15384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
         <v>131</v>
       </c>

--- a/data/blumen_data.xlsx
+++ b/data/blumen_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danja\python_projects\blumn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737E259-1ACD-415F-A782-FDF80CB122D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D78B0-F7B9-471A-8E93-2F1ED0C1CC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="138">
   <si>
     <t>date</t>
   </si>
@@ -418,10 +418,22 @@
     <t>05.09.2025</t>
   </si>
   <si>
-    <t>08.09.2025</t>
+    <t>10.09.2025</t>
   </si>
   <si>
-    <t>09.09.2025</t>
+    <t>11.09.2025</t>
+  </si>
+  <si>
+    <t>12.09.2025</t>
+  </si>
+  <si>
+    <t>13.09.2025</t>
+  </si>
+  <si>
+    <t>14.09.2025</t>
+  </si>
+  <si>
+    <t>15.09.2025</t>
   </si>
 </sst>
 </file>
@@ -853,11 +865,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1846"/>
+  <dimension ref="A1:AD1903"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1701" sqref="E1701"/>
+      <pane ySplit="1" topLeftCell="A1745" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1766" sqref="H1766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15401,576 +15413,601 @@
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1715" t="s">
-        <v>132</v>
+      <c r="A1715" s="2">
+        <v>45906</v>
       </c>
       <c r="B1715" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1716" t="s">
-        <v>132</v>
+      <c r="A1716" s="2">
+        <v>45906</v>
       </c>
       <c r="B1716" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1717" t="s">
-        <v>132</v>
+      <c r="A1717" s="2">
+        <v>45906</v>
       </c>
       <c r="B1717" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1718" t="s">
-        <v>132</v>
+      <c r="A1718" s="2">
+        <v>45906</v>
       </c>
       <c r="B1718" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1719" t="s">
-        <v>132</v>
+      <c r="A1719" s="2">
+        <v>45906</v>
       </c>
       <c r="B1719" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1720" t="s">
-        <v>132</v>
+      <c r="A1720" s="2">
+        <v>45906</v>
       </c>
       <c r="B1720" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1721" t="s">
-        <v>132</v>
+      <c r="A1721" s="2">
+        <v>45906</v>
       </c>
       <c r="B1721" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1722" t="s">
-        <v>132</v>
+      <c r="A1722" s="2">
+        <v>45906</v>
       </c>
       <c r="B1722" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1723" t="s">
-        <v>132</v>
+      <c r="A1723" s="2">
+        <v>45906</v>
       </c>
       <c r="B1723" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1724" t="s">
-        <v>132</v>
+      <c r="A1724" s="2">
+        <v>45906</v>
       </c>
       <c r="B1724" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1725" t="s">
-        <v>132</v>
+      <c r="A1725" s="2">
+        <v>45906</v>
       </c>
       <c r="B1725" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1726" t="s">
-        <v>132</v>
+      <c r="A1726" s="2">
+        <v>45906</v>
       </c>
       <c r="B1726" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1727" t="s">
-        <v>132</v>
+      <c r="A1727" s="2">
+        <v>45906</v>
       </c>
       <c r="B1727" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1728" t="s">
-        <v>132</v>
+      <c r="A1728" s="2">
+        <v>45906</v>
       </c>
       <c r="B1728" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1729" t="s">
-        <v>132</v>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1729" s="2">
+        <v>45906</v>
       </c>
       <c r="B1729" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1730" t="s">
-        <v>132</v>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1730" s="2">
+        <v>45906</v>
       </c>
       <c r="B1730" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1731" t="s">
-        <v>132</v>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1731" s="2">
+        <v>45906</v>
       </c>
       <c r="B1731" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1732" t="s">
-        <v>132</v>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1732" s="2">
+        <v>45906</v>
       </c>
       <c r="B1732" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1734" t="s">
-        <v>133</v>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1734" s="2">
+        <v>45907</v>
       </c>
       <c r="B1734" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1735" t="s">
-        <v>133</v>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1735" s="2">
+        <v>45907</v>
       </c>
       <c r="B1735" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1736" t="s">
-        <v>133</v>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1736" s="2">
+        <v>45907</v>
       </c>
       <c r="B1736" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1737" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1737" t="s">
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1737" s="2">
+        <v>45907</v>
+      </c>
+      <c r="B1737" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1738" t="s">
-        <v>133</v>
+      <c r="D1737">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1738" s="2">
+        <v>45907</v>
       </c>
       <c r="B1738" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1739" t="s">
-        <v>133</v>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1739" s="2">
+        <v>45907</v>
       </c>
       <c r="B1739" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1740" t="s">
-        <v>133</v>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1740" s="2">
+        <v>45907</v>
       </c>
       <c r="B1740" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1741" t="s">
-        <v>133</v>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1741" s="2">
+        <v>45907</v>
       </c>
       <c r="B1741" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1742" t="s">
-        <v>133</v>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1742" s="2">
+        <v>45907</v>
       </c>
       <c r="B1742" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1743" t="s">
-        <v>133</v>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1743" s="2">
+        <v>45907</v>
       </c>
       <c r="B1743" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1744" t="s">
-        <v>133</v>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1744" s="2">
+        <v>45907</v>
       </c>
       <c r="B1744" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1745" t="s">
-        <v>133</v>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1745" s="2">
+        <v>45907</v>
       </c>
       <c r="B1745" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1746" t="s">
-        <v>133</v>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1746" s="2">
+        <v>45907</v>
       </c>
       <c r="B1746" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1747" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1747" t="s">
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1747" s="2">
+        <v>45907</v>
+      </c>
+      <c r="B1747" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1748" t="s">
-        <v>133</v>
+      <c r="D1747">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1748" s="2">
+        <v>45907</v>
       </c>
       <c r="B1748" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1749" t="s">
-        <v>133</v>
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1749" s="2">
+        <v>45907</v>
       </c>
       <c r="B1749" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1750" t="s">
-        <v>133</v>
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1750" s="2">
+        <v>45907</v>
       </c>
       <c r="B1750" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1751" t="s">
-        <v>133</v>
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1751" s="2">
+        <v>45907</v>
       </c>
       <c r="B1751" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1753" t="s">
-        <v>127</v>
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1753" s="2">
+        <v>45908</v>
       </c>
       <c r="B1753" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1754" t="s">
-        <v>127</v>
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1754" s="2">
+        <v>45908</v>
       </c>
       <c r="B1754" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1755" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1755" t="s">
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1755" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B1755" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1756" t="s">
-        <v>127</v>
+      <c r="D1755">
+        <v>500</v>
+      </c>
+      <c r="E1755" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1756" s="2">
+        <v>45908</v>
       </c>
       <c r="B1756" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1757" t="s">
-        <v>127</v>
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1757" s="2">
+        <v>45908</v>
       </c>
       <c r="B1757" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1758" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1758" t="s">
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1758" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B1758" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1759" t="s">
-        <v>127</v>
+      <c r="D1758">
+        <v>500</v>
+      </c>
+      <c r="E1758" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1759" s="2">
+        <v>45908</v>
       </c>
       <c r="B1759" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1760" t="s">
-        <v>127</v>
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1760" s="2">
+        <v>45908</v>
       </c>
       <c r="B1760" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1761" t="s">
-        <v>127</v>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1761" s="2">
+        <v>45908</v>
       </c>
       <c r="B1761" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1762" t="s">
-        <v>127</v>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1762" s="2">
+        <v>45908</v>
       </c>
       <c r="B1762" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1763" t="s">
-        <v>127</v>
+      <c r="D1762">
+        <v>600</v>
+      </c>
+      <c r="E1762" s="7"/>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1763" s="2">
+        <v>45908</v>
       </c>
       <c r="B1763" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1764" t="s">
-        <v>127</v>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1764" s="2">
+        <v>45908</v>
       </c>
       <c r="B1764" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1765" t="s">
-        <v>127</v>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1765" s="2">
+        <v>45908</v>
       </c>
       <c r="B1765" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1766" t="s">
-        <v>127</v>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1766" s="2">
+        <v>45908</v>
       </c>
       <c r="B1766" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1767" t="s">
-        <v>127</v>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1767" s="2">
+        <v>45908</v>
       </c>
       <c r="B1767" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1768" t="s">
-        <v>127</v>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1768" s="2">
+        <v>45908</v>
       </c>
       <c r="B1768" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1769" t="s">
-        <v>127</v>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1769" s="2">
+        <v>45908</v>
       </c>
       <c r="B1769" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1770" t="s">
-        <v>127</v>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1770" s="2">
+        <v>45908</v>
       </c>
       <c r="B1770" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1772" t="s">
-        <v>129</v>
+      <c r="D1770">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1772" s="2">
+        <v>45909</v>
       </c>
       <c r="B1772" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1773" t="s">
-        <v>129</v>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1773" s="2">
+        <v>45909</v>
       </c>
       <c r="B1773" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1774" t="s">
-        <v>129</v>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1774" s="2">
+        <v>45909</v>
       </c>
       <c r="B1774" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1775" t="s">
-        <v>129</v>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1775" s="2">
+        <v>45909</v>
       </c>
       <c r="B1775" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1776" t="s">
-        <v>129</v>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1776" s="2">
+        <v>45909</v>
       </c>
       <c r="B1776" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1777" t="s">
-        <v>129</v>
+      <c r="A1777" s="2">
+        <v>45909</v>
       </c>
       <c r="B1777" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1778" t="s">
-        <v>129</v>
+      <c r="A1778" s="2">
+        <v>45909</v>
       </c>
       <c r="B1778" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1779" t="s">
-        <v>129</v>
+      <c r="A1779" s="2">
+        <v>45909</v>
       </c>
       <c r="B1779" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1780" t="s">
-        <v>129</v>
+      <c r="A1780" s="2">
+        <v>45909</v>
       </c>
       <c r="B1780" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1781" t="s">
-        <v>129</v>
+      <c r="A1781" s="2">
+        <v>45909</v>
       </c>
       <c r="B1781" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1782" t="s">
-        <v>129</v>
+      <c r="A1782" s="2">
+        <v>45909</v>
       </c>
       <c r="B1782" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1783" t="s">
-        <v>129</v>
+      <c r="A1783" s="2">
+        <v>45909</v>
       </c>
       <c r="B1783" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1784" t="s">
-        <v>129</v>
+      <c r="A1784" s="2">
+        <v>45909</v>
       </c>
       <c r="B1784" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1785" t="s">
-        <v>129</v>
+      <c r="A1785" s="2">
+        <v>45909</v>
       </c>
       <c r="B1785" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1786" t="s">
-        <v>129</v>
+      <c r="A1786" s="2">
+        <v>45909</v>
       </c>
       <c r="B1786" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1787" t="s">
-        <v>129</v>
+      <c r="A1787" s="2">
+        <v>45909</v>
       </c>
       <c r="B1787" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1788" t="s">
-        <v>129</v>
+      <c r="A1788" s="2">
+        <v>45909</v>
       </c>
       <c r="B1788" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1789" t="s">
-        <v>129</v>
+      <c r="A1789" s="2">
+        <v>45909</v>
       </c>
       <c r="B1789" t="s">
         <v>128</v>
@@ -15978,7 +16015,7 @@
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1791" t="s">
         <v>11</v>
@@ -15986,7 +16023,7 @@
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1792" t="s">
         <v>14</v>
@@ -15994,7 +16031,7 @@
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1793" t="s">
         <v>15</v>
@@ -16002,7 +16039,7 @@
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1794" t="s">
         <v>16</v>
@@ -16010,7 +16047,7 @@
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1795" t="s">
         <v>17</v>
@@ -16018,7 +16055,7 @@
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1796" t="s">
         <v>18</v>
@@ -16026,7 +16063,7 @@
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1797" t="s">
         <v>27</v>
@@ -16034,7 +16071,7 @@
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1798" t="s">
         <v>28</v>
@@ -16042,7 +16079,7 @@
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1799" t="s">
         <v>29</v>
@@ -16050,7 +16087,7 @@
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1800" t="s">
         <v>62</v>
@@ -16058,7 +16095,7 @@
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1801" t="s">
         <v>63</v>
@@ -16066,7 +16103,7 @@
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1802" t="s">
         <v>78</v>
@@ -16074,7 +16111,7 @@
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1803" t="s">
         <v>79</v>
@@ -16082,7 +16119,7 @@
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1804" t="s">
         <v>80</v>
@@ -16090,7 +16127,7 @@
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1805" t="s">
         <v>89</v>
@@ -16098,7 +16135,7 @@
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1806" t="s">
         <v>90</v>
@@ -16106,7 +16143,7 @@
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1807" t="s">
         <v>125</v>
@@ -16114,7 +16151,7 @@
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1808" t="s">
         <v>128</v>
@@ -16122,7 +16159,7 @@
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1810" t="s">
         <v>11</v>
@@ -16130,7 +16167,7 @@
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1811" t="s">
         <v>14</v>
@@ -16138,7 +16175,7 @@
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1812" t="s">
         <v>15</v>
@@ -16146,7 +16183,7 @@
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1813" t="s">
         <v>16</v>
@@ -16154,7 +16191,7 @@
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1814" t="s">
         <v>17</v>
@@ -16162,7 +16199,7 @@
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1815" t="s">
         <v>18</v>
@@ -16170,7 +16207,7 @@
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1816" t="s">
         <v>27</v>
@@ -16178,7 +16215,7 @@
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1817" t="s">
         <v>28</v>
@@ -16186,7 +16223,7 @@
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1818" t="s">
         <v>29</v>
@@ -16194,7 +16231,7 @@
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1819" t="s">
         <v>62</v>
@@ -16202,7 +16239,7 @@
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1820" t="s">
         <v>63</v>
@@ -16210,7 +16247,7 @@
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1821" t="s">
         <v>78</v>
@@ -16218,7 +16255,7 @@
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1822" t="s">
         <v>79</v>
@@ -16226,7 +16263,7 @@
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1823" t="s">
         <v>80</v>
@@ -16234,7 +16271,7 @@
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1824" t="s">
         <v>89</v>
@@ -16242,7 +16279,7 @@
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1825" t="s">
         <v>90</v>
@@ -16250,7 +16287,7 @@
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1826" t="s">
         <v>125</v>
@@ -16258,7 +16295,7 @@
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1827" t="s">
         <v>128</v>
@@ -16266,7 +16303,7 @@
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1829" t="s">
         <v>11</v>
@@ -16274,7 +16311,7 @@
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1830" t="s">
         <v>14</v>
@@ -16282,7 +16319,7 @@
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1831" t="s">
         <v>15</v>
@@ -16290,7 +16327,7 @@
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1832" t="s">
         <v>16</v>
@@ -16298,7 +16335,7 @@
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1833" t="s">
         <v>17</v>
@@ -16306,7 +16343,7 @@
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1834" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1834" t="s">
         <v>18</v>
@@ -16314,7 +16351,7 @@
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1835" t="s">
         <v>27</v>
@@ -16322,7 +16359,7 @@
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1836" t="s">
         <v>28</v>
@@ -16330,7 +16367,7 @@
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1837" t="s">
         <v>29</v>
@@ -16338,7 +16375,7 @@
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1838" t="s">
         <v>62</v>
@@ -16346,7 +16383,7 @@
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1839" t="s">
         <v>63</v>
@@ -16354,7 +16391,7 @@
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1840" t="s">
         <v>78</v>
@@ -16362,7 +16399,7 @@
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1841" t="s">
         <v>79</v>
@@ -16370,7 +16407,7 @@
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1842" t="s">
         <v>80</v>
@@ -16378,7 +16415,7 @@
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1843" t="s">
         <v>89</v>
@@ -16386,7 +16423,7 @@
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1844" t="s">
         <v>90</v>
@@ -16394,7 +16431,7 @@
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1845" t="s">
         <v>125</v>
@@ -16402,9 +16439,441 @@
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1846" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1848" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1849" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1850" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1851" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1852" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1853" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1854" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1855" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1856" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1857" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1858" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1859" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1860" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1861" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1862" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1863" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1864" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1865" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1867" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1868" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1869" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1870" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1871" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1873" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1874" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1875" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1876" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1877" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1878" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1879" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1880" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1881" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1882" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1883" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1884" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1886" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1887" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1888" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1889" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1890" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1892" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1894" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1895" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1896" t="s">
+        <v>137</v>
+      